--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816D9BE-283F-45D2-9A1D-0F253B362CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B4E4BD-3AE4-47C2-BF58-B7CC0B176EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38385" yWindow="4395" windowWidth="38370" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Gesamt</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>/100k (7Tage)</t>
+  </si>
+  <si>
+    <t>Last Update: 06/08/2020 14:00:04</t>
   </si>
 </sst>
 </file>
@@ -1602,6 +1605,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
       <c r="AJ1" t="s">
         <v>8</v>
       </c>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B4E4BD-3AE4-47C2-BF58-B7CC0B176EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35729BF1-A1E0-435C-800F-214396593A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38385" yWindow="4395" windowWidth="38370" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <t>/100k (7Tage)</t>
   </si>
   <si>
-    <t>Last Update: 06/08/2020 14:00:04</t>
+    <t>Last Update: 06/08/2020 15:49:41</t>
   </si>
 </sst>
 </file>
@@ -321,187 +321,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43930</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,187 +513,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>54.397981949126745</c:v>
+                  <c:v>52.074109455750033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.179617527382241</c:v>
+                  <c:v>57.651403439854164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.081120869546616</c:v>
+                  <c:v>56.886462077450993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.556580921258586</c:v>
+                  <c:v>53.10048647365808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.932541564154029</c:v>
+                  <c:v>49.546898119202844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.473109841997008</c:v>
+                  <c:v>46.922858762098301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.194979970639807</c:v>
+                  <c:v>44.463427039941266</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.849070484892458</c:v>
+                  <c:v>43.185297168584071</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.316516371826957</c:v>
+                  <c:v>41.839387682836723</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.035715112210603</c:v>
+                  <c:v>41.306833569771221</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>41.026032310154868</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>38.64406300444373</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>37.123863081693123</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>37.211008300194749</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>36.087803261729334</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>36.562260562460416</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>36.126534469952283</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>37.888804444096294</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>38.585966192109311</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>37.578954778312728</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>38.653745806499465</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>38.934547066115819</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>39.118520305174812</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>40.580623415590999</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>40.59998901970247</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>41.907167297226877</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>42.197651358898966</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>40.861424675207346</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>41.006666706043397</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>40.851741873151617</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>38.808670639391245</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>37.056083467302969</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>35.671442773332672</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>36.436384135735842</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>37.394981539253742</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>38.121191693433964</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>38.48913817155195</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>40.183628531305807</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>42.643060253462835</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43.417684417921748</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>42.371941795902217</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>41.839387682836723</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>40.725865446427036</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>41.57795202733184</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>42.149237348620282</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>41.200322747158118</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>39.893144469633718</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>38.750573827056826</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>36.320190511067004</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>37.056083467302969</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>35.729539585667091</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>33.463763904624784</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>33.676785549850983</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>34.170608454693543</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>36.678454187129248</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>36.213679688453908</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>35.013012233542604</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>34.645065755424618</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>36.068437657617864</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>35.187302670545854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,187 +731,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43930</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,187 +923,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>34.387207958639387</c:v>
+                  <c:v>25.990331596646048</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>34.387207958639387</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>34.387207958639387</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>32.787802937307326</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>34.787059213972405</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>29.588992894643191</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>27.589736617978108</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>27.189885362645096</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.59196778798287</c:v>
+                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.39464519198858</c:v>
+                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>14.39464519198858</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>11.195835149324452</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>8.7967276173263542</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>9.1965788726593711</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>9.9962813833254032</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>9.5964301279923863</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>12.395388915323501</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>15.994050213320644</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>15.194347702654612</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>13.594942681322548</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>17.193603979319693</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>17.193603979319693</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>16.393901468653663</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>16.793752723986675</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>19.592711511317791</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>17.993306489985727</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>18.393157745318742</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>21.991819043315886</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>19.192860255984773</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>24.390926575313983</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>21.991819043315886</c:v>
+                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>23.191372809314934</c:v>
+                  <c:v>21.991819043315886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1654,82 +1654,82 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B4" s="11">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C67" si="0">IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/$O$6*100000)</f>
-        <v>54.397981949126745</v>
+        <v>52.074109455750033</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:E67" si="1">IF(OR(ISBLANK(D4),ISBLANK(D10)),"",SUM(D4:D10)/$O$7*100000)</f>
-        <v>34.387207958639387</v>
+        <v>25.990331596646048</v>
       </c>
       <c r="F4" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G67" si="2">IF(OR(ISBLANK(F4),ISBLANK(F10)),"",SUM(F4:F10)/$O$8*100000)</f>
-        <v>40.138026886487268</v>
+        <v>35.644964175313319</v>
       </c>
       <c r="H4" s="12">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I4" s="9">
         <f>IF(OR(ISBLANK(H4),ISBLANK(H10)),"",SUM(H4:H10)/$O$9*100000)</f>
-        <v>114.72401631398689</v>
+        <v>118.31638450159657</v>
       </c>
       <c r="J4" s="11">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K67" si="3">IF(OR(ISBLANK(J4),ISBLANK(J10)),"",SUM(J4:J10)/$O$10*100000)</f>
-        <v>51.197245697559318</v>
+        <v>46.864200252326278</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B5" s="10">
-        <v>752</v>
+        <v>344</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>56.179617527382241</v>
+        <v>57.651403439854164</v>
       </c>
       <c r="D5" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>34.387207958639387</v>
       </c>
       <c r="F5" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="2"/>
-        <v>40.437564400565527</v>
+        <v>41.935251970956841</v>
       </c>
       <c r="H5" s="3">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" ref="I5:I68" si="4">IF(OR(ISBLANK(H5),ISBLANK(H11)),"",SUM(H5:H11)/$O$9*100000)</f>
-        <v>117.91079454493098</v>
+        <v>123.5311125158687</v>
       </c>
       <c r="J5" s="10">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="3"/>
-        <v>53.511007828509001</v>
+        <v>52.795844988033643</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>6</v>
@@ -1737,42 +1737,42 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B6" s="10">
-        <v>1140</v>
+        <v>823</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>53.081120869546616</v>
+        <v>56.886462077450993</v>
       </c>
       <c r="D6" s="10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>32.787802937307326</v>
+        <v>34.387207958639387</v>
       </c>
       <c r="F6" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>38.04126428793942</v>
+        <v>40.437564400565527</v>
       </c>
       <c r="H6" s="3">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>109.79899541161878</v>
+        <v>119.4172715268318</v>
       </c>
       <c r="J6" s="10">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="3"/>
-        <v>48.673141554705118</v>
+        <v>54.35237587612707</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
@@ -1783,42 +1783,42 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B7" s="10">
-        <v>1042</v>
+        <v>1142</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>49.556580921258586</v>
+        <v>53.10048647365808</v>
       </c>
       <c r="D7" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>34.787059213972405</v>
+        <v>32.787802937307326</v>
       </c>
       <c r="F7" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>36.244039203469846</v>
+        <v>38.04126428793942</v>
       </c>
       <c r="H7" s="3">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>94.734225592610386</v>
+        <v>109.79899541161878</v>
       </c>
       <c r="J7" s="10">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
-        <v>47.789705104706151</v>
+        <v>48.673141554705118</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -1829,42 +1829,42 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B8" s="10">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>46.932541564154029</v>
+        <v>49.546898119202844</v>
       </c>
       <c r="D8" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>29.588992894643191</v>
+        <v>34.787059213972405</v>
       </c>
       <c r="F8" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>37.741726773861153</v>
+        <v>36.244039203469846</v>
       </c>
       <c r="H8" s="3">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="4"/>
-        <v>77.17797461122754</v>
+        <v>94.734225592610386</v>
       </c>
       <c r="J8" s="10">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>50.440014454703061</v>
+        <v>47.789705104706151</v>
       </c>
       <c r="N8" t="s">
         <v>2</v>
@@ -1875,42 +1875,42 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B9" s="10">
-        <v>889</v>
+        <v>1070</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>44.473109841997008</v>
+        <v>46.922858762098301</v>
       </c>
       <c r="D9" s="10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>27.589736617978108</v>
+        <v>29.588992894643191</v>
       </c>
       <c r="F9" s="3">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>44.631089597661216</v>
+        <v>37.741726773861153</v>
       </c>
       <c r="H9" s="3">
-        <v>269</v>
+        <v>429</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="4"/>
-        <v>58.462895182228671</v>
+        <v>77.17797461122754</v>
       </c>
       <c r="J9" s="10">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>49.388304395180477</v>
+        <v>50.440014454703061</v>
       </c>
       <c r="N9" t="s">
         <v>9</v>
@@ -1921,42 +1921,42 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B10" s="10">
-        <v>644</v>
+        <v>889</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>43.194979970639807</v>
+        <v>44.463427039941266</v>
       </c>
       <c r="D10" s="10">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>27.189885362645096</v>
+        <v>27.589736617978108</v>
       </c>
       <c r="F10" s="3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>41.635714456878574</v>
+        <v>44.631089597661216</v>
       </c>
       <c r="H10" s="3">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="4"/>
-        <v>49.829623247489252</v>
+        <v>58.462895182228671</v>
       </c>
       <c r="J10" s="10">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>51.954476940415574</v>
+        <v>49.388304395180477</v>
       </c>
       <c r="N10" t="s">
         <v>3</v>
@@ -1967,2014 +1967,2014 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B11" s="10">
-        <v>265</v>
+        <v>644</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>41.849070484892458</v>
+        <v>43.185297168584071</v>
       </c>
       <c r="D11" s="10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>27.189885362645096</v>
       </c>
       <c r="F11" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>37.442189259782893</v>
+        <v>41.635714456878574</v>
       </c>
       <c r="H11" s="3">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="4"/>
-        <v>50.640803160820475</v>
+        <v>49.829623247489252</v>
       </c>
       <c r="J11" s="10">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>52.837913390414542</v>
+        <v>51.954476940415574</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B12" s="10">
-        <v>432</v>
+        <v>265</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>41.316516371826957</v>
+        <v>41.839387682836723</v>
       </c>
       <c r="D12" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>22.391670298648904</v>
       </c>
       <c r="F12" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>35.944501689391579</v>
+        <v>37.442189259782893</v>
       </c>
       <c r="H12" s="3">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="4"/>
-        <v>46.469020749402766</v>
+        <v>50.640803160820475</v>
       </c>
       <c r="J12" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>52.501366171367316</v>
+        <v>52.837913390414542</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B13" s="10">
-        <v>776</v>
+        <v>432</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>41.035715112210603</v>
+        <v>41.306833569771221</v>
       </c>
       <c r="D13" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F13" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>34.446814119000265</v>
+        <v>35.944501689391579</v>
       </c>
       <c r="H13" s="3">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.469020749402766</v>
       </c>
       <c r="J13" s="10">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>52.711708183271838</v>
+        <v>52.501366171367316</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B14" s="10">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>38.64406300444373</v>
+        <v>41.026032310154868</v>
       </c>
       <c r="D14" s="10">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F14" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>31.750976492295894</v>
+        <v>34.446814119000265</v>
       </c>
       <c r="H14" s="3">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="4"/>
-        <v>40.095464287514609</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J14" s="10">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>49.808988418989507</v>
+        <v>52.711708183271838</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B15" s="10">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>37.123863081693123</v>
+        <v>38.64406300444373</v>
       </c>
       <c r="D15" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>14.39464519198858</v>
       </c>
       <c r="F15" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>31.750976492295894</v>
       </c>
       <c r="H15" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="4"/>
-        <v>43.91959816464751</v>
+        <v>40.095464287514609</v>
       </c>
       <c r="J15" s="10">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="3"/>
-        <v>43.162180842806784</v>
+        <v>49.808988418989507</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B16" s="10">
-        <v>757</v>
+        <v>816</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>37.211008300194749</v>
+        <v>37.123863081693123</v>
       </c>
       <c r="D16" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F16" s="3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>29.05513886559153</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H16" s="3">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>43.91959816464751</v>
       </c>
       <c r="J16" s="10">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="3"/>
-        <v>41.731855161856075</v>
+        <v>43.162180842806784</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B17" s="10">
-        <v>505</v>
+        <v>757</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>37.211008300194749</v>
       </c>
       <c r="D17" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
-        <v>11.195835149324452</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F17" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>26.958376267043683</v>
+        <v>29.05513886559153</v>
       </c>
       <c r="H17" s="3">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="4"/>
-        <v>46.295196482260366</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J17" s="10">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
-        <v>41.311171138047037</v>
+        <v>41.731855161856075</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B18" s="10">
-        <v>210</v>
+        <v>505</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>36.087803261729334</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D18" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>8.7967276173263542</v>
+        <v>11.195835149324452</v>
       </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>30.253288921904577</v>
+        <v>26.958376267043683</v>
       </c>
       <c r="H18" s="3">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="4"/>
-        <v>42.413121182746664</v>
+        <v>46.295196482260366</v>
       </c>
       <c r="J18" s="10">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
-        <v>41.142897528523427</v>
+        <v>41.311171138047037</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B19" s="10">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>36.562260562460416</v>
+        <v>36.087803261729334</v>
       </c>
       <c r="D19" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>9.1965788726593711</v>
+        <v>8.7967276173263542</v>
       </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>30.852363950061104</v>
+        <v>30.253288921904577</v>
       </c>
       <c r="H19" s="3">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="4"/>
-        <v>46.005489370356358</v>
+        <v>42.413121182746664</v>
       </c>
       <c r="J19" s="10">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
-        <v>41.100829126142528</v>
+        <v>41.142897528523427</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B20" s="10">
-        <v>529</v>
+        <v>403</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>36.126534469952283</v>
+        <v>36.562260562460416</v>
       </c>
       <c r="D20" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="1"/>
-        <v>9.9962813833254032</v>
+        <v>9.1965788726593711</v>
       </c>
       <c r="F20" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>31.451438978217631</v>
+        <v>30.852363950061104</v>
       </c>
       <c r="H20" s="3">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
-        <v>46.758727861306781</v>
+        <v>46.005489370356358</v>
       </c>
       <c r="J20" s="10">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
-        <v>40.511871492809881</v>
+        <v>41.142897528523427</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B21" s="10">
-        <v>614</v>
+        <v>529</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>37.888804444096294</v>
+        <v>36.126534469952283</v>
       </c>
       <c r="D21" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="1"/>
-        <v>9.5964301279923863</v>
+        <v>9.9962813833254032</v>
       </c>
       <c r="F21" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
-        <v>35.644964175313319</v>
+        <v>31.451438978217631</v>
       </c>
       <c r="H21" s="3">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="4"/>
-        <v>47.222259240353189</v>
+        <v>46.758727861306781</v>
       </c>
       <c r="J21" s="10">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
-        <v>43.078044038044979</v>
+        <v>40.55393989519078</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B22" s="10">
-        <v>825</v>
+        <v>614</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>38.585966192109311</v>
+        <v>37.888804444096294</v>
       </c>
       <c r="D22" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
         <v>9.5964301279923863</v>
       </c>
       <c r="F22" s="3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>36.543576717548106</v>
+        <v>35.644964175313319</v>
       </c>
       <c r="H22" s="3">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="4"/>
-        <v>46.237255059879566</v>
+        <v>47.222259240353189</v>
       </c>
       <c r="J22" s="10">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
-        <v>45.307669364232851</v>
+        <v>43.120112440425885</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B23" s="10">
-        <v>689</v>
+        <v>825</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>37.578954778312728</v>
+        <v>38.585966192109311</v>
       </c>
       <c r="D23" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F23" s="3">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="2"/>
-        <v>26.059763724808892</v>
+        <v>36.543576717548106</v>
       </c>
       <c r="H23" s="3">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.237255059879566</v>
       </c>
       <c r="J23" s="10">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
-        <v>48.168320726134283</v>
+        <v>45.349737766613757</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B24" s="10">
-        <v>457</v>
+        <v>689</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>38.653745806499465</v>
+        <v>37.578954778312728</v>
       </c>
       <c r="D24" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F24" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>26.059763724808892</v>
       </c>
       <c r="H24" s="3">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J24" s="10">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>51.407587709463833</v>
+        <v>48.210389128515182</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B25" s="10">
-        <v>259</v>
+        <v>457</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>38.934547066115819</v>
+        <v>38.653745806499465</v>
       </c>
       <c r="D25" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
-        <v>23.064388584026261</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H25" s="3">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J25" s="10">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>54.099965461841649</v>
+        <v>51.449656111844739</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B26" s="10">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>39.118520305174812</v>
+        <v>38.934547066115819</v>
       </c>
       <c r="D26" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
-        <v>15.994050213320644</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F26" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
         <v>23.064388584026261</v>
       </c>
       <c r="H26" s="3">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="4"/>
-        <v>47.801673464161205</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J26" s="10">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
-        <v>54.941333509459717</v>
+        <v>54.142033864222554</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B27" s="10">
-        <v>711</v>
+        <v>358</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>40.580623415590999</v>
+        <v>39.118520305174812</v>
       </c>
       <c r="D27" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F27" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>23.064388584026261</v>
       </c>
       <c r="H27" s="3">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="4"/>
-        <v>48.49697053273082</v>
+        <v>47.801673464161205</v>
       </c>
       <c r="J27" s="10">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
-        <v>57.044753628504878</v>
+        <v>54.941333509459717</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B28" s="10">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>40.59998901970247</v>
+        <v>40.580623415590999</v>
       </c>
       <c r="D28" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F28" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>20.069013443243634</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H28" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="4"/>
-        <v>47.048434973210782</v>
+        <v>48.49697053273082</v>
       </c>
       <c r="J28" s="10">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>58.222668895170173</v>
+        <v>57.044753628504878</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B29" s="10">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>41.907167297226877</v>
+        <v>40.59998901970247</v>
       </c>
       <c r="D29" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
-        <v>15.194347702654612</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F29" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="2"/>
-        <v>20.668088471400157</v>
+        <v>20.069013443243634</v>
       </c>
       <c r="H29" s="3">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="4"/>
-        <v>47.743732041780397</v>
+        <v>47.048434973210782</v>
       </c>
       <c r="J29" s="10">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
-        <v>63.565355997544884</v>
+        <v>58.222668895170173</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B30" s="10">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>42.197651358898966</v>
+        <v>41.907167297226877</v>
       </c>
       <c r="D30" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
-        <v>13.594942681322548</v>
+        <v>15.194347702654612</v>
       </c>
       <c r="F30" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>25.460688696652372</v>
+        <v>20.668088471400157</v>
       </c>
       <c r="H30" s="3">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="4"/>
-        <v>50.29315462653566</v>
+        <v>47.743732041780397</v>
       </c>
       <c r="J30" s="10">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
-        <v>61.588141085642427</v>
+        <v>63.565355997544884</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B31" s="10">
-        <v>486</v>
+        <v>800</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>40.861424675207346</v>
+        <v>42.197651358898966</v>
       </c>
       <c r="D31" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F31" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="2"/>
-        <v>27.856988809278473</v>
+        <v>25.460688696652372</v>
       </c>
       <c r="H31" s="3">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>50.29315462653566</v>
       </c>
       <c r="J31" s="10">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
-        <v>57.086822030885784</v>
+        <v>61.588141085642427</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B32" s="10">
-        <v>278</v>
+        <v>486</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>41.006666706043397</v>
+        <v>40.861424675207346</v>
       </c>
       <c r="D32" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F32" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
         <v>27.856988809278473</v>
       </c>
       <c r="H32" s="3">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="4"/>
-        <v>49.192267601300436</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J32" s="10">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
-        <v>54.226170668984352</v>
+        <v>57.086822030885784</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B33" s="10">
-        <v>509</v>
+        <v>278</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>40.851741873151617</v>
+        <v>41.006666706043397</v>
       </c>
       <c r="D33" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F33" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="2"/>
-        <v>27.257913781121946</v>
+        <v>27.856988809278473</v>
       </c>
       <c r="H33" s="3">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="4"/>
-        <v>46.642845016545174</v>
+        <v>49.192267601300436</v>
       </c>
       <c r="J33" s="10">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
-        <v>56.329590788029527</v>
+        <v>54.226170668984352</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B34" s="10">
-        <v>713</v>
+        <v>509</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>38.808670639391245</v>
+        <v>40.851741873151617</v>
       </c>
       <c r="D34" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F34" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>27.257913781121946</v>
       </c>
       <c r="H34" s="3">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="4"/>
-        <v>42.239296915604264</v>
+        <v>46.642845016545174</v>
       </c>
       <c r="J34" s="10">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
-        <v>54.899265107078811</v>
+        <v>56.329590788029527</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B35" s="10">
-        <v>821</v>
+        <v>713</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>38.808670639391245</v>
       </c>
       <c r="D35" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F35" s="3">
         <v>15</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="2"/>
-        <v>24.262538640339319</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H35" s="3">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="4"/>
-        <v>41.891648381319456</v>
+        <v>42.239296915604264</v>
       </c>
       <c r="J35" s="10">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
-        <v>50.944835283273896</v>
+        <v>54.899265107078811</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B36" s="10">
-        <v>751</v>
+        <v>821</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>35.671442773332672</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D36" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F36" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>24.262538640339319</v>
       </c>
       <c r="H36" s="3">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="4"/>
-        <v>37.951631659424955</v>
+        <v>41.891648381319456</v>
       </c>
       <c r="J36" s="10">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
-        <v>48.967620371371439</v>
+        <v>50.944835283273896</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B37" s="10">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>36.436384135735842</v>
+        <v>35.671442773332672</v>
       </c>
       <c r="D37" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F37" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H37" s="3">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="4"/>
-        <v>36.329271832762508</v>
+        <v>37.951631659424955</v>
       </c>
       <c r="J37" s="10">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>51.786203330891965</v>
+        <v>48.967620371371439</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B38" s="10">
-        <v>501</v>
+        <v>662</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>37.394981539253742</v>
+        <v>36.436384135735842</v>
       </c>
       <c r="D38" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F38" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>14.976875703913157</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H38" s="3">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="4"/>
-        <v>34.764853428480876</v>
+        <v>36.329271832762508</v>
       </c>
       <c r="J38" s="10">
         <v>173</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
-        <v>55.404085935649647</v>
+        <v>51.786203330891965</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B39" s="10">
-        <v>262</v>
+        <v>501</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>38.121191693433964</v>
+        <v>37.394981539253742</v>
       </c>
       <c r="D39" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F39" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="2"/>
-        <v>17.373175816539263</v>
+        <v>14.976875703913157</v>
       </c>
       <c r="H39" s="3">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="4"/>
-        <v>36.155447565620108</v>
+        <v>34.764853428480876</v>
       </c>
       <c r="J39" s="10">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
-        <v>57.633711261837526</v>
+        <v>55.404085935649647</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B40" s="10">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>38.48913817155195</v>
+        <v>38.121191693433964</v>
       </c>
       <c r="D40" s="10">
         <v>1</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F40" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H40" s="3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="4"/>
-        <v>36.387213255143315</v>
+        <v>36.155447565620108</v>
       </c>
       <c r="J40" s="10">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
-        <v>56.876480018981269</v>
+        <v>57.633711261837526</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B41" s="10">
-        <v>532</v>
+        <v>298</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>40.183628531305807</v>
+        <v>38.48913817155195</v>
       </c>
       <c r="D41" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F41" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="2"/>
-        <v>16.474563274304476</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H41" s="10">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="4"/>
-        <v>39.921640020372202</v>
+        <v>36.387213255143315</v>
       </c>
       <c r="J41" s="10">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
-        <v>59.316447357073656</v>
+        <v>56.876480018981269</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B42" s="10">
-        <v>678</v>
+        <v>532</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>42.643060253462835</v>
+        <v>40.183628531305807</v>
       </c>
       <c r="D42" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F42" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>16.474563274304476</v>
       </c>
       <c r="H42" s="10">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="4"/>
-        <v>41.312234157511433</v>
+        <v>39.921640020372202</v>
       </c>
       <c r="J42" s="10">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="3"/>
-        <v>63.186740376116752</v>
+        <v>59.316447357073656</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B43" s="10">
-        <v>830</v>
+        <v>678</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>43.417684417921748</v>
+        <v>42.643060253462835</v>
       </c>
       <c r="D43" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F43" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="2"/>
-        <v>23.963001126261055</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H43" s="10">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="4"/>
-        <v>39.979581442753009</v>
+        <v>41.312234157511433</v>
       </c>
       <c r="J43" s="10">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
-        <v>64.617066057067476</v>
+        <v>63.186740376116752</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B44" s="10">
-        <v>761</v>
+        <v>830</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>42.371941795902217</v>
+        <v>43.417684417921748</v>
       </c>
       <c r="D44" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F44" s="10">
         <v>10</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>23.963001126261055</v>
       </c>
       <c r="H44" s="10">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>35.923681876096907</v>
+        <v>39.979581442753009</v>
       </c>
       <c r="J44" s="10">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="3"/>
-        <v>64.9956816784956</v>
+        <v>64.617066057067476</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B45" s="10">
-        <v>576</v>
+        <v>761</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>41.839387682836723</v>
+        <v>42.371941795902217</v>
       </c>
       <c r="D45" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F45" s="10">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="2"/>
-        <v>28.755601351513267</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H45" s="10">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="4"/>
-        <v>38.241338771328962</v>
+        <v>35.923681876096907</v>
       </c>
       <c r="J45" s="10">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="3"/>
-        <v>60.957115049928888</v>
+        <v>64.9956816784956</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B46" s="10">
-        <v>300</v>
+        <v>576</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>40.725865446427036</v>
+        <v>41.839387682836723</v>
       </c>
       <c r="D46" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F46" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>26.359301238887156</v>
+        <v>28.755601351513267</v>
       </c>
       <c r="H46" s="10">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="4"/>
-        <v>35.402209074669692</v>
+        <v>38.241338771328962</v>
       </c>
       <c r="J46" s="10">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="3"/>
-        <v>60.326089014215334</v>
+        <v>60.957115049928888</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B47" s="10">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>41.57795202733184</v>
+        <v>40.725865446427036</v>
       </c>
       <c r="D47" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="1"/>
         <v>16.393901468653663</v>
       </c>
       <c r="F47" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>26.359301238887156</v>
       </c>
       <c r="H47" s="10">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="4"/>
-        <v>34.533087738957668</v>
+        <v>35.402209074669692</v>
       </c>
       <c r="J47" s="10">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="3"/>
-        <v>63.7756980094494</v>
+        <v>60.326089014215334</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B48" s="10">
-        <v>786</v>
+        <v>473</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>42.149237348620282</v>
+        <v>41.57795202733184</v>
       </c>
       <c r="D48" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" si="1"/>
-        <v>16.793752723986675</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F48" s="10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H48" s="10">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="4"/>
-        <v>31.867782309440802</v>
+        <v>34.533087738957668</v>
       </c>
       <c r="J48" s="10">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="3"/>
-        <v>65.542570909447335</v>
+        <v>63.7756980094494</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B49" s="10">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>41.200322747158118</v>
+        <v>42.149237348620282</v>
       </c>
       <c r="D49" s="10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>19.592711511317791</v>
+        <v>16.793752723986675</v>
       </c>
       <c r="F49" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H49" s="10">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="4"/>
-        <v>27.8118827427847</v>
+        <v>31.867782309440802</v>
       </c>
       <c r="J49" s="10">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="3"/>
-        <v>65.037750080876506</v>
+        <v>65.542570909447335</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B50" s="10">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>39.893144469633718</v>
+        <v>41.200322747158118</v>
       </c>
       <c r="D50" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>19.592711511317791</v>
       </c>
       <c r="F50" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>24.861613668495846</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H50" s="10">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="4"/>
-        <v>28.507179811354316</v>
+        <v>27.8118827427847</v>
       </c>
       <c r="J50" s="10">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="3"/>
-        <v>62.092961914213276</v>
+        <v>65.037750080876506</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B51" s="10">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>38.750573827056826</v>
+        <v>39.893144469633718</v>
       </c>
       <c r="D51" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
-        <v>17.993306489985727</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F51" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>24.861613668495846</v>
       </c>
       <c r="H51" s="10">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="4"/>
-        <v>27.985707009927108</v>
+        <v>28.507179811354316</v>
       </c>
       <c r="J51" s="10">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="3"/>
-        <v>59.021968540407336</v>
+        <v>62.092961914213276</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B52" s="10">
-        <v>461</v>
+        <v>706</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>38.750573827056826</v>
       </c>
       <c r="D52" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="1"/>
-        <v>18.393157745318742</v>
+        <v>17.993306489985727</v>
       </c>
       <c r="F52" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>17.672713330617526</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H52" s="10">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="4"/>
-        <v>24.509221667079018</v>
+        <v>27.985707009927108</v>
       </c>
       <c r="J52" s="10">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="3"/>
-        <v>59.695062978501781</v>
+        <v>59.021968540407336</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B53" s="10">
-        <v>388</v>
+        <v>461</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>36.320190511067004</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D53" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="1"/>
-        <v>21.991819043315886</v>
+        <v>18.393157745318742</v>
       </c>
       <c r="F53" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="2"/>
-        <v>15.575950732069684</v>
+        <v>17.672713330617526</v>
       </c>
       <c r="H53" s="10">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>24.393338822317414</v>
+        <v>24.509221667079018</v>
       </c>
       <c r="J53" s="10">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="3"/>
-        <v>59.232310552311851</v>
+        <v>59.695062978501781</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B54" s="10">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>36.320190511067004</v>
       </c>
       <c r="D54" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="7">
         <f t="shared" si="1"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F54" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>14.677338189834897</v>
+        <v>15.575950732069684</v>
       </c>
       <c r="H54" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>24.393338822317414</v>
       </c>
       <c r="J54" s="10">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="3"/>
-        <v>58.811626528502821</v>
+        <v>59.232310552311851</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B55" s="10">
-        <v>688</v>
+        <v>532</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>35.729539585667091</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D55" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F55" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="2"/>
-        <v>13.179650619443578</v>
+        <v>14.677338189834897</v>
       </c>
       <c r="H55" s="10">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="4"/>
-        <v>24.103631710413406</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J55" s="10">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="3"/>
-        <v>59.652994576120875</v>
+        <v>58.811626528502821</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B56" s="10">
-        <v>623</v>
+        <v>688</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>33.463763904624784</v>
+        <v>35.729539585667091</v>
       </c>
       <c r="D56" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E56" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F56" s="10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>13.179650619443578</v>
       </c>
       <c r="H56" s="10">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="4"/>
-        <v>23.640100331366995</v>
+        <v>24.103631710413406</v>
       </c>
       <c r="J56" s="10">
         <v>221</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="3"/>
-        <v>56.582001202314935</v>
+        <v>59.652994576120875</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B57" s="10">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>33.676785549850983</v>
+        <v>33.463763904624784</v>
       </c>
       <c r="D57" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E57" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F57" s="10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="2"/>
-        <v>10.783350506817474</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H57" s="10">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="4"/>
-        <v>25.494225847552645</v>
+        <v>23.640100331366995</v>
       </c>
       <c r="J57" s="10">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="3"/>
-        <v>57.381300847552104</v>
+        <v>56.582001202314935</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B58" s="10">
-        <v>479</v>
+        <v>604</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>34.170608454693543</v>
+        <v>33.676785549850983</v>
       </c>
       <c r="D58" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58" s="7">
         <f t="shared" si="1"/>
-        <v>19.192860255984773</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F58" s="10">
         <v>6</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H58" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="4"/>
-        <v>25.378343002791041</v>
+        <v>25.494225847552645</v>
       </c>
       <c r="J58" s="10">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="3"/>
-        <v>59.737131380882687</v>
+        <v>57.381300847552104</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B59" s="10">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>36.678454187129248</v>
+        <v>34.170608454693543</v>
       </c>
       <c r="D59" s="10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="1"/>
-        <v>24.390926575313983</v>
+        <v>19.192860255984773</v>
       </c>
       <c r="F59" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="2"/>
-        <v>13.778725647600105</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H59" s="10">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="4"/>
-        <v>25.436284425171838</v>
+        <v>25.378343002791041</v>
       </c>
       <c r="J59" s="10">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="3"/>
-        <v>62.429509133260495</v>
+        <v>59.737131380882687</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B60" s="10">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>36.213679688453908</v>
+        <v>36.678454187129248</v>
       </c>
       <c r="D60" s="10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E60" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>24.390926575313983</v>
       </c>
       <c r="F60" s="10">
         <v>3</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>15.875488246147947</v>
+        <v>13.778725647600105</v>
       </c>
       <c r="H60" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="4"/>
-        <v>25.725991537075849</v>
+        <v>25.436284425171838</v>
       </c>
       <c r="J60" s="10">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="3"/>
-        <v>59.526789368978172</v>
+        <v>62.429509133260495</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B61" s="10">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>35.013012233542604</v>
+        <v>36.213679688453908</v>
       </c>
       <c r="D61" s="10">
         <v>2</v>
@@ -3984,1117 +3984,1117 @@
         <v>21.59196778798287</v>
       </c>
       <c r="F61" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="2"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H61" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>25.725991537075849</v>
       </c>
       <c r="J61" s="10">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="3"/>
-        <v>59.106105345169134</v>
+        <v>59.526789368978172</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B62" s="10">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>34.645065755424618</v>
+        <v>35.013012233542604</v>
       </c>
       <c r="D62" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E62" s="7">
         <f t="shared" si="1"/>
-        <v>21.991819043315886</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F62" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H62" s="10">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="4"/>
-        <v>24.914811623744626</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J62" s="10">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="3"/>
-        <v>56.119248776125005</v>
+        <v>59.106105345169134</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B63" s="10">
-        <v>645</v>
+        <v>454</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>36.068437657617864</v>
+        <v>34.645065755424618</v>
       </c>
       <c r="D63" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="1"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F63" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H63" s="10">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="4"/>
-        <v>23.698041753747795</v>
+        <v>24.914811623744626</v>
       </c>
       <c r="J63" s="10">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="3"/>
-        <v>60.199883807072631</v>
+        <v>56.119248776125005</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B64" s="10">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>35.187302670545854</v>
+        <v>36.068437657617864</v>
       </c>
       <c r="D64" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="1"/>
-        <v>23.191372809314934</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F64" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
-        <v>17.373175816539263</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H64" s="10">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="4"/>
-        <v>19.700083609472497</v>
+        <v>23.698041753747795</v>
       </c>
       <c r="J64" s="10">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="3"/>
-        <v>59.190242149930945</v>
+        <v>60.199883807072631</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B65" s="10">
-        <v>738</v>
+        <v>655</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>33.550909123126416</v>
+        <v>35.187302670545854</v>
       </c>
       <c r="D65" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="1"/>
-        <v>20.392414021983821</v>
+        <v>23.191372809314934</v>
       </c>
       <c r="F65" s="10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="2"/>
-        <v>15.875488246147947</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H65" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="4"/>
-        <v>17.440368136621238</v>
+        <v>19.700083609472497</v>
       </c>
       <c r="J65" s="10">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="3"/>
-        <v>56.413727592791325</v>
+        <v>59.190242149930945</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B66" s="10">
-        <v>389</v>
+        <v>738</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>31.004332182467756</v>
+        <v>33.550909123126416</v>
       </c>
       <c r="D66" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="1"/>
-        <v>15.994050213320644</v>
+        <v>20.392414021983821</v>
       </c>
       <c r="F66" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>14.078263161678368</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H66" s="10">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="4"/>
-        <v>15.412418353293189</v>
+        <v>17.440368136621238</v>
       </c>
       <c r="J66" s="10">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="3"/>
-        <v>54.983401911840609</v>
+        <v>56.413727592791325</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B67" s="10">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>31.265767837972639</v>
+        <v>31.004332182467756</v>
       </c>
       <c r="D67" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="1"/>
-        <v>13.994793936655565</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F67" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="2"/>
-        <v>12.580575591287054</v>
+        <v>14.078263161678368</v>
       </c>
       <c r="H67" s="10">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I67" s="7">
         <f t="shared" si="4"/>
-        <v>13.90594137139235</v>
+        <v>15.412418353293189</v>
       </c>
       <c r="J67" s="10">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="K67" s="7">
         <f t="shared" si="3"/>
-        <v>56.708206409457652</v>
+        <v>54.983401911840609</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B68" s="10">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" ref="C68:C131" si="5">IF(OR(ISBLANK(B68),ISBLANK(B74)),"",SUM(B68:B74)/$O$6*100000)</f>
-        <v>30.694482516684193</v>
+        <v>31.265767837972639</v>
       </c>
       <c r="D68" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" ref="E68:E131" si="6">IF(OR(ISBLANK(D68),ISBLANK(D74)),"",SUM(D68:D74)/$O$7*100000)</f>
         <v>13.994793936655565</v>
       </c>
       <c r="F68" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" ref="G68:G131" si="7">IF(OR(ISBLANK(F68),ISBLANK(F74)),"",SUM(F68:F74)/$O$8*100000)</f>
-        <v>12.281038077208791</v>
+        <v>12.580575591287054</v>
       </c>
       <c r="H68" s="10">
         <v>30</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="4"/>
-        <v>13.036820035680329</v>
+        <v>13.90594137139235</v>
       </c>
       <c r="J68" s="10">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" ref="K68:K131" si="8">IF(OR(ISBLANK(J68),ISBLANK(J74)),"",SUM(J68:J74)/$O$10*100000)</f>
-        <v>55.782701557077772</v>
+        <v>56.708206409457652</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B69" s="10">
-        <v>601</v>
+        <v>357</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" si="5"/>
-        <v>30.142562799507225</v>
+        <v>30.694482516684193</v>
       </c>
       <c r="D69" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E69" s="7">
         <f t="shared" si="6"/>
-        <v>14.39464519198858</v>
+        <v>13.994793936655565</v>
       </c>
       <c r="F69" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="7"/>
-        <v>13.479188133521841</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H69" s="10">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" ref="I69:I132" si="9">IF(OR(ISBLANK(H69),ISBLANK(H75)),"",SUM(H69:H75)/$O$9*100000)</f>
-        <v>12.747112923776323</v>
+        <v>13.036820035680329</v>
       </c>
       <c r="J69" s="10">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="8"/>
-        <v>56.539932799934029</v>
+        <v>55.782701557077772</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B70" s="10">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="5"/>
-        <v>27.867104316409186</v>
+        <v>30.142562799507225</v>
       </c>
       <c r="D70" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="6"/>
-        <v>13.594942681322548</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F70" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="7"/>
-        <v>10.783350506817474</v>
+        <v>13.479188133521841</v>
       </c>
       <c r="H70" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="9"/>
-        <v>11.008870252352278</v>
+        <v>12.747112923776323</v>
       </c>
       <c r="J70" s="10">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="8"/>
-        <v>53.637213035651705</v>
+        <v>56.539932799934029</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B71" s="10">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="5"/>
-        <v>25.272113365471846</v>
+        <v>27.867104316409186</v>
       </c>
       <c r="D71" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E71" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F71" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="7"/>
         <v>10.783350506817474</v>
       </c>
       <c r="H71" s="10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="9"/>
-        <v>9.4444518480706368</v>
+        <v>11.008870252352278</v>
       </c>
       <c r="J71" s="10">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="8"/>
-        <v>50.103467235655835</v>
+        <v>53.637213035651705</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B72" s="10">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="5"/>
-        <v>23.606671411885195</v>
+        <v>25.272113365471846</v>
       </c>
       <c r="D72" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F72" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="7"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H72" s="10">
         <v>29</v>
       </c>
       <c r="I72" s="7">
         <f t="shared" si="9"/>
-        <v>8.865037624262623</v>
+        <v>9.4444518480706368</v>
       </c>
       <c r="J72" s="10">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="8"/>
-        <v>47.95797871422976</v>
+        <v>50.103467235655835</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B73" s="10">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="5"/>
-        <v>21.234384908229792</v>
+        <v>23.606671411885195</v>
       </c>
       <c r="D73" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F73" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="7"/>
-        <v>9.5852004505044217</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H73" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I73" s="7">
         <f t="shared" si="9"/>
-        <v>7.7641505990273956</v>
+        <v>8.865037624262623</v>
       </c>
       <c r="J73" s="10">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="8"/>
-        <v>43.582864866615822</v>
+        <v>47.95797871422976</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B74" s="10">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="5"/>
-        <v>18.968609227187489</v>
+        <v>21.234384908229792</v>
       </c>
       <c r="D74" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E74" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F74" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>9.5852004505044217</v>
       </c>
       <c r="H74" s="10">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I74" s="7">
         <f t="shared" si="9"/>
-        <v>6.7212049961729692</v>
+        <v>7.7641505990273956</v>
       </c>
       <c r="J74" s="10">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="8"/>
-        <v>40.511871492809881</v>
+        <v>43.582864866615822</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B75" s="10">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="5"/>
-        <v>17.390312492102463</v>
+        <v>18.968609227187489</v>
       </c>
       <c r="D75" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E75" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F75" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="7"/>
-        <v>8.9861254223478948</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H75" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I75" s="7">
         <f t="shared" si="9"/>
-        <v>6.0838493499841535</v>
+        <v>6.7212049961729692</v>
       </c>
       <c r="J75" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="8"/>
-        <v>36.683646876147677</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B76" s="10">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="5"/>
-        <v>15.782967350850232</v>
+        <v>17.390312492102463</v>
       </c>
       <c r="D76" s="10">
         <v>4</v>
       </c>
       <c r="E76" s="7">
         <f t="shared" si="6"/>
-        <v>11.995537659990484</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F76" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="7"/>
-        <v>8.0875128801131062</v>
+        <v>8.9861254223478948</v>
       </c>
       <c r="H76" s="10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I76" s="7">
         <f t="shared" si="9"/>
-        <v>5.0988451695105281</v>
+        <v>6.0838493499841535</v>
       </c>
       <c r="J76" s="10">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="8"/>
-        <v>33.486448295199025</v>
+        <v>36.683646876147677</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B77" s="10">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="5"/>
-        <v>13.981966168483272</v>
+        <v>15.782967350850232</v>
       </c>
       <c r="D77" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E77" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F77" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="7"/>
-        <v>8.6865879082696313</v>
+        <v>8.0875128801131062</v>
       </c>
       <c r="H77" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I77" s="7">
         <f t="shared" si="9"/>
-        <v>5.388552281414535</v>
+        <v>5.0988451695105281</v>
       </c>
       <c r="J77" s="10">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="8"/>
-        <v>29.616155276155926</v>
+        <v>33.486448295199025</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B78" s="10">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="5"/>
-        <v>12.597325474512976</v>
+        <v>13.981966168483272</v>
       </c>
       <c r="D78" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F78" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G78" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>8.6865879082696313</v>
       </c>
       <c r="H78" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="9"/>
-        <v>5.0409037471297271</v>
+        <v>5.388552281414535</v>
       </c>
       <c r="J78" s="10">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="8"/>
-        <v>26.839640719016305</v>
+        <v>29.616155276155926</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B79" s="10">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="5"/>
-        <v>10.960931927093537</v>
+        <v>12.597325474512976</v>
       </c>
       <c r="D79" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79" s="7">
         <f t="shared" si="6"/>
-        <v>9.5964301279923863</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F79" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G79" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H79" s="10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>5.0409037471297271</v>
       </c>
       <c r="J79" s="10">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="8"/>
-        <v>22.801074090449589</v>
+        <v>26.839640719016305</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B80" s="10">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="5"/>
-        <v>9.8861408989068025</v>
+        <v>10.960931927093537</v>
       </c>
       <c r="D80" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E80" s="7">
         <f t="shared" si="6"/>
-        <v>7.5971738513273062</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F80" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" si="7"/>
-        <v>5.9907502815652638</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H80" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="9"/>
-        <v>4.6932552128449183</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J80" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="8"/>
-        <v>19.856285923786359</v>
+        <v>22.801074090449589</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B81" s="10">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="5"/>
-        <v>8.927543495388905</v>
+        <v>9.8861408989068025</v>
       </c>
       <c r="D81" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E81" s="7">
         <f t="shared" si="6"/>
-        <v>5.5979175746622261</v>
+        <v>7.5971738513273062</v>
       </c>
       <c r="F81" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>5.9907502815652638</v>
       </c>
       <c r="H81" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I81" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>4.6932552128449183</v>
       </c>
       <c r="J81" s="10">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="8"/>
-        <v>17.121839769027645</v>
+        <v>19.856285923786359</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B82" s="10">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="5"/>
-        <v>8.4530861946578231</v>
+        <v>8.927543495388905</v>
       </c>
       <c r="D82" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82" s="7">
         <f t="shared" si="6"/>
-        <v>3.9985125533301611</v>
+        <v>5.5979175746622261</v>
       </c>
       <c r="F82" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="7"/>
-        <v>5.3916752534087369</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H82" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I82" s="7">
         <f t="shared" si="9"/>
-        <v>5.330610859033734</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J82" s="10">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="8"/>
-        <v>15.354966869029704</v>
+        <v>17.121839769027645</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B83" s="10">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="5"/>
-        <v>7.8430696651464347</v>
+        <v>8.4530861946578231</v>
       </c>
       <c r="D83" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E83" s="7">
         <f t="shared" si="6"/>
-        <v>2.798958787331113</v>
+        <v>3.9985125533301611</v>
       </c>
       <c r="F83" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="7"/>
-        <v>4.4930627111739474</v>
+        <v>5.3916752534087369</v>
       </c>
       <c r="H83" s="10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I83" s="7">
         <f t="shared" si="9"/>
-        <v>5.15678659189133</v>
+        <v>5.330610859033734</v>
       </c>
       <c r="J83" s="10">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="8"/>
-        <v>13.125341542841829</v>
+        <v>15.354966869029704</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B84" s="10">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="5"/>
-        <v>7.5719512075858173</v>
+        <v>7.8430696651464347</v>
       </c>
       <c r="D84" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" si="6"/>
-        <v>1.1995537659990483</v>
+        <v>2.798958787331113</v>
       </c>
       <c r="F84" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="7"/>
-        <v>5.6912127674869994</v>
+        <v>4.4930627111739474</v>
       </c>
       <c r="H84" s="10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="9"/>
-        <v>4.9250209023681242</v>
+        <v>5.15678659189133</v>
       </c>
       <c r="J84" s="10">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K84" s="7">
         <f t="shared" si="8"/>
-        <v>10.895716216653955</v>
+        <v>13.125341542841829</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B85" s="10">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="5"/>
-        <v>7.6494136240317072</v>
+        <v>7.5719512075858173</v>
       </c>
       <c r="D85" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="7">
         <f t="shared" si="6"/>
-        <v>0.79970251066603215</v>
+        <v>1.1995537659990483</v>
       </c>
       <c r="F85" s="10">
         <v>2</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" si="7"/>
-        <v>7.7879753660348419</v>
+        <v>5.6912127674869994</v>
       </c>
       <c r="H85" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I85" s="7">
         <f t="shared" si="9"/>
-        <v>5.2147280142721311</v>
+        <v>4.9250209023681242</v>
       </c>
       <c r="J85" s="10">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="8"/>
-        <v>9.8860745595122772</v>
+        <v>10.895716216653955</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B86" s="10">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="5"/>
-        <v>8.1432365288742616</v>
+        <v>7.6494136240317072</v>
       </c>
       <c r="D86" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>0.79970251066603215</v>
       </c>
       <c r="F86" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>7.7879753660348419</v>
       </c>
       <c r="H86" s="10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I86" s="7">
         <f t="shared" si="9"/>
-        <v>7.9379748661697995</v>
+        <v>5.2147280142721311</v>
       </c>
       <c r="J86" s="10">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="8"/>
-        <v>8.7922960976087907</v>
+        <v>9.8860745595122772</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B87" s="10">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="5"/>
-        <v>7.9398976857037979</v>
+        <v>8.1432365288742616</v>
       </c>
       <c r="D87" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F87" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="7"/>
-        <v>11.382425534973999</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H87" s="10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I87" s="7">
         <f t="shared" si="9"/>
         <v>7.9379748661697995</v>
       </c>
       <c r="J87" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="8"/>
-        <v>8.4136804761806605</v>
+        <v>8.7922960976087907</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B88" s="10">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="5"/>
-        <v>8.114188122707052</v>
+        <v>7.9398976857037979</v>
       </c>
       <c r="D88" s="10">
         <v>0</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F88" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>11.382425534973999</v>
       </c>
       <c r="H88" s="10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I88" s="7">
         <f t="shared" si="9"/>
-        <v>8.4594476675970114</v>
+        <v>7.9379748661697995</v>
       </c>
       <c r="J88" s="10">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>8.4136804761806605</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B89" s="10">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="5"/>
-        <v>7.8914836754251159</v>
+        <v>8.114188122707052</v>
       </c>
       <c r="D89" s="10">
         <v>0</v>
@@ -5104,277 +5104,277 @@
         <v>2.3991075319980966</v>
       </c>
       <c r="F89" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H89" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I89" s="7">
         <f t="shared" si="9"/>
-        <v>8.0538577109314033</v>
+        <v>8.4594476675970114</v>
       </c>
       <c r="J89" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="8"/>
-        <v>10.180553376178599</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B90" s="10">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="5"/>
-        <v>7.5235371973071361</v>
+        <v>7.8914836754251159</v>
       </c>
       <c r="D90" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" s="7">
         <f t="shared" si="6"/>
         <v>2.3991075319980966</v>
       </c>
       <c r="F90" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G90" s="7">
         <f t="shared" si="7"/>
         <v>11.981500563130528</v>
       </c>
       <c r="H90" s="10">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I90" s="7">
         <f t="shared" si="9"/>
         <v>8.0538577109314033</v>
       </c>
       <c r="J90" s="10">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="8"/>
-        <v>10.306758583321308</v>
+        <v>10.180553376178599</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B91" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="5"/>
-        <v>6.6230366061236561</v>
+        <v>7.5235371973071361</v>
       </c>
       <c r="D91" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F91" s="10">
         <v>9</v>
       </c>
       <c r="G91" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H91" s="10">
         <v>19</v>
       </c>
       <c r="I91" s="7">
         <f t="shared" si="9"/>
-        <v>7.0109121080769761</v>
+        <v>8.0538577109314033</v>
       </c>
       <c r="J91" s="10">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="8"/>
-        <v>10.517100595225825</v>
+        <v>10.306758583321308</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B92" s="10">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="5"/>
-        <v>5.4030035471008766</v>
+        <v>6.6230366061236561</v>
       </c>
       <c r="D92" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E92" s="7">
         <f t="shared" si="6"/>
         <v>1.9992562766650805</v>
       </c>
       <c r="F92" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H92" s="10">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I92" s="7">
         <f t="shared" si="9"/>
-        <v>5.9679665052225497</v>
+        <v>7.0109121080769761</v>
       </c>
       <c r="J92" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>10.517100595225825</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B93" s="10">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="5"/>
-        <v>3.7956584058486449</v>
+        <v>5.4030035471008766</v>
       </c>
       <c r="D93" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" si="6"/>
-        <v>0.39985125533301608</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F93" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="7"/>
-        <v>1.7972250844695792</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H93" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I93" s="7">
         <f t="shared" si="9"/>
-        <v>2.7232468518976685</v>
+        <v>5.9679665052225497</v>
       </c>
       <c r="J93" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="8"/>
-        <v>9.2129801214178233</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B94" s="10">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="5"/>
-        <v>2.9726202311110557</v>
+        <v>3.7956584058486449</v>
       </c>
       <c r="D94" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" s="7">
         <f t="shared" si="6"/>
         <v>0.39985125533301608</v>
       </c>
       <c r="F94" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G94" s="7">
         <f t="shared" si="7"/>
-        <v>1.4976875703913159</v>
+        <v>1.7972250844695792</v>
       </c>
       <c r="H94" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I94" s="7">
         <f t="shared" si="9"/>
-        <v>2.0858912057088523</v>
+        <v>2.7232468518976685</v>
       </c>
       <c r="J94" s="10">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="8"/>
-        <v>8.5398856833233694</v>
+        <v>9.2129801214178233</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B95" s="10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="5"/>
-        <v>2.0430712337603674</v>
+        <v>2.9726202311110557</v>
       </c>
       <c r="D95" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.39985125533301608</v>
       </c>
       <c r="F95" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" si="7"/>
-        <v>0.29953751407826318</v>
+        <v>1.4976875703913159</v>
       </c>
       <c r="H95" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I95" s="7">
         <f t="shared" si="9"/>
-        <v>1.390594137139235</v>
+        <v>2.0858912057088523</v>
       </c>
       <c r="J95" s="10">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="8"/>
-        <v>5.8895763333264624</v>
+        <v>8.5398856833233694</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B96" s="10">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="5"/>
-        <v>1.5976623391964959</v>
+        <v>2.0430712337603674</v>
       </c>
       <c r="D96" s="10">
         <v>0</v>
@@ -5384,37 +5384,37 @@
         <v>0</v>
       </c>
       <c r="F96" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.29953751407826318</v>
       </c>
       <c r="H96" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I96" s="7">
         <f t="shared" si="9"/>
-        <v>0.75323849095041895</v>
+        <v>1.390594137139235</v>
       </c>
       <c r="J96" s="10">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="8"/>
-        <v>4.6695926642802661</v>
+        <v>5.8895763333264624</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B97" s="10">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="5"/>
-        <v>1.3071782775244056</v>
+        <v>1.5976623391964959</v>
       </c>
       <c r="D97" s="10">
         <v>0</v>
@@ -5431,30 +5431,30 @@
         <v>0</v>
       </c>
       <c r="H97" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="9"/>
-        <v>0.57941422380801455</v>
+        <v>0.75323849095041895</v>
       </c>
       <c r="J97" s="10">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="8"/>
-        <v>3.8282246166622</v>
+        <v>4.6695926642802661</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B98" s="10">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="5"/>
-        <v>0.81335537268185243</v>
+        <v>1.3071782775244056</v>
       </c>
       <c r="D98" s="10">
         <v>0</v>
@@ -5475,26 +5475,26 @@
       </c>
       <c r="I98" s="7">
         <f t="shared" si="9"/>
-        <v>0.69529706856961748</v>
+        <v>0.57941422380801455</v>
       </c>
       <c r="J98" s="10">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K98" s="7">
         <f t="shared" si="8"/>
-        <v>2.3978989357114884</v>
+        <v>3.8282246166622</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B99" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="5"/>
-        <v>0.58096812334418035</v>
+        <v>0.81335537268185243</v>
       </c>
       <c r="D99" s="10">
         <v>0</v>
@@ -5515,26 +5515,26 @@
       </c>
       <c r="I99" s="7">
         <f t="shared" si="9"/>
-        <v>0.63735564618881602</v>
+        <v>0.69529706856961748</v>
       </c>
       <c r="J99" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="8"/>
-        <v>1.5144624857125188</v>
+        <v>2.3978989357114884</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B100" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="5"/>
-        <v>0.30016686372782653</v>
+        <v>0.58096812334418035</v>
       </c>
       <c r="D100" s="10">
         <v>0</v>
@@ -5551,30 +5551,30 @@
         <v>0</v>
       </c>
       <c r="H100" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" s="7">
         <f t="shared" si="9"/>
         <v>0.63735564618881602</v>
       </c>
       <c r="J100" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="8"/>
-        <v>0.63102603571354954</v>
+        <v>1.5144624857125188</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B101" s="10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="5"/>
-        <v>0.17429043700325408</v>
+        <v>0.30016686372782653</v>
       </c>
       <c r="D101" s="10">
         <v>0</v>
@@ -5591,30 +5591,30 @@
         <v>0</v>
       </c>
       <c r="H101" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" s="7">
         <f t="shared" si="9"/>
-        <v>0.52147280142721308</v>
+        <v>0.63735564618881602</v>
       </c>
       <c r="J101" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="8"/>
-        <v>0.21034201190451648</v>
+        <v>0.63102603571354954</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B102" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="5"/>
-        <v>0.12587642672457242</v>
+        <v>0.17429043700325408</v>
       </c>
       <c r="D102" s="10">
         <v>0</v>
@@ -5631,26 +5631,26 @@
         <v>0</v>
       </c>
       <c r="H102" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102" s="7">
         <f t="shared" si="9"/>
-        <v>0.34764853428480874</v>
+        <v>0.52147280142721308</v>
       </c>
       <c r="J102" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="7">
         <f t="shared" si="8"/>
-        <v>0.1682736095236132</v>
+        <v>0.21034201190451648</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B103" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="5"/>
@@ -5671,14 +5671,14 @@
         <v>0</v>
       </c>
       <c r="H103" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" s="7">
         <f t="shared" si="9"/>
         <v>0.34764853428480874</v>
       </c>
       <c r="J103" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" s="7">
         <f t="shared" si="8"/>
@@ -5687,14 +5687,14 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B104" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363378E-2</v>
+        <v>0.12587642672457242</v>
       </c>
       <c r="D104" s="10">
         <v>0</v>
@@ -5711,30 +5711,30 @@
         <v>0</v>
       </c>
       <c r="H104" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" s="7">
         <f t="shared" si="9"/>
-        <v>0.23176568952320581</v>
+        <v>0.34764853428480874</v>
       </c>
       <c r="J104" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K104" s="7">
         <f t="shared" si="8"/>
-        <v>0.12620520714270991</v>
+        <v>0.1682736095236132</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B105" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="5"/>
-        <v>1.936560411147268E-2</v>
+        <v>9.6828020557363378E-2</v>
       </c>
       <c r="D105" s="10">
         <v>0</v>
@@ -5751,30 +5751,30 @@
         <v>0</v>
       </c>
       <c r="H105" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I105" s="7">
         <f t="shared" si="9"/>
-        <v>5.7941422380801452E-2</v>
+        <v>0.23176568952320581</v>
       </c>
       <c r="J105" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K105" s="7">
         <f t="shared" si="8"/>
-        <v>4.20684023809033E-2</v>
+        <v>0.12620520714270991</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B106" s="10">
         <v>1</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>1.936560411147268E-2</v>
       </c>
       <c r="D106" s="10">
         <v>0</v>
@@ -5791,30 +5791,30 @@
         <v>0</v>
       </c>
       <c r="H106" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" s="7">
         <f t="shared" si="9"/>
         <v>5.7941422380801452E-2</v>
       </c>
       <c r="J106" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.20684023809033E-2</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B107" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -5831,11 +5831,11 @@
         <v>0</v>
       </c>
       <c r="H107" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.7941422380801452E-2</v>
       </c>
       <c r="J107" s="10">
         <v>0</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B108" s="10">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B109" s="10">
         <v>0</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B110" s="10">
         <v>0</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B111" s="10">
         <v>0</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B112" s="10">
         <v>0</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B113" s="10">
         <v>0</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B114" s="10">
         <v>0</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B115" s="10">
         <v>0</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B116" s="10">
         <v>0</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -6407,14 +6407,14 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
       </c>
       <c r="C122" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>0</v>
       </c>
       <c r="D122" s="10">
         <v>0</v>
@@ -6447,47 +6447,47 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
       </c>
-      <c r="C123" s="7" t="str">
+      <c r="C123" s="7">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D123" s="10">
         <v>0</v>
       </c>
-      <c r="E123" s="7" t="str">
+      <c r="E123" s="7">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F123" s="10">
         <v>0</v>
       </c>
-      <c r="G123" s="7" t="str">
+      <c r="G123" s="7">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H123" s="10">
         <v>0</v>
       </c>
-      <c r="I123" s="7" t="str">
+      <c r="I123" s="7">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J123" s="10">
         <v>0</v>
       </c>
-      <c r="K123" s="7" t="str">
+      <c r="K123" s="7">
         <f t="shared" si="8"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -6647,10 +6647,10 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B128" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" s="7" t="str">
         <f t="shared" si="5"/>
@@ -6686,28 +6686,40 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="4"/>
-      <c r="B129" s="10"/>
+      <c r="A129" s="4">
+        <v>43865</v>
+      </c>
+      <c r="B129" s="10">
+        <v>1</v>
+      </c>
       <c r="C129" s="7" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D129" s="10"/>
+      <c r="D129" s="10">
+        <v>0</v>
+      </c>
       <c r="E129" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F129" s="10"/>
+      <c r="F129" s="10">
+        <v>0</v>
+      </c>
       <c r="G129" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H129" s="10"/>
+      <c r="H129" s="10">
+        <v>0</v>
+      </c>
       <c r="I129" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J129" s="10"/>
+      <c r="J129" s="10">
+        <v>0</v>
+      </c>
       <c r="K129" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35729BF1-A1E0-435C-800F-214396593A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55D4304-861E-4B04-B2A4-C186A57660C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38385" yWindow="4395" windowWidth="38370" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <t>/100k (7Tage)</t>
   </si>
   <si>
-    <t>Last Update: 06/08/2020 15:49:41</t>
+    <t>Last Update: 06/08/2020 17:53:35</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1588,7 @@
   <dimension ref="A1:AJ996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55D4304-861E-4B04-B2A4-C186A57660C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F4FDAB-2C98-40D6-BBCF-B2003DA8452D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38385" yWindow="4395" windowWidth="38370" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <t>/100k (7Tage)</t>
   </si>
   <si>
-    <t>Last Update: 06/08/2020 17:53:35</t>
+    <t>Last Update: 06/08/2020 18:01:11</t>
   </si>
 </sst>
 </file>
@@ -261,22 +261,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-DE"/>
-              <a:t>Neuinfektionen</a:t>
+              <a:rPr lang="de-DE"/>
+              <a:t>Neuinfektionen/100k (7 Tage) - Last Update: 06/08/2020 18:01:11</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>/100</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-DE"/>
-              <a:t>k </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t>(7 Tage)</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F4FDAB-2C98-40D6-BBCF-B2003DA8452D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A555E1-587E-4B91-8249-480B62DE10D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38385" yWindow="4395" windowWidth="38370" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <t>/100k (7Tage)</t>
   </si>
   <si>
-    <t>Last Update: 06/08/2020 18:01:11</t>
+    <t>Datenabruf: 06/08/2020 20:39:50</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Neuinfektionen/100k (7 Tage) - Last Update: 06/08/2020 18:01:11</a:t>
+              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: 06/08/2020 20:39:50</a:t>
             </a:r>
           </a:p>
         </c:rich>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A555E1-587E-4B91-8249-480B62DE10D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BD1259-8F1E-4BAC-95A5-50A81703C071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38385" yWindow="4395" windowWidth="38370" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <t>/100k (7Tage)</t>
   </si>
   <si>
-    <t>Datenabruf: 06/08/2020 20:39:50</t>
+    <t>Datenabruf: 06/09/2020 14:52:14</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: 06/08/2020 20:39:50</a:t>
+              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: 06/09/2020 14:52:14</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -308,187 +308,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,187 +500,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>52.074109455750033</c:v>
+                  <c:v>51.125194854287869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.651403439854164</c:v>
+                  <c:v>57.767597064522995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.886462077450993</c:v>
+                  <c:v>58.81333968654252</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>56.905827681562471</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>53.10048647365808</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>49.546898119202844</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>46.922858762098301</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>44.463427039941266</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>43.185297168584071</c:v>
+                <c:pt idx="8">
+                  <c:v>43.194979970639807</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>41.849070484892458</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.316516371826957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.035715112210603</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.64406300444373</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.123863081693123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.211008300194749</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.552577760404681</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.087803261729334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.562260562460416</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.126534469952283</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.888804444096294</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.585966192109311</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.578954778312728</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38.653745806499465</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.934547066115819</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.118520305174812</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.580623415590999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.59998901970247</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.907167297226877</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42.197651358898966</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.861424675207346</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41.006666706043397</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.851741873151617</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.808670639391245</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37.056083467302969</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.671442773332672</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.436384135735842</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.394981539253742</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.121191693433964</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.48913817155195</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.183628531305807</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.643060253462835</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43.417684417921748</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.371941795902217</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>41.839387682836723</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>41.306833569771221</c:v>
+                <c:pt idx="44">
+                  <c:v>40.725865446427036</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>41.026032310154868</c:v>
+                <c:pt idx="45">
+                  <c:v>41.57795202733184</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>38.64406300444373</c:v>
+                <c:pt idx="46">
+                  <c:v>42.149237348620282</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.123863081693123</c:v>
+                <c:pt idx="47">
+                  <c:v>41.200322747158118</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>37.211008300194749</c:v>
+                <c:pt idx="48">
+                  <c:v>39.893144469633718</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="49">
+                  <c:v>38.750573827056826</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>36.087803261729334</c:v>
+                <c:pt idx="51">
+                  <c:v>36.320190511067004</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>36.562260562460416</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36.126534469952283</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37.888804444096294</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>38.585966192109311</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37.578954778312728</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38.653745806499465</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>38.934547066115819</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>39.118520305174812</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40.580623415590999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>40.59998901970247</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41.907167297226877</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42.197651358898966</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40.861424675207346</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>41.006666706043397</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>40.851741873151617</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>38.808670639391245</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="52">
                   <c:v>37.056083467302969</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>35.671442773332672</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36.436384135735842</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37.394981539253742</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38.121191693433964</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38.48913817155195</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40.183628531305807</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42.643060253462835</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43.417684417921748</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42.371941795902217</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>41.839387682836723</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>40.725865446427036</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>41.57795202733184</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>42.149237348620282</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>41.200322747158118</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>39.893144469633718</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>38.750573827056826</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>36.552577760404681</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>36.320190511067004</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>37.056083467302969</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>35.729539585667091</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>33.463763904624784</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>33.676785549850983</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>34.170608454693543</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>36.678454187129248</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>36.213679688453908</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>35.013012233542604</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>34.645065755424618</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>36.068437657617864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,187 +718,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,184 +910,184 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>25.990331596646048</c:v>
+                  <c:v>34.787059213972405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.387207958639387</c:v>
+                  <c:v>37.586018001303515</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>34.387207958639387</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>34.387207958639387</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>32.787802937307326</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>34.787059213972405</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>29.588992894643191</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>27.589736617978108</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>27.189885362645096</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.59196778798287</c:v>
+                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.39464519198858</c:v>
+                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>14.39464519198858</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>11.195835149324452</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>8.7967276173263542</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>9.1965788726593711</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>9.9962813833254032</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>9.5964301279923863</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>12.395388915323501</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>15.994050213320644</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>15.194347702654612</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>13.594942681322548</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>17.193603979319693</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>17.193603979319693</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>16.393901468653663</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>16.793752723986675</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>19.592711511317791</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>17.993306489985727</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>18.393157745318742</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>21.991819043315886</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>19.192860255984773</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>24.390926575313983</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21.991819043315886</c:v>
+                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>21.991819043315886</c:v>
@@ -1117,8 +1117,8 @@
         <c:axId val="271719768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43990"/>
-          <c:min val="43934"/>
+          <c:max val="43997"/>
+          <c:min val="43941"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1641,82 +1641,82 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B4" s="11">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C67" si="0">IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/$O$6*100000)</f>
-        <v>52.074109455750033</v>
+        <v>51.125194854287869</v>
       </c>
       <c r="D4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:E67" si="1">IF(OR(ISBLANK(D4),ISBLANK(D10)),"",SUM(D4:D10)/$O$7*100000)</f>
-        <v>25.990331596646048</v>
+        <v>34.787059213972405</v>
       </c>
       <c r="F4" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G67" si="2">IF(OR(ISBLANK(F4),ISBLANK(F10)),"",SUM(F4:F10)/$O$8*100000)</f>
-        <v>35.644964175313319</v>
+        <v>31.451438978217631</v>
       </c>
       <c r="H4" s="12">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="I4" s="9">
         <f>IF(OR(ISBLANK(H4),ISBLANK(H10)),"",SUM(H4:H10)/$O$9*100000)</f>
-        <v>118.31638450159657</v>
+        <v>117.50520458826536</v>
       </c>
       <c r="J4" s="11">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K67" si="3">IF(OR(ISBLANK(J4),ISBLANK(J10)),"",SUM(J4:J10)/$O$10*100000)</f>
-        <v>46.864200252326278</v>
+        <v>47.495226288039831</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B5" s="10">
-        <v>344</v>
+        <v>536</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>57.651403439854164</v>
+        <v>57.767597064522995</v>
       </c>
       <c r="D5" s="10">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>34.387207958639387</v>
+        <v>37.586018001303515</v>
       </c>
       <c r="F5" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="2"/>
-        <v>41.935251970956841</v>
+        <v>39.538951858330741</v>
       </c>
       <c r="H5" s="3">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" ref="I5:I68" si="4">IF(OR(ISBLANK(H5),ISBLANK(H11)),"",SUM(H5:H11)/$O$9*100000)</f>
-        <v>123.5311125158687</v>
+        <v>128.57201626299843</v>
       </c>
       <c r="J5" s="10">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="3"/>
-        <v>52.795844988033643</v>
+        <v>52.122750549939191</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>6</v>
@@ -1724,42 +1724,42 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B6" s="10">
-        <v>823</v>
+        <v>462</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>56.886462077450993</v>
+        <v>58.81333968654252</v>
       </c>
       <c r="D6" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>34.387207958639387</v>
       </c>
       <c r="F6" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>40.437564400565527</v>
+        <v>41.036639428722054</v>
       </c>
       <c r="H6" s="3">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>119.4172715268318</v>
+        <v>126.949656436336</v>
       </c>
       <c r="J6" s="10">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="3"/>
-        <v>54.35237587612707</v>
+        <v>53.468939426128095</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
@@ -1770,42 +1770,42 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B7" s="10">
-        <v>1142</v>
+        <v>825</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>53.10048647365808</v>
+        <v>56.905827681562471</v>
       </c>
       <c r="D7" s="10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>32.787802937307326</v>
+        <v>34.387207958639387</v>
       </c>
       <c r="F7" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>38.04126428793942</v>
+        <v>40.437564400565527</v>
       </c>
       <c r="H7" s="3">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>109.79899541161878</v>
+        <v>119.4172715268318</v>
       </c>
       <c r="J7" s="10">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
-        <v>48.673141554705118</v>
+        <v>54.310307473746164</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -1816,42 +1816,42 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B8" s="10">
-        <v>1042</v>
+        <v>1143</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>49.546898119202844</v>
+        <v>53.10048647365808</v>
       </c>
       <c r="D8" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>34.787059213972405</v>
+        <v>32.787802937307326</v>
       </c>
       <c r="F8" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>36.244039203469846</v>
+        <v>38.04126428793942</v>
       </c>
       <c r="H8" s="3">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="4"/>
-        <v>94.734225592610386</v>
+        <v>109.79899541161878</v>
       </c>
       <c r="J8" s="10">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>47.789705104706151</v>
+        <v>48.673141554705118</v>
       </c>
       <c r="N8" t="s">
         <v>2</v>
@@ -1862,42 +1862,42 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B9" s="10">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>46.922858762098301</v>
+        <v>49.546898119202844</v>
       </c>
       <c r="D9" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>29.588992894643191</v>
+        <v>34.787059213972405</v>
       </c>
       <c r="F9" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>37.741726773861153</v>
+        <v>36.244039203469846</v>
       </c>
       <c r="H9" s="3">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="4"/>
-        <v>77.17797461122754</v>
+        <v>94.734225592610386</v>
       </c>
       <c r="J9" s="10">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>50.440014454703061</v>
+        <v>47.83177350708705</v>
       </c>
       <c r="N9" t="s">
         <v>9</v>
@@ -1908,42 +1908,42 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B10" s="10">
-        <v>889</v>
+        <v>1070</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>44.463427039941266</v>
+        <v>46.922858762098301</v>
       </c>
       <c r="D10" s="10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>27.589736617978108</v>
+        <v>29.588992894643191</v>
       </c>
       <c r="F10" s="3">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>44.631089597661216</v>
+        <v>37.741726773861153</v>
       </c>
       <c r="H10" s="3">
-        <v>269</v>
+        <v>429</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="4"/>
-        <v>58.462895182228671</v>
+        <v>77.17797461122754</v>
       </c>
       <c r="J10" s="10">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>49.388304395180477</v>
+        <v>50.482082857083967</v>
       </c>
       <c r="N10" t="s">
         <v>3</v>
@@ -1954,398 +1954,398 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B11" s="10">
-        <v>644</v>
+        <v>888</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>43.185297168584071</v>
+        <v>44.463427039941266</v>
       </c>
       <c r="D11" s="10">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>27.189885362645096</v>
+        <v>27.589736617978108</v>
       </c>
       <c r="F11" s="3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>41.635714456878574</v>
+        <v>44.631089597661216</v>
       </c>
       <c r="H11" s="3">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="4"/>
-        <v>49.829623247489252</v>
+        <v>58.462895182228671</v>
       </c>
       <c r="J11" s="10">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>51.954476940415574</v>
+        <v>49.430372797561382</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B12" s="10">
-        <v>265</v>
+        <v>644</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>41.839387682836723</v>
+        <v>43.194979970639807</v>
       </c>
       <c r="D12" s="10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>27.189885362645096</v>
       </c>
       <c r="F12" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>37.442189259782893</v>
+        <v>41.635714456878574</v>
       </c>
       <c r="H12" s="3">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="4"/>
-        <v>50.640803160820475</v>
+        <v>49.829623247489252</v>
       </c>
       <c r="J12" s="10">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>52.837913390414542</v>
+        <v>51.99654534279648</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B13" s="10">
-        <v>432</v>
+        <v>265</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>41.306833569771221</v>
+        <v>41.849070484892458</v>
       </c>
       <c r="D13" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>22.391670298648904</v>
       </c>
       <c r="F13" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>35.944501689391579</v>
+        <v>37.442189259782893</v>
       </c>
       <c r="H13" s="3">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="4"/>
-        <v>46.469020749402766</v>
+        <v>50.640803160820475</v>
       </c>
       <c r="J13" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>52.501366171367316</v>
+        <v>52.879981792795448</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B14" s="10">
-        <v>775</v>
+        <v>432</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>41.026032310154868</v>
+        <v>41.316516371826957</v>
       </c>
       <c r="D14" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F14" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>34.446814119000265</v>
+        <v>35.944501689391579</v>
       </c>
       <c r="H14" s="3">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.469020749402766</v>
       </c>
       <c r="J14" s="10">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>52.711708183271838</v>
+        <v>52.543434573748222</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B15" s="10">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>38.64406300444373</v>
+        <v>41.035715112210603</v>
       </c>
       <c r="D15" s="10">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F15" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>31.750976492295894</v>
+        <v>34.446814119000265</v>
       </c>
       <c r="H15" s="3">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="4"/>
-        <v>40.095464287514609</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J15" s="10">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="3"/>
-        <v>49.808988418989507</v>
+        <v>52.753776585652744</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B16" s="10">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>37.123863081693123</v>
+        <v>38.64406300444373</v>
       </c>
       <c r="D16" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
         <v>14.39464519198858</v>
       </c>
       <c r="F16" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>31.750976492295894</v>
       </c>
       <c r="H16" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="4"/>
-        <v>43.91959816464751</v>
+        <v>40.095464287514609</v>
       </c>
       <c r="J16" s="10">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="3"/>
-        <v>43.162180842806784</v>
+        <v>49.808988418989507</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B17" s="10">
-        <v>757</v>
+        <v>816</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>37.211008300194749</v>
+        <v>37.123863081693123</v>
       </c>
       <c r="D17" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F17" s="3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>29.05513886559153</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H17" s="3">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>43.91959816464751</v>
       </c>
       <c r="J17" s="10">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
-        <v>41.731855161856075</v>
+        <v>43.162180842806784</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B18" s="10">
-        <v>505</v>
+        <v>757</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>37.211008300194749</v>
       </c>
       <c r="D18" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>11.195835149324452</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F18" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>26.958376267043683</v>
+        <v>29.05513886559153</v>
       </c>
       <c r="H18" s="3">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="4"/>
-        <v>46.295196482260366</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J18" s="10">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
-        <v>41.311171138047037</v>
+        <v>41.731855161856075</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B19" s="10">
-        <v>210</v>
+        <v>505</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>36.087803261729334</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D19" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>8.7967276173263542</v>
+        <v>11.195835149324452</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>30.253288921904577</v>
+        <v>26.958376267043683</v>
       </c>
       <c r="H19" s="3">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="4"/>
-        <v>42.413121182746664</v>
+        <v>46.295196482260366</v>
       </c>
       <c r="J19" s="10">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
-        <v>41.142897528523427</v>
+        <v>41.311171138047037</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B20" s="10">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>36.562260562460416</v>
+        <v>36.087803261729334</v>
       </c>
       <c r="D20" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="1"/>
-        <v>9.1965788726593711</v>
+        <v>8.7967276173263542</v>
       </c>
       <c r="F20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>30.852363950061104</v>
+        <v>30.253288921904577</v>
       </c>
       <c r="H20" s="3">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
-        <v>46.005489370356358</v>
+        <v>42.413121182746664</v>
       </c>
       <c r="J20" s="10">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
@@ -2354,1654 +2354,1654 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B21" s="10">
-        <v>529</v>
+        <v>403</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>36.126534469952283</v>
+        <v>36.562260562460416</v>
       </c>
       <c r="D21" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="1"/>
-        <v>9.9962813833254032</v>
+        <v>9.1965788726593711</v>
       </c>
       <c r="F21" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
-        <v>31.451438978217631</v>
+        <v>30.852363950061104</v>
       </c>
       <c r="H21" s="3">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="4"/>
-        <v>46.758727861306781</v>
+        <v>46.005489370356358</v>
       </c>
       <c r="J21" s="10">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
-        <v>40.55393989519078</v>
+        <v>41.142897528523427</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B22" s="10">
-        <v>614</v>
+        <v>529</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>37.888804444096294</v>
+        <v>36.126534469952283</v>
       </c>
       <c r="D22" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>9.5964301279923863</v>
+        <v>9.9962813833254032</v>
       </c>
       <c r="F22" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>35.644964175313319</v>
+        <v>31.451438978217631</v>
       </c>
       <c r="H22" s="3">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="4"/>
-        <v>47.222259240353189</v>
+        <v>46.758727861306781</v>
       </c>
       <c r="J22" s="10">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
-        <v>43.120112440425885</v>
+        <v>40.55393989519078</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B23" s="10">
-        <v>825</v>
+        <v>614</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>38.585966192109311</v>
+        <v>37.888804444096294</v>
       </c>
       <c r="D23" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
         <v>9.5964301279923863</v>
       </c>
       <c r="F23" s="3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="2"/>
-        <v>36.543576717548106</v>
+        <v>35.644964175313319</v>
       </c>
       <c r="H23" s="3">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="4"/>
-        <v>46.237255059879566</v>
+        <v>47.222259240353189</v>
       </c>
       <c r="J23" s="10">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
-        <v>45.349737766613757</v>
+        <v>43.120112440425885</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B24" s="10">
-        <v>689</v>
+        <v>825</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>37.578954778312728</v>
+        <v>38.585966192109311</v>
       </c>
       <c r="D24" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F24" s="3">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>26.059763724808892</v>
+        <v>36.543576717548106</v>
       </c>
       <c r="H24" s="3">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.237255059879566</v>
       </c>
       <c r="J24" s="10">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>48.210389128515182</v>
+        <v>45.349737766613757</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B25" s="10">
-        <v>457</v>
+        <v>689</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>38.653745806499465</v>
+        <v>37.578954778312728</v>
       </c>
       <c r="D25" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="1"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F25" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>26.059763724808892</v>
       </c>
       <c r="H25" s="3">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J25" s="10">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>51.449656111844739</v>
+        <v>48.210389128515182</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B26" s="10">
-        <v>259</v>
+        <v>457</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>38.934547066115819</v>
+        <v>38.653745806499465</v>
       </c>
       <c r="D26" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>23.064388584026261</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H26" s="3">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J26" s="10">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
-        <v>54.142033864222554</v>
+        <v>51.449656111844739</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B27" s="10">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>39.118520305174812</v>
+        <v>38.934547066115819</v>
       </c>
       <c r="D27" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
-        <v>15.994050213320644</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F27" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
         <v>23.064388584026261</v>
       </c>
       <c r="H27" s="3">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="4"/>
-        <v>47.801673464161205</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J27" s="10">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
-        <v>54.941333509459717</v>
+        <v>54.142033864222554</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B28" s="10">
-        <v>711</v>
+        <v>358</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>40.580623415590999</v>
+        <v>39.118520305174812</v>
       </c>
       <c r="D28" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F28" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>23.064388584026261</v>
       </c>
       <c r="H28" s="3">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="4"/>
-        <v>48.49697053273082</v>
+        <v>47.801673464161205</v>
       </c>
       <c r="J28" s="10">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>57.044753628504878</v>
+        <v>54.941333509459717</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B29" s="10">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>40.59998901970247</v>
+        <v>40.580623415590999</v>
       </c>
       <c r="D29" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F29" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="2"/>
-        <v>20.069013443243634</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H29" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="4"/>
-        <v>47.048434973210782</v>
+        <v>48.49697053273082</v>
       </c>
       <c r="J29" s="10">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
-        <v>58.222668895170173</v>
+        <v>57.044753628504878</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B30" s="10">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>41.907167297226877</v>
+        <v>40.59998901970247</v>
       </c>
       <c r="D30" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
-        <v>15.194347702654612</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F30" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>20.668088471400157</v>
+        <v>20.069013443243634</v>
       </c>
       <c r="H30" s="3">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="4"/>
-        <v>47.743732041780397</v>
+        <v>47.048434973210782</v>
       </c>
       <c r="J30" s="10">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
-        <v>63.565355997544884</v>
+        <v>58.222668895170173</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B31" s="10">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>42.197651358898966</v>
+        <v>41.907167297226877</v>
       </c>
       <c r="D31" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
-        <v>13.594942681322548</v>
+        <v>15.194347702654612</v>
       </c>
       <c r="F31" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="2"/>
-        <v>25.460688696652372</v>
+        <v>20.668088471400157</v>
       </c>
       <c r="H31" s="3">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="4"/>
-        <v>50.29315462653566</v>
+        <v>47.743732041780397</v>
       </c>
       <c r="J31" s="10">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
-        <v>61.588141085642427</v>
+        <v>63.565355997544884</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B32" s="10">
-        <v>486</v>
+        <v>800</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>40.861424675207346</v>
+        <v>42.197651358898966</v>
       </c>
       <c r="D32" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F32" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
-        <v>27.856988809278473</v>
+        <v>25.460688696652372</v>
       </c>
       <c r="H32" s="3">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>50.29315462653566</v>
       </c>
       <c r="J32" s="10">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
-        <v>57.086822030885784</v>
+        <v>61.588141085642427</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B33" s="10">
-        <v>278</v>
+        <v>486</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>41.006666706043397</v>
+        <v>40.861424675207346</v>
       </c>
       <c r="D33" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F33" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="2"/>
         <v>27.856988809278473</v>
       </c>
       <c r="H33" s="3">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="4"/>
-        <v>49.192267601300436</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J33" s="10">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
-        <v>54.226170668984352</v>
+        <v>57.086822030885784</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B34" s="10">
-        <v>509</v>
+        <v>278</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>40.851741873151617</v>
+        <v>41.006666706043397</v>
       </c>
       <c r="D34" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F34" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
-        <v>27.257913781121946</v>
+        <v>27.856988809278473</v>
       </c>
       <c r="H34" s="3">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="4"/>
-        <v>46.642845016545174</v>
+        <v>49.192267601300436</v>
       </c>
       <c r="J34" s="10">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
-        <v>56.329590788029527</v>
+        <v>54.226170668984352</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B35" s="10">
-        <v>713</v>
+        <v>509</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>38.808670639391245</v>
+        <v>40.851741873151617</v>
       </c>
       <c r="D35" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F35" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>27.257913781121946</v>
       </c>
       <c r="H35" s="3">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="4"/>
-        <v>42.239296915604264</v>
+        <v>46.642845016545174</v>
       </c>
       <c r="J35" s="10">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
-        <v>54.899265107078811</v>
+        <v>56.329590788029527</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B36" s="10">
-        <v>821</v>
+        <v>713</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>38.808670639391245</v>
       </c>
       <c r="D36" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F36" s="3">
         <v>15</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>24.262538640339319</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H36" s="3">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="4"/>
-        <v>41.891648381319456</v>
+        <v>42.239296915604264</v>
       </c>
       <c r="J36" s="10">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
-        <v>50.944835283273896</v>
+        <v>54.899265107078811</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B37" s="10">
-        <v>751</v>
+        <v>821</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>35.671442773332672</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D37" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F37" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>24.262538640339319</v>
       </c>
       <c r="H37" s="3">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="4"/>
-        <v>37.951631659424955</v>
+        <v>41.891648381319456</v>
       </c>
       <c r="J37" s="10">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>48.967620371371439</v>
+        <v>50.944835283273896</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B38" s="10">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>36.436384135735842</v>
+        <v>35.671442773332672</v>
       </c>
       <c r="D38" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F38" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H38" s="3">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="4"/>
-        <v>36.329271832762508</v>
+        <v>37.951631659424955</v>
       </c>
       <c r="J38" s="10">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
-        <v>51.786203330891965</v>
+        <v>48.967620371371439</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B39" s="10">
-        <v>501</v>
+        <v>662</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>37.394981539253742</v>
+        <v>36.436384135735842</v>
       </c>
       <c r="D39" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F39" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="2"/>
-        <v>14.976875703913157</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H39" s="3">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="4"/>
-        <v>34.764853428480876</v>
+        <v>36.329271832762508</v>
       </c>
       <c r="J39" s="10">
         <v>173</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
-        <v>55.404085935649647</v>
+        <v>51.786203330891965</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B40" s="10">
-        <v>262</v>
+        <v>501</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>38.121191693433964</v>
+        <v>37.394981539253742</v>
       </c>
       <c r="D40" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F40" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
-        <v>17.373175816539263</v>
+        <v>14.976875703913157</v>
       </c>
       <c r="H40" s="3">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="4"/>
-        <v>36.155447565620108</v>
+        <v>34.764853428480876</v>
       </c>
       <c r="J40" s="10">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
-        <v>57.633711261837526</v>
+        <v>55.404085935649647</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B41" s="10">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>38.48913817155195</v>
+        <v>38.121191693433964</v>
       </c>
       <c r="D41" s="10">
         <v>1</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F41" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H41" s="10">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="4"/>
-        <v>36.387213255143315</v>
+        <v>36.155447565620108</v>
       </c>
       <c r="J41" s="10">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
-        <v>56.876480018981269</v>
+        <v>57.633711261837526</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B42" s="10">
-        <v>532</v>
+        <v>298</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>40.183628531305807</v>
+        <v>38.48913817155195</v>
       </c>
       <c r="D42" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F42" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
-        <v>16.474563274304476</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H42" s="10">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="4"/>
-        <v>39.921640020372202</v>
+        <v>36.387213255143315</v>
       </c>
       <c r="J42" s="10">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="3"/>
-        <v>59.316447357073656</v>
+        <v>56.876480018981269</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B43" s="10">
-        <v>678</v>
+        <v>532</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>42.643060253462835</v>
+        <v>40.183628531305807</v>
       </c>
       <c r="D43" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F43" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>16.474563274304476</v>
       </c>
       <c r="H43" s="10">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="4"/>
-        <v>41.312234157511433</v>
+        <v>39.921640020372202</v>
       </c>
       <c r="J43" s="10">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
-        <v>63.186740376116752</v>
+        <v>59.316447357073656</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B44" s="10">
-        <v>830</v>
+        <v>678</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>43.417684417921748</v>
+        <v>42.643060253462835</v>
       </c>
       <c r="D44" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F44" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>23.963001126261055</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H44" s="10">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>39.979581442753009</v>
+        <v>41.312234157511433</v>
       </c>
       <c r="J44" s="10">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="3"/>
-        <v>64.617066057067476</v>
+        <v>63.186740376116752</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B45" s="10">
-        <v>761</v>
+        <v>830</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>42.371941795902217</v>
+        <v>43.417684417921748</v>
       </c>
       <c r="D45" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F45" s="10">
         <v>10</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>23.963001126261055</v>
       </c>
       <c r="H45" s="10">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="4"/>
-        <v>35.923681876096907</v>
+        <v>39.979581442753009</v>
       </c>
       <c r="J45" s="10">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="3"/>
-        <v>64.9956816784956</v>
+        <v>64.617066057067476</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B46" s="10">
-        <v>576</v>
+        <v>761</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>41.839387682836723</v>
+        <v>42.371941795902217</v>
       </c>
       <c r="D46" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F46" s="10">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>28.755601351513267</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H46" s="10">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="4"/>
-        <v>38.241338771328962</v>
+        <v>35.923681876096907</v>
       </c>
       <c r="J46" s="10">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="3"/>
-        <v>60.957115049928888</v>
+        <v>64.9956816784956</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B47" s="10">
-        <v>300</v>
+        <v>576</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>40.725865446427036</v>
+        <v>41.839387682836723</v>
       </c>
       <c r="D47" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F47" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="2"/>
-        <v>26.359301238887156</v>
+        <v>28.755601351513267</v>
       </c>
       <c r="H47" s="10">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="4"/>
-        <v>35.402209074669692</v>
+        <v>38.241338771328962</v>
       </c>
       <c r="J47" s="10">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="3"/>
-        <v>60.326089014215334</v>
+        <v>60.957115049928888</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B48" s="10">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>41.57795202733184</v>
+        <v>40.725865446427036</v>
       </c>
       <c r="D48" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" si="1"/>
         <v>16.393901468653663</v>
       </c>
       <c r="F48" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>26.359301238887156</v>
       </c>
       <c r="H48" s="10">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="4"/>
-        <v>34.533087738957668</v>
+        <v>35.402209074669692</v>
       </c>
       <c r="J48" s="10">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="3"/>
-        <v>63.7756980094494</v>
+        <v>60.326089014215334</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B49" s="10">
-        <v>786</v>
+        <v>473</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>42.149237348620282</v>
+        <v>41.57795202733184</v>
       </c>
       <c r="D49" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>16.793752723986675</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F49" s="10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H49" s="10">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="4"/>
-        <v>31.867782309440802</v>
+        <v>34.533087738957668</v>
       </c>
       <c r="J49" s="10">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="3"/>
-        <v>65.542570909447335</v>
+        <v>63.7756980094494</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B50" s="10">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>41.200322747158118</v>
+        <v>42.149237348620282</v>
       </c>
       <c r="D50" s="10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" si="1"/>
-        <v>19.592711511317791</v>
+        <v>16.793752723986675</v>
       </c>
       <c r="F50" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H50" s="10">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="4"/>
-        <v>27.8118827427847</v>
+        <v>31.867782309440802</v>
       </c>
       <c r="J50" s="10">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="3"/>
-        <v>65.037750080876506</v>
+        <v>65.542570909447335</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B51" s="10">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>39.893144469633718</v>
+        <v>41.200322747158118</v>
       </c>
       <c r="D51" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>19.592711511317791</v>
       </c>
       <c r="F51" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="2"/>
-        <v>24.861613668495846</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H51" s="10">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="4"/>
-        <v>28.507179811354316</v>
+        <v>27.8118827427847</v>
       </c>
       <c r="J51" s="10">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="3"/>
-        <v>62.092961914213276</v>
+        <v>65.037750080876506</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B52" s="10">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>38.750573827056826</v>
+        <v>39.893144469633718</v>
       </c>
       <c r="D52" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="1"/>
-        <v>17.993306489985727</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F52" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>24.861613668495846</v>
       </c>
       <c r="H52" s="10">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="4"/>
-        <v>27.985707009927108</v>
+        <v>28.507179811354316</v>
       </c>
       <c r="J52" s="10">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="3"/>
-        <v>59.021968540407336</v>
+        <v>62.092961914213276</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B53" s="10">
-        <v>461</v>
+        <v>706</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>38.750573827056826</v>
       </c>
       <c r="D53" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="1"/>
-        <v>18.393157745318742</v>
+        <v>17.993306489985727</v>
       </c>
       <c r="F53" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="2"/>
-        <v>17.672713330617526</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H53" s="10">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>24.509221667079018</v>
+        <v>27.985707009927108</v>
       </c>
       <c r="J53" s="10">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="3"/>
-        <v>59.695062978501781</v>
+        <v>59.021968540407336</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B54" s="10">
-        <v>388</v>
+        <v>461</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>36.320190511067004</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D54" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E54" s="7">
         <f t="shared" si="1"/>
-        <v>21.991819043315886</v>
+        <v>18.393157745318742</v>
       </c>
       <c r="F54" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>15.575950732069684</v>
+        <v>17.672713330617526</v>
       </c>
       <c r="H54" s="10">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="4"/>
-        <v>24.393338822317414</v>
+        <v>24.509221667079018</v>
       </c>
       <c r="J54" s="10">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="3"/>
-        <v>59.232310552311851</v>
+        <v>59.695062978501781</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B55" s="10">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>36.320190511067004</v>
       </c>
       <c r="D55" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F55" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="2"/>
-        <v>14.677338189834897</v>
+        <v>15.575950732069684</v>
       </c>
       <c r="H55" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>24.393338822317414</v>
       </c>
       <c r="J55" s="10">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="3"/>
-        <v>58.811626528502821</v>
+        <v>59.232310552311851</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B56" s="10">
-        <v>688</v>
+        <v>532</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>35.729539585667091</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D56" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E56" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F56" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>13.179650619443578</v>
+        <v>14.677338189834897</v>
       </c>
       <c r="H56" s="10">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="4"/>
-        <v>24.103631710413406</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J56" s="10">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="3"/>
-        <v>59.652994576120875</v>
+        <v>58.811626528502821</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B57" s="10">
-        <v>623</v>
+        <v>688</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>33.463763904624784</v>
+        <v>35.729539585667091</v>
       </c>
       <c r="D57" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E57" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F57" s="10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>13.179650619443578</v>
       </c>
       <c r="H57" s="10">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="4"/>
-        <v>23.640100331366995</v>
+        <v>24.103631710413406</v>
       </c>
       <c r="J57" s="10">
         <v>221</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="3"/>
-        <v>56.582001202314935</v>
+        <v>59.652994576120875</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B58" s="10">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>33.676785549850983</v>
+        <v>33.463763904624784</v>
       </c>
       <c r="D58" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E58" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F58" s="10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>10.783350506817474</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H58" s="10">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="4"/>
-        <v>25.494225847552645</v>
+        <v>23.640100331366995</v>
       </c>
       <c r="J58" s="10">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="3"/>
-        <v>57.381300847552104</v>
+        <v>56.582001202314935</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B59" s="10">
-        <v>479</v>
+        <v>604</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>34.170608454693543</v>
+        <v>33.676785549850983</v>
       </c>
       <c r="D59" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="1"/>
-        <v>19.192860255984773</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F59" s="10">
         <v>6</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H59" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="4"/>
-        <v>25.378343002791041</v>
+        <v>25.494225847552645</v>
       </c>
       <c r="J59" s="10">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="3"/>
-        <v>59.737131380882687</v>
+        <v>57.381300847552104</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B60" s="10">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>36.678454187129248</v>
+        <v>34.170608454693543</v>
       </c>
       <c r="D60" s="10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E60" s="7">
         <f t="shared" si="1"/>
-        <v>24.390926575313983</v>
+        <v>19.192860255984773</v>
       </c>
       <c r="F60" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>13.778725647600105</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H60" s="10">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="4"/>
-        <v>25.436284425171838</v>
+        <v>25.378343002791041</v>
       </c>
       <c r="J60" s="10">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="3"/>
-        <v>62.429509133260495</v>
+        <v>59.737131380882687</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B61" s="10">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>36.213679688453908</v>
+        <v>36.678454187129248</v>
       </c>
       <c r="D61" s="10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>24.390926575313983</v>
       </c>
       <c r="F61" s="10">
         <v>3</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="2"/>
-        <v>15.875488246147947</v>
+        <v>13.778725647600105</v>
       </c>
       <c r="H61" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="4"/>
-        <v>25.725991537075849</v>
+        <v>25.436284425171838</v>
       </c>
       <c r="J61" s="10">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="3"/>
-        <v>59.526789368978172</v>
+        <v>62.429509133260495</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B62" s="10">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>35.013012233542604</v>
+        <v>36.213679688453908</v>
       </c>
       <c r="D62" s="10">
         <v>2</v>
@@ -4011,1117 +4011,1117 @@
         <v>21.59196778798287</v>
       </c>
       <c r="F62" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H62" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>25.725991537075849</v>
       </c>
       <c r="J62" s="10">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="3"/>
-        <v>59.106105345169134</v>
+        <v>59.526789368978172</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B63" s="10">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>34.645065755424618</v>
+        <v>35.013012233542604</v>
       </c>
       <c r="D63" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="1"/>
-        <v>21.991819043315886</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F63" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="2"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H63" s="10">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="4"/>
-        <v>24.914811623744626</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J63" s="10">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="3"/>
-        <v>56.119248776125005</v>
+        <v>59.106105345169134</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B64" s="10">
-        <v>645</v>
+        <v>454</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>36.068437657617864</v>
+        <v>34.645065755424618</v>
       </c>
       <c r="D64" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="1"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F64" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H64" s="10">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="4"/>
-        <v>23.698041753747795</v>
+        <v>24.914811623744626</v>
       </c>
       <c r="J64" s="10">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="3"/>
-        <v>60.199883807072631</v>
+        <v>56.119248776125005</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B65" s="10">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>35.187302670545854</v>
+        <v>36.068437657617864</v>
       </c>
       <c r="D65" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="1"/>
-        <v>23.191372809314934</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F65" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="2"/>
-        <v>17.373175816539263</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H65" s="10">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="4"/>
-        <v>19.700083609472497</v>
+        <v>23.698041753747795</v>
       </c>
       <c r="J65" s="10">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="3"/>
-        <v>59.190242149930945</v>
+        <v>60.199883807072631</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B66" s="10">
-        <v>738</v>
+        <v>655</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>33.550909123126416</v>
+        <v>35.187302670545854</v>
       </c>
       <c r="D66" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="1"/>
-        <v>20.392414021983821</v>
+        <v>23.191372809314934</v>
       </c>
       <c r="F66" s="10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>15.875488246147947</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H66" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="4"/>
-        <v>17.440368136621238</v>
+        <v>19.700083609472497</v>
       </c>
       <c r="J66" s="10">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="3"/>
-        <v>56.413727592791325</v>
+        <v>59.190242149930945</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B67" s="10">
-        <v>389</v>
+        <v>738</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>31.004332182467756</v>
+        <v>33.550909123126416</v>
       </c>
       <c r="D67" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="1"/>
-        <v>15.994050213320644</v>
+        <v>20.392414021983821</v>
       </c>
       <c r="F67" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="2"/>
-        <v>14.078263161678368</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H67" s="10">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I67" s="7">
         <f t="shared" si="4"/>
-        <v>15.412418353293189</v>
+        <v>17.440368136621238</v>
       </c>
       <c r="J67" s="10">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="K67" s="7">
         <f t="shared" si="3"/>
-        <v>54.983401911840609</v>
+        <v>56.413727592791325</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B68" s="10">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" ref="C68:C131" si="5">IF(OR(ISBLANK(B68),ISBLANK(B74)),"",SUM(B68:B74)/$O$6*100000)</f>
-        <v>31.265767837972639</v>
+        <v>31.004332182467756</v>
       </c>
       <c r="D68" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" ref="E68:E131" si="6">IF(OR(ISBLANK(D68),ISBLANK(D74)),"",SUM(D68:D74)/$O$7*100000)</f>
-        <v>13.994793936655565</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F68" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" ref="G68:G131" si="7">IF(OR(ISBLANK(F68),ISBLANK(F74)),"",SUM(F68:F74)/$O$8*100000)</f>
-        <v>12.580575591287054</v>
+        <v>14.078263161678368</v>
       </c>
       <c r="H68" s="10">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="4"/>
-        <v>13.90594137139235</v>
+        <v>15.412418353293189</v>
       </c>
       <c r="J68" s="10">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" ref="K68:K131" si="8">IF(OR(ISBLANK(J68),ISBLANK(J74)),"",SUM(J68:J74)/$O$10*100000)</f>
-        <v>56.708206409457652</v>
+        <v>54.983401911840609</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B69" s="10">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" si="5"/>
-        <v>30.694482516684193</v>
+        <v>31.265767837972639</v>
       </c>
       <c r="D69" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69" s="7">
         <f t="shared" si="6"/>
         <v>13.994793936655565</v>
       </c>
       <c r="F69" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>12.580575591287054</v>
       </c>
       <c r="H69" s="10">
         <v>30</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" ref="I69:I132" si="9">IF(OR(ISBLANK(H69),ISBLANK(H75)),"",SUM(H69:H75)/$O$9*100000)</f>
-        <v>13.036820035680329</v>
+        <v>13.90594137139235</v>
       </c>
       <c r="J69" s="10">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="8"/>
-        <v>55.782701557077772</v>
+        <v>56.708206409457652</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B70" s="10">
-        <v>601</v>
+        <v>357</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="5"/>
-        <v>30.142562799507225</v>
+        <v>30.694482516684193</v>
       </c>
       <c r="D70" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="6"/>
-        <v>14.39464519198858</v>
+        <v>13.994793936655565</v>
       </c>
       <c r="F70" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="7"/>
-        <v>13.479188133521841</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H70" s="10">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="9"/>
-        <v>12.747112923776323</v>
+        <v>13.036820035680329</v>
       </c>
       <c r="J70" s="10">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="8"/>
-        <v>56.539932799934029</v>
+        <v>55.782701557077772</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B71" s="10">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="5"/>
-        <v>27.867104316409186</v>
+        <v>30.142562799507225</v>
       </c>
       <c r="D71" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E71" s="7">
         <f t="shared" si="6"/>
-        <v>13.594942681322548</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F71" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="7"/>
-        <v>10.783350506817474</v>
+        <v>13.479188133521841</v>
       </c>
       <c r="H71" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="9"/>
-        <v>11.008870252352278</v>
+        <v>12.747112923776323</v>
       </c>
       <c r="J71" s="10">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="8"/>
-        <v>53.637213035651705</v>
+        <v>56.539932799934029</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B72" s="10">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="5"/>
-        <v>25.272113365471846</v>
+        <v>27.867104316409186</v>
       </c>
       <c r="D72" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F72" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="7"/>
         <v>10.783350506817474</v>
       </c>
       <c r="H72" s="10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I72" s="7">
         <f t="shared" si="9"/>
-        <v>9.4444518480706368</v>
+        <v>11.008870252352278</v>
       </c>
       <c r="J72" s="10">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="8"/>
-        <v>50.103467235655835</v>
+        <v>53.637213035651705</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B73" s="10">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="5"/>
-        <v>23.606671411885195</v>
+        <v>25.272113365471846</v>
       </c>
       <c r="D73" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F73" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="7"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H73" s="10">
         <v>29</v>
       </c>
       <c r="I73" s="7">
         <f t="shared" si="9"/>
-        <v>8.865037624262623</v>
+        <v>9.4444518480706368</v>
       </c>
       <c r="J73" s="10">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="8"/>
-        <v>47.95797871422976</v>
+        <v>50.103467235655835</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B74" s="10">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="5"/>
-        <v>21.234384908229792</v>
+        <v>23.606671411885195</v>
       </c>
       <c r="D74" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E74" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F74" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="7"/>
-        <v>9.5852004505044217</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H74" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I74" s="7">
         <f t="shared" si="9"/>
-        <v>7.7641505990273956</v>
+        <v>8.865037624262623</v>
       </c>
       <c r="J74" s="10">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="8"/>
-        <v>43.582864866615822</v>
+        <v>47.95797871422976</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B75" s="10">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="5"/>
-        <v>18.968609227187489</v>
+        <v>21.234384908229792</v>
       </c>
       <c r="D75" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E75" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F75" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>9.5852004505044217</v>
       </c>
       <c r="H75" s="10">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I75" s="7">
         <f t="shared" si="9"/>
-        <v>6.7212049961729692</v>
+        <v>7.7641505990273956</v>
       </c>
       <c r="J75" s="10">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="8"/>
-        <v>40.511871492809881</v>
+        <v>43.582864866615822</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B76" s="10">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="5"/>
-        <v>17.390312492102463</v>
+        <v>18.968609227187489</v>
       </c>
       <c r="D76" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E76" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F76" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="7"/>
-        <v>8.9861254223478948</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H76" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I76" s="7">
         <f t="shared" si="9"/>
-        <v>6.0838493499841535</v>
+        <v>6.7212049961729692</v>
       </c>
       <c r="J76" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="8"/>
-        <v>36.683646876147677</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B77" s="10">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="5"/>
-        <v>15.782967350850232</v>
+        <v>17.390312492102463</v>
       </c>
       <c r="D77" s="10">
         <v>4</v>
       </c>
       <c r="E77" s="7">
         <f t="shared" si="6"/>
-        <v>11.995537659990484</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F77" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="7"/>
-        <v>8.0875128801131062</v>
+        <v>8.9861254223478948</v>
       </c>
       <c r="H77" s="10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I77" s="7">
         <f t="shared" si="9"/>
-        <v>5.0988451695105281</v>
+        <v>6.0838493499841535</v>
       </c>
       <c r="J77" s="10">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="8"/>
-        <v>33.486448295199025</v>
+        <v>36.683646876147677</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B78" s="10">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="5"/>
-        <v>13.981966168483272</v>
+        <v>15.782967350850232</v>
       </c>
       <c r="D78" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F78" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G78" s="7">
         <f t="shared" si="7"/>
-        <v>8.6865879082696313</v>
+        <v>8.0875128801131062</v>
       </c>
       <c r="H78" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="9"/>
-        <v>5.388552281414535</v>
+        <v>5.0988451695105281</v>
       </c>
       <c r="J78" s="10">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="8"/>
-        <v>29.616155276155926</v>
+        <v>33.486448295199025</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B79" s="10">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="5"/>
-        <v>12.597325474512976</v>
+        <v>13.981966168483272</v>
       </c>
       <c r="D79" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F79" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G79" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>8.6865879082696313</v>
       </c>
       <c r="H79" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="9"/>
-        <v>5.0409037471297271</v>
+        <v>5.388552281414535</v>
       </c>
       <c r="J79" s="10">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="8"/>
-        <v>26.839640719016305</v>
+        <v>29.616155276155926</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B80" s="10">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="5"/>
-        <v>10.960931927093537</v>
+        <v>12.597325474512976</v>
       </c>
       <c r="D80" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80" s="7">
         <f t="shared" si="6"/>
-        <v>9.5964301279923863</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F80" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H80" s="10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>5.0409037471297271</v>
       </c>
       <c r="J80" s="10">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="8"/>
-        <v>22.801074090449589</v>
+        <v>26.839640719016305</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B81" s="10">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="5"/>
-        <v>9.8861408989068025</v>
+        <v>10.960931927093537</v>
       </c>
       <c r="D81" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E81" s="7">
         <f t="shared" si="6"/>
-        <v>7.5971738513273062</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F81" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="7"/>
-        <v>5.9907502815652638</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H81" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I81" s="7">
         <f t="shared" si="9"/>
-        <v>4.6932552128449183</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J81" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="8"/>
-        <v>19.856285923786359</v>
+        <v>22.801074090449589</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B82" s="10">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="5"/>
-        <v>8.927543495388905</v>
+        <v>9.8861408989068025</v>
       </c>
       <c r="D82" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E82" s="7">
         <f t="shared" si="6"/>
-        <v>5.5979175746622261</v>
+        <v>7.5971738513273062</v>
       </c>
       <c r="F82" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>5.9907502815652638</v>
       </c>
       <c r="H82" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I82" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>4.6932552128449183</v>
       </c>
       <c r="J82" s="10">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="8"/>
-        <v>17.121839769027645</v>
+        <v>19.856285923786359</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B83" s="10">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="5"/>
-        <v>8.4530861946578231</v>
+        <v>8.927543495388905</v>
       </c>
       <c r="D83" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E83" s="7">
         <f t="shared" si="6"/>
-        <v>3.9985125533301611</v>
+        <v>5.5979175746622261</v>
       </c>
       <c r="F83" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="7"/>
-        <v>5.3916752534087369</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H83" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I83" s="7">
         <f t="shared" si="9"/>
-        <v>5.330610859033734</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J83" s="10">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="8"/>
-        <v>15.354966869029704</v>
+        <v>17.121839769027645</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B84" s="10">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="5"/>
-        <v>7.8430696651464347</v>
+        <v>8.4530861946578231</v>
       </c>
       <c r="D84" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" si="6"/>
-        <v>2.798958787331113</v>
+        <v>3.9985125533301611</v>
       </c>
       <c r="F84" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="7"/>
-        <v>4.4930627111739474</v>
+        <v>5.3916752534087369</v>
       </c>
       <c r="H84" s="10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="9"/>
-        <v>5.15678659189133</v>
+        <v>5.330610859033734</v>
       </c>
       <c r="J84" s="10">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K84" s="7">
         <f t="shared" si="8"/>
-        <v>13.125341542841829</v>
+        <v>15.354966869029704</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B85" s="10">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="5"/>
-        <v>7.5719512075858173</v>
+        <v>7.8430696651464347</v>
       </c>
       <c r="D85" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E85" s="7">
         <f t="shared" si="6"/>
-        <v>1.1995537659990483</v>
+        <v>2.798958787331113</v>
       </c>
       <c r="F85" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" si="7"/>
-        <v>5.6912127674869994</v>
+        <v>4.4930627111739474</v>
       </c>
       <c r="H85" s="10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I85" s="7">
         <f t="shared" si="9"/>
-        <v>4.9250209023681242</v>
+        <v>5.15678659189133</v>
       </c>
       <c r="J85" s="10">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="8"/>
-        <v>10.895716216653955</v>
+        <v>13.125341542841829</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B86" s="10">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="5"/>
-        <v>7.6494136240317072</v>
+        <v>7.5719512075858173</v>
       </c>
       <c r="D86" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="7">
         <f t="shared" si="6"/>
-        <v>0.79970251066603215</v>
+        <v>1.1995537659990483</v>
       </c>
       <c r="F86" s="10">
         <v>2</v>
       </c>
       <c r="G86" s="7">
         <f t="shared" si="7"/>
-        <v>7.7879753660348419</v>
+        <v>5.6912127674869994</v>
       </c>
       <c r="H86" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I86" s="7">
         <f t="shared" si="9"/>
-        <v>5.2147280142721311</v>
+        <v>4.9250209023681242</v>
       </c>
       <c r="J86" s="10">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="8"/>
-        <v>9.8860745595122772</v>
+        <v>10.895716216653955</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B87" s="10">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="5"/>
-        <v>8.1432365288742616</v>
+        <v>7.6494136240317072</v>
       </c>
       <c r="D87" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>0.79970251066603215</v>
       </c>
       <c r="F87" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>7.7879753660348419</v>
       </c>
       <c r="H87" s="10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I87" s="7">
         <f t="shared" si="9"/>
-        <v>7.9379748661697995</v>
+        <v>5.2147280142721311</v>
       </c>
       <c r="J87" s="10">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="8"/>
-        <v>8.7922960976087907</v>
+        <v>9.8860745595122772</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B88" s="10">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="5"/>
-        <v>7.9398976857037979</v>
+        <v>8.1432365288742616</v>
       </c>
       <c r="D88" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F88" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="7"/>
-        <v>11.382425534973999</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H88" s="10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I88" s="7">
         <f t="shared" si="9"/>
         <v>7.9379748661697995</v>
       </c>
       <c r="J88" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="8"/>
-        <v>8.4136804761806605</v>
+        <v>8.7922960976087907</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B89" s="10">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="5"/>
-        <v>8.114188122707052</v>
+        <v>7.9398976857037979</v>
       </c>
       <c r="D89" s="10">
         <v>0</v>
       </c>
       <c r="E89" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F89" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>11.382425534973999</v>
       </c>
       <c r="H89" s="10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I89" s="7">
         <f t="shared" si="9"/>
-        <v>8.4594476675970114</v>
+        <v>7.9379748661697995</v>
       </c>
       <c r="J89" s="10">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>8.4136804761806605</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B90" s="10">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="5"/>
-        <v>7.8914836754251159</v>
+        <v>8.114188122707052</v>
       </c>
       <c r="D90" s="10">
         <v>0</v>
@@ -5131,277 +5131,277 @@
         <v>2.3991075319980966</v>
       </c>
       <c r="F90" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H90" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I90" s="7">
         <f t="shared" si="9"/>
-        <v>8.0538577109314033</v>
+        <v>8.4594476675970114</v>
       </c>
       <c r="J90" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="8"/>
-        <v>10.180553376178599</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B91" s="10">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="5"/>
-        <v>7.5235371973071361</v>
+        <v>7.8914836754251159</v>
       </c>
       <c r="D91" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" si="6"/>
         <v>2.3991075319980966</v>
       </c>
       <c r="F91" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G91" s="7">
         <f t="shared" si="7"/>
         <v>11.981500563130528</v>
       </c>
       <c r="H91" s="10">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I91" s="7">
         <f t="shared" si="9"/>
         <v>8.0538577109314033</v>
       </c>
       <c r="J91" s="10">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="8"/>
-        <v>10.306758583321308</v>
+        <v>10.180553376178599</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B92" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="5"/>
-        <v>6.6230366061236561</v>
+        <v>7.5235371973071361</v>
       </c>
       <c r="D92" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F92" s="10">
         <v>9</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H92" s="10">
         <v>19</v>
       </c>
       <c r="I92" s="7">
         <f t="shared" si="9"/>
-        <v>7.0109121080769761</v>
+        <v>8.0538577109314033</v>
       </c>
       <c r="J92" s="10">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="8"/>
-        <v>10.517100595225825</v>
+        <v>10.306758583321308</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B93" s="10">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="5"/>
-        <v>5.4030035471008766</v>
+        <v>6.6230366061236561</v>
       </c>
       <c r="D93" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" si="6"/>
         <v>1.9992562766650805</v>
       </c>
       <c r="F93" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H93" s="10">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I93" s="7">
         <f t="shared" si="9"/>
-        <v>5.9679665052225497</v>
+        <v>7.0109121080769761</v>
       </c>
       <c r="J93" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>10.517100595225825</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B94" s="10">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="5"/>
-        <v>3.7956584058486449</v>
+        <v>5.4030035471008766</v>
       </c>
       <c r="D94" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E94" s="7">
         <f t="shared" si="6"/>
-        <v>0.39985125533301608</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F94" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G94" s="7">
         <f t="shared" si="7"/>
-        <v>1.7972250844695792</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H94" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I94" s="7">
         <f t="shared" si="9"/>
-        <v>2.7232468518976685</v>
+        <v>5.9679665052225497</v>
       </c>
       <c r="J94" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="8"/>
-        <v>9.2129801214178233</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B95" s="10">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="5"/>
-        <v>2.9726202311110557</v>
+        <v>3.7956584058486449</v>
       </c>
       <c r="D95" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" s="7">
         <f t="shared" si="6"/>
         <v>0.39985125533301608</v>
       </c>
       <c r="F95" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" si="7"/>
-        <v>1.4976875703913159</v>
+        <v>1.7972250844695792</v>
       </c>
       <c r="H95" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I95" s="7">
         <f t="shared" si="9"/>
-        <v>2.0858912057088523</v>
+        <v>2.7232468518976685</v>
       </c>
       <c r="J95" s="10">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="8"/>
-        <v>8.5398856833233694</v>
+        <v>9.2129801214178233</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B96" s="10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="5"/>
-        <v>2.0430712337603674</v>
+        <v>2.9726202311110557</v>
       </c>
       <c r="D96" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.39985125533301608</v>
       </c>
       <c r="F96" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G96" s="7">
         <f t="shared" si="7"/>
-        <v>0.29953751407826318</v>
+        <v>1.4976875703913159</v>
       </c>
       <c r="H96" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I96" s="7">
         <f t="shared" si="9"/>
-        <v>1.390594137139235</v>
+        <v>2.0858912057088523</v>
       </c>
       <c r="J96" s="10">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="8"/>
-        <v>5.8895763333264624</v>
+        <v>8.5398856833233694</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B97" s="10">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="5"/>
-        <v>1.5976623391964959</v>
+        <v>2.0430712337603674</v>
       </c>
       <c r="D97" s="10">
         <v>0</v>
@@ -5411,37 +5411,37 @@
         <v>0</v>
       </c>
       <c r="F97" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.29953751407826318</v>
       </c>
       <c r="H97" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="9"/>
-        <v>0.75323849095041895</v>
+        <v>1.390594137139235</v>
       </c>
       <c r="J97" s="10">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="8"/>
-        <v>4.6695926642802661</v>
+        <v>5.8895763333264624</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B98" s="10">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="5"/>
-        <v>1.3071782775244056</v>
+        <v>1.5976623391964959</v>
       </c>
       <c r="D98" s="10">
         <v>0</v>
@@ -5458,30 +5458,30 @@
         <v>0</v>
       </c>
       <c r="H98" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I98" s="7">
         <f t="shared" si="9"/>
-        <v>0.57941422380801455</v>
+        <v>0.75323849095041895</v>
       </c>
       <c r="J98" s="10">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K98" s="7">
         <f t="shared" si="8"/>
-        <v>3.8282246166622</v>
+        <v>4.6695926642802661</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B99" s="10">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="5"/>
-        <v>0.81335537268185243</v>
+        <v>1.3071782775244056</v>
       </c>
       <c r="D99" s="10">
         <v>0</v>
@@ -5502,26 +5502,26 @@
       </c>
       <c r="I99" s="7">
         <f t="shared" si="9"/>
-        <v>0.69529706856961748</v>
+        <v>0.57941422380801455</v>
       </c>
       <c r="J99" s="10">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="8"/>
-        <v>2.3978989357114884</v>
+        <v>3.8282246166622</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B100" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="5"/>
-        <v>0.58096812334418035</v>
+        <v>0.81335537268185243</v>
       </c>
       <c r="D100" s="10">
         <v>0</v>
@@ -5542,26 +5542,26 @@
       </c>
       <c r="I100" s="7">
         <f t="shared" si="9"/>
-        <v>0.63735564618881602</v>
+        <v>0.69529706856961748</v>
       </c>
       <c r="J100" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="8"/>
-        <v>1.5144624857125188</v>
+        <v>2.3978989357114884</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B101" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="5"/>
-        <v>0.30016686372782653</v>
+        <v>0.58096812334418035</v>
       </c>
       <c r="D101" s="10">
         <v>0</v>
@@ -5578,30 +5578,30 @@
         <v>0</v>
       </c>
       <c r="H101" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" s="7">
         <f t="shared" si="9"/>
         <v>0.63735564618881602</v>
       </c>
       <c r="J101" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="8"/>
-        <v>0.63102603571354954</v>
+        <v>1.5144624857125188</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B102" s="10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="5"/>
-        <v>0.17429043700325408</v>
+        <v>0.30016686372782653</v>
       </c>
       <c r="D102" s="10">
         <v>0</v>
@@ -5618,30 +5618,30 @@
         <v>0</v>
       </c>
       <c r="H102" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" s="7">
         <f t="shared" si="9"/>
-        <v>0.52147280142721308</v>
+        <v>0.63735564618881602</v>
       </c>
       <c r="J102" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K102" s="7">
         <f t="shared" si="8"/>
-        <v>0.21034201190451648</v>
+        <v>0.63102603571354954</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B103" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="5"/>
-        <v>0.12587642672457242</v>
+        <v>0.17429043700325408</v>
       </c>
       <c r="D103" s="10">
         <v>0</v>
@@ -5658,26 +5658,26 @@
         <v>0</v>
       </c>
       <c r="H103" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103" s="7">
         <f t="shared" si="9"/>
-        <v>0.34764853428480874</v>
+        <v>0.52147280142721308</v>
       </c>
       <c r="J103" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="7">
         <f t="shared" si="8"/>
-        <v>0.1682736095236132</v>
+        <v>0.21034201190451648</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B104" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="5"/>
@@ -5698,14 +5698,14 @@
         <v>0</v>
       </c>
       <c r="H104" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" s="7">
         <f t="shared" si="9"/>
         <v>0.34764853428480874</v>
       </c>
       <c r="J104" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="7">
         <f t="shared" si="8"/>
@@ -5714,14 +5714,14 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B105" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363378E-2</v>
+        <v>0.12587642672457242</v>
       </c>
       <c r="D105" s="10">
         <v>0</v>
@@ -5738,30 +5738,30 @@
         <v>0</v>
       </c>
       <c r="H105" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" s="7">
         <f t="shared" si="9"/>
-        <v>0.23176568952320581</v>
+        <v>0.34764853428480874</v>
       </c>
       <c r="J105" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K105" s="7">
         <f t="shared" si="8"/>
-        <v>0.12620520714270991</v>
+        <v>0.1682736095236132</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B106" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="5"/>
-        <v>1.936560411147268E-2</v>
+        <v>9.6828020557363378E-2</v>
       </c>
       <c r="D106" s="10">
         <v>0</v>
@@ -5778,30 +5778,30 @@
         <v>0</v>
       </c>
       <c r="H106" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I106" s="7">
         <f t="shared" si="9"/>
-        <v>5.7941422380801452E-2</v>
+        <v>0.23176568952320581</v>
       </c>
       <c r="J106" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K106" s="7">
         <f t="shared" si="8"/>
-        <v>4.20684023809033E-2</v>
+        <v>0.12620520714270991</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B107" s="10">
         <v>1</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>1.936560411147268E-2</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -5818,30 +5818,30 @@
         <v>0</v>
       </c>
       <c r="H107" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" s="7">
         <f t="shared" si="9"/>
         <v>5.7941422380801452E-2</v>
       </c>
       <c r="J107" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.20684023809033E-2</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B108" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
@@ -5858,11 +5858,11 @@
         <v>0</v>
       </c>
       <c r="H108" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.7941422380801452E-2</v>
       </c>
       <c r="J108" s="10">
         <v>0</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B109" s="10">
         <v>0</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B110" s="10">
         <v>0</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B111" s="10">
         <v>0</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B112" s="10">
         <v>0</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B113" s="10">
         <v>0</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B114" s="10">
         <v>0</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B115" s="10">
         <v>0</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B116" s="10">
         <v>0</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
@@ -6434,14 +6434,14 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
       </c>
       <c r="C123" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>0</v>
       </c>
       <c r="D123" s="10">
         <v>0</v>
@@ -6474,47 +6474,47 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
       </c>
-      <c r="C124" s="7" t="str">
+      <c r="C124" s="7">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D124" s="10">
         <v>0</v>
       </c>
-      <c r="E124" s="7" t="str">
+      <c r="E124" s="7">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F124" s="10">
         <v>0</v>
       </c>
-      <c r="G124" s="7" t="str">
+      <c r="G124" s="7">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H124" s="10">
         <v>0</v>
       </c>
-      <c r="I124" s="7" t="str">
+      <c r="I124" s="7">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J124" s="10">
         <v>0</v>
       </c>
-      <c r="K124" s="7" t="str">
+      <c r="K124" s="7">
         <f t="shared" si="8"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
@@ -6554,7 +6554,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
@@ -6674,10 +6674,10 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B129" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" s="7" t="str">
         <f t="shared" si="5"/>
@@ -6713,28 +6713,40 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
-      <c r="B130" s="10"/>
+      <c r="A130" s="4">
+        <v>43865</v>
+      </c>
+      <c r="B130" s="10">
+        <v>1</v>
+      </c>
       <c r="C130" s="7" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D130" s="10"/>
+      <c r="D130" s="10">
+        <v>0</v>
+      </c>
       <c r="E130" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F130" s="10"/>
+      <c r="F130" s="10">
+        <v>0</v>
+      </c>
       <c r="G130" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H130" s="10"/>
+      <c r="H130" s="10">
+        <v>0</v>
+      </c>
       <c r="I130" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J130" s="10"/>
+      <c r="J130" s="10">
+        <v>0</v>
+      </c>
       <c r="K130" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BD1259-8F1E-4BAC-95A5-50A81703C071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4529AC79-84D4-4999-88BF-4E5FD25114D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38385" yWindow="4395" windowWidth="38370" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
     <t>/100k (7Tage)</t>
   </si>
   <si>
-    <t>Datenabruf: 06/09/2020 14:52:14</t>
+    <t>Datenabruf: Dienstag 2020-06-09 15:06</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: 06/09/2020 14:52:14</a:t>
+              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Dienstag 2020-06-09 15:06</a:t>
             </a:r>
           </a:p>
         </c:rich>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4529AC79-84D4-4999-88BF-4E5FD25114D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2BB127-BB7F-48A2-BDC2-AA2C300F90D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38385" yWindow="4395" windowWidth="38370" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4236" yWindow="2556" windowWidth="38376" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schweden, offiziell" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
     <t>/100k (7Tage)</t>
   </si>
   <si>
-    <t>Datenabruf: Dienstag 2020-06-09 15:06</t>
+    <t>Datenabruf: Mittwoch 2020-06-10 14:00</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Dienstag 2020-06-09 15:06</a:t>
+              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Mittwoch 2020-06-10 14:00</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -308,187 +308,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43932</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,187 +500,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>51.125194854287869</c:v>
+                  <c:v>49.382290484255329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.767597064522995</c:v>
+                  <c:v>57.825693876857414</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>57.825693876857414</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>58.81333968654252</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>56.905827681562471</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>53.10048647365808</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>49.546898119202844</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>46.922858762098301</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>44.463427039941266</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43.194979970639807</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>41.849070484892458</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41.316516371826957</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41.035715112210603</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>38.64406300444373</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>37.123863081693123</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>37.211008300194749</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>36.087803261729334</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>36.562260562460416</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>36.126534469952283</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>37.888804444096294</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>38.585966192109311</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>37.578954778312728</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>38.653745806499465</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>38.934547066115819</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>39.118520305174812</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>40.580623415590999</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>40.59998901970247</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>41.907167297226877</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>42.197651358898966</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>40.861424675207346</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>41.006666706043397</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>40.851741873151617</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>38.808670639391245</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>37.056083467302969</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>35.671442773332672</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>36.436384135735842</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>37.394981539253742</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>38.121191693433964</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>38.48913817155195</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>40.183628531305807</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>42.643060253462835</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43.417684417921748</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>42.371941795902217</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>41.839387682836723</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>40.725865446427036</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>41.57795202733184</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>42.149237348620282</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>41.200322747158118</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>39.893144469633718</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>38.750573827056826</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>36.320190511067004</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>37.056083467302969</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>35.729539585667091</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>33.463763904624784</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>33.676785549850983</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>34.170608454693543</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>36.678454187129248</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>36.213679688453908</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>35.013012233542604</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>34.645065755424618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,187 +718,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43932</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,187 +910,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>34.787059213972405</c:v>
+                  <c:v>30.388695405309225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.586018001303515</c:v>
+                  <c:v>35.986612979971454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.387207958639387</c:v>
+                  <c:v>37.985869256636533</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>34.387207958639387</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>34.387207958639387</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>32.787802937307326</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>34.787059213972405</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>29.588992894643191</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>27.589736617978108</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>27.189885362645096</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.59196778798287</c:v>
+                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.39464519198858</c:v>
+                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>14.39464519198858</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>11.195835149324452</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>8.7967276173263542</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>9.1965788726593711</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>9.9962813833254032</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>9.5964301279923863</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>12.395388915323501</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>15.994050213320644</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>15.194347702654612</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>13.594942681322548</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>17.193603979319693</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>17.193603979319693</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>16.393901468653663</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>16.793752723986675</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>19.592711511317791</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>17.993306489985727</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>18.393157745318742</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>21.991819043315886</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>19.192860255984773</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>24.390926575313983</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21.991819043315886</c:v>
+                  <c:v>21.59196778798287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,82 +1641,82 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B4" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C67" si="0">IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/$O$6*100000)</f>
-        <v>51.125194854287869</v>
+        <v>49.382290484255329</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:E67" si="1">IF(OR(ISBLANK(D4),ISBLANK(D10)),"",SUM(D4:D10)/$O$7*100000)</f>
-        <v>34.787059213972405</v>
+        <v>30.388695405309225</v>
       </c>
       <c r="F4" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G67" si="2">IF(OR(ISBLANK(F4),ISBLANK(F10)),"",SUM(F4:F10)/$O$8*100000)</f>
-        <v>31.451438978217631</v>
+        <v>35.944501689391579</v>
       </c>
       <c r="H4" s="12">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="I4" s="9">
         <f>IF(OR(ISBLANK(H4),ISBLANK(H10)),"",SUM(H4:H10)/$O$9*100000)</f>
-        <v>117.50520458826536</v>
+        <v>105.68515442258186</v>
       </c>
       <c r="J4" s="11">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K67" si="3">IF(OR(ISBLANK(J4),ISBLANK(J10)),"",SUM(J4:J10)/$O$10*100000)</f>
-        <v>47.495226288039831</v>
+        <v>45.518011376137373</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B5" s="10">
-        <v>536</v>
+        <v>888</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>57.767597064522995</v>
+        <v>57.825693876857414</v>
       </c>
       <c r="D5" s="10">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>37.586018001303515</v>
+        <v>35.986612979971454</v>
       </c>
       <c r="F5" s="3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="2"/>
-        <v>39.538951858330741</v>
+        <v>38.939876830174214</v>
       </c>
       <c r="H5" s="3">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" ref="I5:I68" si="4">IF(OR(ISBLANK(H5),ISBLANK(H11)),"",SUM(H5:H11)/$O$9*100000)</f>
-        <v>128.57201626299843</v>
+        <v>127.1814221258592</v>
       </c>
       <c r="J5" s="10">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="3"/>
-        <v>52.122750549939191</v>
+        <v>54.857196704697905</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>6</v>
@@ -1724,42 +1724,42 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B6" s="10">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>58.81333968654252</v>
+        <v>57.825693876857414</v>
       </c>
       <c r="D6" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>34.387207958639387</v>
+        <v>37.985869256636533</v>
       </c>
       <c r="F6" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>41.036639428722054</v>
+        <v>39.538951858330741</v>
       </c>
       <c r="H6" s="3">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>126.949656436336</v>
+        <v>128.62995768537925</v>
       </c>
       <c r="J6" s="10">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="3"/>
-        <v>53.468939426128095</v>
+        <v>52.122750549939191</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
@@ -1770,42 +1770,42 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B7" s="10">
-        <v>825</v>
+        <v>462</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>56.905827681562471</v>
+        <v>58.81333968654252</v>
       </c>
       <c r="D7" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>34.387207958639387</v>
       </c>
       <c r="F7" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>40.437564400565527</v>
+        <v>41.036639428722054</v>
       </c>
       <c r="H7" s="3">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>119.4172715268318</v>
+        <v>126.949656436336</v>
       </c>
       <c r="J7" s="10">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
-        <v>54.310307473746164</v>
+        <v>53.468939426128095</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -1816,42 +1816,42 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B8" s="10">
-        <v>1143</v>
+        <v>825</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>53.10048647365808</v>
+        <v>56.905827681562471</v>
       </c>
       <c r="D8" s="10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>32.787802937307326</v>
+        <v>34.387207958639387</v>
       </c>
       <c r="F8" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>38.04126428793942</v>
+        <v>40.437564400565527</v>
       </c>
       <c r="H8" s="3">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="4"/>
-        <v>109.79899541161878</v>
+        <v>119.4172715268318</v>
       </c>
       <c r="J8" s="10">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>48.673141554705118</v>
+        <v>54.310307473746164</v>
       </c>
       <c r="N8" t="s">
         <v>2</v>
@@ -1862,42 +1862,42 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B9" s="10">
-        <v>1042</v>
+        <v>1143</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>49.546898119202844</v>
+        <v>53.10048647365808</v>
       </c>
       <c r="D9" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>34.787059213972405</v>
+        <v>32.787802937307326</v>
       </c>
       <c r="F9" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>36.244039203469846</v>
+        <v>38.04126428793942</v>
       </c>
       <c r="H9" s="3">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="4"/>
-        <v>94.734225592610386</v>
+        <v>109.79899541161878</v>
       </c>
       <c r="J9" s="10">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>47.83177350708705</v>
+        <v>48.673141554705118</v>
       </c>
       <c r="N9" t="s">
         <v>9</v>
@@ -1908,42 +1908,42 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B10" s="10">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>46.922858762098301</v>
+        <v>49.546898119202844</v>
       </c>
       <c r="D10" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>29.588992894643191</v>
+        <v>34.787059213972405</v>
       </c>
       <c r="F10" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>37.741726773861153</v>
+        <v>36.244039203469846</v>
       </c>
       <c r="H10" s="3">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="4"/>
-        <v>77.17797461122754</v>
+        <v>94.734225592610386</v>
       </c>
       <c r="J10" s="10">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>50.482082857083967</v>
+        <v>47.83177350708705</v>
       </c>
       <c r="N10" t="s">
         <v>3</v>
@@ -1954,2094 +1954,2094 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B11" s="10">
-        <v>888</v>
+        <v>1070</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>44.463427039941266</v>
+        <v>46.922858762098301</v>
       </c>
       <c r="D11" s="10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>27.589736617978108</v>
+        <v>29.588992894643191</v>
       </c>
       <c r="F11" s="3">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>44.631089597661216</v>
+        <v>37.741726773861153</v>
       </c>
       <c r="H11" s="3">
-        <v>269</v>
+        <v>429</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="4"/>
-        <v>58.462895182228671</v>
+        <v>77.17797461122754</v>
       </c>
       <c r="J11" s="10">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>49.430372797561382</v>
+        <v>50.482082857083967</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B12" s="10">
-        <v>644</v>
+        <v>888</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>43.194979970639807</v>
+        <v>44.463427039941266</v>
       </c>
       <c r="D12" s="10">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>27.189885362645096</v>
+        <v>27.589736617978108</v>
       </c>
       <c r="F12" s="3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>41.635714456878574</v>
+        <v>44.631089597661216</v>
       </c>
       <c r="H12" s="3">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="4"/>
-        <v>49.829623247489252</v>
+        <v>58.462895182228671</v>
       </c>
       <c r="J12" s="10">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>51.99654534279648</v>
+        <v>49.430372797561382</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B13" s="10">
-        <v>265</v>
+        <v>644</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>41.849070484892458</v>
+        <v>43.194979970639807</v>
       </c>
       <c r="D13" s="10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>27.189885362645096</v>
       </c>
       <c r="F13" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>37.442189259782893</v>
+        <v>41.635714456878574</v>
       </c>
       <c r="H13" s="3">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="4"/>
-        <v>50.640803160820475</v>
+        <v>49.829623247489252</v>
       </c>
       <c r="J13" s="10">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>52.879981792795448</v>
+        <v>51.99654534279648</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B14" s="10">
-        <v>432</v>
+        <v>265</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>41.316516371826957</v>
+        <v>41.849070484892458</v>
       </c>
       <c r="D14" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>22.391670298648904</v>
       </c>
       <c r="F14" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>35.944501689391579</v>
+        <v>37.442189259782893</v>
       </c>
       <c r="H14" s="3">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="4"/>
-        <v>46.469020749402766</v>
+        <v>50.640803160820475</v>
       </c>
       <c r="J14" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>52.543434573748222</v>
+        <v>52.879981792795448</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B15" s="10">
-        <v>776</v>
+        <v>432</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>41.035715112210603</v>
+        <v>41.316516371826957</v>
       </c>
       <c r="D15" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F15" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>34.446814119000265</v>
+        <v>35.944501689391579</v>
       </c>
       <c r="H15" s="3">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.469020749402766</v>
       </c>
       <c r="J15" s="10">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="3"/>
-        <v>52.753776585652744</v>
+        <v>52.543434573748222</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B16" s="10">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>38.64406300444373</v>
+        <v>41.035715112210603</v>
       </c>
       <c r="D16" s="10">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F16" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>31.750976492295894</v>
+        <v>34.446814119000265</v>
       </c>
       <c r="H16" s="3">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="4"/>
-        <v>40.095464287514609</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J16" s="10">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="3"/>
-        <v>49.808988418989507</v>
+        <v>52.753776585652744</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B17" s="10">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>37.123863081693123</v>
+        <v>38.64406300444373</v>
       </c>
       <c r="D17" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>14.39464519198858</v>
       </c>
       <c r="F17" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>31.750976492295894</v>
       </c>
       <c r="H17" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="4"/>
-        <v>43.91959816464751</v>
+        <v>40.095464287514609</v>
       </c>
       <c r="J17" s="10">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
-        <v>43.162180842806784</v>
+        <v>49.808988418989507</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B18" s="10">
-        <v>757</v>
+        <v>816</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>37.211008300194749</v>
+        <v>37.123863081693123</v>
       </c>
       <c r="D18" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F18" s="3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>29.05513886559153</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H18" s="3">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>43.91959816464751</v>
       </c>
       <c r="J18" s="10">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
-        <v>41.731855161856075</v>
+        <v>43.162180842806784</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B19" s="10">
-        <v>505</v>
+        <v>757</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>37.211008300194749</v>
       </c>
       <c r="D19" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>11.195835149324452</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F19" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>26.958376267043683</v>
+        <v>29.05513886559153</v>
       </c>
       <c r="H19" s="3">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="4"/>
-        <v>46.295196482260366</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J19" s="10">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
-        <v>41.311171138047037</v>
+        <v>41.731855161856075</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B20" s="10">
-        <v>210</v>
+        <v>505</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>36.087803261729334</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D20" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="1"/>
-        <v>8.7967276173263542</v>
+        <v>11.195835149324452</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>30.253288921904577</v>
+        <v>26.958376267043683</v>
       </c>
       <c r="H20" s="3">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
-        <v>42.413121182746664</v>
+        <v>46.295196482260366</v>
       </c>
       <c r="J20" s="10">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
-        <v>41.142897528523427</v>
+        <v>41.269102735666138</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B21" s="10">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>36.562260562460416</v>
+        <v>36.087803261729334</v>
       </c>
       <c r="D21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="1"/>
-        <v>9.1965788726593711</v>
+        <v>8.7967276173263542</v>
       </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
-        <v>30.852363950061104</v>
+        <v>30.253288921904577</v>
       </c>
       <c r="H21" s="3">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="4"/>
-        <v>46.005489370356358</v>
+        <v>42.413121182746664</v>
       </c>
       <c r="J21" s="10">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
-        <v>41.142897528523427</v>
+        <v>41.100829126142528</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B22" s="10">
-        <v>529</v>
+        <v>403</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>36.126534469952283</v>
+        <v>36.562260562460416</v>
       </c>
       <c r="D22" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>9.9962813833254032</v>
+        <v>9.1965788726593711</v>
       </c>
       <c r="F22" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>31.451438978217631</v>
+        <v>30.852363950061104</v>
       </c>
       <c r="H22" s="3">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="4"/>
-        <v>46.758727861306781</v>
+        <v>46.005489370356358</v>
       </c>
       <c r="J22" s="10">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
-        <v>40.55393989519078</v>
+        <v>41.100829126142528</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B23" s="10">
-        <v>614</v>
+        <v>529</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>37.888804444096294</v>
+        <v>36.126534469952283</v>
       </c>
       <c r="D23" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
-        <v>9.5964301279923863</v>
+        <v>9.9962813833254032</v>
       </c>
       <c r="F23" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="2"/>
-        <v>35.644964175313319</v>
+        <v>31.451438978217631</v>
       </c>
       <c r="H23" s="3">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="4"/>
-        <v>47.222259240353189</v>
+        <v>46.758727861306781</v>
       </c>
       <c r="J23" s="10">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
-        <v>43.120112440425885</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B24" s="10">
-        <v>825</v>
+        <v>614</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>38.585966192109311</v>
+        <v>37.888804444096294</v>
       </c>
       <c r="D24" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
         <v>9.5964301279923863</v>
       </c>
       <c r="F24" s="3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>36.543576717548106</v>
+        <v>35.644964175313319</v>
       </c>
       <c r="H24" s="3">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="4"/>
-        <v>46.237255059879566</v>
+        <v>47.222259240353189</v>
       </c>
       <c r="J24" s="10">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>45.349737766613757</v>
+        <v>43.078044038044979</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B25" s="10">
-        <v>689</v>
+        <v>825</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>37.578954778312728</v>
+        <v>38.585966192109311</v>
       </c>
       <c r="D25" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F25" s="3">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
-        <v>26.059763724808892</v>
+        <v>36.543576717548106</v>
       </c>
       <c r="H25" s="3">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.237255059879566</v>
       </c>
       <c r="J25" s="10">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>48.210389128515182</v>
+        <v>45.307669364232851</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B26" s="10">
-        <v>457</v>
+        <v>689</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>38.653745806499465</v>
+        <v>37.578954778312728</v>
       </c>
       <c r="D26" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F26" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>26.059763724808892</v>
       </c>
       <c r="H26" s="3">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J26" s="10">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
-        <v>51.449656111844739</v>
+        <v>48.168320726134283</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B27" s="10">
-        <v>259</v>
+        <v>457</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>38.934547066115819</v>
+        <v>38.653745806499465</v>
       </c>
       <c r="D27" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
-        <v>23.064388584026261</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H27" s="3">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J27" s="10">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
-        <v>54.142033864222554</v>
+        <v>51.449656111844739</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B28" s="10">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>39.118520305174812</v>
+        <v>38.934547066115819</v>
       </c>
       <c r="D28" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="1"/>
-        <v>15.994050213320644</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F28" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
         <v>23.064388584026261</v>
       </c>
       <c r="H28" s="3">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="4"/>
-        <v>47.801673464161205</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J28" s="10">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>54.941333509459717</v>
+        <v>54.142033864222554</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B29" s="10">
-        <v>711</v>
+        <v>358</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>40.580623415590999</v>
+        <v>39.118520305174812</v>
       </c>
       <c r="D29" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F29" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>23.064388584026261</v>
       </c>
       <c r="H29" s="3">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="4"/>
-        <v>48.49697053273082</v>
+        <v>47.801673464161205</v>
       </c>
       <c r="J29" s="10">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
-        <v>57.044753628504878</v>
+        <v>54.941333509459717</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B30" s="10">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>40.59998901970247</v>
+        <v>40.580623415590999</v>
       </c>
       <c r="D30" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F30" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>20.069013443243634</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H30" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="4"/>
-        <v>47.048434973210782</v>
+        <v>48.49697053273082</v>
       </c>
       <c r="J30" s="10">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
-        <v>58.222668895170173</v>
+        <v>57.044753628504878</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B31" s="10">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>41.907167297226877</v>
+        <v>40.59998901970247</v>
       </c>
       <c r="D31" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
-        <v>15.194347702654612</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F31" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="2"/>
-        <v>20.668088471400157</v>
+        <v>20.069013443243634</v>
       </c>
       <c r="H31" s="3">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="4"/>
-        <v>47.743732041780397</v>
+        <v>47.048434973210782</v>
       </c>
       <c r="J31" s="10">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
-        <v>63.565355997544884</v>
+        <v>58.222668895170173</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B32" s="10">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>42.197651358898966</v>
+        <v>41.907167297226877</v>
       </c>
       <c r="D32" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
-        <v>13.594942681322548</v>
+        <v>15.194347702654612</v>
       </c>
       <c r="F32" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
-        <v>25.460688696652372</v>
+        <v>20.668088471400157</v>
       </c>
       <c r="H32" s="3">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="4"/>
-        <v>50.29315462653566</v>
+        <v>47.743732041780397</v>
       </c>
       <c r="J32" s="10">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
-        <v>61.588141085642427</v>
+        <v>63.565355997544884</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B33" s="10">
-        <v>486</v>
+        <v>800</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>40.861424675207346</v>
+        <v>42.197651358898966</v>
       </c>
       <c r="D33" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F33" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="2"/>
-        <v>27.856988809278473</v>
+        <v>25.460688696652372</v>
       </c>
       <c r="H33" s="3">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>50.29315462653566</v>
       </c>
       <c r="J33" s="10">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
-        <v>57.086822030885784</v>
+        <v>61.588141085642427</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B34" s="10">
-        <v>278</v>
+        <v>486</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>41.006666706043397</v>
+        <v>40.861424675207346</v>
       </c>
       <c r="D34" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F34" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
         <v>27.856988809278473</v>
       </c>
       <c r="H34" s="3">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="4"/>
-        <v>49.192267601300436</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J34" s="10">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
-        <v>54.226170668984352</v>
+        <v>57.086822030885784</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B35" s="10">
-        <v>509</v>
+        <v>278</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>40.851741873151617</v>
+        <v>41.006666706043397</v>
       </c>
       <c r="D35" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F35" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="2"/>
-        <v>27.257913781121946</v>
+        <v>27.856988809278473</v>
       </c>
       <c r="H35" s="3">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="4"/>
-        <v>46.642845016545174</v>
+        <v>49.192267601300436</v>
       </c>
       <c r="J35" s="10">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
-        <v>56.329590788029527</v>
+        <v>54.226170668984352</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B36" s="10">
-        <v>713</v>
+        <v>509</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>38.808670639391245</v>
+        <v>40.851741873151617</v>
       </c>
       <c r="D36" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F36" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>27.257913781121946</v>
       </c>
       <c r="H36" s="3">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="4"/>
-        <v>42.239296915604264</v>
+        <v>46.642845016545174</v>
       </c>
       <c r="J36" s="10">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
-        <v>54.899265107078811</v>
+        <v>56.329590788029527</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B37" s="10">
-        <v>821</v>
+        <v>713</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>38.808670639391245</v>
       </c>
       <c r="D37" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F37" s="3">
         <v>15</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="2"/>
-        <v>24.262538640339319</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H37" s="3">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="4"/>
-        <v>41.891648381319456</v>
+        <v>42.239296915604264</v>
       </c>
       <c r="J37" s="10">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>50.944835283273896</v>
+        <v>54.899265107078811</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B38" s="10">
-        <v>751</v>
+        <v>821</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>35.671442773332672</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D38" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F38" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>24.262538640339319</v>
       </c>
       <c r="H38" s="3">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="4"/>
-        <v>37.951631659424955</v>
+        <v>41.891648381319456</v>
       </c>
       <c r="J38" s="10">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
-        <v>48.967620371371439</v>
+        <v>50.944835283273896</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B39" s="10">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>36.436384135735842</v>
+        <v>35.671442773332672</v>
       </c>
       <c r="D39" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F39" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H39" s="3">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="4"/>
-        <v>36.329271832762508</v>
+        <v>37.951631659424955</v>
       </c>
       <c r="J39" s="10">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
-        <v>51.786203330891965</v>
+        <v>48.967620371371439</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B40" s="10">
-        <v>501</v>
+        <v>662</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>37.394981539253742</v>
+        <v>36.436384135735842</v>
       </c>
       <c r="D40" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F40" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
-        <v>14.976875703913157</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H40" s="3">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="4"/>
-        <v>34.764853428480876</v>
+        <v>36.329271832762508</v>
       </c>
       <c r="J40" s="10">
         <v>173</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
-        <v>55.404085935649647</v>
+        <v>51.786203330891965</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B41" s="10">
-        <v>262</v>
+        <v>501</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>38.121191693433964</v>
+        <v>37.394981539253742</v>
       </c>
       <c r="D41" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F41" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="2"/>
-        <v>17.373175816539263</v>
+        <v>14.976875703913157</v>
       </c>
       <c r="H41" s="10">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="4"/>
-        <v>36.155447565620108</v>
+        <v>34.764853428480876</v>
       </c>
       <c r="J41" s="10">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
-        <v>57.633711261837526</v>
+        <v>55.404085935649647</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B42" s="10">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>38.48913817155195</v>
+        <v>38.121191693433964</v>
       </c>
       <c r="D42" s="10">
         <v>1</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F42" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H42" s="10">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="4"/>
-        <v>36.387213255143315</v>
+        <v>36.155447565620108</v>
       </c>
       <c r="J42" s="10">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="3"/>
-        <v>56.876480018981269</v>
+        <v>57.633711261837526</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B43" s="10">
-        <v>532</v>
+        <v>298</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>40.183628531305807</v>
+        <v>38.48913817155195</v>
       </c>
       <c r="D43" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F43" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="2"/>
-        <v>16.474563274304476</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H43" s="10">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="4"/>
-        <v>39.921640020372202</v>
+        <v>36.387213255143315</v>
       </c>
       <c r="J43" s="10">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
-        <v>59.316447357073656</v>
+        <v>56.876480018981269</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B44" s="10">
-        <v>678</v>
+        <v>532</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>42.643060253462835</v>
+        <v>40.183628531305807</v>
       </c>
       <c r="D44" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F44" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>16.474563274304476</v>
       </c>
       <c r="H44" s="10">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>41.312234157511433</v>
+        <v>39.921640020372202</v>
       </c>
       <c r="J44" s="10">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="3"/>
-        <v>63.186740376116752</v>
+        <v>59.316447357073656</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B45" s="10">
-        <v>830</v>
+        <v>678</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>43.417684417921748</v>
+        <v>42.643060253462835</v>
       </c>
       <c r="D45" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F45" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="2"/>
-        <v>23.963001126261055</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H45" s="10">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="4"/>
-        <v>39.979581442753009</v>
+        <v>41.312234157511433</v>
       </c>
       <c r="J45" s="10">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="3"/>
-        <v>64.617066057067476</v>
+        <v>63.186740376116752</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B46" s="10">
-        <v>761</v>
+        <v>830</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>42.371941795902217</v>
+        <v>43.417684417921748</v>
       </c>
       <c r="D46" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F46" s="10">
         <v>10</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>23.963001126261055</v>
       </c>
       <c r="H46" s="10">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="4"/>
-        <v>35.923681876096907</v>
+        <v>39.979581442753009</v>
       </c>
       <c r="J46" s="10">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="3"/>
-        <v>64.9956816784956</v>
+        <v>64.617066057067476</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B47" s="10">
-        <v>576</v>
+        <v>761</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>41.839387682836723</v>
+        <v>42.371941795902217</v>
       </c>
       <c r="D47" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F47" s="10">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="2"/>
-        <v>28.755601351513267</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H47" s="10">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="4"/>
-        <v>38.241338771328962</v>
+        <v>35.923681876096907</v>
       </c>
       <c r="J47" s="10">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="3"/>
-        <v>60.957115049928888</v>
+        <v>64.9956816784956</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B48" s="10">
-        <v>300</v>
+        <v>576</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>40.725865446427036</v>
+        <v>41.839387682836723</v>
       </c>
       <c r="D48" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F48" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>26.359301238887156</v>
+        <v>28.755601351513267</v>
       </c>
       <c r="H48" s="10">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="4"/>
-        <v>35.402209074669692</v>
+        <v>38.241338771328962</v>
       </c>
       <c r="J48" s="10">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="3"/>
-        <v>60.326089014215334</v>
+        <v>60.957115049928888</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B49" s="10">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>41.57795202733184</v>
+        <v>40.725865446427036</v>
       </c>
       <c r="D49" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
         <v>16.393901468653663</v>
       </c>
       <c r="F49" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>26.359301238887156</v>
       </c>
       <c r="H49" s="10">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="4"/>
-        <v>34.533087738957668</v>
+        <v>35.402209074669692</v>
       </c>
       <c r="J49" s="10">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="3"/>
-        <v>63.7756980094494</v>
+        <v>60.326089014215334</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B50" s="10">
-        <v>786</v>
+        <v>473</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>42.149237348620282</v>
+        <v>41.57795202733184</v>
       </c>
       <c r="D50" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" si="1"/>
-        <v>16.793752723986675</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F50" s="10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H50" s="10">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="4"/>
-        <v>31.867782309440802</v>
+        <v>34.533087738957668</v>
       </c>
       <c r="J50" s="10">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="3"/>
-        <v>65.542570909447335</v>
+        <v>63.7756980094494</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B51" s="10">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>41.200322747158118</v>
+        <v>42.149237348620282</v>
       </c>
       <c r="D51" s="10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
-        <v>19.592711511317791</v>
+        <v>16.793752723986675</v>
       </c>
       <c r="F51" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H51" s="10">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="4"/>
-        <v>27.8118827427847</v>
+        <v>31.867782309440802</v>
       </c>
       <c r="J51" s="10">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="3"/>
-        <v>65.037750080876506</v>
+        <v>65.542570909447335</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B52" s="10">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>39.893144469633718</v>
+        <v>41.200322747158118</v>
       </c>
       <c r="D52" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>19.592711511317791</v>
       </c>
       <c r="F52" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>24.861613668495846</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H52" s="10">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="4"/>
-        <v>28.507179811354316</v>
+        <v>27.8118827427847</v>
       </c>
       <c r="J52" s="10">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="3"/>
-        <v>62.092961914213276</v>
+        <v>65.037750080876506</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B53" s="10">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>38.750573827056826</v>
+        <v>39.893144469633718</v>
       </c>
       <c r="D53" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="1"/>
-        <v>17.993306489985727</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F53" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>24.861613668495846</v>
       </c>
       <c r="H53" s="10">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>27.985707009927108</v>
+        <v>28.507179811354316</v>
       </c>
       <c r="J53" s="10">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="3"/>
-        <v>59.021968540407336</v>
+        <v>62.092961914213276</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B54" s="10">
-        <v>461</v>
+        <v>706</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>38.750573827056826</v>
       </c>
       <c r="D54" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E54" s="7">
         <f t="shared" si="1"/>
-        <v>18.393157745318742</v>
+        <v>17.993306489985727</v>
       </c>
       <c r="F54" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>17.672713330617526</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H54" s="10">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="4"/>
-        <v>24.509221667079018</v>
+        <v>27.985707009927108</v>
       </c>
       <c r="J54" s="10">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="3"/>
-        <v>59.695062978501781</v>
+        <v>59.021968540407336</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B55" s="10">
-        <v>388</v>
+        <v>461</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>36.320190511067004</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D55" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
-        <v>21.991819043315886</v>
+        <v>18.393157745318742</v>
       </c>
       <c r="F55" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="2"/>
-        <v>15.575950732069684</v>
+        <v>17.672713330617526</v>
       </c>
       <c r="H55" s="10">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="4"/>
-        <v>24.393338822317414</v>
+        <v>24.509221667079018</v>
       </c>
       <c r="J55" s="10">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="3"/>
-        <v>59.232310552311851</v>
+        <v>59.695062978501781</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B56" s="10">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>36.320190511067004</v>
       </c>
       <c r="D56" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="7">
         <f t="shared" si="1"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F56" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>14.677338189834897</v>
+        <v>15.575950732069684</v>
       </c>
       <c r="H56" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>24.393338822317414</v>
       </c>
       <c r="J56" s="10">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="3"/>
-        <v>58.811626528502821</v>
+        <v>59.232310552311851</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B57" s="10">
-        <v>688</v>
+        <v>532</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>35.729539585667091</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D57" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E57" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F57" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="2"/>
-        <v>13.179650619443578</v>
+        <v>14.677338189834897</v>
       </c>
       <c r="H57" s="10">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="4"/>
-        <v>24.103631710413406</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J57" s="10">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="3"/>
-        <v>59.652994576120875</v>
+        <v>58.811626528502821</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B58" s="10">
-        <v>623</v>
+        <v>688</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>33.463763904624784</v>
+        <v>35.729539585667091</v>
       </c>
       <c r="D58" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E58" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F58" s="10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>13.179650619443578</v>
       </c>
       <c r="H58" s="10">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="4"/>
-        <v>23.640100331366995</v>
+        <v>24.103631710413406</v>
       </c>
       <c r="J58" s="10">
         <v>221</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="3"/>
-        <v>56.582001202314935</v>
+        <v>59.652994576120875</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B59" s="10">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>33.676785549850983</v>
+        <v>33.463763904624784</v>
       </c>
       <c r="D59" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F59" s="10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="2"/>
-        <v>10.783350506817474</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H59" s="10">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="4"/>
-        <v>25.494225847552645</v>
+        <v>23.640100331366995</v>
       </c>
       <c r="J59" s="10">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="3"/>
-        <v>57.381300847552104</v>
+        <v>56.582001202314935</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B60" s="10">
-        <v>479</v>
+        <v>604</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>34.170608454693543</v>
+        <v>33.676785549850983</v>
       </c>
       <c r="D60" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="7">
         <f t="shared" si="1"/>
-        <v>19.192860255984773</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F60" s="10">
         <v>6</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H60" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="4"/>
-        <v>25.378343002791041</v>
+        <v>25.494225847552645</v>
       </c>
       <c r="J60" s="10">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="3"/>
-        <v>59.737131380882687</v>
+        <v>57.381300847552104</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B61" s="10">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>36.678454187129248</v>
+        <v>34.170608454693543</v>
       </c>
       <c r="D61" s="10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" si="1"/>
-        <v>24.390926575313983</v>
+        <v>19.192860255984773</v>
       </c>
       <c r="F61" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="2"/>
-        <v>13.778725647600105</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H61" s="10">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="4"/>
-        <v>25.436284425171838</v>
+        <v>25.378343002791041</v>
       </c>
       <c r="J61" s="10">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="3"/>
-        <v>62.429509133260495</v>
+        <v>59.737131380882687</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B62" s="10">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>36.213679688453908</v>
+        <v>36.678454187129248</v>
       </c>
       <c r="D62" s="10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E62" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>24.390926575313983</v>
       </c>
       <c r="F62" s="10">
         <v>3</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
-        <v>15.875488246147947</v>
+        <v>13.778725647600105</v>
       </c>
       <c r="H62" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="4"/>
-        <v>25.725991537075849</v>
+        <v>25.436284425171838</v>
       </c>
       <c r="J62" s="10">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="3"/>
-        <v>59.526789368978172</v>
+        <v>62.429509133260495</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B63" s="10">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>35.013012233542604</v>
+        <v>36.213679688453908</v>
       </c>
       <c r="D63" s="10">
         <v>2</v>
@@ -4051,1117 +4051,1117 @@
         <v>21.59196778798287</v>
       </c>
       <c r="F63" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="2"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H63" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>25.725991537075849</v>
       </c>
       <c r="J63" s="10">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="3"/>
-        <v>59.106105345169134</v>
+        <v>59.526789368978172</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B64" s="10">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>34.645065755424618</v>
+        <v>35.013012233542604</v>
       </c>
       <c r="D64" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="1"/>
-        <v>21.991819043315886</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F64" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H64" s="10">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="4"/>
-        <v>24.914811623744626</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J64" s="10">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="3"/>
-        <v>56.119248776125005</v>
+        <v>59.106105345169134</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B65" s="10">
-        <v>645</v>
+        <v>454</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>36.068437657617864</v>
+        <v>34.645065755424618</v>
       </c>
       <c r="D65" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="1"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F65" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H65" s="10">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="4"/>
-        <v>23.698041753747795</v>
+        <v>24.914811623744626</v>
       </c>
       <c r="J65" s="10">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="3"/>
-        <v>60.199883807072631</v>
+        <v>56.119248776125005</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B66" s="10">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>35.187302670545854</v>
+        <v>36.068437657617864</v>
       </c>
       <c r="D66" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="1"/>
-        <v>23.191372809314934</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F66" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>17.373175816539263</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H66" s="10">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="4"/>
-        <v>19.700083609472497</v>
+        <v>23.698041753747795</v>
       </c>
       <c r="J66" s="10">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="3"/>
-        <v>59.190242149930945</v>
+        <v>60.199883807072631</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B67" s="10">
-        <v>738</v>
+        <v>655</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>33.550909123126416</v>
+        <v>35.187302670545854</v>
       </c>
       <c r="D67" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="1"/>
-        <v>20.392414021983821</v>
+        <v>23.191372809314934</v>
       </c>
       <c r="F67" s="10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="2"/>
-        <v>15.875488246147947</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H67" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I67" s="7">
         <f t="shared" si="4"/>
-        <v>17.440368136621238</v>
+        <v>19.700083609472497</v>
       </c>
       <c r="J67" s="10">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K67" s="7">
         <f t="shared" si="3"/>
-        <v>56.413727592791325</v>
+        <v>59.190242149930945</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B68" s="10">
-        <v>389</v>
+        <v>738</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" ref="C68:C131" si="5">IF(OR(ISBLANK(B68),ISBLANK(B74)),"",SUM(B68:B74)/$O$6*100000)</f>
-        <v>31.004332182467756</v>
+        <v>33.550909123126416</v>
       </c>
       <c r="D68" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" ref="E68:E131" si="6">IF(OR(ISBLANK(D68),ISBLANK(D74)),"",SUM(D68:D74)/$O$7*100000)</f>
-        <v>15.994050213320644</v>
+        <v>20.392414021983821</v>
       </c>
       <c r="F68" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" ref="G68:G131" si="7">IF(OR(ISBLANK(F68),ISBLANK(F74)),"",SUM(F68:F74)/$O$8*100000)</f>
-        <v>14.078263161678368</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H68" s="10">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="4"/>
-        <v>15.412418353293189</v>
+        <v>17.440368136621238</v>
       </c>
       <c r="J68" s="10">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" ref="K68:K131" si="8">IF(OR(ISBLANK(J68),ISBLANK(J74)),"",SUM(J68:J74)/$O$10*100000)</f>
-        <v>54.983401911840609</v>
+        <v>56.413727592791325</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B69" s="10">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" si="5"/>
-        <v>31.265767837972639</v>
+        <v>31.004332182467756</v>
       </c>
       <c r="D69" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E69" s="7">
         <f t="shared" si="6"/>
-        <v>13.994793936655565</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F69" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="7"/>
-        <v>12.580575591287054</v>
+        <v>14.078263161678368</v>
       </c>
       <c r="H69" s="10">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" ref="I69:I132" si="9">IF(OR(ISBLANK(H69),ISBLANK(H75)),"",SUM(H69:H75)/$O$9*100000)</f>
-        <v>13.90594137139235</v>
+        <v>15.412418353293189</v>
       </c>
       <c r="J69" s="10">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="8"/>
-        <v>56.708206409457652</v>
+        <v>54.983401911840609</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B70" s="10">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="5"/>
-        <v>30.694482516684193</v>
+        <v>31.265767837972639</v>
       </c>
       <c r="D70" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="6"/>
         <v>13.994793936655565</v>
       </c>
       <c r="F70" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>12.580575591287054</v>
       </c>
       <c r="H70" s="10">
         <v>30</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="9"/>
-        <v>13.036820035680329</v>
+        <v>13.90594137139235</v>
       </c>
       <c r="J70" s="10">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="8"/>
-        <v>55.782701557077772</v>
+        <v>56.708206409457652</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B71" s="10">
-        <v>601</v>
+        <v>357</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="5"/>
-        <v>30.142562799507225</v>
+        <v>30.694482516684193</v>
       </c>
       <c r="D71" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E71" s="7">
         <f t="shared" si="6"/>
-        <v>14.39464519198858</v>
+        <v>13.994793936655565</v>
       </c>
       <c r="F71" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="7"/>
-        <v>13.479188133521841</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H71" s="10">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="9"/>
-        <v>12.747112923776323</v>
+        <v>13.036820035680329</v>
       </c>
       <c r="J71" s="10">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="8"/>
-        <v>56.539932799934029</v>
+        <v>55.782701557077772</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B72" s="10">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="5"/>
-        <v>27.867104316409186</v>
+        <v>30.142562799507225</v>
       </c>
       <c r="D72" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="6"/>
-        <v>13.594942681322548</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F72" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="7"/>
-        <v>10.783350506817474</v>
+        <v>13.479188133521841</v>
       </c>
       <c r="H72" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" s="7">
         <f t="shared" si="9"/>
-        <v>11.008870252352278</v>
+        <v>12.747112923776323</v>
       </c>
       <c r="J72" s="10">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="8"/>
-        <v>53.637213035651705</v>
+        <v>56.539932799934029</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B73" s="10">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="5"/>
-        <v>25.272113365471846</v>
+        <v>27.867104316409186</v>
       </c>
       <c r="D73" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E73" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F73" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="7"/>
         <v>10.783350506817474</v>
       </c>
       <c r="H73" s="10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I73" s="7">
         <f t="shared" si="9"/>
-        <v>9.4444518480706368</v>
+        <v>11.008870252352278</v>
       </c>
       <c r="J73" s="10">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="8"/>
-        <v>50.103467235655835</v>
+        <v>53.637213035651705</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B74" s="10">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="5"/>
-        <v>23.606671411885195</v>
+        <v>25.272113365471846</v>
       </c>
       <c r="D74" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E74" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F74" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="7"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H74" s="10">
         <v>29</v>
       </c>
       <c r="I74" s="7">
         <f t="shared" si="9"/>
-        <v>8.865037624262623</v>
+        <v>9.4444518480706368</v>
       </c>
       <c r="J74" s="10">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="8"/>
-        <v>47.95797871422976</v>
+        <v>50.103467235655835</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B75" s="10">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="5"/>
-        <v>21.234384908229792</v>
+        <v>23.606671411885195</v>
       </c>
       <c r="D75" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E75" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F75" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="7"/>
-        <v>9.5852004505044217</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H75" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I75" s="7">
         <f t="shared" si="9"/>
-        <v>7.7641505990273956</v>
+        <v>8.865037624262623</v>
       </c>
       <c r="J75" s="10">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="8"/>
-        <v>43.582864866615822</v>
+        <v>47.95797871422976</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B76" s="10">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="5"/>
-        <v>18.968609227187489</v>
+        <v>21.234384908229792</v>
       </c>
       <c r="D76" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E76" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F76" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>9.5852004505044217</v>
       </c>
       <c r="H76" s="10">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I76" s="7">
         <f t="shared" si="9"/>
-        <v>6.7212049961729692</v>
+        <v>7.7641505990273956</v>
       </c>
       <c r="J76" s="10">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="8"/>
-        <v>40.511871492809881</v>
+        <v>43.582864866615822</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B77" s="10">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="5"/>
-        <v>17.390312492102463</v>
+        <v>18.968609227187489</v>
       </c>
       <c r="D77" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E77" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F77" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="7"/>
-        <v>8.9861254223478948</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H77" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I77" s="7">
         <f t="shared" si="9"/>
-        <v>6.0838493499841535</v>
+        <v>6.7212049961729692</v>
       </c>
       <c r="J77" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="8"/>
-        <v>36.683646876147677</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B78" s="10">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="5"/>
-        <v>15.782967350850232</v>
+        <v>17.390312492102463</v>
       </c>
       <c r="D78" s="10">
         <v>4</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="6"/>
-        <v>11.995537659990484</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F78" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G78" s="7">
         <f t="shared" si="7"/>
-        <v>8.0875128801131062</v>
+        <v>8.9861254223478948</v>
       </c>
       <c r="H78" s="10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="9"/>
-        <v>5.0988451695105281</v>
+        <v>6.0838493499841535</v>
       </c>
       <c r="J78" s="10">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="8"/>
-        <v>33.486448295199025</v>
+        <v>36.683646876147677</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B79" s="10">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="5"/>
-        <v>13.981966168483272</v>
+        <v>15.782967350850232</v>
       </c>
       <c r="D79" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E79" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F79" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G79" s="7">
         <f t="shared" si="7"/>
-        <v>8.6865879082696313</v>
+        <v>8.0875128801131062</v>
       </c>
       <c r="H79" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="9"/>
-        <v>5.388552281414535</v>
+        <v>5.0988451695105281</v>
       </c>
       <c r="J79" s="10">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="8"/>
-        <v>29.616155276155926</v>
+        <v>33.486448295199025</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B80" s="10">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="5"/>
-        <v>12.597325474512976</v>
+        <v>13.981966168483272</v>
       </c>
       <c r="D80" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E80" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F80" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>8.6865879082696313</v>
       </c>
       <c r="H80" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="9"/>
-        <v>5.0409037471297271</v>
+        <v>5.388552281414535</v>
       </c>
       <c r="J80" s="10">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="8"/>
-        <v>26.839640719016305</v>
+        <v>29.616155276155926</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B81" s="10">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="5"/>
-        <v>10.960931927093537</v>
+        <v>12.597325474512976</v>
       </c>
       <c r="D81" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E81" s="7">
         <f t="shared" si="6"/>
-        <v>9.5964301279923863</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F81" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H81" s="10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I81" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>5.0409037471297271</v>
       </c>
       <c r="J81" s="10">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="8"/>
-        <v>22.801074090449589</v>
+        <v>26.839640719016305</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B82" s="10">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="5"/>
-        <v>9.8861408989068025</v>
+        <v>10.960931927093537</v>
       </c>
       <c r="D82" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E82" s="7">
         <f t="shared" si="6"/>
-        <v>7.5971738513273062</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F82" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="7"/>
-        <v>5.9907502815652638</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H82" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I82" s="7">
         <f t="shared" si="9"/>
-        <v>4.6932552128449183</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J82" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="8"/>
-        <v>19.856285923786359</v>
+        <v>22.801074090449589</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B83" s="10">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="5"/>
-        <v>8.927543495388905</v>
+        <v>9.8861408989068025</v>
       </c>
       <c r="D83" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E83" s="7">
         <f t="shared" si="6"/>
-        <v>5.5979175746622261</v>
+        <v>7.5971738513273062</v>
       </c>
       <c r="F83" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>5.9907502815652638</v>
       </c>
       <c r="H83" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I83" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>4.6932552128449183</v>
       </c>
       <c r="J83" s="10">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="8"/>
-        <v>17.121839769027645</v>
+        <v>19.856285923786359</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B84" s="10">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="5"/>
-        <v>8.4530861946578231</v>
+        <v>8.927543495388905</v>
       </c>
       <c r="D84" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" si="6"/>
-        <v>3.9985125533301611</v>
+        <v>5.5979175746622261</v>
       </c>
       <c r="F84" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="7"/>
-        <v>5.3916752534087369</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H84" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="9"/>
-        <v>5.330610859033734</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J84" s="10">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K84" s="7">
         <f t="shared" si="8"/>
-        <v>15.354966869029704</v>
+        <v>17.121839769027645</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B85" s="10">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="5"/>
-        <v>7.8430696651464347</v>
+        <v>8.4530861946578231</v>
       </c>
       <c r="D85" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E85" s="7">
         <f t="shared" si="6"/>
-        <v>2.798958787331113</v>
+        <v>3.9985125533301611</v>
       </c>
       <c r="F85" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" si="7"/>
-        <v>4.4930627111739474</v>
+        <v>5.3916752534087369</v>
       </c>
       <c r="H85" s="10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I85" s="7">
         <f t="shared" si="9"/>
-        <v>5.15678659189133</v>
+        <v>5.330610859033734</v>
       </c>
       <c r="J85" s="10">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="8"/>
-        <v>13.125341542841829</v>
+        <v>15.354966869029704</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B86" s="10">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="5"/>
-        <v>7.5719512075858173</v>
+        <v>7.8430696651464347</v>
       </c>
       <c r="D86" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E86" s="7">
         <f t="shared" si="6"/>
-        <v>1.1995537659990483</v>
+        <v>2.798958787331113</v>
       </c>
       <c r="F86" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G86" s="7">
         <f t="shared" si="7"/>
-        <v>5.6912127674869994</v>
+        <v>4.4930627111739474</v>
       </c>
       <c r="H86" s="10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I86" s="7">
         <f t="shared" si="9"/>
-        <v>4.9250209023681242</v>
+        <v>5.15678659189133</v>
       </c>
       <c r="J86" s="10">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="8"/>
-        <v>10.895716216653955</v>
+        <v>13.125341542841829</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B87" s="10">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="5"/>
-        <v>7.6494136240317072</v>
+        <v>7.5719512075858173</v>
       </c>
       <c r="D87" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="7">
         <f t="shared" si="6"/>
-        <v>0.79970251066603215</v>
+        <v>1.1995537659990483</v>
       </c>
       <c r="F87" s="10">
         <v>2</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="7"/>
-        <v>7.7879753660348419</v>
+        <v>5.6912127674869994</v>
       </c>
       <c r="H87" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I87" s="7">
         <f t="shared" si="9"/>
-        <v>5.2147280142721311</v>
+        <v>4.9250209023681242</v>
       </c>
       <c r="J87" s="10">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="8"/>
-        <v>9.8860745595122772</v>
+        <v>10.895716216653955</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B88" s="10">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="5"/>
-        <v>8.1432365288742616</v>
+        <v>7.6494136240317072</v>
       </c>
       <c r="D88" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>0.79970251066603215</v>
       </c>
       <c r="F88" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>7.7879753660348419</v>
       </c>
       <c r="H88" s="10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I88" s="7">
         <f t="shared" si="9"/>
-        <v>7.9379748661697995</v>
+        <v>5.2147280142721311</v>
       </c>
       <c r="J88" s="10">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="8"/>
-        <v>8.7922960976087907</v>
+        <v>9.8860745595122772</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B89" s="10">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="5"/>
-        <v>7.9398976857037979</v>
+        <v>8.1432365288742616</v>
       </c>
       <c r="D89" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F89" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" si="7"/>
-        <v>11.382425534973999</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H89" s="10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I89" s="7">
         <f t="shared" si="9"/>
         <v>7.9379748661697995</v>
       </c>
       <c r="J89" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="8"/>
-        <v>8.4136804761806605</v>
+        <v>8.7922960976087907</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B90" s="10">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="5"/>
-        <v>8.114188122707052</v>
+        <v>7.9398976857037979</v>
       </c>
       <c r="D90" s="10">
         <v>0</v>
       </c>
       <c r="E90" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F90" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>11.382425534973999</v>
       </c>
       <c r="H90" s="10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I90" s="7">
         <f t="shared" si="9"/>
-        <v>8.4594476675970114</v>
+        <v>7.9379748661697995</v>
       </c>
       <c r="J90" s="10">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>8.4136804761806605</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B91" s="10">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="5"/>
-        <v>7.8914836754251159</v>
+        <v>8.114188122707052</v>
       </c>
       <c r="D91" s="10">
         <v>0</v>
@@ -5171,277 +5171,277 @@
         <v>2.3991075319980966</v>
       </c>
       <c r="F91" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G91" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H91" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I91" s="7">
         <f t="shared" si="9"/>
-        <v>8.0538577109314033</v>
+        <v>8.4594476675970114</v>
       </c>
       <c r="J91" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="8"/>
-        <v>10.180553376178599</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B92" s="10">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="5"/>
-        <v>7.5235371973071361</v>
+        <v>7.8914836754251159</v>
       </c>
       <c r="D92" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="7">
         <f t="shared" si="6"/>
         <v>2.3991075319980966</v>
       </c>
       <c r="F92" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="7"/>
         <v>11.981500563130528</v>
       </c>
       <c r="H92" s="10">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I92" s="7">
         <f t="shared" si="9"/>
         <v>8.0538577109314033</v>
       </c>
       <c r="J92" s="10">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="8"/>
-        <v>10.306758583321308</v>
+        <v>10.180553376178599</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B93" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="5"/>
-        <v>6.6230366061236561</v>
+        <v>7.5235371973071361</v>
       </c>
       <c r="D93" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F93" s="10">
         <v>9</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H93" s="10">
         <v>19</v>
       </c>
       <c r="I93" s="7">
         <f t="shared" si="9"/>
-        <v>7.0109121080769761</v>
+        <v>8.0538577109314033</v>
       </c>
       <c r="J93" s="10">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="8"/>
-        <v>10.517100595225825</v>
+        <v>10.306758583321308</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B94" s="10">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="5"/>
-        <v>5.4030035471008766</v>
+        <v>6.6230366061236561</v>
       </c>
       <c r="D94" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E94" s="7">
         <f t="shared" si="6"/>
         <v>1.9992562766650805</v>
       </c>
       <c r="F94" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G94" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H94" s="10">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I94" s="7">
         <f t="shared" si="9"/>
-        <v>5.9679665052225497</v>
+        <v>7.0109121080769761</v>
       </c>
       <c r="J94" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>10.517100595225825</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B95" s="10">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="5"/>
-        <v>3.7956584058486449</v>
+        <v>5.4030035471008766</v>
       </c>
       <c r="D95" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E95" s="7">
         <f t="shared" si="6"/>
-        <v>0.39985125533301608</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F95" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" si="7"/>
-        <v>1.7972250844695792</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H95" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I95" s="7">
         <f t="shared" si="9"/>
-        <v>2.7232468518976685</v>
+        <v>5.9679665052225497</v>
       </c>
       <c r="J95" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="8"/>
-        <v>9.2129801214178233</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B96" s="10">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="5"/>
-        <v>2.9726202311110557</v>
+        <v>3.7956584058486449</v>
       </c>
       <c r="D96" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" s="7">
         <f t="shared" si="6"/>
         <v>0.39985125533301608</v>
       </c>
       <c r="F96" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G96" s="7">
         <f t="shared" si="7"/>
-        <v>1.4976875703913159</v>
+        <v>1.7972250844695792</v>
       </c>
       <c r="H96" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I96" s="7">
         <f t="shared" si="9"/>
-        <v>2.0858912057088523</v>
+        <v>2.7232468518976685</v>
       </c>
       <c r="J96" s="10">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="8"/>
-        <v>8.5398856833233694</v>
+        <v>9.2129801214178233</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B97" s="10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="5"/>
-        <v>2.0430712337603674</v>
+        <v>2.9726202311110557</v>
       </c>
       <c r="D97" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.39985125533301608</v>
       </c>
       <c r="F97" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="7"/>
-        <v>0.29953751407826318</v>
+        <v>1.4976875703913159</v>
       </c>
       <c r="H97" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="9"/>
-        <v>1.390594137139235</v>
+        <v>2.0858912057088523</v>
       </c>
       <c r="J97" s="10">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="8"/>
-        <v>5.8895763333264624</v>
+        <v>8.5398856833233694</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B98" s="10">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="5"/>
-        <v>1.5976623391964959</v>
+        <v>2.0430712337603674</v>
       </c>
       <c r="D98" s="10">
         <v>0</v>
@@ -5451,37 +5451,37 @@
         <v>0</v>
       </c>
       <c r="F98" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.29953751407826318</v>
       </c>
       <c r="H98" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I98" s="7">
         <f t="shared" si="9"/>
-        <v>0.75323849095041895</v>
+        <v>1.390594137139235</v>
       </c>
       <c r="J98" s="10">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K98" s="7">
         <f t="shared" si="8"/>
-        <v>4.6695926642802661</v>
+        <v>5.8895763333264624</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B99" s="10">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="5"/>
-        <v>1.3071782775244056</v>
+        <v>1.5976623391964959</v>
       </c>
       <c r="D99" s="10">
         <v>0</v>
@@ -5498,30 +5498,30 @@
         <v>0</v>
       </c>
       <c r="H99" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I99" s="7">
         <f t="shared" si="9"/>
-        <v>0.57941422380801455</v>
+        <v>0.75323849095041895</v>
       </c>
       <c r="J99" s="10">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="8"/>
-        <v>3.8282246166622</v>
+        <v>4.6695926642802661</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B100" s="10">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="5"/>
-        <v>0.81335537268185243</v>
+        <v>1.3071782775244056</v>
       </c>
       <c r="D100" s="10">
         <v>0</v>
@@ -5542,26 +5542,26 @@
       </c>
       <c r="I100" s="7">
         <f t="shared" si="9"/>
-        <v>0.69529706856961748</v>
+        <v>0.57941422380801455</v>
       </c>
       <c r="J100" s="10">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="8"/>
-        <v>2.3978989357114884</v>
+        <v>3.8282246166622</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B101" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="5"/>
-        <v>0.58096812334418035</v>
+        <v>0.81335537268185243</v>
       </c>
       <c r="D101" s="10">
         <v>0</v>
@@ -5582,26 +5582,26 @@
       </c>
       <c r="I101" s="7">
         <f t="shared" si="9"/>
-        <v>0.63735564618881602</v>
+        <v>0.69529706856961748</v>
       </c>
       <c r="J101" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="8"/>
-        <v>1.5144624857125188</v>
+        <v>2.3978989357114884</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B102" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="5"/>
-        <v>0.30016686372782653</v>
+        <v>0.58096812334418035</v>
       </c>
       <c r="D102" s="10">
         <v>0</v>
@@ -5618,30 +5618,30 @@
         <v>0</v>
       </c>
       <c r="H102" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" s="7">
         <f t="shared" si="9"/>
         <v>0.63735564618881602</v>
       </c>
       <c r="J102" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K102" s="7">
         <f t="shared" si="8"/>
-        <v>0.63102603571354954</v>
+        <v>1.5144624857125188</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B103" s="10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="5"/>
-        <v>0.17429043700325408</v>
+        <v>0.30016686372782653</v>
       </c>
       <c r="D103" s="10">
         <v>0</v>
@@ -5658,30 +5658,30 @@
         <v>0</v>
       </c>
       <c r="H103" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" s="7">
         <f t="shared" si="9"/>
-        <v>0.52147280142721308</v>
+        <v>0.63735564618881602</v>
       </c>
       <c r="J103" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K103" s="7">
         <f t="shared" si="8"/>
-        <v>0.21034201190451648</v>
+        <v>0.63102603571354954</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B104" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="5"/>
-        <v>0.12587642672457242</v>
+        <v>0.17429043700325408</v>
       </c>
       <c r="D104" s="10">
         <v>0</v>
@@ -5698,26 +5698,26 @@
         <v>0</v>
       </c>
       <c r="H104" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104" s="7">
         <f t="shared" si="9"/>
-        <v>0.34764853428480874</v>
+        <v>0.52147280142721308</v>
       </c>
       <c r="J104" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="7">
         <f t="shared" si="8"/>
-        <v>0.1682736095236132</v>
+        <v>0.21034201190451648</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B105" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="5"/>
@@ -5738,14 +5738,14 @@
         <v>0</v>
       </c>
       <c r="H105" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" s="7">
         <f t="shared" si="9"/>
         <v>0.34764853428480874</v>
       </c>
       <c r="J105" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="7">
         <f t="shared" si="8"/>
@@ -5754,14 +5754,14 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B106" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363378E-2</v>
+        <v>0.12587642672457242</v>
       </c>
       <c r="D106" s="10">
         <v>0</v>
@@ -5778,30 +5778,30 @@
         <v>0</v>
       </c>
       <c r="H106" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" s="7">
         <f t="shared" si="9"/>
-        <v>0.23176568952320581</v>
+        <v>0.34764853428480874</v>
       </c>
       <c r="J106" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K106" s="7">
         <f t="shared" si="8"/>
-        <v>0.12620520714270991</v>
+        <v>0.1682736095236132</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B107" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="5"/>
-        <v>1.936560411147268E-2</v>
+        <v>9.6828020557363378E-2</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -5818,30 +5818,30 @@
         <v>0</v>
       </c>
       <c r="H107" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107" s="7">
         <f t="shared" si="9"/>
-        <v>5.7941422380801452E-2</v>
+        <v>0.23176568952320581</v>
       </c>
       <c r="J107" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K107" s="7">
         <f t="shared" si="8"/>
-        <v>4.20684023809033E-2</v>
+        <v>0.12620520714270991</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B108" s="10">
         <v>1</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>1.936560411147268E-2</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
@@ -5858,30 +5858,30 @@
         <v>0</v>
       </c>
       <c r="H108" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" s="7">
         <f t="shared" si="9"/>
         <v>5.7941422380801452E-2</v>
       </c>
       <c r="J108" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.20684023809033E-2</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B109" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D109" s="10">
         <v>0</v>
@@ -5898,11 +5898,11 @@
         <v>0</v>
       </c>
       <c r="H109" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.7941422380801452E-2</v>
       </c>
       <c r="J109" s="10">
         <v>0</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B110" s="10">
         <v>0</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B111" s="10">
         <v>0</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B112" s="10">
         <v>0</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B113" s="10">
         <v>0</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B114" s="10">
         <v>0</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B115" s="10">
         <v>0</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B116" s="10">
         <v>0</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
@@ -6474,14 +6474,14 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
       </c>
       <c r="C124" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>0</v>
       </c>
       <c r="D124" s="10">
         <v>0</v>
@@ -6514,47 +6514,47 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
       </c>
-      <c r="C125" s="7" t="str">
+      <c r="C125" s="7">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D125" s="10">
         <v>0</v>
       </c>
-      <c r="E125" s="7" t="str">
+      <c r="E125" s="7">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F125" s="10">
         <v>0</v>
       </c>
-      <c r="G125" s="7" t="str">
+      <c r="G125" s="7">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H125" s="10">
         <v>0</v>
       </c>
-      <c r="I125" s="7" t="str">
+      <c r="I125" s="7">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J125" s="10">
         <v>0</v>
       </c>
-      <c r="K125" s="7" t="str">
+      <c r="K125" s="7">
         <f t="shared" si="8"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B129" s="10">
         <v>0</v>
@@ -6714,10 +6714,10 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B130" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" s="7" t="str">
         <f t="shared" si="5"/>
@@ -6753,28 +6753,40 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="4"/>
-      <c r="B131" s="10"/>
+      <c r="A131" s="4">
+        <v>43865</v>
+      </c>
+      <c r="B131" s="10">
+        <v>1</v>
+      </c>
       <c r="C131" s="7" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="D131" s="10"/>
+      <c r="D131" s="10">
+        <v>0</v>
+      </c>
       <c r="E131" s="7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F131" s="10"/>
+      <c r="F131" s="10">
+        <v>0</v>
+      </c>
       <c r="G131" s="7" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H131" s="10"/>
+      <c r="H131" s="10">
+        <v>0</v>
+      </c>
       <c r="I131" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J131" s="10"/>
+      <c r="J131" s="10">
+        <v>0</v>
+      </c>
       <c r="K131" s="7" t="str">
         <f t="shared" si="8"/>
         <v/>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2BB127-BB7F-48A2-BDC2-AA2C300F90D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FADEF26-E57B-4FBC-8221-2815C311EF21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4236" yWindow="2556" windowWidth="38376" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38385" yWindow="4815" windowWidth="38370" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schweden, offiziell" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
     <t>/100k (7Tage)</t>
   </si>
   <si>
-    <t>Datenabruf: Mittwoch 2020-06-10 14:00</t>
+    <t>Datenabruf: Donnerstag 2020-06-11 14:09</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Mittwoch 2020-06-10 14:00</a:t>
+              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Donnerstag 2020-06-11 14:09</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -308,187 +308,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43933</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,187 +500,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>49.382290484255329</c:v>
+                  <c:v>53.555578170277691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.825693876857414</c:v>
+                  <c:v>61.74722870943063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.825693876857414</c:v>
+                  <c:v>58.290468375532761</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.81333968654252</c:v>
+                  <c:v>57.83537667891315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.905827681562471</c:v>
+                  <c:v>58.823022488598255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.10048647365808</c:v>
+                  <c:v>56.915510483618192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.546898119202844</c:v>
+                  <c:v>53.110169275713822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.922858762098301</c:v>
+                  <c:v>49.556580921258586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.463427039941266</c:v>
+                  <c:v>46.932541564154029</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>44.473109841997008</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>43.194979970639807</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41.849070484892458</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>41.316516371826957</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>41.035715112210603</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>38.64406300444373</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>37.123863081693123</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>37.211008300194749</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>36.087803261729334</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>36.562260562460416</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>36.126534469952283</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>37.888804444096294</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>38.585966192109311</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>37.578954778312728</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>38.653745806499465</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>38.934547066115819</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>39.118520305174812</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>40.580623415590999</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>40.59998901970247</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>41.907167297226877</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>42.197651358898966</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>40.861424675207346</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>41.006666706043397</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>40.851741873151617</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>38.808670639391245</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>37.056083467302969</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>35.671442773332672</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>36.436384135735842</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>37.394981539253742</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>38.121191693433964</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>38.48913817155195</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>40.183628531305807</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>42.643060253462835</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43.417684417921748</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>42.371941795902217</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>41.839387682836723</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>40.725865446427036</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>41.57795202733184</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>42.149237348620282</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>41.200322747158118</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>39.893144469633718</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>38.750573827056826</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>36.320190511067004</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>37.056083467302969</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>35.729539585667091</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>33.463763904624784</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>33.676785549850983</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>34.170608454693543</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>36.678454187129248</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>36.213679688453908</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>35.013012233542604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,187 +718,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43933</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,184 +910,184 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>30.388695405309225</c:v>
+                  <c:v>29.98884414997621</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.986612979971454</c:v>
+                  <c:v>37.586018001303515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.985869256636533</c:v>
+                  <c:v>38.785571767302564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.387207958639387</c:v>
+                  <c:v>38.385720511969545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.387207958639387</c:v>
+                  <c:v>34.787059213972405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.787802937307326</c:v>
+                  <c:v>34.787059213972405</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.787059213972405</c:v>
+                  <c:v>33.187654192640338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.588992894643191</c:v>
+                  <c:v>35.186910469305417</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.589736617978108</c:v>
+                  <c:v>29.98884414997621</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.189885362645096</c:v>
+                  <c:v>27.98958787331113</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.391670298648904</c:v>
+                  <c:v>27.189885362645096</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.59196778798287</c:v>
+                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.39464519198858</c:v>
+                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>14.39464519198858</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>11.195835149324452</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>8.7967276173263542</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>9.1965788726593711</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>9.9962813833254032</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>9.5964301279923863</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>12.395388915323501</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>15.994050213320644</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>15.194347702654612</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>13.594942681322548</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>17.193603979319693</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>17.193603979319693</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>16.393901468653663</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>16.793752723986675</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>19.592711511317791</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>17.993306489985727</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>18.393157745318742</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>21.991819043315886</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>19.192860255984773</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>24.390926575313983</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>21.59196778798287</c:v>
@@ -1641,82 +1641,82 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B4" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C67" si="0">IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/$O$6*100000)</f>
-        <v>49.382290484255329</v>
+        <v>53.555578170277691</v>
       </c>
       <c r="D4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:E67" si="1">IF(OR(ISBLANK(D4),ISBLANK(D10)),"",SUM(D4:D10)/$O$7*100000)</f>
-        <v>30.388695405309225</v>
+        <v>29.98884414997621</v>
       </c>
       <c r="F4" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G67" si="2">IF(OR(ISBLANK(F4),ISBLANK(F10)),"",SUM(F4:F10)/$O$8*100000)</f>
-        <v>35.944501689391579</v>
+        <v>38.640339316095947</v>
       </c>
       <c r="H4" s="12">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="I4" s="9">
         <f>IF(OR(ISBLANK(H4),ISBLANK(H10)),"",SUM(H4:H10)/$O$9*100000)</f>
-        <v>105.68515442258186</v>
+        <v>119.70697863873581</v>
       </c>
       <c r="J4" s="11">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K67" si="3">IF(OR(ISBLANK(J4),ISBLANK(J10)),"",SUM(J4:J10)/$O$10*100000)</f>
-        <v>45.518011376137373</v>
+        <v>46.906268654707183</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B5" s="10">
-        <v>888</v>
+        <v>1427</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>57.825693876857414</v>
+        <v>61.74722870943063</v>
       </c>
       <c r="D5" s="10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>35.986612979971454</v>
+        <v>37.586018001303515</v>
       </c>
       <c r="F5" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="2"/>
-        <v>38.939876830174214</v>
+        <v>43.133402027269895</v>
       </c>
       <c r="H5" s="3">
-        <v>244</v>
+        <v>580</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" ref="I5:I68" si="4">IF(OR(ISBLANK(H5),ISBLANK(H11)),"",SUM(H5:H11)/$O$9*100000)</f>
-        <v>127.1814221258592</v>
+        <v>136.79969824107224</v>
       </c>
       <c r="J5" s="10">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="3"/>
-        <v>54.857196704697905</v>
+        <v>55.656496349935068</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>6</v>
@@ -1724,42 +1724,42 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B6" s="10">
-        <v>542</v>
+        <v>936</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>57.825693876857414</v>
+        <v>58.290468375532761</v>
       </c>
       <c r="D6" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>37.985869256636533</v>
+        <v>38.785571767302564</v>
       </c>
       <c r="F6" s="3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>39.538951858330741</v>
+        <v>38.640339316095947</v>
       </c>
       <c r="H6" s="3">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>128.62995768537925</v>
+        <v>128.05054346157124</v>
       </c>
       <c r="J6" s="10">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="3"/>
-        <v>52.122750549939191</v>
+        <v>55.23581232612603</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
@@ -1770,42 +1770,42 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B7" s="10">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>58.81333968654252</v>
+        <v>57.83537667891315</v>
       </c>
       <c r="D7" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>34.387207958639387</v>
+        <v>38.385720511969545</v>
       </c>
       <c r="F7" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>41.036639428722054</v>
+        <v>39.239414344252474</v>
       </c>
       <c r="H7" s="3">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>126.949656436336</v>
+        <v>128.68789910776005</v>
       </c>
       <c r="J7" s="10">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
-        <v>53.468939426128095</v>
+        <v>52.122750549939191</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -1816,42 +1816,42 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B8" s="10">
-        <v>825</v>
+        <v>462</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>56.905827681562471</v>
+        <v>58.823022488598255</v>
       </c>
       <c r="D8" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>34.387207958639387</v>
+        <v>34.787059213972405</v>
       </c>
       <c r="F8" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>40.437564400565527</v>
+        <v>40.737101914643794</v>
       </c>
       <c r="H8" s="3">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="4"/>
-        <v>119.4172715268318</v>
+        <v>127.00759785871679</v>
       </c>
       <c r="J8" s="10">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>54.310307473746164</v>
+        <v>53.468939426128095</v>
       </c>
       <c r="N8" t="s">
         <v>2</v>
@@ -1862,42 +1862,42 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B9" s="10">
-        <v>1143</v>
+        <v>825</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>53.10048647365808</v>
+        <v>56.915510483618192</v>
       </c>
       <c r="D9" s="10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>32.787802937307326</v>
+        <v>34.787059213972405</v>
       </c>
       <c r="F9" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>38.04126428793942</v>
+        <v>40.437564400565527</v>
       </c>
       <c r="H9" s="3">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="4"/>
-        <v>109.79899541161878</v>
+        <v>119.4172715268318</v>
       </c>
       <c r="J9" s="10">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>48.673141554705118</v>
+        <v>54.310307473746164</v>
       </c>
       <c r="N9" t="s">
         <v>9</v>
@@ -1908,42 +1908,42 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B10" s="10">
-        <v>1042</v>
+        <v>1143</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>49.546898119202844</v>
+        <v>53.110169275713822</v>
       </c>
       <c r="D10" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>34.787059213972405</v>
+        <v>33.187654192640338</v>
       </c>
       <c r="F10" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>36.244039203469846</v>
+        <v>38.04126428793942</v>
       </c>
       <c r="H10" s="3">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="4"/>
-        <v>94.734225592610386</v>
+        <v>109.79899541161878</v>
       </c>
       <c r="J10" s="10">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>47.83177350708705</v>
+        <v>48.673141554705118</v>
       </c>
       <c r="N10" t="s">
         <v>3</v>
@@ -1954,478 +1954,478 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B11" s="10">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>46.922858762098301</v>
+        <v>49.556580921258586</v>
       </c>
       <c r="D11" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>29.588992894643191</v>
+        <v>35.186910469305417</v>
       </c>
       <c r="F11" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>37.741726773861153</v>
+        <v>36.244039203469846</v>
       </c>
       <c r="H11" s="3">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="4"/>
-        <v>77.17797461122754</v>
+        <v>94.734225592610386</v>
       </c>
       <c r="J11" s="10">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>50.482082857083967</v>
+        <v>47.83177350708705</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B12" s="10">
-        <v>888</v>
+        <v>1070</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>44.463427039941266</v>
+        <v>46.932541564154029</v>
       </c>
       <c r="D12" s="10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>27.589736617978108</v>
+        <v>29.98884414997621</v>
       </c>
       <c r="F12" s="3">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>44.631089597661216</v>
+        <v>37.741726773861153</v>
       </c>
       <c r="H12" s="3">
-        <v>269</v>
+        <v>429</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="4"/>
-        <v>58.462895182228671</v>
+        <v>77.17797461122754</v>
       </c>
       <c r="J12" s="10">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>49.430372797561382</v>
+        <v>50.482082857083967</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B13" s="10">
-        <v>644</v>
+        <v>889</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>43.194979970639807</v>
+        <v>44.473109841997008</v>
       </c>
       <c r="D13" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>27.189885362645096</v>
+        <v>27.98958787331113</v>
       </c>
       <c r="F13" s="3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>41.635714456878574</v>
+        <v>44.631089597661216</v>
       </c>
       <c r="H13" s="3">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="4"/>
-        <v>49.829623247489252</v>
+        <v>58.462895182228671</v>
       </c>
       <c r="J13" s="10">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>51.99654534279648</v>
+        <v>49.430372797561382</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B14" s="10">
-        <v>265</v>
+        <v>644</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>41.849070484892458</v>
+        <v>43.194979970639807</v>
       </c>
       <c r="D14" s="10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>27.189885362645096</v>
       </c>
       <c r="F14" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>37.442189259782893</v>
+        <v>41.635714456878574</v>
       </c>
       <c r="H14" s="3">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="4"/>
-        <v>50.640803160820475</v>
+        <v>49.829623247489252</v>
       </c>
       <c r="J14" s="10">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>52.879981792795448</v>
+        <v>51.99654534279648</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B15" s="10">
-        <v>432</v>
+        <v>265</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>41.316516371826957</v>
+        <v>41.849070484892458</v>
       </c>
       <c r="D15" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>22.391670298648904</v>
       </c>
       <c r="F15" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>35.944501689391579</v>
+        <v>37.442189259782893</v>
       </c>
       <c r="H15" s="3">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="4"/>
-        <v>46.469020749402766</v>
+        <v>50.640803160820475</v>
       </c>
       <c r="J15" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="3"/>
-        <v>52.543434573748222</v>
+        <v>52.879981792795448</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B16" s="10">
-        <v>776</v>
+        <v>432</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>41.035715112210603</v>
+        <v>41.316516371826957</v>
       </c>
       <c r="D16" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F16" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>34.446814119000265</v>
+        <v>35.944501689391579</v>
       </c>
       <c r="H16" s="3">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.469020749402766</v>
       </c>
       <c r="J16" s="10">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="3"/>
-        <v>52.753776585652744</v>
+        <v>52.543434573748222</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B17" s="10">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>38.64406300444373</v>
+        <v>41.035715112210603</v>
       </c>
       <c r="D17" s="10">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F17" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>31.750976492295894</v>
+        <v>34.446814119000265</v>
       </c>
       <c r="H17" s="3">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="4"/>
-        <v>40.095464287514609</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J17" s="10">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
-        <v>49.808988418989507</v>
+        <v>52.753776585652744</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B18" s="10">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>37.123863081693123</v>
+        <v>38.64406300444373</v>
       </c>
       <c r="D18" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
         <v>14.39464519198858</v>
       </c>
       <c r="F18" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>31.750976492295894</v>
       </c>
       <c r="H18" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="4"/>
-        <v>43.91959816464751</v>
+        <v>40.095464287514609</v>
       </c>
       <c r="J18" s="10">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
-        <v>43.162180842806784</v>
+        <v>49.808988418989507</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B19" s="10">
-        <v>757</v>
+        <v>816</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>37.211008300194749</v>
+        <v>37.123863081693123</v>
       </c>
       <c r="D19" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F19" s="3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>29.05513886559153</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H19" s="3">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>43.91959816464751</v>
       </c>
       <c r="J19" s="10">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
-        <v>41.731855161856075</v>
+        <v>43.162180842806784</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B20" s="10">
-        <v>505</v>
+        <v>757</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>37.211008300194749</v>
       </c>
       <c r="D20" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="1"/>
-        <v>11.195835149324452</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F20" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>26.958376267043683</v>
+        <v>29.05513886559153</v>
       </c>
       <c r="H20" s="3">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
-        <v>46.295196482260366</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J20" s="10">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
-        <v>41.269102735666138</v>
+        <v>41.731855161856075</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B21" s="10">
-        <v>210</v>
+        <v>505</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>36.087803261729334</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D21" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="1"/>
-        <v>8.7967276173263542</v>
+        <v>11.195835149324452</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
-        <v>30.253288921904577</v>
+        <v>26.958376267043683</v>
       </c>
       <c r="H21" s="3">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="4"/>
-        <v>42.413121182746664</v>
+        <v>46.295196482260366</v>
       </c>
       <c r="J21" s="10">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
-        <v>41.100829126142528</v>
+        <v>41.269102735666138</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B22" s="10">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>36.562260562460416</v>
+        <v>36.087803261729334</v>
       </c>
       <c r="D22" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>9.1965788726593711</v>
+        <v>8.7967276173263542</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>30.852363950061104</v>
+        <v>30.253288921904577</v>
       </c>
       <c r="H22" s="3">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="4"/>
-        <v>46.005489370356358</v>
+        <v>42.413121182746664</v>
       </c>
       <c r="J22" s="10">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
@@ -2434,1654 +2434,1654 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B23" s="10">
-        <v>529</v>
+        <v>403</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>36.126534469952283</v>
+        <v>36.562260562460416</v>
       </c>
       <c r="D23" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
-        <v>9.9962813833254032</v>
+        <v>9.1965788726593711</v>
       </c>
       <c r="F23" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="2"/>
-        <v>31.451438978217631</v>
+        <v>30.852363950061104</v>
       </c>
       <c r="H23" s="3">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="4"/>
-        <v>46.758727861306781</v>
+        <v>46.005489370356358</v>
       </c>
       <c r="J23" s="10">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
-        <v>40.511871492809881</v>
+        <v>41.100829126142528</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B24" s="10">
-        <v>614</v>
+        <v>529</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>37.888804444096294</v>
+        <v>36.126534469952283</v>
       </c>
       <c r="D24" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>9.5964301279923863</v>
+        <v>9.9962813833254032</v>
       </c>
       <c r="F24" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>35.644964175313319</v>
+        <v>31.451438978217631</v>
       </c>
       <c r="H24" s="3">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="4"/>
-        <v>47.222259240353189</v>
+        <v>46.758727861306781</v>
       </c>
       <c r="J24" s="10">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>43.078044038044979</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B25" s="10">
-        <v>825</v>
+        <v>614</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>38.585966192109311</v>
+        <v>37.888804444096294</v>
       </c>
       <c r="D25" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="1"/>
         <v>9.5964301279923863</v>
       </c>
       <c r="F25" s="3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
-        <v>36.543576717548106</v>
+        <v>35.644964175313319</v>
       </c>
       <c r="H25" s="3">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="4"/>
-        <v>46.237255059879566</v>
+        <v>47.222259240353189</v>
       </c>
       <c r="J25" s="10">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>45.307669364232851</v>
+        <v>43.078044038044979</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B26" s="10">
-        <v>689</v>
+        <v>825</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>37.578954778312728</v>
+        <v>38.585966192109311</v>
       </c>
       <c r="D26" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F26" s="3">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>26.059763724808892</v>
+        <v>36.543576717548106</v>
       </c>
       <c r="H26" s="3">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.237255059879566</v>
       </c>
       <c r="J26" s="10">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
-        <v>48.168320726134283</v>
+        <v>45.307669364232851</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B27" s="10">
-        <v>457</v>
+        <v>689</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>38.653745806499465</v>
+        <v>37.578954778312728</v>
       </c>
       <c r="D27" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F27" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>26.059763724808892</v>
       </c>
       <c r="H27" s="3">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J27" s="10">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
-        <v>51.449656111844739</v>
+        <v>48.168320726134283</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B28" s="10">
-        <v>259</v>
+        <v>457</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>38.934547066115819</v>
+        <v>38.653745806499465</v>
       </c>
       <c r="D28" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>23.064388584026261</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H28" s="3">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J28" s="10">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>54.142033864222554</v>
+        <v>51.449656111844739</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B29" s="10">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>39.118520305174812</v>
+        <v>38.934547066115819</v>
       </c>
       <c r="D29" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
-        <v>15.994050213320644</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F29" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="2"/>
         <v>23.064388584026261</v>
       </c>
       <c r="H29" s="3">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="4"/>
-        <v>47.801673464161205</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J29" s="10">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
-        <v>54.941333509459717</v>
+        <v>54.142033864222554</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B30" s="10">
-        <v>711</v>
+        <v>358</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>40.580623415590999</v>
+        <v>39.118520305174812</v>
       </c>
       <c r="D30" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F30" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>23.064388584026261</v>
       </c>
       <c r="H30" s="3">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="4"/>
-        <v>48.49697053273082</v>
+        <v>47.801673464161205</v>
       </c>
       <c r="J30" s="10">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
-        <v>57.044753628504878</v>
+        <v>54.941333509459717</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B31" s="10">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>40.59998901970247</v>
+        <v>40.580623415590999</v>
       </c>
       <c r="D31" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F31" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="2"/>
-        <v>20.069013443243634</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H31" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="4"/>
-        <v>47.048434973210782</v>
+        <v>48.49697053273082</v>
       </c>
       <c r="J31" s="10">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
-        <v>58.222668895170173</v>
+        <v>57.044753628504878</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B32" s="10">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>41.907167297226877</v>
+        <v>40.59998901970247</v>
       </c>
       <c r="D32" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
-        <v>15.194347702654612</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F32" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
-        <v>20.668088471400157</v>
+        <v>20.069013443243634</v>
       </c>
       <c r="H32" s="3">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="4"/>
-        <v>47.743732041780397</v>
+        <v>47.048434973210782</v>
       </c>
       <c r="J32" s="10">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
-        <v>63.565355997544884</v>
+        <v>58.222668895170173</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B33" s="10">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>42.197651358898966</v>
+        <v>41.907167297226877</v>
       </c>
       <c r="D33" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
-        <v>13.594942681322548</v>
+        <v>15.194347702654612</v>
       </c>
       <c r="F33" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="2"/>
-        <v>25.460688696652372</v>
+        <v>20.668088471400157</v>
       </c>
       <c r="H33" s="3">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="4"/>
-        <v>50.29315462653566</v>
+        <v>47.743732041780397</v>
       </c>
       <c r="J33" s="10">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
-        <v>61.588141085642427</v>
+        <v>63.565355997544884</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B34" s="10">
-        <v>486</v>
+        <v>800</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>40.861424675207346</v>
+        <v>42.197651358898966</v>
       </c>
       <c r="D34" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F34" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
-        <v>27.856988809278473</v>
+        <v>25.460688696652372</v>
       </c>
       <c r="H34" s="3">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>50.29315462653566</v>
       </c>
       <c r="J34" s="10">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
-        <v>57.086822030885784</v>
+        <v>61.588141085642427</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B35" s="10">
-        <v>278</v>
+        <v>486</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>41.006666706043397</v>
+        <v>40.861424675207346</v>
       </c>
       <c r="D35" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F35" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="2"/>
         <v>27.856988809278473</v>
       </c>
       <c r="H35" s="3">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="4"/>
-        <v>49.192267601300436</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J35" s="10">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
-        <v>54.226170668984352</v>
+        <v>57.086822030885784</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B36" s="10">
-        <v>509</v>
+        <v>278</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>40.851741873151617</v>
+        <v>41.006666706043397</v>
       </c>
       <c r="D36" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F36" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>27.257913781121946</v>
+        <v>27.856988809278473</v>
       </c>
       <c r="H36" s="3">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="4"/>
-        <v>46.642845016545174</v>
+        <v>49.192267601300436</v>
       </c>
       <c r="J36" s="10">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
-        <v>56.329590788029527</v>
+        <v>54.226170668984352</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B37" s="10">
-        <v>713</v>
+        <v>509</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>38.808670639391245</v>
+        <v>40.851741873151617</v>
       </c>
       <c r="D37" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F37" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>27.257913781121946</v>
       </c>
       <c r="H37" s="3">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="4"/>
-        <v>42.239296915604264</v>
+        <v>46.642845016545174</v>
       </c>
       <c r="J37" s="10">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>54.899265107078811</v>
+        <v>56.329590788029527</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B38" s="10">
-        <v>821</v>
+        <v>713</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>38.808670639391245</v>
       </c>
       <c r="D38" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F38" s="3">
         <v>15</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>24.262538640339319</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H38" s="3">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="4"/>
-        <v>41.891648381319456</v>
+        <v>42.239296915604264</v>
       </c>
       <c r="J38" s="10">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
-        <v>50.944835283273896</v>
+        <v>54.899265107078811</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B39" s="10">
-        <v>751</v>
+        <v>821</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>35.671442773332672</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D39" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F39" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>24.262538640339319</v>
       </c>
       <c r="H39" s="3">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="4"/>
-        <v>37.951631659424955</v>
+        <v>41.891648381319456</v>
       </c>
       <c r="J39" s="10">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
-        <v>48.967620371371439</v>
+        <v>50.944835283273896</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B40" s="10">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>36.436384135735842</v>
+        <v>35.671442773332672</v>
       </c>
       <c r="D40" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F40" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H40" s="3">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="4"/>
-        <v>36.329271832762508</v>
+        <v>37.951631659424955</v>
       </c>
       <c r="J40" s="10">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
-        <v>51.786203330891965</v>
+        <v>48.967620371371439</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B41" s="10">
-        <v>501</v>
+        <v>662</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>37.394981539253742</v>
+        <v>36.436384135735842</v>
       </c>
       <c r="D41" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F41" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="2"/>
-        <v>14.976875703913157</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H41" s="10">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="4"/>
-        <v>34.764853428480876</v>
+        <v>36.329271832762508</v>
       </c>
       <c r="J41" s="10">
         <v>173</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
-        <v>55.404085935649647</v>
+        <v>51.786203330891965</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B42" s="10">
-        <v>262</v>
+        <v>501</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>38.121191693433964</v>
+        <v>37.394981539253742</v>
       </c>
       <c r="D42" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F42" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
-        <v>17.373175816539263</v>
+        <v>14.976875703913157</v>
       </c>
       <c r="H42" s="10">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="4"/>
-        <v>36.155447565620108</v>
+        <v>34.764853428480876</v>
       </c>
       <c r="J42" s="10">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="3"/>
-        <v>57.633711261837526</v>
+        <v>55.404085935649647</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B43" s="10">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>38.48913817155195</v>
+        <v>38.121191693433964</v>
       </c>
       <c r="D43" s="10">
         <v>1</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F43" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H43" s="10">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="4"/>
-        <v>36.387213255143315</v>
+        <v>36.155447565620108</v>
       </c>
       <c r="J43" s="10">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
-        <v>56.876480018981269</v>
+        <v>57.633711261837526</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B44" s="10">
-        <v>532</v>
+        <v>298</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>40.183628531305807</v>
+        <v>38.48913817155195</v>
       </c>
       <c r="D44" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F44" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>16.474563274304476</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H44" s="10">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>39.921640020372202</v>
+        <v>36.387213255143315</v>
       </c>
       <c r="J44" s="10">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="3"/>
-        <v>59.316447357073656</v>
+        <v>56.876480018981269</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B45" s="10">
-        <v>678</v>
+        <v>532</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>42.643060253462835</v>
+        <v>40.183628531305807</v>
       </c>
       <c r="D45" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F45" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>16.474563274304476</v>
       </c>
       <c r="H45" s="10">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="4"/>
-        <v>41.312234157511433</v>
+        <v>39.921640020372202</v>
       </c>
       <c r="J45" s="10">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="3"/>
-        <v>63.186740376116752</v>
+        <v>59.316447357073656</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B46" s="10">
-        <v>830</v>
+        <v>678</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>43.417684417921748</v>
+        <v>42.643060253462835</v>
       </c>
       <c r="D46" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F46" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>23.963001126261055</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H46" s="10">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="4"/>
-        <v>39.979581442753009</v>
+        <v>41.312234157511433</v>
       </c>
       <c r="J46" s="10">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="3"/>
-        <v>64.617066057067476</v>
+        <v>63.186740376116752</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B47" s="10">
-        <v>761</v>
+        <v>830</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>42.371941795902217</v>
+        <v>43.417684417921748</v>
       </c>
       <c r="D47" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F47" s="10">
         <v>10</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>23.963001126261055</v>
       </c>
       <c r="H47" s="10">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="4"/>
-        <v>35.923681876096907</v>
+        <v>39.979581442753009</v>
       </c>
       <c r="J47" s="10">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="3"/>
-        <v>64.9956816784956</v>
+        <v>64.617066057067476</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B48" s="10">
-        <v>576</v>
+        <v>761</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>41.839387682836723</v>
+        <v>42.371941795902217</v>
       </c>
       <c r="D48" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F48" s="10">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>28.755601351513267</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H48" s="10">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="4"/>
-        <v>38.241338771328962</v>
+        <v>35.923681876096907</v>
       </c>
       <c r="J48" s="10">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="3"/>
-        <v>60.957115049928888</v>
+        <v>64.9956816784956</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B49" s="10">
-        <v>300</v>
+        <v>576</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>40.725865446427036</v>
+        <v>41.839387682836723</v>
       </c>
       <c r="D49" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F49" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="2"/>
-        <v>26.359301238887156</v>
+        <v>28.755601351513267</v>
       </c>
       <c r="H49" s="10">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="4"/>
-        <v>35.402209074669692</v>
+        <v>38.241338771328962</v>
       </c>
       <c r="J49" s="10">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="3"/>
-        <v>60.326089014215334</v>
+        <v>60.957115049928888</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B50" s="10">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>41.57795202733184</v>
+        <v>40.725865446427036</v>
       </c>
       <c r="D50" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" si="1"/>
         <v>16.393901468653663</v>
       </c>
       <c r="F50" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>26.359301238887156</v>
       </c>
       <c r="H50" s="10">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="4"/>
-        <v>34.533087738957668</v>
+        <v>35.402209074669692</v>
       </c>
       <c r="J50" s="10">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="3"/>
-        <v>63.7756980094494</v>
+        <v>60.326089014215334</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B51" s="10">
-        <v>786</v>
+        <v>473</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>42.149237348620282</v>
+        <v>41.57795202733184</v>
       </c>
       <c r="D51" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
-        <v>16.793752723986675</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F51" s="10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H51" s="10">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="4"/>
-        <v>31.867782309440802</v>
+        <v>34.533087738957668</v>
       </c>
       <c r="J51" s="10">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="3"/>
-        <v>65.542570909447335</v>
+        <v>63.7756980094494</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B52" s="10">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>41.200322747158118</v>
+        <v>42.149237348620282</v>
       </c>
       <c r="D52" s="10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="1"/>
-        <v>19.592711511317791</v>
+        <v>16.793752723986675</v>
       </c>
       <c r="F52" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H52" s="10">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="4"/>
-        <v>27.8118827427847</v>
+        <v>31.867782309440802</v>
       </c>
       <c r="J52" s="10">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="3"/>
-        <v>65.037750080876506</v>
+        <v>65.542570909447335</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B53" s="10">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>39.893144469633718</v>
+        <v>41.200322747158118</v>
       </c>
       <c r="D53" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>19.592711511317791</v>
       </c>
       <c r="F53" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="2"/>
-        <v>24.861613668495846</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H53" s="10">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>28.507179811354316</v>
+        <v>27.8118827427847</v>
       </c>
       <c r="J53" s="10">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="3"/>
-        <v>62.092961914213276</v>
+        <v>65.037750080876506</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B54" s="10">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>38.750573827056826</v>
+        <v>39.893144469633718</v>
       </c>
       <c r="D54" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54" s="7">
         <f t="shared" si="1"/>
-        <v>17.993306489985727</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F54" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>24.861613668495846</v>
       </c>
       <c r="H54" s="10">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="4"/>
-        <v>27.985707009927108</v>
+        <v>28.507179811354316</v>
       </c>
       <c r="J54" s="10">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="3"/>
-        <v>59.021968540407336</v>
+        <v>62.092961914213276</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B55" s="10">
-        <v>461</v>
+        <v>706</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>38.750573827056826</v>
       </c>
       <c r="D55" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
-        <v>18.393157745318742</v>
+        <v>17.993306489985727</v>
       </c>
       <c r="F55" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="2"/>
-        <v>17.672713330617526</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H55" s="10">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="4"/>
-        <v>24.509221667079018</v>
+        <v>27.985707009927108</v>
       </c>
       <c r="J55" s="10">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="3"/>
-        <v>59.695062978501781</v>
+        <v>59.021968540407336</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B56" s="10">
-        <v>388</v>
+        <v>461</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>36.320190511067004</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D56" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E56" s="7">
         <f t="shared" si="1"/>
-        <v>21.991819043315886</v>
+        <v>18.393157745318742</v>
       </c>
       <c r="F56" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>15.575950732069684</v>
+        <v>17.672713330617526</v>
       </c>
       <c r="H56" s="10">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="4"/>
-        <v>24.393338822317414</v>
+        <v>24.509221667079018</v>
       </c>
       <c r="J56" s="10">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="3"/>
-        <v>59.232310552311851</v>
+        <v>59.695062978501781</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B57" s="10">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>36.320190511067004</v>
       </c>
       <c r="D57" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="7">
         <f t="shared" si="1"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F57" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="2"/>
-        <v>14.677338189834897</v>
+        <v>15.575950732069684</v>
       </c>
       <c r="H57" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>24.393338822317414</v>
       </c>
       <c r="J57" s="10">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="3"/>
-        <v>58.811626528502821</v>
+        <v>59.232310552311851</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B58" s="10">
-        <v>688</v>
+        <v>532</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>35.729539585667091</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D58" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E58" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F58" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>13.179650619443578</v>
+        <v>14.677338189834897</v>
       </c>
       <c r="H58" s="10">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="4"/>
-        <v>24.103631710413406</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J58" s="10">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="3"/>
-        <v>59.652994576120875</v>
+        <v>58.811626528502821</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B59" s="10">
-        <v>623</v>
+        <v>688</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>33.463763904624784</v>
+        <v>35.729539585667091</v>
       </c>
       <c r="D59" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F59" s="10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>13.179650619443578</v>
       </c>
       <c r="H59" s="10">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="4"/>
-        <v>23.640100331366995</v>
+        <v>24.103631710413406</v>
       </c>
       <c r="J59" s="10">
         <v>221</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="3"/>
-        <v>56.582001202314935</v>
+        <v>59.652994576120875</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B60" s="10">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>33.676785549850983</v>
+        <v>33.463763904624784</v>
       </c>
       <c r="D60" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E60" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F60" s="10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>10.783350506817474</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H60" s="10">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="4"/>
-        <v>25.494225847552645</v>
+        <v>23.640100331366995</v>
       </c>
       <c r="J60" s="10">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="3"/>
-        <v>57.381300847552104</v>
+        <v>56.582001202314935</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B61" s="10">
-        <v>479</v>
+        <v>604</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>34.170608454693543</v>
+        <v>33.676785549850983</v>
       </c>
       <c r="D61" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" si="1"/>
-        <v>19.192860255984773</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F61" s="10">
         <v>6</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H61" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="4"/>
-        <v>25.378343002791041</v>
+        <v>25.494225847552645</v>
       </c>
       <c r="J61" s="10">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="3"/>
-        <v>59.737131380882687</v>
+        <v>57.381300847552104</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B62" s="10">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>36.678454187129248</v>
+        <v>34.170608454693543</v>
       </c>
       <c r="D62" s="10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E62" s="7">
         <f t="shared" si="1"/>
-        <v>24.390926575313983</v>
+        <v>19.192860255984773</v>
       </c>
       <c r="F62" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
-        <v>13.778725647600105</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H62" s="10">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="4"/>
-        <v>25.436284425171838</v>
+        <v>25.378343002791041</v>
       </c>
       <c r="J62" s="10">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="3"/>
-        <v>62.429509133260495</v>
+        <v>59.737131380882687</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B63" s="10">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>36.213679688453908</v>
+        <v>36.678454187129248</v>
       </c>
       <c r="D63" s="10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>24.390926575313983</v>
       </c>
       <c r="F63" s="10">
         <v>3</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="2"/>
-        <v>15.875488246147947</v>
+        <v>13.778725647600105</v>
       </c>
       <c r="H63" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="4"/>
-        <v>25.725991537075849</v>
+        <v>25.436284425171838</v>
       </c>
       <c r="J63" s="10">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="3"/>
-        <v>59.526789368978172</v>
+        <v>62.429509133260495</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B64" s="10">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>35.013012233542604</v>
+        <v>36.213679688453908</v>
       </c>
       <c r="D64" s="10">
         <v>2</v>
@@ -4091,1117 +4091,1117 @@
         <v>21.59196778798287</v>
       </c>
       <c r="F64" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H64" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>25.725991537075849</v>
       </c>
       <c r="J64" s="10">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="3"/>
-        <v>59.106105345169134</v>
+        <v>59.526789368978172</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B65" s="10">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>34.645065755424618</v>
+        <v>35.013012233542604</v>
       </c>
       <c r="D65" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="1"/>
-        <v>21.991819043315886</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F65" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="2"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H65" s="10">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="4"/>
-        <v>24.914811623744626</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J65" s="10">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="3"/>
-        <v>56.119248776125005</v>
+        <v>59.106105345169134</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B66" s="10">
-        <v>645</v>
+        <v>454</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>36.068437657617864</v>
+        <v>34.645065755424618</v>
       </c>
       <c r="D66" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="1"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F66" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H66" s="10">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="4"/>
-        <v>23.698041753747795</v>
+        <v>24.914811623744626</v>
       </c>
       <c r="J66" s="10">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="3"/>
-        <v>60.199883807072631</v>
+        <v>56.119248776125005</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B67" s="10">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>35.187302670545854</v>
+        <v>36.068437657617864</v>
       </c>
       <c r="D67" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="1"/>
-        <v>23.191372809314934</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F67" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="2"/>
-        <v>17.373175816539263</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H67" s="10">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="I67" s="7">
         <f t="shared" si="4"/>
-        <v>19.700083609472497</v>
+        <v>23.698041753747795</v>
       </c>
       <c r="J67" s="10">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="K67" s="7">
         <f t="shared" si="3"/>
-        <v>59.190242149930945</v>
+        <v>60.199883807072631</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B68" s="10">
-        <v>738</v>
+        <v>655</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" ref="C68:C131" si="5">IF(OR(ISBLANK(B68),ISBLANK(B74)),"",SUM(B68:B74)/$O$6*100000)</f>
-        <v>33.550909123126416</v>
+        <v>35.187302670545854</v>
       </c>
       <c r="D68" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" ref="E68:E131" si="6">IF(OR(ISBLANK(D68),ISBLANK(D74)),"",SUM(D68:D74)/$O$7*100000)</f>
-        <v>20.392414021983821</v>
+        <v>23.191372809314934</v>
       </c>
       <c r="F68" s="10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" ref="G68:G131" si="7">IF(OR(ISBLANK(F68),ISBLANK(F74)),"",SUM(F68:F74)/$O$8*100000)</f>
-        <v>15.875488246147947</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H68" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="4"/>
-        <v>17.440368136621238</v>
+        <v>19.700083609472497</v>
       </c>
       <c r="J68" s="10">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" ref="K68:K131" si="8">IF(OR(ISBLANK(J68),ISBLANK(J74)),"",SUM(J68:J74)/$O$10*100000)</f>
-        <v>56.413727592791325</v>
+        <v>59.190242149930945</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B69" s="10">
-        <v>389</v>
+        <v>738</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" si="5"/>
-        <v>31.004332182467756</v>
+        <v>33.550909123126416</v>
       </c>
       <c r="D69" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E69" s="7">
         <f t="shared" si="6"/>
-        <v>15.994050213320644</v>
+        <v>20.392414021983821</v>
       </c>
       <c r="F69" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="7"/>
-        <v>14.078263161678368</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H69" s="10">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" ref="I69:I132" si="9">IF(OR(ISBLANK(H69),ISBLANK(H75)),"",SUM(H69:H75)/$O$9*100000)</f>
-        <v>15.412418353293189</v>
+        <v>17.440368136621238</v>
       </c>
       <c r="J69" s="10">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="8"/>
-        <v>54.983401911840609</v>
+        <v>56.413727592791325</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B70" s="10">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="5"/>
-        <v>31.265767837972639</v>
+        <v>31.004332182467756</v>
       </c>
       <c r="D70" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="6"/>
-        <v>13.994793936655565</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F70" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="7"/>
-        <v>12.580575591287054</v>
+        <v>14.078263161678368</v>
       </c>
       <c r="H70" s="10">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="9"/>
-        <v>13.90594137139235</v>
+        <v>15.412418353293189</v>
       </c>
       <c r="J70" s="10">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="8"/>
-        <v>56.708206409457652</v>
+        <v>54.983401911840609</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B71" s="10">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="5"/>
-        <v>30.694482516684193</v>
+        <v>31.265767837972639</v>
       </c>
       <c r="D71" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" s="7">
         <f t="shared" si="6"/>
         <v>13.994793936655565</v>
       </c>
       <c r="F71" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>12.580575591287054</v>
       </c>
       <c r="H71" s="10">
         <v>30</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="9"/>
-        <v>13.036820035680329</v>
+        <v>13.90594137139235</v>
       </c>
       <c r="J71" s="10">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="8"/>
-        <v>55.782701557077772</v>
+        <v>56.708206409457652</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B72" s="10">
-        <v>601</v>
+        <v>357</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="5"/>
-        <v>30.142562799507225</v>
+        <v>30.694482516684193</v>
       </c>
       <c r="D72" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="6"/>
-        <v>14.39464519198858</v>
+        <v>13.994793936655565</v>
       </c>
       <c r="F72" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="7"/>
-        <v>13.479188133521841</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H72" s="10">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I72" s="7">
         <f t="shared" si="9"/>
-        <v>12.747112923776323</v>
+        <v>13.036820035680329</v>
       </c>
       <c r="J72" s="10">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="8"/>
-        <v>56.539932799934029</v>
+        <v>55.782701557077772</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B73" s="10">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="5"/>
-        <v>27.867104316409186</v>
+        <v>30.142562799507225</v>
       </c>
       <c r="D73" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E73" s="7">
         <f t="shared" si="6"/>
-        <v>13.594942681322548</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F73" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="7"/>
-        <v>10.783350506817474</v>
+        <v>13.479188133521841</v>
       </c>
       <c r="H73" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" s="7">
         <f t="shared" si="9"/>
-        <v>11.008870252352278</v>
+        <v>12.747112923776323</v>
       </c>
       <c r="J73" s="10">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="8"/>
-        <v>53.637213035651705</v>
+        <v>56.539932799934029</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B74" s="10">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="5"/>
-        <v>25.272113365471846</v>
+        <v>27.867104316409186</v>
       </c>
       <c r="D74" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E74" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F74" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="7"/>
         <v>10.783350506817474</v>
       </c>
       <c r="H74" s="10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I74" s="7">
         <f t="shared" si="9"/>
-        <v>9.4444518480706368</v>
+        <v>11.008870252352278</v>
       </c>
       <c r="J74" s="10">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="8"/>
-        <v>50.103467235655835</v>
+        <v>53.637213035651705</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B75" s="10">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="5"/>
-        <v>23.606671411885195</v>
+        <v>25.272113365471846</v>
       </c>
       <c r="D75" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E75" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F75" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="7"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H75" s="10">
         <v>29</v>
       </c>
       <c r="I75" s="7">
         <f t="shared" si="9"/>
-        <v>8.865037624262623</v>
+        <v>9.4444518480706368</v>
       </c>
       <c r="J75" s="10">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="8"/>
-        <v>47.95797871422976</v>
+        <v>50.103467235655835</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B76" s="10">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="5"/>
-        <v>21.234384908229792</v>
+        <v>23.606671411885195</v>
       </c>
       <c r="D76" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E76" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F76" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="7"/>
-        <v>9.5852004505044217</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H76" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I76" s="7">
         <f t="shared" si="9"/>
-        <v>7.7641505990273956</v>
+        <v>8.865037624262623</v>
       </c>
       <c r="J76" s="10">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="8"/>
-        <v>43.582864866615822</v>
+        <v>47.95797871422976</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B77" s="10">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="5"/>
-        <v>18.968609227187489</v>
+        <v>21.234384908229792</v>
       </c>
       <c r="D77" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E77" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F77" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>9.5852004505044217</v>
       </c>
       <c r="H77" s="10">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I77" s="7">
         <f t="shared" si="9"/>
-        <v>6.7212049961729692</v>
+        <v>7.7641505990273956</v>
       </c>
       <c r="J77" s="10">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="8"/>
-        <v>40.511871492809881</v>
+        <v>43.582864866615822</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B78" s="10">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="5"/>
-        <v>17.390312492102463</v>
+        <v>18.968609227187489</v>
       </c>
       <c r="D78" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F78" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G78" s="7">
         <f t="shared" si="7"/>
-        <v>8.9861254223478948</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H78" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="9"/>
-        <v>6.0838493499841535</v>
+        <v>6.7212049961729692</v>
       </c>
       <c r="J78" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="8"/>
-        <v>36.683646876147677</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B79" s="10">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="5"/>
-        <v>15.782967350850232</v>
+        <v>17.390312492102463</v>
       </c>
       <c r="D79" s="10">
         <v>4</v>
       </c>
       <c r="E79" s="7">
         <f t="shared" si="6"/>
-        <v>11.995537659990484</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F79" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G79" s="7">
         <f t="shared" si="7"/>
-        <v>8.0875128801131062</v>
+        <v>8.9861254223478948</v>
       </c>
       <c r="H79" s="10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="9"/>
-        <v>5.0988451695105281</v>
+        <v>6.0838493499841535</v>
       </c>
       <c r="J79" s="10">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="8"/>
-        <v>33.486448295199025</v>
+        <v>36.683646876147677</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B80" s="10">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="5"/>
-        <v>13.981966168483272</v>
+        <v>15.782967350850232</v>
       </c>
       <c r="D80" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E80" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F80" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" si="7"/>
-        <v>8.6865879082696313</v>
+        <v>8.0875128801131062</v>
       </c>
       <c r="H80" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="9"/>
-        <v>5.388552281414535</v>
+        <v>5.0988451695105281</v>
       </c>
       <c r="J80" s="10">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="8"/>
-        <v>29.616155276155926</v>
+        <v>33.486448295199025</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B81" s="10">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="5"/>
-        <v>12.597325474512976</v>
+        <v>13.981966168483272</v>
       </c>
       <c r="D81" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E81" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F81" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>8.6865879082696313</v>
       </c>
       <c r="H81" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I81" s="7">
         <f t="shared" si="9"/>
-        <v>5.0409037471297271</v>
+        <v>5.388552281414535</v>
       </c>
       <c r="J81" s="10">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="8"/>
-        <v>26.839640719016305</v>
+        <v>29.616155276155926</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B82" s="10">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="5"/>
-        <v>10.960931927093537</v>
+        <v>12.597325474512976</v>
       </c>
       <c r="D82" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E82" s="7">
         <f t="shared" si="6"/>
-        <v>9.5964301279923863</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F82" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H82" s="10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I82" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>5.0409037471297271</v>
       </c>
       <c r="J82" s="10">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="8"/>
-        <v>22.801074090449589</v>
+        <v>26.839640719016305</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B83" s="10">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="5"/>
-        <v>9.8861408989068025</v>
+        <v>10.960931927093537</v>
       </c>
       <c r="D83" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E83" s="7">
         <f t="shared" si="6"/>
-        <v>7.5971738513273062</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F83" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="7"/>
-        <v>5.9907502815652638</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H83" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I83" s="7">
         <f t="shared" si="9"/>
-        <v>4.6932552128449183</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J83" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="8"/>
-        <v>19.856285923786359</v>
+        <v>22.801074090449589</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B84" s="10">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="5"/>
-        <v>8.927543495388905</v>
+        <v>9.8861408989068025</v>
       </c>
       <c r="D84" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" si="6"/>
-        <v>5.5979175746622261</v>
+        <v>7.5971738513273062</v>
       </c>
       <c r="F84" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>5.9907502815652638</v>
       </c>
       <c r="H84" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>4.6932552128449183</v>
       </c>
       <c r="J84" s="10">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K84" s="7">
         <f t="shared" si="8"/>
-        <v>17.121839769027645</v>
+        <v>19.856285923786359</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B85" s="10">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="5"/>
-        <v>8.4530861946578231</v>
+        <v>8.927543495388905</v>
       </c>
       <c r="D85" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85" s="7">
         <f t="shared" si="6"/>
-        <v>3.9985125533301611</v>
+        <v>5.5979175746622261</v>
       </c>
       <c r="F85" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" si="7"/>
-        <v>5.3916752534087369</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H85" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I85" s="7">
         <f t="shared" si="9"/>
-        <v>5.330610859033734</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J85" s="10">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="8"/>
-        <v>15.354966869029704</v>
+        <v>17.121839769027645</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B86" s="10">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="5"/>
-        <v>7.8430696651464347</v>
+        <v>8.4530861946578231</v>
       </c>
       <c r="D86" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E86" s="7">
         <f t="shared" si="6"/>
-        <v>2.798958787331113</v>
+        <v>3.9985125533301611</v>
       </c>
       <c r="F86" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G86" s="7">
         <f t="shared" si="7"/>
-        <v>4.4930627111739474</v>
+        <v>5.3916752534087369</v>
       </c>
       <c r="H86" s="10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I86" s="7">
         <f t="shared" si="9"/>
-        <v>5.15678659189133</v>
+        <v>5.330610859033734</v>
       </c>
       <c r="J86" s="10">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="8"/>
-        <v>13.125341542841829</v>
+        <v>15.354966869029704</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B87" s="10">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="5"/>
-        <v>7.5719512075858173</v>
+        <v>7.8430696651464347</v>
       </c>
       <c r="D87" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E87" s="7">
         <f t="shared" si="6"/>
-        <v>1.1995537659990483</v>
+        <v>2.798958787331113</v>
       </c>
       <c r="F87" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="7"/>
-        <v>5.6912127674869994</v>
+        <v>4.4930627111739474</v>
       </c>
       <c r="H87" s="10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I87" s="7">
         <f t="shared" si="9"/>
-        <v>4.9250209023681242</v>
+        <v>5.15678659189133</v>
       </c>
       <c r="J87" s="10">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="8"/>
-        <v>10.895716216653955</v>
+        <v>13.125341542841829</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B88" s="10">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="5"/>
-        <v>7.6494136240317072</v>
+        <v>7.5719512075858173</v>
       </c>
       <c r="D88" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" si="6"/>
-        <v>0.79970251066603215</v>
+        <v>1.1995537659990483</v>
       </c>
       <c r="F88" s="10">
         <v>2</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="7"/>
-        <v>7.7879753660348419</v>
+        <v>5.6912127674869994</v>
       </c>
       <c r="H88" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I88" s="7">
         <f t="shared" si="9"/>
-        <v>5.2147280142721311</v>
+        <v>4.9250209023681242</v>
       </c>
       <c r="J88" s="10">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="8"/>
-        <v>9.8860745595122772</v>
+        <v>10.895716216653955</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B89" s="10">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="5"/>
-        <v>8.1432365288742616</v>
+        <v>7.6494136240317072</v>
       </c>
       <c r="D89" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>0.79970251066603215</v>
       </c>
       <c r="F89" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>7.7879753660348419</v>
       </c>
       <c r="H89" s="10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I89" s="7">
         <f t="shared" si="9"/>
-        <v>7.9379748661697995</v>
+        <v>5.2147280142721311</v>
       </c>
       <c r="J89" s="10">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="8"/>
-        <v>8.7922960976087907</v>
+        <v>9.8860745595122772</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B90" s="10">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="5"/>
-        <v>7.9398976857037979</v>
+        <v>8.1432365288742616</v>
       </c>
       <c r="D90" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F90" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G90" s="7">
         <f t="shared" si="7"/>
-        <v>11.382425534973999</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H90" s="10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I90" s="7">
         <f t="shared" si="9"/>
         <v>7.9379748661697995</v>
       </c>
       <c r="J90" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="8"/>
-        <v>8.4136804761806605</v>
+        <v>8.7922960976087907</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B91" s="10">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="5"/>
-        <v>8.114188122707052</v>
+        <v>7.9398976857037979</v>
       </c>
       <c r="D91" s="10">
         <v>0</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F91" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>11.382425534973999</v>
       </c>
       <c r="H91" s="10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I91" s="7">
         <f t="shared" si="9"/>
-        <v>8.4594476675970114</v>
+        <v>7.9379748661697995</v>
       </c>
       <c r="J91" s="10">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>8.4136804761806605</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B92" s="10">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="5"/>
-        <v>7.8914836754251159</v>
+        <v>8.114188122707052</v>
       </c>
       <c r="D92" s="10">
         <v>0</v>
@@ -5211,277 +5211,277 @@
         <v>2.3991075319980966</v>
       </c>
       <c r="F92" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H92" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I92" s="7">
         <f t="shared" si="9"/>
-        <v>8.0538577109314033</v>
+        <v>8.4594476675970114</v>
       </c>
       <c r="J92" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="8"/>
-        <v>10.180553376178599</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B93" s="10">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="5"/>
-        <v>7.5235371973071361</v>
+        <v>7.8914836754251159</v>
       </c>
       <c r="D93" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" si="6"/>
         <v>2.3991075319980966</v>
       </c>
       <c r="F93" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="7"/>
         <v>11.981500563130528</v>
       </c>
       <c r="H93" s="10">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I93" s="7">
         <f t="shared" si="9"/>
         <v>8.0538577109314033</v>
       </c>
       <c r="J93" s="10">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="8"/>
-        <v>10.306758583321308</v>
+        <v>10.180553376178599</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B94" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="5"/>
-        <v>6.6230366061236561</v>
+        <v>7.5235371973071361</v>
       </c>
       <c r="D94" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F94" s="10">
         <v>9</v>
       </c>
       <c r="G94" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H94" s="10">
         <v>19</v>
       </c>
       <c r="I94" s="7">
         <f t="shared" si="9"/>
-        <v>7.0109121080769761</v>
+        <v>8.0538577109314033</v>
       </c>
       <c r="J94" s="10">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="8"/>
-        <v>10.517100595225825</v>
+        <v>10.306758583321308</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B95" s="10">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="5"/>
-        <v>5.4030035471008766</v>
+        <v>6.6230366061236561</v>
       </c>
       <c r="D95" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E95" s="7">
         <f t="shared" si="6"/>
         <v>1.9992562766650805</v>
       </c>
       <c r="F95" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H95" s="10">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I95" s="7">
         <f t="shared" si="9"/>
-        <v>5.9679665052225497</v>
+        <v>7.0109121080769761</v>
       </c>
       <c r="J95" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>10.517100595225825</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B96" s="10">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="5"/>
-        <v>3.7956584058486449</v>
+        <v>5.4030035471008766</v>
       </c>
       <c r="D96" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E96" s="7">
         <f t="shared" si="6"/>
-        <v>0.39985125533301608</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F96" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G96" s="7">
         <f t="shared" si="7"/>
-        <v>1.7972250844695792</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H96" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I96" s="7">
         <f t="shared" si="9"/>
-        <v>2.7232468518976685</v>
+        <v>5.9679665052225497</v>
       </c>
       <c r="J96" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="8"/>
-        <v>9.2129801214178233</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B97" s="10">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="5"/>
-        <v>2.9726202311110557</v>
+        <v>3.7956584058486449</v>
       </c>
       <c r="D97" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="7">
         <f t="shared" si="6"/>
         <v>0.39985125533301608</v>
       </c>
       <c r="F97" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="7"/>
-        <v>1.4976875703913159</v>
+        <v>1.7972250844695792</v>
       </c>
       <c r="H97" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="9"/>
-        <v>2.0858912057088523</v>
+        <v>2.7232468518976685</v>
       </c>
       <c r="J97" s="10">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="8"/>
-        <v>8.5398856833233694</v>
+        <v>9.2129801214178233</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B98" s="10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="5"/>
-        <v>2.0430712337603674</v>
+        <v>2.9726202311110557</v>
       </c>
       <c r="D98" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.39985125533301608</v>
       </c>
       <c r="F98" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G98" s="7">
         <f t="shared" si="7"/>
-        <v>0.29953751407826318</v>
+        <v>1.4976875703913159</v>
       </c>
       <c r="H98" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I98" s="7">
         <f t="shared" si="9"/>
-        <v>1.390594137139235</v>
+        <v>2.0858912057088523</v>
       </c>
       <c r="J98" s="10">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K98" s="7">
         <f t="shared" si="8"/>
-        <v>5.8895763333264624</v>
+        <v>8.5398856833233694</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B99" s="10">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="5"/>
-        <v>1.5976623391964959</v>
+        <v>2.0430712337603674</v>
       </c>
       <c r="D99" s="10">
         <v>0</v>
@@ -5491,37 +5491,37 @@
         <v>0</v>
       </c>
       <c r="F99" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.29953751407826318</v>
       </c>
       <c r="H99" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I99" s="7">
         <f t="shared" si="9"/>
-        <v>0.75323849095041895</v>
+        <v>1.390594137139235</v>
       </c>
       <c r="J99" s="10">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="8"/>
-        <v>4.6695926642802661</v>
+        <v>5.8895763333264624</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B100" s="10">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="5"/>
-        <v>1.3071782775244056</v>
+        <v>1.5976623391964959</v>
       </c>
       <c r="D100" s="10">
         <v>0</v>
@@ -5538,30 +5538,30 @@
         <v>0</v>
       </c>
       <c r="H100" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I100" s="7">
         <f t="shared" si="9"/>
-        <v>0.57941422380801455</v>
+        <v>0.75323849095041895</v>
       </c>
       <c r="J100" s="10">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="8"/>
-        <v>3.8282246166622</v>
+        <v>4.6695926642802661</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B101" s="10">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="5"/>
-        <v>0.81335537268185243</v>
+        <v>1.3071782775244056</v>
       </c>
       <c r="D101" s="10">
         <v>0</v>
@@ -5582,26 +5582,26 @@
       </c>
       <c r="I101" s="7">
         <f t="shared" si="9"/>
-        <v>0.69529706856961748</v>
+        <v>0.57941422380801455</v>
       </c>
       <c r="J101" s="10">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="8"/>
-        <v>2.3978989357114884</v>
+        <v>3.8282246166622</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B102" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="5"/>
-        <v>0.58096812334418035</v>
+        <v>0.81335537268185243</v>
       </c>
       <c r="D102" s="10">
         <v>0</v>
@@ -5622,26 +5622,26 @@
       </c>
       <c r="I102" s="7">
         <f t="shared" si="9"/>
-        <v>0.63735564618881602</v>
+        <v>0.69529706856961748</v>
       </c>
       <c r="J102" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K102" s="7">
         <f t="shared" si="8"/>
-        <v>1.5144624857125188</v>
+        <v>2.3978989357114884</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B103" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="5"/>
-        <v>0.30016686372782653</v>
+        <v>0.58096812334418035</v>
       </c>
       <c r="D103" s="10">
         <v>0</v>
@@ -5658,30 +5658,30 @@
         <v>0</v>
       </c>
       <c r="H103" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" s="7">
         <f t="shared" si="9"/>
         <v>0.63735564618881602</v>
       </c>
       <c r="J103" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K103" s="7">
         <f t="shared" si="8"/>
-        <v>0.63102603571354954</v>
+        <v>1.5144624857125188</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B104" s="10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="5"/>
-        <v>0.17429043700325408</v>
+        <v>0.30016686372782653</v>
       </c>
       <c r="D104" s="10">
         <v>0</v>
@@ -5698,30 +5698,30 @@
         <v>0</v>
       </c>
       <c r="H104" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" s="7">
         <f t="shared" si="9"/>
-        <v>0.52147280142721308</v>
+        <v>0.63735564618881602</v>
       </c>
       <c r="J104" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K104" s="7">
         <f t="shared" si="8"/>
-        <v>0.21034201190451648</v>
+        <v>0.63102603571354954</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B105" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="5"/>
-        <v>0.12587642672457242</v>
+        <v>0.17429043700325408</v>
       </c>
       <c r="D105" s="10">
         <v>0</v>
@@ -5738,26 +5738,26 @@
         <v>0</v>
       </c>
       <c r="H105" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I105" s="7">
         <f t="shared" si="9"/>
-        <v>0.34764853428480874</v>
+        <v>0.52147280142721308</v>
       </c>
       <c r="J105" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="7">
         <f t="shared" si="8"/>
-        <v>0.1682736095236132</v>
+        <v>0.21034201190451648</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B106" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="5"/>
@@ -5778,14 +5778,14 @@
         <v>0</v>
       </c>
       <c r="H106" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" s="7">
         <f t="shared" si="9"/>
         <v>0.34764853428480874</v>
       </c>
       <c r="J106" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" s="7">
         <f t="shared" si="8"/>
@@ -5794,14 +5794,14 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B107" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363378E-2</v>
+        <v>0.12587642672457242</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -5818,30 +5818,30 @@
         <v>0</v>
       </c>
       <c r="H107" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" s="7">
         <f t="shared" si="9"/>
-        <v>0.23176568952320581</v>
+        <v>0.34764853428480874</v>
       </c>
       <c r="J107" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K107" s="7">
         <f t="shared" si="8"/>
-        <v>0.12620520714270991</v>
+        <v>0.1682736095236132</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B108" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" si="5"/>
-        <v>1.936560411147268E-2</v>
+        <v>9.6828020557363378E-2</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
@@ -5858,30 +5858,30 @@
         <v>0</v>
       </c>
       <c r="H108" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108" s="7">
         <f t="shared" si="9"/>
-        <v>5.7941422380801452E-2</v>
+        <v>0.23176568952320581</v>
       </c>
       <c r="J108" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K108" s="7">
         <f t="shared" si="8"/>
-        <v>4.20684023809033E-2</v>
+        <v>0.12620520714270991</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B109" s="10">
         <v>1</v>
       </c>
       <c r="C109" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>1.936560411147268E-2</v>
       </c>
       <c r="D109" s="10">
         <v>0</v>
@@ -5898,30 +5898,30 @@
         <v>0</v>
       </c>
       <c r="H109" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" s="7">
         <f t="shared" si="9"/>
         <v>5.7941422380801452E-2</v>
       </c>
       <c r="J109" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.20684023809033E-2</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B110" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D110" s="10">
         <v>0</v>
@@ -5938,11 +5938,11 @@
         <v>0</v>
       </c>
       <c r="H110" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.7941422380801452E-2</v>
       </c>
       <c r="J110" s="10">
         <v>0</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B111" s="10">
         <v>0</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B112" s="10">
         <v>0</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B113" s="10">
         <v>0</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B114" s="10">
         <v>0</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B115" s="10">
         <v>0</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B116" s="10">
         <v>0</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
@@ -6514,14 +6514,14 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
       </c>
       <c r="C125" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>0</v>
       </c>
       <c r="D125" s="10">
         <v>0</v>
@@ -6554,47 +6554,47 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
       </c>
-      <c r="C126" s="7" t="str">
+      <c r="C126" s="7">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D126" s="10">
         <v>0</v>
       </c>
-      <c r="E126" s="7" t="str">
+      <c r="E126" s="7">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F126" s="10">
         <v>0</v>
       </c>
-      <c r="G126" s="7" t="str">
+      <c r="G126" s="7">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H126" s="10">
         <v>0</v>
       </c>
-      <c r="I126" s="7" t="str">
+      <c r="I126" s="7">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J126" s="10">
         <v>0</v>
       </c>
-      <c r="K126" s="7" t="str">
+      <c r="K126" s="7">
         <f t="shared" si="8"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B129" s="10">
         <v>0</v>
@@ -6714,7 +6714,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B130" s="10">
         <v>0</v>
@@ -6754,10 +6754,10 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B131" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" s="7" t="str">
         <f t="shared" si="5"/>
@@ -6793,28 +6793,40 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
-      <c r="B132" s="10"/>
+      <c r="A132" s="4">
+        <v>43865</v>
+      </c>
+      <c r="B132" s="10">
+        <v>1</v>
+      </c>
       <c r="C132" s="7" t="str">
         <f t="shared" ref="C132:C195" si="10">IF(OR(ISBLANK(B132),ISBLANK(B138)),"",SUM(B132:B138)/$O$6*100000)</f>
         <v/>
       </c>
-      <c r="D132" s="10"/>
+      <c r="D132" s="10">
+        <v>0</v>
+      </c>
       <c r="E132" s="7" t="str">
         <f t="shared" ref="E132:E195" si="11">IF(OR(ISBLANK(D132),ISBLANK(D138)),"",SUM(D132:D138)/$O$7*100000)</f>
         <v/>
       </c>
-      <c r="F132" s="10"/>
+      <c r="F132" s="10">
+        <v>0</v>
+      </c>
       <c r="G132" s="7" t="str">
         <f t="shared" ref="G132:G195" si="12">IF(OR(ISBLANK(F132),ISBLANK(F138)),"",SUM(F132:F138)/$O$8*100000)</f>
         <v/>
       </c>
-      <c r="H132" s="10"/>
+      <c r="H132" s="10">
+        <v>0</v>
+      </c>
       <c r="I132" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J132" s="10"/>
+      <c r="J132" s="10">
+        <v>0</v>
+      </c>
       <c r="K132" s="7" t="str">
         <f t="shared" ref="K132:K195" si="13">IF(OR(ISBLANK(J132),ISBLANK(J138)),"",SUM(J132:J138)/$O$10*100000)</f>
         <v/>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B846A1-A2E6-4F8D-8D4A-2068C731AD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9318FF07-B44A-4705-A150-33087D489B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="5304" windowWidth="28764" windowHeight="15756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34500" yWindow="6240" windowWidth="28800" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schaubild" sheetId="4" r:id="rId1"/>
@@ -134,7 +134,7 @@
     <t>Einwohner</t>
   </si>
   <si>
-    <t>Datenabruf: Freitag 2020-06-12 15:07</t>
+    <t>Datenabruf: Samstag 2020-06-13 12:44</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Freitag 2020-06-12 15:07</a:t>
+              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Samstag 2020-06-13 12:44</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -830,187 +830,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43935</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,187 +1022,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>66.236709081401429</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>62.897868297461251</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>59.02874103607175</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>72.030579853532913</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>71.873457934288666</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>70.587022220476413</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>66.521492560031618</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>63.467435254721636</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>60.452658429222708</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>56.121985530053252</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>40.743677684022906</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>38.995696332430697</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>40.095549767140405</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>38.543970814603497</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>36.010379866790075</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>34.910526432080367</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>35.008727631608025</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>35.755056748018177</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>34.036535756284266</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>32.563517763369482</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>34.478441154158702</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>35.372072069860337</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>35.254230630427152</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>35.489913509293515</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>34.635563073402942</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>36.403184664900685</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>37.52267833951592</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>36.884370542586176</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>38.710912853800508</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>38.877854892997519</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>39.192098731486006</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>39.830406528415743</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>38.779653693469868</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>39.329580410824718</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>37.699440498665695</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>36.776349223105761</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>34.674843553214004</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>35.50955374919905</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>35.303331230190977</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>37.267355220744022</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>36.108581066317726</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>38.347568415548196</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>38.818934173280923</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>42.589860235142773</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>42.206875556984933</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>42.216695676937697</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>40.743677684022906</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>41.784610399016024</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>42.766622394292547</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>42.727341914481485</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>41.391805600905414</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>40.036629047423816</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>38.072605056870771</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>37.601239299138037</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>38.318108055689898</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>36.049660346601136</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>34.674843553214004</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>33.378587719448994</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>34.448980794300404</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>36.845090062775121</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>36.746888863247463</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>35.872898187451362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31838,14 +31838,14 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B4" s="11">
-        <v>1474</v>
+        <v>1396</v>
       </c>
       <c r="C4" s="9">
         <f>IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/D4*100000)</f>
-        <v>62.897868297461251</v>
+        <v>66.236709081401429</v>
       </c>
       <c r="D4">
         <v>10183175</v>
@@ -31858,14 +31858,14 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B5" s="10">
-        <v>890</v>
+        <v>1474</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C68" si="0">IF(OR(ISBLANK(B5),ISBLANK(B11)),"",SUM(B5:B11)/D5*100000)</f>
-        <v>59.02874103607175</v>
+        <v>62.897868297461251</v>
       </c>
       <c r="D5">
         <v>10183175</v>
@@ -31878,14 +31878,14 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B6" s="10">
-        <v>791</v>
+        <v>890</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>72.030579853532913</v>
+        <v>59.02874103607175</v>
       </c>
       <c r="D6">
         <v>10183175</v>
@@ -31900,14 +31900,14 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B7" s="10">
-        <v>403</v>
+        <v>791</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>71.873457934288666</v>
+        <v>72.030579853532913</v>
       </c>
       <c r="D7" s="13">
         <v>10183175</v>
@@ -31924,14 +31924,14 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B8" s="10">
-        <v>843</v>
+        <v>403</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>70.587022220476413</v>
+        <v>71.873457934288666</v>
       </c>
       <c r="D8" s="13">
         <v>10183175</v>
@@ -31946,14 +31946,14 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B9" s="10">
-        <v>948</v>
+        <v>843</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>66.521492560031618</v>
+        <v>70.587022220476413</v>
       </c>
       <c r="D9" s="13">
         <v>10183175</v>
@@ -31968,14 +31968,14 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B10" s="10">
-        <v>1056</v>
+        <v>948</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>63.467435254721636</v>
+        <v>66.521492560031618</v>
       </c>
       <c r="D10" s="13">
         <v>10183175</v>
@@ -31990,14 +31990,14 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B11" s="10">
-        <v>1080</v>
+        <v>1056</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>60.452658429222708</v>
+        <v>63.467435254721636</v>
       </c>
       <c r="D11" s="13">
         <v>10183175</v>
@@ -32012,14 +32012,14 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B12" s="10">
-        <v>2214</v>
+        <v>1080</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>56.121985530053252</v>
+        <v>60.452658429222708</v>
       </c>
       <c r="D12" s="13">
         <v>10183175</v>
@@ -32034,14 +32034,14 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B13" s="10">
-        <v>775</v>
+        <v>2214</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>40.743677684022906</v>
+        <v>56.121985530053252</v>
       </c>
       <c r="D13" s="13">
         <v>10183175</v>
@@ -32056,14 +32056,14 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B14" s="10">
-        <v>272</v>
+        <v>775</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>38.995696332430697</v>
+        <v>40.743677684022906</v>
       </c>
       <c r="D14" s="13">
         <v>10183175</v>
@@ -32078,14 +32078,14 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B15" s="10">
-        <v>429</v>
+        <v>272</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>40.095549767140405</v>
+        <v>38.995696332430697</v>
       </c>
       <c r="D15" s="13">
         <v>10183175</v>
@@ -32100,14 +32100,14 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B16" s="10">
-        <v>637</v>
+        <v>429</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>38.543970814603497</v>
+        <v>40.095549767140405</v>
       </c>
       <c r="D16" s="13">
         <v>10183175</v>
@@ -32122,14 +32122,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B17" s="10">
-        <v>749</v>
+        <v>637</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>36.010379866790075</v>
+        <v>38.543970814603497</v>
       </c>
       <c r="D17" s="13">
         <v>10183175</v>
@@ -32144,14 +32144,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B18" s="10">
-        <v>639</v>
+        <v>749</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>34.910526432080367</v>
+        <v>36.010379866790075</v>
       </c>
       <c r="D18" s="13">
         <v>10183175</v>
@@ -32166,14 +32166,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B19" s="10">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>35.008727631608025</v>
+        <v>34.910526432080367</v>
       </c>
       <c r="D19" s="13">
         <v>10183175</v>
@@ -32188,14 +32188,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B20" s="10">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>35.755056748018177</v>
+        <v>35.008727631608025</v>
       </c>
       <c r="D20" s="13">
         <v>10183175</v>
@@ -32210,14 +32210,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B21" s="10">
-        <v>384</v>
+        <v>597</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>34.036535756284266</v>
+        <v>35.755056748018177</v>
       </c>
       <c r="D21" s="13">
         <v>10183175</v>
@@ -32232,14 +32232,14 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B22" s="10">
-        <v>271</v>
+        <v>384</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>32.563517763369482</v>
+        <v>34.036535756284266</v>
       </c>
       <c r="D22" s="13">
         <v>10183175</v>
@@ -32254,14 +32254,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B23" s="10">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>34.478441154158702</v>
+        <v>32.563517763369482</v>
       </c>
       <c r="D23" s="13">
         <v>10183175</v>
@@ -32276,14 +32276,14 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B24" s="10">
-        <v>637</v>
+        <v>379</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>35.372072069860337</v>
+        <v>34.478441154158702</v>
       </c>
       <c r="D24" s="13">
         <v>10183175</v>
@@ -32298,14 +32298,14 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B25" s="10">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>35.254230630427152</v>
+        <v>35.372072069860337</v>
       </c>
       <c r="D25" s="13">
         <v>10183175</v>
@@ -32320,14 +32320,14 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B26" s="10">
-        <v>724</v>
+        <v>649</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>35.489913509293515</v>
+        <v>35.254230630427152</v>
       </c>
       <c r="D26" s="13">
         <v>10183175</v>
@@ -32342,14 +32342,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B27" s="10">
-        <v>422</v>
+        <v>724</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>34.635563073402942</v>
+        <v>35.489913509293515</v>
       </c>
       <c r="D27" s="13">
         <v>10183175</v>
@@ -32364,14 +32364,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B28" s="10">
-        <v>234</v>
+        <v>422</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>36.403184664900685</v>
+        <v>34.635563073402942</v>
       </c>
       <c r="D28" s="13">
         <v>10183175</v>
@@ -32386,14 +32386,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B29" s="10">
-        <v>466</v>
+        <v>234</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>37.52267833951592</v>
+        <v>36.403184664900685</v>
       </c>
       <c r="D29" s="13">
         <v>10183175</v>
@@ -32408,14 +32408,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B30" s="10">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>36.884370542586176</v>
+        <v>37.52267833951592</v>
       </c>
       <c r="D30" s="13">
         <v>10183175</v>
@@ -32430,14 +32430,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B31" s="10">
-        <v>625</v>
+        <v>470</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>38.710912853800508</v>
+        <v>36.884370542586176</v>
       </c>
       <c r="D31" s="13">
         <v>10183175</v>
@@ -32452,14 +32452,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B32" s="10">
-        <v>673</v>
+        <v>625</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>38.877854892997519</v>
+        <v>38.710912853800508</v>
       </c>
       <c r="D32" s="13">
         <v>10183175</v>
@@ -32474,14 +32474,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B33" s="10">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>39.192098731486006</v>
+        <v>38.877854892997519</v>
       </c>
       <c r="D33" s="13">
         <v>10183175</v>
@@ -32496,14 +32496,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B34" s="10">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>39.830406528415743</v>
+        <v>39.192098731486006</v>
       </c>
       <c r="D34" s="13">
         <v>10183175</v>
@@ -32518,14 +32518,14 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B35" s="10">
-        <v>348</v>
+        <v>602</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>38.779653693469868</v>
+        <v>39.830406528415743</v>
       </c>
       <c r="D35" s="13">
         <v>10183175</v>
@@ -32540,14 +32540,14 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B36" s="10">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>39.329580410824718</v>
+        <v>38.779653693469868</v>
       </c>
       <c r="D36" s="13">
         <v>10183175</v>
@@ -32562,14 +32562,14 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B37" s="10">
-        <v>656</v>
+        <v>401</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>37.699440498665695</v>
+        <v>39.329580410824718</v>
       </c>
       <c r="D37" s="13">
         <v>10183175</v>
@@ -32584,14 +32584,14 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B38" s="10">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>36.776349223105761</v>
+        <v>37.699440498665695</v>
       </c>
       <c r="D38" s="13">
         <v>10183175</v>
@@ -32606,14 +32606,14 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B39" s="10">
-        <v>705</v>
+        <v>642</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>34.674843553214004</v>
+        <v>36.776349223105761</v>
       </c>
       <c r="D39" s="13">
         <v>10183175</v>
@@ -32628,14 +32628,14 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B40" s="10">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>35.50955374919905</v>
+        <v>34.674843553214004</v>
       </c>
       <c r="D40" s="13">
         <v>10183175</v>
@@ -32650,14 +32650,14 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B41" s="10">
-        <v>495</v>
+        <v>702</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>35.303331230190977</v>
+        <v>35.50955374919905</v>
       </c>
       <c r="D41" s="13">
         <v>10183175</v>
@@ -32672,14 +32672,14 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B42" s="10">
-        <v>404</v>
+        <v>495</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>37.267355220744022</v>
+        <v>35.303331230190977</v>
       </c>
       <c r="D42" s="13">
         <v>10183175</v>
@@ -32694,14 +32694,14 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B43" s="10">
-        <v>235</v>
+        <v>404</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>36.108581066317726</v>
+        <v>37.267355220744022</v>
       </c>
       <c r="D43" s="13">
         <v>10183175</v>
@@ -32716,14 +32716,14 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B44" s="10">
-        <v>562</v>
+        <v>235</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>38.347568415548196</v>
+        <v>36.108581066317726</v>
       </c>
       <c r="D44" s="13">
         <v>10183175</v>
@@ -32738,14 +32738,14 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B45" s="10">
-        <v>428</v>
+        <v>562</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>38.818934173280923</v>
+        <v>38.347568415548196</v>
       </c>
       <c r="D45" s="13">
         <v>10183175</v>
@@ -32760,14 +32760,14 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B46" s="10">
-        <v>790</v>
+        <v>428</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>42.589860235142773</v>
+        <v>38.818934173280923</v>
       </c>
       <c r="D46" s="13">
         <v>10183175</v>
@@ -32782,14 +32782,14 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B47" s="10">
-        <v>681</v>
+        <v>790</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>42.206875556984933</v>
+        <v>42.589860235142773</v>
       </c>
       <c r="D47" s="13">
         <v>10183175</v>
@@ -32804,14 +32804,14 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B48" s="10">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>42.216695676937697</v>
+        <v>42.206875556984933</v>
       </c>
       <c r="D48" s="13">
         <v>10183175</v>
@@ -32826,14 +32826,14 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B49" s="10">
-        <v>286</v>
+        <v>695</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>40.743677684022906</v>
+        <v>42.216695676937697</v>
       </c>
       <c r="D49" s="13">
         <v>10183175</v>
@@ -32848,14 +32848,14 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B50" s="10">
-        <v>463</v>
+        <v>286</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>41.784610399016024</v>
+        <v>40.743677684022906</v>
       </c>
       <c r="D50" s="13">
         <v>10183175</v>
@@ -32870,14 +32870,14 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B51" s="10">
-        <v>610</v>
+        <v>463</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>42.766622394292547</v>
+        <v>41.784610399016024</v>
       </c>
       <c r="D51" s="13">
         <v>10183175</v>
@@ -32892,14 +32892,14 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B52" s="10">
-        <v>812</v>
+        <v>610</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>42.727341914481485</v>
+        <v>42.766622394292547</v>
       </c>
       <c r="D52" s="13">
         <v>10183175</v>
@@ -32914,14 +32914,14 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B53" s="10">
-        <v>751</v>
+        <v>812</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>41.391805600905414</v>
+        <v>42.727341914481485</v>
       </c>
       <c r="D53" s="13">
         <v>10183175</v>
@@ -32936,14 +32936,14 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B54" s="10">
-        <v>682</v>
+        <v>751</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>40.036629047423816</v>
+        <v>41.391805600905414</v>
       </c>
       <c r="D54" s="13">
         <v>10183175</v>
@@ -32958,14 +32958,14 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B55" s="10">
-        <v>545</v>
+        <v>682</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>38.072605056870771</v>
+        <v>40.036629047423816</v>
       </c>
       <c r="D55" s="13">
         <v>10183175</v>
@@ -32980,14 +32980,14 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B56" s="10">
-        <v>392</v>
+        <v>545</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>37.601239299138037</v>
+        <v>38.072605056870771</v>
       </c>
       <c r="D56" s="13">
         <v>10183175</v>
@@ -33002,14 +33002,14 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B57" s="10">
-        <v>563</v>
+        <v>392</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>38.318108055689898</v>
+        <v>37.601239299138037</v>
       </c>
       <c r="D57" s="13">
         <v>10183175</v>
@@ -33024,14 +33024,14 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B58" s="10">
-        <v>606</v>
+        <v>563</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>36.049660346601136</v>
+        <v>38.318108055689898</v>
       </c>
       <c r="D58" s="13">
         <v>10183175</v>
@@ -33046,14 +33046,14 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B59" s="10">
-        <v>676</v>
+        <v>606</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>34.674843553214004</v>
+        <v>36.049660346601136</v>
       </c>
       <c r="D59" s="13">
         <v>10183175</v>
@@ -33068,14 +33068,14 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B60" s="10">
-        <v>613</v>
+        <v>676</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>33.378587719448994</v>
+        <v>34.674843553214004</v>
       </c>
       <c r="D60" s="13">
         <v>10183175</v>
@@ -33090,14 +33090,14 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B61" s="10">
-        <v>482</v>
+        <v>613</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>34.448980794300404</v>
+        <v>33.378587719448994</v>
       </c>
       <c r="D61" s="13">
         <v>10183175</v>
@@ -33112,14 +33112,14 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B62" s="10">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>36.845090062775121</v>
+        <v>34.448980794300404</v>
       </c>
       <c r="D62" s="13">
         <v>10183175</v>
@@ -33134,14 +33134,14 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B63" s="10">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>36.746888863247463</v>
+        <v>36.845090062775121</v>
       </c>
       <c r="D63" s="13">
         <v>10183175</v>
@@ -33156,14 +33156,14 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B64" s="10">
-        <v>332</v>
+        <v>465</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>35.872898187451362</v>
+        <v>36.746888863247463</v>
       </c>
       <c r="D64" s="13">
         <v>10183175</v>
@@ -33178,14 +33178,14 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B65" s="10">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>36.413004784853449</v>
+        <v>35.872898187451362</v>
       </c>
       <c r="D65" s="13">
         <v>10183175</v>
@@ -33200,14 +33200,14 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B66" s="10">
-        <v>544</v>
+        <v>466</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>35.421172669624163</v>
+        <v>36.413004784853449</v>
       </c>
       <c r="D66" s="13">
         <v>10183175</v>
@@ -33222,14 +33222,14 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B67" s="10">
-        <v>722</v>
+        <v>544</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>36.088940826412191</v>
+        <v>35.421172669624163</v>
       </c>
       <c r="D67" s="13">
         <v>10183175</v>
@@ -33244,14 +33244,14 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B68" s="10">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" si="0"/>
-        <v>34.095456476000855</v>
+        <v>36.088940826412191</v>
       </c>
       <c r="D68" s="13">
         <v>10183175</v>
@@ -33266,14 +33266,14 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B69" s="10">
-        <v>487</v>
+        <v>726</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" ref="C69:C132" si="1">IF(OR(ISBLANK(B69),ISBLANK(B75)),"",SUM(B69:B75)/D69*100000)</f>
-        <v>31.993950806109098</v>
+        <v>34.095456476000855</v>
       </c>
       <c r="D69" s="13">
         <v>10183175</v>
@@ -33288,14 +33288,14 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B70" s="10">
-        <v>376</v>
+        <v>487</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="1"/>
-        <v>31.208341209887877</v>
+        <v>31.993950806109098</v>
       </c>
       <c r="D70" s="13">
         <v>10183175</v>
@@ -33310,14 +33310,14 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B71" s="10">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="1"/>
-        <v>30.736975452155146</v>
+        <v>31.208341209887877</v>
       </c>
       <c r="D71" s="13">
         <v>10183175</v>
@@ -33332,14 +33332,14 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B72" s="10">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="1"/>
-        <v>29.421079378484606</v>
+        <v>30.736975452155146</v>
       </c>
       <c r="D72" s="13">
         <v>10183175</v>
@@ -33354,14 +33354,14 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B73" s="10">
-        <v>612</v>
+        <v>365</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="1"/>
-        <v>29.774603696784155</v>
+        <v>29.421079378484606</v>
       </c>
       <c r="D73" s="13">
         <v>10183175</v>
@@ -33376,14 +33376,14 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B74" s="10">
-        <v>519</v>
+        <v>612</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="1"/>
-        <v>26.121519074355493</v>
+        <v>29.774603696784155</v>
       </c>
       <c r="D74" s="13">
         <v>10183175</v>
@@ -33398,14 +33398,14 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B75" s="10">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="1"/>
-        <v>23.931632324888849</v>
+        <v>26.121519074355493</v>
       </c>
       <c r="D75" s="13">
         <v>10183175</v>
@@ -33420,14 +33420,14 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B76" s="10">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="1"/>
-        <v>21.240919457831176</v>
+        <v>23.931632324888849</v>
       </c>
       <c r="D76" s="13">
         <v>10183175</v>
@@ -33442,14 +33442,14 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B77" s="10">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="1"/>
-        <v>19.758081344963628</v>
+        <v>21.240919457831176</v>
       </c>
       <c r="D77" s="13">
         <v>10183175</v>
@@ -33464,14 +33464,14 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B78" s="10">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="1"/>
-        <v>17.617295195260809</v>
+        <v>19.758081344963628</v>
       </c>
       <c r="D78" s="13">
         <v>10183175</v>
@@ -33486,14 +33486,14 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B79" s="10">
-        <v>401</v>
+        <v>253</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="1"/>
-        <v>16.704024039653646</v>
+        <v>17.617295195260809</v>
       </c>
       <c r="D79" s="13">
         <v>10183175</v>
@@ -33508,14 +33508,14 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B80" s="10">
-        <v>240</v>
+        <v>401</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="1"/>
-        <v>13.974030692784911</v>
+        <v>16.704024039653646</v>
       </c>
       <c r="D80" s="13">
         <v>10183175</v>
@@ -33530,14 +33530,14 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B81" s="10">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="1"/>
-        <v>13.581225894674303</v>
+        <v>13.974030692784911</v>
       </c>
       <c r="D81" s="13">
         <v>10183175</v>
@@ -33552,14 +33552,14 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B82" s="10">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="1"/>
-        <v>11.872525022893154</v>
+        <v>13.581225894674303</v>
       </c>
       <c r="D82" s="13">
         <v>10183175</v>
@@ -33574,14 +33574,14 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B83" s="10">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="1"/>
-        <v>10.851232547805571</v>
+        <v>11.872525022893154</v>
       </c>
       <c r="D83" s="13">
         <v>10183175</v>
@@ -33596,14 +33596,14 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B84" s="10">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="1"/>
-        <v>8.7890073577248753</v>
+        <v>10.851232547805571</v>
       </c>
       <c r="D84" s="13">
         <v>10183175</v>
@@ -33618,14 +33618,14 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B85" s="10">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="1"/>
-        <v>8.5827848387168046</v>
+        <v>8.7890073577248753</v>
       </c>
       <c r="D85" s="13">
         <v>10183175</v>
@@ -33640,14 +33640,14 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B86" s="10">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="1"/>
-        <v>8.0721386011730143</v>
+        <v>8.5827848387168046</v>
       </c>
       <c r="D86" s="13">
         <v>10183175</v>
@@ -33662,14 +33662,14 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B87" s="10">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="1"/>
-        <v>8.3274617199449086</v>
+        <v>8.0721386011730143</v>
       </c>
       <c r="D87" s="13">
         <v>10183175</v>
@@ -33684,14 +33684,14 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B88" s="10">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="1"/>
-        <v>7.8855563220704736</v>
+        <v>8.3274617199449086</v>
       </c>
       <c r="D88" s="13">
         <v>10183175</v>
@@ -33706,14 +33706,14 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B89" s="10">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="1"/>
-        <v>8.2390806403700214</v>
+        <v>7.8855563220704736</v>
       </c>
       <c r="D89" s="13">
         <v>10183175</v>
@@ -33728,14 +33728,14 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B90" s="10">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="1"/>
-        <v>8.2587208802755523</v>
+        <v>8.2390806403700214</v>
       </c>
       <c r="D90" s="13">
         <v>10183175</v>
@@ -33750,14 +33750,14 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B91" s="10">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="1"/>
-        <v>8.5729647187640392</v>
+        <v>8.2587208802755523</v>
       </c>
       <c r="D91" s="13">
         <v>10183175</v>
@@ -33772,14 +33772,14 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B92" s="10">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="1"/>
-        <v>8.1408794408423706</v>
+        <v>8.5729647187640392</v>
       </c>
       <c r="D92" s="13">
         <v>10183175</v>
@@ -33794,14 +33794,14 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B93" s="10">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="1"/>
-        <v>7.492751523959865</v>
+        <v>8.1408794408423706</v>
       </c>
       <c r="D93" s="13">
         <v>10183175</v>
@@ -33816,14 +33816,14 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B94" s="10">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="1"/>
-        <v>6.2652365298642119</v>
+        <v>7.492751523959865</v>
       </c>
       <c r="D94" s="13">
         <v>10183175</v>
@@ -33838,14 +33838,14 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B95" s="10">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="1"/>
-        <v>5.48944705359576</v>
+        <v>6.2652365298642119</v>
       </c>
       <c r="D95" s="13">
         <v>10183175</v>
@@ -33860,14 +33860,14 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B96" s="10">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="1"/>
-        <v>4.1931912198307497</v>
+        <v>5.48944705359576</v>
       </c>
       <c r="D96" s="13">
         <v>10183175</v>
@@ -33882,14 +33882,14 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B97" s="10">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="1"/>
-        <v>2.9656762257350975</v>
+        <v>4.1931912198307497</v>
       </c>
       <c r="D97" s="13">
         <v>10183175</v>
@@ -33904,14 +33904,14 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B98" s="10">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="1"/>
-        <v>2.2880879489942969</v>
+        <v>2.9656762257350975</v>
       </c>
       <c r="D98" s="13">
         <v>10183175</v>
@@ -33926,14 +33926,14 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B99" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="1"/>
-        <v>1.856002671072627</v>
+        <v>2.2880879489942969</v>
       </c>
       <c r="D99" s="13">
         <v>10183175</v>
@@ -33948,14 +33948,14 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B100" s="10">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="1"/>
-        <v>1.4533777530092531</v>
+        <v>1.856002671072627</v>
       </c>
       <c r="D100" s="13">
         <v>10183175</v>
@@ -33970,14 +33970,14 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B101" s="10">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="1"/>
-        <v>1.2275149940956529</v>
+        <v>1.4533777530092531</v>
       </c>
       <c r="D101" s="13">
         <v>10183175</v>
@@ -33992,14 +33992,14 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B102" s="10">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="1"/>
-        <v>0.530286477449322</v>
+        <v>1.2275149940956529</v>
       </c>
       <c r="D102" s="13">
         <v>10183175</v>
@@ -34014,14 +34014,14 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B103" s="10">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="1"/>
-        <v>0.32406395844125235</v>
+        <v>0.530286477449322</v>
       </c>
       <c r="D103" s="13">
         <v>10183175</v>
@@ -34036,14 +34036,14 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B104" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="1"/>
-        <v>0.22586275891360011</v>
+        <v>0.32406395844125235</v>
       </c>
       <c r="D104" s="13">
         <v>10183175</v>
@@ -34058,14 +34058,14 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B105" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="1"/>
-        <v>0.13748167933871314</v>
+        <v>0.22586275891360011</v>
       </c>
       <c r="D105" s="13">
         <v>10183175</v>
@@ -34080,14 +34080,14 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B106" s="10">
         <v>1</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="1"/>
-        <v>0.12766155938594789</v>
+        <v>0.13748167933871314</v>
       </c>
       <c r="D106" s="13">
         <v>10183175</v>
@@ -34102,14 +34102,14 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B107" s="10">
         <v>1</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="1"/>
-        <v>0.11784143943318268</v>
+        <v>0.12766155938594789</v>
       </c>
       <c r="D107" s="13">
         <v>10183175</v>
@@ -34124,14 +34124,14 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B108" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" si="1"/>
-        <v>0.10802131948041746</v>
+        <v>0.11784143943318268</v>
       </c>
       <c r="D108" s="13">
         <v>10183175</v>
@@ -34146,14 +34146,14 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B109" s="10">
         <v>5</v>
       </c>
       <c r="C109" s="7">
         <f t="shared" si="1"/>
-        <v>5.8920719716591338E-2</v>
+        <v>0.10802131948041746</v>
       </c>
       <c r="D109" s="13">
         <v>10183175</v>
@@ -34168,14 +34168,14 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B110" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C110" s="7">
         <f t="shared" si="1"/>
-        <v>9.820119952765223E-3</v>
+        <v>5.8920719716591338E-2</v>
       </c>
       <c r="D110" s="13">
         <v>10183175</v>
@@ -34190,14 +34190,14 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B111" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.820119952765223E-3</v>
       </c>
       <c r="D111" s="13">
         <v>10183175</v>
@@ -34212,7 +34212,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B112" s="10">
         <v>0</v>
@@ -34234,7 +34234,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B113" s="10">
         <v>0</v>
@@ -34256,7 +34256,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B114" s="10">
         <v>0</v>
@@ -34278,7 +34278,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B115" s="10">
         <v>0</v>
@@ -34300,7 +34300,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B116" s="10">
         <v>0</v>
@@ -34322,7 +34322,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -34344,7 +34344,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -34366,7 +34366,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -34388,7 +34388,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -34410,7 +34410,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -34432,7 +34432,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
@@ -34454,7 +34454,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
@@ -34476,7 +34476,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
@@ -34498,7 +34498,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
@@ -34520,7 +34520,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
@@ -34542,7 +34542,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -34564,7 +34564,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
@@ -34586,7 +34586,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B129" s="10">
         <v>0</v>
@@ -34608,14 +34608,14 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B130" s="10">
         <v>0</v>
       </c>
       <c r="C130" s="7">
         <f t="shared" si="1"/>
-        <v>9.820119952765223E-3</v>
+        <v>0</v>
       </c>
       <c r="D130" s="13">
         <v>10183175</v>
@@ -34630,7 +34630,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B131" s="10">
         <v>0</v>
@@ -34652,7 +34652,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B132" s="10">
         <v>0</v>
@@ -34674,7 +34674,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B133" s="10">
         <v>0</v>
@@ -34696,7 +34696,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="B134" s="10">
         <v>0</v>
@@ -34718,7 +34718,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>43863</v>
+        <v>43864</v>
       </c>
       <c r="B135" s="10">
         <v>0</v>
@@ -34740,10 +34740,10 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>43862</v>
+        <v>43863</v>
       </c>
       <c r="B136" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" s="7">
         <f t="shared" si="2"/>
@@ -34762,14 +34762,14 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="B137" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.820119952765223E-3</v>
       </c>
       <c r="D137" s="13">
         <v>10183175</v>
@@ -34784,7 +34784,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="B138" s="10">
         <v>0</v>
@@ -34806,7 +34806,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="B139" s="10">
         <v>0</v>
@@ -34828,7 +34828,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B140" s="10">
         <v>0</v>
@@ -34850,7 +34850,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>43857</v>
+        <v>43858</v>
       </c>
       <c r="B141" s="10">
         <v>0</v>
@@ -34872,7 +34872,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>43856</v>
+        <v>43857</v>
       </c>
       <c r="B142" s="10">
         <v>0</v>
@@ -34894,7 +34894,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>43855</v>
+        <v>43856</v>
       </c>
       <c r="B143" s="10">
         <v>0</v>
@@ -34916,7 +34916,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>43854</v>
+        <v>43855</v>
       </c>
       <c r="B144" s="10">
         <v>0</v>
@@ -34938,7 +34938,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>43853</v>
+        <v>43854</v>
       </c>
       <c r="B145" s="10">
         <v>0</v>
@@ -34960,7 +34960,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="B146" s="10">
         <v>0</v>
@@ -34982,7 +34982,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="B147" s="10">
         <v>0</v>
@@ -35004,7 +35004,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="B148" s="10">
         <v>0</v>
@@ -35026,7 +35026,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>43849</v>
+        <v>43850</v>
       </c>
       <c r="B149" s="10">
         <v>0</v>
@@ -35048,7 +35048,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="B150" s="10">
         <v>0</v>
@@ -35070,7 +35070,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>43847</v>
+        <v>43848</v>
       </c>
       <c r="B151" s="10">
         <v>0</v>
@@ -35092,7 +35092,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="B152" s="10">
         <v>0</v>
@@ -35114,7 +35114,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="B153" s="10">
         <v>0</v>
@@ -35136,7 +35136,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="B154" s="10">
         <v>0</v>
@@ -35158,7 +35158,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>43843</v>
+        <v>43844</v>
       </c>
       <c r="B155" s="10">
         <v>0</v>
@@ -35180,7 +35180,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>43842</v>
+        <v>43843</v>
       </c>
       <c r="B156" s="10">
         <v>0</v>
@@ -35202,7 +35202,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>43841</v>
+        <v>43842</v>
       </c>
       <c r="B157" s="10">
         <v>0</v>
@@ -35224,7 +35224,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>43840</v>
+        <v>43841</v>
       </c>
       <c r="B158" s="10">
         <v>0</v>
@@ -35246,7 +35246,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>43839</v>
+        <v>43840</v>
       </c>
       <c r="B159" s="10">
         <v>0</v>
@@ -35268,7 +35268,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>43838</v>
+        <v>43839</v>
       </c>
       <c r="B160" s="10">
         <v>0</v>
@@ -35290,7 +35290,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="B161" s="10">
         <v>0</v>
@@ -35312,7 +35312,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="B162" s="10">
         <v>0</v>
@@ -35334,14 +35334,14 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
-        <v>43835</v>
+        <v>43836</v>
       </c>
       <c r="B163" s="10">
         <v>0</v>
       </c>
-      <c r="C163" s="7" t="str">
+      <c r="C163" s="7">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D163" s="13">
         <v>10183175</v>
@@ -35356,7 +35356,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
-        <v>43834</v>
+        <v>43835</v>
       </c>
       <c r="B164" s="10">
         <v>0</v>
@@ -35378,7 +35378,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
-        <v>43833</v>
+        <v>43834</v>
       </c>
       <c r="B165" s="10">
         <v>0</v>
@@ -35400,7 +35400,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
-        <v>43832</v>
+        <v>43833</v>
       </c>
       <c r="B166" s="10">
         <v>0</v>
@@ -35422,7 +35422,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
-        <v>43831</v>
+        <v>43832</v>
       </c>
       <c r="B167" s="10">
         <v>0</v>
@@ -35444,7 +35444,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="B168" s="10">
         <v>0</v>
@@ -35465,13 +35465,19 @@
       <c r="K168" s="10"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="4"/>
-      <c r="B169" s="10"/>
+      <c r="A169" s="4">
+        <v>43830</v>
+      </c>
+      <c r="B169" s="10">
+        <v>0</v>
+      </c>
       <c r="C169" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D169" s="13"/>
+      <c r="D169" s="13">
+        <v>10183175</v>
+      </c>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22C8DBD-3778-46F7-A25A-A57968A29D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A428BC-B3ED-4F3F-9EF0-57DF2BE0324C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="3180" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="3180" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schaubild" sheetId="4" r:id="rId1"/>
@@ -134,7 +134,7 @@
     <t>Einwohner</t>
   </si>
   <si>
-    <t>Datenabruf: Samstag 2020-06-13 14:06</t>
+    <t>Datenabruf: Sonntag 2020-06-14 16:49</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Samstag 2020-06-13 14:06</a:t>
+              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Sonntag 2020-06-14 16:49</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -394,187 +394,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43936</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,187 +586,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>60.081786755843979</c:v>
+                  <c:v>62.221686010161719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.336876883849655</c:v>
+                  <c:v>66.32719408179392</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>67.682786369597011</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>65.291134261830123</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>62.33787963483055</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>58.300151177588504</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>57.854742283024628</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>58.832705290653998</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>56.925193285673934</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>53.110169275713822</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>49.556580921258586</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>46.932541564154029</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44.473109841997008</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43.194979970639807</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>41.849070484892458</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>41.316516371826957</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>41.035715112210603</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>38.64406300444373</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>37.123863081693123</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>37.211008300194749</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>36.087803261729334</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>36.562260562460416</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>36.126534469952283</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>37.888804444096294</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>38.585966192109311</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>37.578954778312728</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>38.653745806499465</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>38.934547066115819</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>39.118520305174812</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>40.580623415590999</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>40.59998901970247</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>41.907167297226877</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>42.197651358898966</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>40.861424675207346</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>41.006666706043397</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>40.851741873151617</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>38.808670639391245</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>37.056083467302969</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>35.671442773332672</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>36.436384135735842</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>37.394981539253742</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>38.121191693433964</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>38.48913817155195</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>40.183628531305807</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>42.643060253462835</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43.417684417921748</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>42.371941795902217</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>41.839387682836723</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>40.725865446427036</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>41.57795202733184</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>42.149237348620282</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>41.200322747158118</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>39.893144469633718</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>38.750573827056826</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>36.320190511067004</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>37.056083467302969</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>35.729539585667091</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>33.463763904624784</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>33.676785549850983</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>34.170608454693543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,187 +830,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43936</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,187 +1022,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>69.172924947278233</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>66.236709081401429</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>62.897868297461251</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>59.02874103607175</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>72.030579853532913</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>71.873457934288666</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>70.587022220476413</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>66.521492560031618</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>63.467435254721636</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>60.452658429222708</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>56.121985530053252</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>40.743677684022906</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>38.995696332430697</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>40.095549767140405</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>38.543970814603497</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>36.010379866790075</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>34.910526432080367</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>35.008727631608025</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>35.755056748018177</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>34.036535756284266</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>32.563517763369482</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>34.478441154158702</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>35.372072069860337</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>35.254230630427152</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>35.489913509293515</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>34.635563073402942</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>36.403184664900685</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>37.52267833951592</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>36.884370542586176</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>38.710912853800508</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>38.877854892997519</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>39.192098731486006</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>39.830406528415743</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>38.779653693469868</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>39.329580410824718</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>37.699440498665695</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>36.776349223105761</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>34.674843553214004</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>35.50955374919905</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>35.303331230190977</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>37.267355220744022</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>36.108581066317726</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>38.347568415548196</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>38.818934173280923</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>42.589860235142773</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>42.206875556984933</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>42.216695676937697</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>40.743677684022906</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>41.784610399016024</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>42.766622394292547</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>42.727341914481485</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>41.391805600905414</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>40.036629047423816</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>38.072605056870771</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>37.601239299138037</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>38.318108055689898</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>36.049660346601136</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>34.674843553214004</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>33.378587719448994</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>34.448980794300404</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>36.845090062775121</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>36.746888863247463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,187 +1247,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43936</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,184 +1442,184 @@
                   <c:v>41.584530554633673</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>41.584530554633673</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>44.38348934196479</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>35.186910469305417</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>37.985869256636533</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>39.185423022635582</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>38.385720511969545</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34.787059213972405</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>34.787059213972405</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>34.787059213972405</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>33.187654192640338</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>35.186910469305417</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>29.98884414997621</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>27.98958787331113</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>27.189885362645096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.59196778798287</c:v>
+                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.39464519198858</c:v>
+                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>14.39464519198858</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>11.195835149324452</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>8.7967276173263542</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>9.1965788726593711</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>9.9962813833254032</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>9.5964301279923863</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>12.395388915323501</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>15.994050213320644</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>15.194347702654612</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>13.594942681322548</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>17.193603979319693</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>17.193603979319693</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>16.393901468653663</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>16.793752723986675</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>19.592711511317791</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>17.993306489985727</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>18.393157745318742</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>21.991819043315886</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>15.594198957987629</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>19.192860255984773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,14 +2335,14 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B4" s="11">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C67" si="0">IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/$O$6*100000)</f>
-        <v>60.081786755843979</v>
+        <v>62.221686010161719</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -2352,65 +2352,65 @@
         <v>41.584530554633673</v>
       </c>
       <c r="F4" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G67" si="2">IF(OR(ISBLANK(F4),ISBLANK(F10)),"",SUM(F4:F10)/$O$8*100000)</f>
-        <v>42.534326999113368</v>
+        <v>43.432939541348162</v>
       </c>
       <c r="H4" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I4" s="9">
         <f>IF(OR(ISBLANK(H4),ISBLANK(H10)),"",SUM(H4:H10)/$O$9*100000)</f>
-        <v>131.8167359163233</v>
+        <v>140.39206642868191</v>
       </c>
       <c r="J4" s="11">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K67" si="3">IF(OR(ISBLANK(J4),ISBLANK(J10)),"",SUM(J4:J10)/$O$10*100000)</f>
-        <v>45.896626997565498</v>
+        <v>49.262099188037766</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B5" s="10">
-        <v>1251</v>
+        <v>686</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>66.336876883849655</v>
+        <v>66.32719408179392</v>
       </c>
       <c r="D5" s="10">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>44.38348934196479</v>
+        <v>41.584530554633673</v>
       </c>
       <c r="F5" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="2"/>
-        <v>44.631089597661216</v>
+        <v>45.529702139895996</v>
       </c>
       <c r="H5" s="3">
-        <v>481</v>
+        <v>376</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" ref="I5:I68" si="4">IF(OR(ISBLANK(H5),ISBLANK(H11)),"",SUM(H5:H11)/$O$9*100000)</f>
-        <v>144.21620030581482</v>
+        <v>153.02329650769664</v>
       </c>
       <c r="J5" s="10">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="3"/>
-        <v>53.468939426128095</v>
+        <v>50.944835283273896</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>6</v>
@@ -2418,42 +2418,42 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B6" s="10">
-        <v>1347</v>
+        <v>1390</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>65.291134261830123</v>
+        <v>67.682786369597011</v>
       </c>
       <c r="D6" s="10">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>35.186910469305417</v>
+        <v>44.38348934196479</v>
       </c>
       <c r="F6" s="3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>45.230164625817736</v>
+        <v>45.529702139895996</v>
       </c>
       <c r="H6" s="3">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>144.33208315057644</v>
+        <v>147.69268564866292</v>
       </c>
       <c r="J6" s="10">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="3"/>
-        <v>56.119248776125005</v>
+        <v>54.899265107078811</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
@@ -2464,42 +2464,42 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B7" s="10">
-        <v>1487</v>
+        <v>1347</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>62.33787963483055</v>
+        <v>65.291134261830123</v>
       </c>
       <c r="D7" s="10">
         <v>12</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>37.985869256636533</v>
+        <v>35.186910469305417</v>
       </c>
       <c r="F7" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>43.133402027269895</v>
+        <v>45.230164625817736</v>
       </c>
       <c r="H7" s="3">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>137.14734677535705</v>
+        <v>144.33208315057644</v>
       </c>
       <c r="J7" s="10">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
-        <v>55.950975166601388</v>
+        <v>56.119248776125005</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -2510,42 +2510,42 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B8" s="10">
-        <v>935</v>
+        <v>1487</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>58.300151177588504</v>
+        <v>62.33787963483055</v>
       </c>
       <c r="D8" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>39.185423022635582</v>
+        <v>37.985869256636533</v>
       </c>
       <c r="F8" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>38.640339316095947</v>
+        <v>43.133402027269895</v>
       </c>
       <c r="H8" s="3">
-        <v>258</v>
+        <v>584</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="4"/>
-        <v>128.16642630633282</v>
+        <v>137.14734677535705</v>
       </c>
       <c r="J8" s="10">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>55.23581232612603</v>
+        <v>55.950975166601388</v>
       </c>
       <c r="N8" t="s">
         <v>2</v>
@@ -2556,42 +2556,42 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B9" s="10">
-        <v>543</v>
+        <v>935</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>57.854742283024628</v>
+        <v>58.300151177588504</v>
       </c>
       <c r="D9" s="10">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>38.385720511969545</v>
+        <v>39.185423022635582</v>
       </c>
       <c r="F9" s="3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>39.239414344252474</v>
+        <v>38.640339316095947</v>
       </c>
       <c r="H9" s="3">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="4"/>
-        <v>128.80378195252166</v>
+        <v>128.16642630633282</v>
       </c>
       <c r="J9" s="10">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>52.122750549939191</v>
+        <v>55.23581232612603</v>
       </c>
       <c r="N9" t="s">
         <v>8</v>
@@ -2602,42 +2602,42 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B10" s="10">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>58.832705290653998</v>
+        <v>57.854742283024628</v>
       </c>
       <c r="D10" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>34.787059213972405</v>
+        <v>38.385720511969545</v>
       </c>
       <c r="F10" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>40.737101914643794</v>
+        <v>39.239414344252474</v>
       </c>
       <c r="H10" s="3">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="4"/>
-        <v>127.06553928109759</v>
+        <v>128.80378195252166</v>
       </c>
       <c r="J10" s="10">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>53.468939426128095</v>
+        <v>52.122750549939191</v>
       </c>
       <c r="N10" t="s">
         <v>3</v>
@@ -2648,598 +2648,598 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B11" s="10">
-        <v>826</v>
+        <v>462</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>56.925193285673934</v>
+        <v>58.832705290653998</v>
       </c>
       <c r="D11" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>34.787059213972405</v>
       </c>
       <c r="F11" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>40.437564400565527</v>
+        <v>40.737101914643794</v>
       </c>
       <c r="H11" s="3">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="4"/>
-        <v>119.4752129492126</v>
+        <v>127.06553928109759</v>
       </c>
       <c r="J11" s="10">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>54.310307473746164</v>
+        <v>53.468939426128095</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B12" s="10">
-        <v>1143</v>
+        <v>826</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>53.110169275713822</v>
+        <v>56.925193285673934</v>
       </c>
       <c r="D12" s="10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>33.187654192640338</v>
+        <v>34.787059213972405</v>
       </c>
       <c r="F12" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>38.04126428793942</v>
+        <v>40.437564400565527</v>
       </c>
       <c r="H12" s="3">
-        <v>483</v>
+        <v>284</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="4"/>
-        <v>109.79899541161878</v>
+        <v>119.4752129492126</v>
       </c>
       <c r="J12" s="10">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>48.673141554705118</v>
+        <v>54.310307473746164</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B13" s="10">
-        <v>1042</v>
+        <v>1143</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>49.556580921258586</v>
+        <v>53.110169275713822</v>
       </c>
       <c r="D13" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>35.186910469305417</v>
+        <v>33.187654192640338</v>
       </c>
       <c r="F13" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>36.244039203469846</v>
+        <v>38.04126428793942</v>
       </c>
       <c r="H13" s="3">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="4"/>
-        <v>94.734225592610386</v>
+        <v>109.79899541161878</v>
       </c>
       <c r="J13" s="10">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>47.83177350708705</v>
+        <v>48.673141554705118</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B14" s="10">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>46.932541564154029</v>
+        <v>49.556580921258586</v>
       </c>
       <c r="D14" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>29.98884414997621</v>
+        <v>35.186910469305417</v>
       </c>
       <c r="F14" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>37.741726773861153</v>
+        <v>36.244039203469846</v>
       </c>
       <c r="H14" s="3">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="4"/>
-        <v>77.17797461122754</v>
+        <v>94.734225592610386</v>
       </c>
       <c r="J14" s="10">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>50.482082857083967</v>
+        <v>47.83177350708705</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B15" s="10">
-        <v>889</v>
+        <v>1070</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>44.473109841997008</v>
+        <v>46.932541564154029</v>
       </c>
       <c r="D15" s="10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>27.98958787331113</v>
+        <v>29.98884414997621</v>
       </c>
       <c r="F15" s="3">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>44.631089597661216</v>
+        <v>37.741726773861153</v>
       </c>
       <c r="H15" s="3">
-        <v>269</v>
+        <v>429</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="4"/>
-        <v>58.462895182228671</v>
+        <v>77.17797461122754</v>
       </c>
       <c r="J15" s="10">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="3"/>
-        <v>49.430372797561382</v>
+        <v>50.482082857083967</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B16" s="10">
-        <v>644</v>
+        <v>889</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>43.194979970639807</v>
+        <v>44.473109841997008</v>
       </c>
       <c r="D16" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>27.189885362645096</v>
+        <v>27.98958787331113</v>
       </c>
       <c r="F16" s="3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>41.635714456878574</v>
+        <v>44.631089597661216</v>
       </c>
       <c r="H16" s="3">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="4"/>
-        <v>49.829623247489252</v>
+        <v>58.462895182228671</v>
       </c>
       <c r="J16" s="10">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="3"/>
-        <v>51.99654534279648</v>
+        <v>49.430372797561382</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B17" s="10">
-        <v>265</v>
+        <v>644</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>41.849070484892458</v>
+        <v>43.194979970639807</v>
       </c>
       <c r="D17" s="10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>27.189885362645096</v>
       </c>
       <c r="F17" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>37.442189259782893</v>
+        <v>41.635714456878574</v>
       </c>
       <c r="H17" s="3">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="4"/>
-        <v>50.640803160820475</v>
+        <v>49.829623247489252</v>
       </c>
       <c r="J17" s="10">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
-        <v>52.879981792795448</v>
+        <v>51.99654534279648</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B18" s="10">
-        <v>432</v>
+        <v>265</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>41.316516371826957</v>
+        <v>41.849070484892458</v>
       </c>
       <c r="D18" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
         <v>22.391670298648904</v>
       </c>
       <c r="F18" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>35.944501689391579</v>
+        <v>37.442189259782893</v>
       </c>
       <c r="H18" s="3">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="4"/>
-        <v>46.469020749402766</v>
+        <v>50.640803160820475</v>
       </c>
       <c r="J18" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
-        <v>52.543434573748222</v>
+        <v>52.879981792795448</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B19" s="10">
-        <v>776</v>
+        <v>432</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>41.035715112210603</v>
+        <v>41.316516371826957</v>
       </c>
       <c r="D19" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F19" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>34.446814119000265</v>
+        <v>35.944501689391579</v>
       </c>
       <c r="H19" s="3">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.469020749402766</v>
       </c>
       <c r="J19" s="10">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
-        <v>52.753776585652744</v>
+        <v>52.543434573748222</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B20" s="10">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>38.64406300444373</v>
+        <v>41.035715112210603</v>
       </c>
       <c r="D20" s="10">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F20" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>31.750976492295894</v>
+        <v>34.446814119000265</v>
       </c>
       <c r="H20" s="3">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
-        <v>40.095464287514609</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J20" s="10">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
-        <v>49.808988418989507</v>
+        <v>52.753776585652744</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B21" s="10">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>37.123863081693123</v>
+        <v>38.64406300444373</v>
       </c>
       <c r="D21" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>14.39464519198858</v>
       </c>
       <c r="F21" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>31.750976492295894</v>
       </c>
       <c r="H21" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="4"/>
-        <v>43.91959816464751</v>
+        <v>40.095464287514609</v>
       </c>
       <c r="J21" s="10">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
-        <v>43.162180842806784</v>
+        <v>49.808988418989507</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B22" s="10">
-        <v>757</v>
+        <v>816</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>37.211008300194749</v>
+        <v>37.123863081693123</v>
       </c>
       <c r="D22" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F22" s="3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>29.05513886559153</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H22" s="3">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>43.91959816464751</v>
       </c>
       <c r="J22" s="10">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
-        <v>41.731855161856075</v>
+        <v>43.162180842806784</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B23" s="10">
-        <v>505</v>
+        <v>757</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>37.211008300194749</v>
       </c>
       <c r="D23" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
-        <v>11.195835149324452</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F23" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="2"/>
-        <v>26.958376267043683</v>
+        <v>29.05513886559153</v>
       </c>
       <c r="H23" s="3">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="4"/>
-        <v>46.295196482260366</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J23" s="10">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
-        <v>41.269102735666138</v>
+        <v>41.731855161856075</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B24" s="10">
-        <v>210</v>
+        <v>505</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>36.087803261729334</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D24" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>8.7967276173263542</v>
+        <v>11.195835149324452</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>30.253288921904577</v>
+        <v>26.958376267043683</v>
       </c>
       <c r="H24" s="3">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="4"/>
-        <v>42.413121182746664</v>
+        <v>46.295196482260366</v>
       </c>
       <c r="J24" s="10">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>41.100829126142528</v>
+        <v>41.269102735666138</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B25" s="10">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>36.562260562460416</v>
+        <v>36.087803261729334</v>
       </c>
       <c r="D25" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="1"/>
-        <v>9.1965788726593711</v>
+        <v>8.7967276173263542</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
-        <v>30.852363950061104</v>
+        <v>30.253288921904577</v>
       </c>
       <c r="H25" s="3">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="4"/>
-        <v>46.005489370356358</v>
+        <v>42.413121182746664</v>
       </c>
       <c r="J25" s="10">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
@@ -3248,1654 +3248,1654 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B26" s="10">
-        <v>529</v>
+        <v>403</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>36.126534469952283</v>
+        <v>36.562260562460416</v>
       </c>
       <c r="D26" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
-        <v>9.9962813833254032</v>
+        <v>9.1965788726593711</v>
       </c>
       <c r="F26" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>31.451438978217631</v>
+        <v>30.852363950061104</v>
       </c>
       <c r="H26" s="3">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="4"/>
-        <v>46.758727861306781</v>
+        <v>46.005489370356358</v>
       </c>
       <c r="J26" s="10">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
-        <v>40.511871492809881</v>
+        <v>41.100829126142528</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B27" s="10">
-        <v>614</v>
+        <v>529</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>37.888804444096294</v>
+        <v>36.126534469952283</v>
       </c>
       <c r="D27" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
-        <v>9.5964301279923863</v>
+        <v>9.9962813833254032</v>
       </c>
       <c r="F27" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
-        <v>35.644964175313319</v>
+        <v>31.451438978217631</v>
       </c>
       <c r="H27" s="3">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="4"/>
-        <v>47.222259240353189</v>
+        <v>46.758727861306781</v>
       </c>
       <c r="J27" s="10">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
-        <v>43.078044038044979</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B28" s="10">
-        <v>825</v>
+        <v>614</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>38.585966192109311</v>
+        <v>37.888804444096294</v>
       </c>
       <c r="D28" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="1"/>
         <v>9.5964301279923863</v>
       </c>
       <c r="F28" s="3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>36.543576717548106</v>
+        <v>35.644964175313319</v>
       </c>
       <c r="H28" s="3">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="4"/>
-        <v>46.237255059879566</v>
+        <v>47.222259240353189</v>
       </c>
       <c r="J28" s="10">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>45.307669364232851</v>
+        <v>43.078044038044979</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B29" s="10">
-        <v>689</v>
+        <v>825</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>37.578954778312728</v>
+        <v>38.585966192109311</v>
       </c>
       <c r="D29" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F29" s="3">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="2"/>
-        <v>26.059763724808892</v>
+        <v>36.543576717548106</v>
       </c>
       <c r="H29" s="3">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.237255059879566</v>
       </c>
       <c r="J29" s="10">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
-        <v>48.168320726134283</v>
+        <v>45.307669364232851</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B30" s="10">
-        <v>457</v>
+        <v>689</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>38.653745806499465</v>
+        <v>37.578954778312728</v>
       </c>
       <c r="D30" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F30" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>26.059763724808892</v>
       </c>
       <c r="H30" s="3">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J30" s="10">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
-        <v>51.449656111844739</v>
+        <v>48.168320726134283</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B31" s="10">
-        <v>259</v>
+        <v>457</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>38.934547066115819</v>
+        <v>38.653745806499465</v>
       </c>
       <c r="D31" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F31" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="2"/>
-        <v>23.064388584026261</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H31" s="3">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J31" s="10">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
-        <v>54.142033864222554</v>
+        <v>51.449656111844739</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B32" s="10">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>39.118520305174812</v>
+        <v>38.934547066115819</v>
       </c>
       <c r="D32" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
-        <v>15.994050213320644</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F32" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
         <v>23.064388584026261</v>
       </c>
       <c r="H32" s="3">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="4"/>
-        <v>47.801673464161205</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J32" s="10">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
-        <v>54.941333509459717</v>
+        <v>54.142033864222554</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B33" s="10">
-        <v>711</v>
+        <v>358</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>40.580623415590999</v>
+        <v>39.118520305174812</v>
       </c>
       <c r="D33" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F33" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>23.064388584026261</v>
       </c>
       <c r="H33" s="3">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="4"/>
-        <v>48.49697053273082</v>
+        <v>47.801673464161205</v>
       </c>
       <c r="J33" s="10">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
-        <v>57.044753628504878</v>
+        <v>54.941333509459717</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B34" s="10">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>40.59998901970247</v>
+        <v>40.580623415590999</v>
       </c>
       <c r="D34" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F34" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
-        <v>20.069013443243634</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H34" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="4"/>
-        <v>47.048434973210782</v>
+        <v>48.49697053273082</v>
       </c>
       <c r="J34" s="10">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
-        <v>58.222668895170173</v>
+        <v>57.044753628504878</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B35" s="10">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>41.907167297226877</v>
+        <v>40.59998901970247</v>
       </c>
       <c r="D35" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
-        <v>15.194347702654612</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F35" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="2"/>
-        <v>20.668088471400157</v>
+        <v>20.069013443243634</v>
       </c>
       <c r="H35" s="3">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="4"/>
-        <v>47.743732041780397</v>
+        <v>47.048434973210782</v>
       </c>
       <c r="J35" s="10">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
-        <v>63.565355997544884</v>
+        <v>58.222668895170173</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B36" s="10">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>42.197651358898966</v>
+        <v>41.907167297226877</v>
       </c>
       <c r="D36" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>13.594942681322548</v>
+        <v>15.194347702654612</v>
       </c>
       <c r="F36" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>25.460688696652372</v>
+        <v>20.668088471400157</v>
       </c>
       <c r="H36" s="3">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="4"/>
-        <v>50.29315462653566</v>
+        <v>47.743732041780397</v>
       </c>
       <c r="J36" s="10">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
-        <v>61.588141085642427</v>
+        <v>63.565355997544884</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B37" s="10">
-        <v>486</v>
+        <v>800</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>40.861424675207346</v>
+        <v>42.197651358898966</v>
       </c>
       <c r="D37" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F37" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="2"/>
-        <v>27.856988809278473</v>
+        <v>25.460688696652372</v>
       </c>
       <c r="H37" s="3">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>50.29315462653566</v>
       </c>
       <c r="J37" s="10">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>57.086822030885784</v>
+        <v>61.588141085642427</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B38" s="10">
-        <v>278</v>
+        <v>486</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>41.006666706043397</v>
+        <v>40.861424675207346</v>
       </c>
       <c r="D38" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F38" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
         <v>27.856988809278473</v>
       </c>
       <c r="H38" s="3">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="4"/>
-        <v>49.192267601300436</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J38" s="10">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
-        <v>54.226170668984352</v>
+        <v>57.086822030885784</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B39" s="10">
-        <v>509</v>
+        <v>278</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>40.851741873151617</v>
+        <v>41.006666706043397</v>
       </c>
       <c r="D39" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F39" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="2"/>
-        <v>27.257913781121946</v>
+        <v>27.856988809278473</v>
       </c>
       <c r="H39" s="3">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="4"/>
-        <v>46.642845016545174</v>
+        <v>49.192267601300436</v>
       </c>
       <c r="J39" s="10">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
-        <v>56.329590788029527</v>
+        <v>54.226170668984352</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B40" s="10">
-        <v>713</v>
+        <v>509</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>38.808670639391245</v>
+        <v>40.851741873151617</v>
       </c>
       <c r="D40" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F40" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>27.257913781121946</v>
       </c>
       <c r="H40" s="3">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="4"/>
-        <v>42.239296915604264</v>
+        <v>46.642845016545174</v>
       </c>
       <c r="J40" s="10">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
-        <v>54.899265107078811</v>
+        <v>56.329590788029527</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B41" s="10">
-        <v>821</v>
+        <v>713</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>38.808670639391245</v>
       </c>
       <c r="D41" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F41" s="10">
         <v>15</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="2"/>
-        <v>24.262538640339319</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H41" s="10">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="4"/>
-        <v>41.891648381319456</v>
+        <v>42.239296915604264</v>
       </c>
       <c r="J41" s="10">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
-        <v>50.944835283273896</v>
+        <v>54.899265107078811</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B42" s="10">
-        <v>751</v>
+        <v>821</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>35.671442773332672</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D42" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F42" s="10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>24.262538640339319</v>
       </c>
       <c r="H42" s="10">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="4"/>
-        <v>37.951631659424955</v>
+        <v>41.891648381319456</v>
       </c>
       <c r="J42" s="10">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="3"/>
-        <v>48.967620371371439</v>
+        <v>50.944835283273896</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B43" s="10">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>36.436384135735842</v>
+        <v>35.671442773332672</v>
       </c>
       <c r="D43" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F43" s="10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H43" s="10">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="4"/>
-        <v>36.329271832762508</v>
+        <v>37.951631659424955</v>
       </c>
       <c r="J43" s="10">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
-        <v>51.786203330891965</v>
+        <v>48.967620371371439</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B44" s="10">
-        <v>501</v>
+        <v>662</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>37.394981539253742</v>
+        <v>36.436384135735842</v>
       </c>
       <c r="D44" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F44" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>14.976875703913157</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H44" s="10">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>34.764853428480876</v>
+        <v>36.329271832762508</v>
       </c>
       <c r="J44" s="10">
         <v>173</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="3"/>
-        <v>55.404085935649647</v>
+        <v>51.786203330891965</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B45" s="10">
-        <v>262</v>
+        <v>501</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>38.121191693433964</v>
+        <v>37.394981539253742</v>
       </c>
       <c r="D45" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F45" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="2"/>
-        <v>17.373175816539263</v>
+        <v>14.976875703913157</v>
       </c>
       <c r="H45" s="10">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="4"/>
-        <v>36.155447565620108</v>
+        <v>34.764853428480876</v>
       </c>
       <c r="J45" s="10">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="3"/>
-        <v>57.633711261837526</v>
+        <v>55.404085935649647</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B46" s="10">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>38.48913817155195</v>
+        <v>38.121191693433964</v>
       </c>
       <c r="D46" s="10">
         <v>1</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F46" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H46" s="10">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="4"/>
-        <v>36.387213255143315</v>
+        <v>36.155447565620108</v>
       </c>
       <c r="J46" s="10">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="3"/>
-        <v>56.876480018981269</v>
+        <v>57.633711261837526</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B47" s="10">
-        <v>532</v>
+        <v>298</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>40.183628531305807</v>
+        <v>38.48913817155195</v>
       </c>
       <c r="D47" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F47" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="2"/>
-        <v>16.474563274304476</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H47" s="10">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="4"/>
-        <v>39.921640020372202</v>
+        <v>36.387213255143315</v>
       </c>
       <c r="J47" s="10">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="3"/>
-        <v>59.316447357073656</v>
+        <v>56.876480018981269</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B48" s="10">
-        <v>678</v>
+        <v>532</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>42.643060253462835</v>
+        <v>40.183628531305807</v>
       </c>
       <c r="D48" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F48" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>16.474563274304476</v>
       </c>
       <c r="H48" s="10">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="4"/>
-        <v>41.312234157511433</v>
+        <v>39.921640020372202</v>
       </c>
       <c r="J48" s="10">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="3"/>
-        <v>63.186740376116752</v>
+        <v>59.316447357073656</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B49" s="10">
-        <v>830</v>
+        <v>678</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>43.417684417921748</v>
+        <v>42.643060253462835</v>
       </c>
       <c r="D49" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F49" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="2"/>
-        <v>23.963001126261055</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H49" s="10">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="4"/>
-        <v>39.979581442753009</v>
+        <v>41.312234157511433</v>
       </c>
       <c r="J49" s="10">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="3"/>
-        <v>64.617066057067476</v>
+        <v>63.186740376116752</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B50" s="10">
-        <v>761</v>
+        <v>830</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>42.371941795902217</v>
+        <v>43.417684417921748</v>
       </c>
       <c r="D50" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F50" s="10">
         <v>10</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>23.963001126261055</v>
       </c>
       <c r="H50" s="10">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="4"/>
-        <v>35.923681876096907</v>
+        <v>39.979581442753009</v>
       </c>
       <c r="J50" s="10">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="3"/>
-        <v>64.9956816784956</v>
+        <v>64.617066057067476</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B51" s="10">
-        <v>576</v>
+        <v>761</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>41.839387682836723</v>
+        <v>42.371941795902217</v>
       </c>
       <c r="D51" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F51" s="10">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="2"/>
-        <v>28.755601351513267</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H51" s="10">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="4"/>
-        <v>38.241338771328962</v>
+        <v>35.923681876096907</v>
       </c>
       <c r="J51" s="10">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="3"/>
-        <v>60.957115049928888</v>
+        <v>64.9956816784956</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B52" s="10">
-        <v>300</v>
+        <v>576</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>40.725865446427036</v>
+        <v>41.839387682836723</v>
       </c>
       <c r="D52" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F52" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>26.359301238887156</v>
+        <v>28.755601351513267</v>
       </c>
       <c r="H52" s="10">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="4"/>
-        <v>35.402209074669692</v>
+        <v>38.241338771328962</v>
       </c>
       <c r="J52" s="10">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="3"/>
-        <v>60.326089014215334</v>
+        <v>60.957115049928888</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B53" s="10">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>41.57795202733184</v>
+        <v>40.725865446427036</v>
       </c>
       <c r="D53" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="1"/>
         <v>16.393901468653663</v>
       </c>
       <c r="F53" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>26.359301238887156</v>
       </c>
       <c r="H53" s="10">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>34.533087738957668</v>
+        <v>35.402209074669692</v>
       </c>
       <c r="J53" s="10">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="3"/>
-        <v>63.7756980094494</v>
+        <v>60.326089014215334</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B54" s="10">
-        <v>786</v>
+        <v>473</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>42.149237348620282</v>
+        <v>41.57795202733184</v>
       </c>
       <c r="D54" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E54" s="7">
         <f t="shared" si="1"/>
-        <v>16.793752723986675</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F54" s="10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H54" s="10">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="4"/>
-        <v>31.867782309440802</v>
+        <v>34.533087738957668</v>
       </c>
       <c r="J54" s="10">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="3"/>
-        <v>65.542570909447335</v>
+        <v>63.7756980094494</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B55" s="10">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>41.200322747158118</v>
+        <v>42.149237348620282</v>
       </c>
       <c r="D55" s="10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
-        <v>19.592711511317791</v>
+        <v>16.793752723986675</v>
       </c>
       <c r="F55" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H55" s="10">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="4"/>
-        <v>27.8118827427847</v>
+        <v>31.867782309440802</v>
       </c>
       <c r="J55" s="10">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="3"/>
-        <v>65.037750080876506</v>
+        <v>65.542570909447335</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B56" s="10">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>39.893144469633718</v>
+        <v>41.200322747158118</v>
       </c>
       <c r="D56" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E56" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>19.592711511317791</v>
       </c>
       <c r="F56" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>24.861613668495846</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H56" s="10">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="4"/>
-        <v>28.507179811354316</v>
+        <v>27.8118827427847</v>
       </c>
       <c r="J56" s="10">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="3"/>
-        <v>62.092961914213276</v>
+        <v>65.037750080876506</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B57" s="10">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>38.750573827056826</v>
+        <v>39.893144469633718</v>
       </c>
       <c r="D57" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57" s="7">
         <f t="shared" si="1"/>
-        <v>17.993306489985727</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F57" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>24.861613668495846</v>
       </c>
       <c r="H57" s="10">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="4"/>
-        <v>27.985707009927108</v>
+        <v>28.507179811354316</v>
       </c>
       <c r="J57" s="10">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="3"/>
-        <v>59.021968540407336</v>
+        <v>62.092961914213276</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B58" s="10">
-        <v>461</v>
+        <v>706</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>38.750573827056826</v>
       </c>
       <c r="D58" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E58" s="7">
         <f t="shared" si="1"/>
-        <v>18.393157745318742</v>
+        <v>17.993306489985727</v>
       </c>
       <c r="F58" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>17.672713330617526</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H58" s="10">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="4"/>
-        <v>24.509221667079018</v>
+        <v>27.985707009927108</v>
       </c>
       <c r="J58" s="10">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="3"/>
-        <v>59.695062978501781</v>
+        <v>59.021968540407336</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B59" s="10">
-        <v>388</v>
+        <v>461</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>36.320190511067004</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D59" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="1"/>
-        <v>21.991819043315886</v>
+        <v>18.393157745318742</v>
       </c>
       <c r="F59" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="2"/>
-        <v>15.575950732069684</v>
+        <v>17.672713330617526</v>
       </c>
       <c r="H59" s="10">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="4"/>
-        <v>24.393338822317414</v>
+        <v>24.509221667079018</v>
       </c>
       <c r="J59" s="10">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="3"/>
-        <v>59.232310552311851</v>
+        <v>59.695062978501781</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B60" s="10">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>36.320190511067004</v>
       </c>
       <c r="D60" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="7">
         <f t="shared" si="1"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F60" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>14.677338189834897</v>
+        <v>15.575950732069684</v>
       </c>
       <c r="H60" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>24.393338822317414</v>
       </c>
       <c r="J60" s="10">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="3"/>
-        <v>58.811626528502821</v>
+        <v>59.232310552311851</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B61" s="10">
-        <v>688</v>
+        <v>532</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>35.729539585667091</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D61" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F61" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="2"/>
-        <v>13.179650619443578</v>
+        <v>14.677338189834897</v>
       </c>
       <c r="H61" s="10">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="4"/>
-        <v>24.103631710413406</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J61" s="10">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="3"/>
-        <v>59.652994576120875</v>
+        <v>58.811626528502821</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B62" s="10">
-        <v>623</v>
+        <v>688</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>33.463763904624784</v>
+        <v>35.729539585667091</v>
       </c>
       <c r="D62" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E62" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F62" s="10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>13.179650619443578</v>
       </c>
       <c r="H62" s="10">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="4"/>
-        <v>23.640100331366995</v>
+        <v>24.103631710413406</v>
       </c>
       <c r="J62" s="10">
         <v>221</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="3"/>
-        <v>56.582001202314935</v>
+        <v>59.652994576120875</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B63" s="10">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>33.676785549850983</v>
+        <v>33.463763904624784</v>
       </c>
       <c r="D63" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F63" s="10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="2"/>
-        <v>10.783350506817474</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H63" s="10">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="4"/>
-        <v>25.494225847552645</v>
+        <v>23.640100331366995</v>
       </c>
       <c r="J63" s="10">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="3"/>
-        <v>57.381300847552104</v>
+        <v>56.582001202314935</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B64" s="10">
-        <v>479</v>
+        <v>604</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>34.170608454693543</v>
+        <v>33.676785549850983</v>
       </c>
       <c r="D64" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="1"/>
-        <v>19.192860255984773</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F64" s="10">
         <v>6</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H64" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="4"/>
-        <v>25.378343002791041</v>
+        <v>25.494225847552645</v>
       </c>
       <c r="J64" s="10">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="3"/>
-        <v>59.737131380882687</v>
+        <v>57.381300847552104</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B65" s="10">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>36.678454187129248</v>
+        <v>34.170608454693543</v>
       </c>
       <c r="D65" s="10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="1"/>
-        <v>24.390926575313983</v>
+        <v>19.192860255984773</v>
       </c>
       <c r="F65" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="2"/>
-        <v>13.778725647600105</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H65" s="10">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="4"/>
-        <v>25.436284425171838</v>
+        <v>25.378343002791041</v>
       </c>
       <c r="J65" s="10">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="3"/>
-        <v>62.429509133260495</v>
+        <v>59.737131380882687</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B66" s="10">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>36.213679688453908</v>
+        <v>36.678454187129248</v>
       </c>
       <c r="D66" s="10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>24.390926575313983</v>
       </c>
       <c r="F66" s="10">
         <v>3</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>15.875488246147947</v>
+        <v>13.778725647600105</v>
       </c>
       <c r="H66" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="4"/>
-        <v>25.725991537075849</v>
+        <v>25.436284425171838</v>
       </c>
       <c r="J66" s="10">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="3"/>
-        <v>59.526789368978172</v>
+        <v>62.429509133260495</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B67" s="10">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>35.013012233542604</v>
+        <v>36.213679688453908</v>
       </c>
       <c r="D67" s="10">
         <v>2</v>
@@ -4905,1117 +4905,1117 @@
         <v>21.59196778798287</v>
       </c>
       <c r="F67" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="2"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H67" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I67" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>25.725991537075849</v>
       </c>
       <c r="J67" s="10">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K67" s="7">
         <f t="shared" si="3"/>
-        <v>59.106105345169134</v>
+        <v>59.526789368978172</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B68" s="10">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" ref="C68:C131" si="5">IF(OR(ISBLANK(B68),ISBLANK(B74)),"",SUM(B68:B74)/$O$6*100000)</f>
-        <v>34.645065755424618</v>
+        <v>35.013012233542604</v>
       </c>
       <c r="D68" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" ref="E68:E131" si="6">IF(OR(ISBLANK(D68),ISBLANK(D74)),"",SUM(D68:D74)/$O$7*100000)</f>
-        <v>21.991819043315886</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F68" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" ref="G68:G131" si="7">IF(OR(ISBLANK(F68),ISBLANK(F74)),"",SUM(F68:F74)/$O$8*100000)</f>
         <v>15.875488246147947</v>
       </c>
       <c r="H68" s="10">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="4"/>
-        <v>24.914811623744626</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J68" s="10">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" ref="K68:K131" si="8">IF(OR(ISBLANK(J68),ISBLANK(J74)),"",SUM(J68:J74)/$O$10*100000)</f>
-        <v>56.119248776125005</v>
+        <v>59.106105345169134</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B69" s="10">
-        <v>645</v>
+        <v>454</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" si="5"/>
-        <v>36.068437657617864</v>
+        <v>34.645065755424618</v>
       </c>
       <c r="D69" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E69" s="7">
         <f t="shared" si="6"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F69" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="7"/>
-        <v>18.271788358774053</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H69" s="10">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" ref="I69:I132" si="9">IF(OR(ISBLANK(H69),ISBLANK(H75)),"",SUM(H69:H75)/$O$9*100000)</f>
-        <v>23.698041753747795</v>
+        <v>24.914811623744626</v>
       </c>
       <c r="J69" s="10">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="8"/>
-        <v>60.199883807072631</v>
+        <v>56.119248776125005</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B70" s="10">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="5"/>
-        <v>35.187302670545854</v>
+        <v>36.068437657617864</v>
       </c>
       <c r="D70" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="6"/>
-        <v>23.191372809314934</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F70" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="7"/>
-        <v>17.373175816539263</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H70" s="10">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="9"/>
-        <v>19.700083609472497</v>
+        <v>23.698041753747795</v>
       </c>
       <c r="J70" s="10">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="8"/>
-        <v>59.190242149930945</v>
+        <v>60.199883807072631</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B71" s="10">
-        <v>738</v>
+        <v>655</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="5"/>
-        <v>33.550909123126416</v>
+        <v>35.187302670545854</v>
       </c>
       <c r="D71" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E71" s="7">
         <f t="shared" si="6"/>
-        <v>20.392414021983821</v>
+        <v>23.191372809314934</v>
       </c>
       <c r="F71" s="10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="7"/>
-        <v>15.875488246147947</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H71" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="9"/>
-        <v>17.440368136621238</v>
+        <v>19.700083609472497</v>
       </c>
       <c r="J71" s="10">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="8"/>
-        <v>56.413727592791325</v>
+        <v>59.190242149930945</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B72" s="10">
-        <v>389</v>
+        <v>738</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="5"/>
-        <v>31.004332182467756</v>
+        <v>33.550909123126416</v>
       </c>
       <c r="D72" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="6"/>
-        <v>15.994050213320644</v>
+        <v>20.392414021983821</v>
       </c>
       <c r="F72" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="7"/>
-        <v>14.078263161678368</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H72" s="10">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I72" s="7">
         <f t="shared" si="9"/>
-        <v>15.412418353293189</v>
+        <v>17.440368136621238</v>
       </c>
       <c r="J72" s="10">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="8"/>
-        <v>54.983401911840609</v>
+        <v>56.413727592791325</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B73" s="10">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="5"/>
-        <v>31.265767837972639</v>
+        <v>31.004332182467756</v>
       </c>
       <c r="D73" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E73" s="7">
         <f t="shared" si="6"/>
-        <v>13.994793936655565</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F73" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="7"/>
-        <v>12.580575591287054</v>
+        <v>14.078263161678368</v>
       </c>
       <c r="H73" s="10">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I73" s="7">
         <f t="shared" si="9"/>
-        <v>13.90594137139235</v>
+        <v>15.412418353293189</v>
       </c>
       <c r="J73" s="10">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="8"/>
-        <v>56.708206409457652</v>
+        <v>54.983401911840609</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B74" s="10">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="5"/>
-        <v>30.694482516684193</v>
+        <v>31.265767837972639</v>
       </c>
       <c r="D74" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" s="7">
         <f t="shared" si="6"/>
         <v>13.994793936655565</v>
       </c>
       <c r="F74" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>12.580575591287054</v>
       </c>
       <c r="H74" s="10">
         <v>30</v>
       </c>
       <c r="I74" s="7">
         <f t="shared" si="9"/>
-        <v>13.036820035680329</v>
+        <v>13.90594137139235</v>
       </c>
       <c r="J74" s="10">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="8"/>
-        <v>55.782701557077772</v>
+        <v>56.708206409457652</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B75" s="10">
-        <v>601</v>
+        <v>357</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="5"/>
-        <v>30.142562799507225</v>
+        <v>30.694482516684193</v>
       </c>
       <c r="D75" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E75" s="7">
         <f t="shared" si="6"/>
-        <v>14.39464519198858</v>
+        <v>13.994793936655565</v>
       </c>
       <c r="F75" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="7"/>
-        <v>13.479188133521841</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H75" s="10">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I75" s="7">
         <f t="shared" si="9"/>
-        <v>12.747112923776323</v>
+        <v>13.036820035680329</v>
       </c>
       <c r="J75" s="10">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="8"/>
-        <v>56.539932799934029</v>
+        <v>55.782701557077772</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B76" s="10">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="5"/>
-        <v>27.867104316409186</v>
+        <v>30.142562799507225</v>
       </c>
       <c r="D76" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E76" s="7">
         <f t="shared" si="6"/>
-        <v>13.594942681322548</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F76" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="7"/>
-        <v>10.783350506817474</v>
+        <v>13.479188133521841</v>
       </c>
       <c r="H76" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" s="7">
         <f t="shared" si="9"/>
-        <v>11.008870252352278</v>
+        <v>12.747112923776323</v>
       </c>
       <c r="J76" s="10">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="8"/>
-        <v>53.637213035651705</v>
+        <v>56.539932799934029</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B77" s="10">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="5"/>
-        <v>25.272113365471846</v>
+        <v>27.867104316409186</v>
       </c>
       <c r="D77" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E77" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F77" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="7"/>
         <v>10.783350506817474</v>
       </c>
       <c r="H77" s="10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I77" s="7">
         <f t="shared" si="9"/>
-        <v>9.4444518480706368</v>
+        <v>11.008870252352278</v>
       </c>
       <c r="J77" s="10">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="8"/>
-        <v>50.103467235655835</v>
+        <v>53.637213035651705</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B78" s="10">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="5"/>
-        <v>23.606671411885195</v>
+        <v>25.272113365471846</v>
       </c>
       <c r="D78" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F78" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G78" s="7">
         <f t="shared" si="7"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H78" s="10">
         <v>29</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="9"/>
-        <v>8.865037624262623</v>
+        <v>9.4444518480706368</v>
       </c>
       <c r="J78" s="10">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="8"/>
-        <v>47.95797871422976</v>
+        <v>50.103467235655835</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B79" s="10">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="5"/>
-        <v>21.234384908229792</v>
+        <v>23.606671411885195</v>
       </c>
       <c r="D79" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E79" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F79" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G79" s="7">
         <f t="shared" si="7"/>
-        <v>9.5852004505044217</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H79" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="9"/>
-        <v>7.7641505990273956</v>
+        <v>8.865037624262623</v>
       </c>
       <c r="J79" s="10">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="8"/>
-        <v>43.582864866615822</v>
+        <v>47.95797871422976</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B80" s="10">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="5"/>
-        <v>18.968609227187489</v>
+        <v>21.234384908229792</v>
       </c>
       <c r="D80" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E80" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F80" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>9.5852004505044217</v>
       </c>
       <c r="H80" s="10">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="9"/>
-        <v>6.7212049961729692</v>
+        <v>7.7641505990273956</v>
       </c>
       <c r="J80" s="10">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="8"/>
-        <v>40.511871492809881</v>
+        <v>43.582864866615822</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B81" s="10">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="5"/>
-        <v>17.390312492102463</v>
+        <v>18.968609227187489</v>
       </c>
       <c r="D81" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E81" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F81" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="7"/>
-        <v>8.9861254223478948</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H81" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I81" s="7">
         <f t="shared" si="9"/>
-        <v>6.0838493499841535</v>
+        <v>6.7212049961729692</v>
       </c>
       <c r="J81" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="8"/>
-        <v>36.683646876147677</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B82" s="10">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="5"/>
-        <v>15.782967350850232</v>
+        <v>17.390312492102463</v>
       </c>
       <c r="D82" s="10">
         <v>4</v>
       </c>
       <c r="E82" s="7">
         <f t="shared" si="6"/>
-        <v>11.995537659990484</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F82" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="7"/>
-        <v>8.0875128801131062</v>
+        <v>8.9861254223478948</v>
       </c>
       <c r="H82" s="10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I82" s="7">
         <f t="shared" si="9"/>
-        <v>5.0988451695105281</v>
+        <v>6.0838493499841535</v>
       </c>
       <c r="J82" s="10">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="8"/>
-        <v>33.486448295199025</v>
+        <v>36.683646876147677</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B83" s="10">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="5"/>
-        <v>13.981966168483272</v>
+        <v>15.782967350850232</v>
       </c>
       <c r="D83" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E83" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F83" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="7"/>
-        <v>8.6865879082696313</v>
+        <v>8.0875128801131062</v>
       </c>
       <c r="H83" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I83" s="7">
         <f t="shared" si="9"/>
-        <v>5.388552281414535</v>
+        <v>5.0988451695105281</v>
       </c>
       <c r="J83" s="10">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="8"/>
-        <v>29.616155276155926</v>
+        <v>33.486448295199025</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B84" s="10">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="5"/>
-        <v>12.597325474512976</v>
+        <v>13.981966168483272</v>
       </c>
       <c r="D84" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F84" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>8.6865879082696313</v>
       </c>
       <c r="H84" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="9"/>
-        <v>5.0409037471297271</v>
+        <v>5.388552281414535</v>
       </c>
       <c r="J84" s="10">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K84" s="7">
         <f t="shared" si="8"/>
-        <v>26.839640719016305</v>
+        <v>29.616155276155926</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B85" s="10">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="5"/>
-        <v>10.960931927093537</v>
+        <v>12.597325474512976</v>
       </c>
       <c r="D85" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E85" s="7">
         <f t="shared" si="6"/>
-        <v>9.5964301279923863</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F85" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H85" s="10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I85" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>5.0409037471297271</v>
       </c>
       <c r="J85" s="10">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="8"/>
-        <v>22.801074090449589</v>
+        <v>26.839640719016305</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B86" s="10">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="5"/>
-        <v>9.8861408989068025</v>
+        <v>10.960931927093537</v>
       </c>
       <c r="D86" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E86" s="7">
         <f t="shared" si="6"/>
-        <v>7.5971738513273062</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F86" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G86" s="7">
         <f t="shared" si="7"/>
-        <v>5.9907502815652638</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H86" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I86" s="7">
         <f t="shared" si="9"/>
-        <v>4.6932552128449183</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J86" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="8"/>
-        <v>19.856285923786359</v>
+        <v>22.801074090449589</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B87" s="10">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="5"/>
-        <v>8.927543495388905</v>
+        <v>9.8861408989068025</v>
       </c>
       <c r="D87" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E87" s="7">
         <f t="shared" si="6"/>
-        <v>5.5979175746622261</v>
+        <v>7.5971738513273062</v>
       </c>
       <c r="F87" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>5.9907502815652638</v>
       </c>
       <c r="H87" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I87" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>4.6932552128449183</v>
       </c>
       <c r="J87" s="10">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="8"/>
-        <v>17.121839769027645</v>
+        <v>19.856285923786359</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B88" s="10">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="5"/>
-        <v>8.4530861946578231</v>
+        <v>8.927543495388905</v>
       </c>
       <c r="D88" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" si="6"/>
-        <v>3.9985125533301611</v>
+        <v>5.5979175746622261</v>
       </c>
       <c r="F88" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="7"/>
-        <v>5.3916752534087369</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H88" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I88" s="7">
         <f t="shared" si="9"/>
-        <v>5.330610859033734</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J88" s="10">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="8"/>
-        <v>15.354966869029704</v>
+        <v>17.121839769027645</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B89" s="10">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="5"/>
-        <v>7.8430696651464347</v>
+        <v>8.4530861946578231</v>
       </c>
       <c r="D89" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E89" s="7">
         <f t="shared" si="6"/>
-        <v>2.798958787331113</v>
+        <v>3.9985125533301611</v>
       </c>
       <c r="F89" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" si="7"/>
-        <v>4.4930627111739474</v>
+        <v>5.3916752534087369</v>
       </c>
       <c r="H89" s="10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I89" s="7">
         <f t="shared" si="9"/>
-        <v>5.15678659189133</v>
+        <v>5.330610859033734</v>
       </c>
       <c r="J89" s="10">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="8"/>
-        <v>13.125341542841829</v>
+        <v>15.354966869029704</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B90" s="10">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="5"/>
-        <v>7.5719512075858173</v>
+        <v>7.8430696651464347</v>
       </c>
       <c r="D90" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E90" s="7">
         <f t="shared" si="6"/>
-        <v>1.1995537659990483</v>
+        <v>2.798958787331113</v>
       </c>
       <c r="F90" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G90" s="7">
         <f t="shared" si="7"/>
-        <v>5.6912127674869994</v>
+        <v>4.4930627111739474</v>
       </c>
       <c r="H90" s="10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I90" s="7">
         <f t="shared" si="9"/>
-        <v>4.9250209023681242</v>
+        <v>5.15678659189133</v>
       </c>
       <c r="J90" s="10">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="8"/>
-        <v>10.895716216653955</v>
+        <v>13.125341542841829</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B91" s="10">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="5"/>
-        <v>7.6494136240317072</v>
+        <v>7.5719512075858173</v>
       </c>
       <c r="D91" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" si="6"/>
-        <v>0.79970251066603215</v>
+        <v>1.1995537659990483</v>
       </c>
       <c r="F91" s="10">
         <v>2</v>
       </c>
       <c r="G91" s="7">
         <f t="shared" si="7"/>
-        <v>7.7879753660348419</v>
+        <v>5.6912127674869994</v>
       </c>
       <c r="H91" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I91" s="7">
         <f t="shared" si="9"/>
-        <v>5.2147280142721311</v>
+        <v>4.9250209023681242</v>
       </c>
       <c r="J91" s="10">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="8"/>
-        <v>9.8860745595122772</v>
+        <v>10.895716216653955</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B92" s="10">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="5"/>
-        <v>8.1432365288742616</v>
+        <v>7.6494136240317072</v>
       </c>
       <c r="D92" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>0.79970251066603215</v>
       </c>
       <c r="F92" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>7.7879753660348419</v>
       </c>
       <c r="H92" s="10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I92" s="7">
         <f t="shared" si="9"/>
-        <v>7.9379748661697995</v>
+        <v>5.2147280142721311</v>
       </c>
       <c r="J92" s="10">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="8"/>
-        <v>8.7922960976087907</v>
+        <v>9.8860745595122772</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B93" s="10">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="5"/>
-        <v>7.9398976857037979</v>
+        <v>8.1432365288742616</v>
       </c>
       <c r="D93" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F93" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="7"/>
-        <v>11.382425534973999</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H93" s="10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I93" s="7">
         <f t="shared" si="9"/>
         <v>7.9379748661697995</v>
       </c>
       <c r="J93" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="8"/>
-        <v>8.4136804761806605</v>
+        <v>8.7922960976087907</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B94" s="10">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="5"/>
-        <v>8.114188122707052</v>
+        <v>7.9398976857037979</v>
       </c>
       <c r="D94" s="10">
         <v>0</v>
       </c>
       <c r="E94" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F94" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>11.382425534973999</v>
       </c>
       <c r="H94" s="10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I94" s="7">
         <f t="shared" si="9"/>
-        <v>8.4594476675970114</v>
+        <v>7.9379748661697995</v>
       </c>
       <c r="J94" s="10">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>8.4136804761806605</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B95" s="10">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="5"/>
-        <v>7.8914836754251159</v>
+        <v>8.114188122707052</v>
       </c>
       <c r="D95" s="10">
         <v>0</v>
@@ -6025,277 +6025,277 @@
         <v>2.3991075319980966</v>
       </c>
       <c r="F95" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H95" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I95" s="7">
         <f t="shared" si="9"/>
-        <v>8.0538577109314033</v>
+        <v>8.4594476675970114</v>
       </c>
       <c r="J95" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="8"/>
-        <v>10.180553376178599</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B96" s="10">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="5"/>
-        <v>7.5235371973071361</v>
+        <v>7.8914836754251159</v>
       </c>
       <c r="D96" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" s="7">
         <f t="shared" si="6"/>
         <v>2.3991075319980966</v>
       </c>
       <c r="F96" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G96" s="7">
         <f t="shared" si="7"/>
         <v>11.981500563130528</v>
       </c>
       <c r="H96" s="10">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I96" s="7">
         <f t="shared" si="9"/>
         <v>8.0538577109314033</v>
       </c>
       <c r="J96" s="10">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="8"/>
-        <v>10.306758583321308</v>
+        <v>10.180553376178599</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B97" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="5"/>
-        <v>6.6230366061236561</v>
+        <v>7.5235371973071361</v>
       </c>
       <c r="D97" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F97" s="10">
         <v>9</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H97" s="10">
         <v>19</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="9"/>
-        <v>7.0109121080769761</v>
+        <v>8.0538577109314033</v>
       </c>
       <c r="J97" s="10">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="8"/>
-        <v>10.517100595225825</v>
+        <v>10.306758583321308</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B98" s="10">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="5"/>
-        <v>5.4030035471008766</v>
+        <v>6.6230366061236561</v>
       </c>
       <c r="D98" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E98" s="7">
         <f t="shared" si="6"/>
         <v>1.9992562766650805</v>
       </c>
       <c r="F98" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G98" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H98" s="10">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I98" s="7">
         <f t="shared" si="9"/>
-        <v>5.9679665052225497</v>
+        <v>7.0109121080769761</v>
       </c>
       <c r="J98" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K98" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>10.517100595225825</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B99" s="10">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="5"/>
-        <v>3.7956584058486449</v>
+        <v>5.4030035471008766</v>
       </c>
       <c r="D99" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E99" s="7">
         <f t="shared" si="6"/>
-        <v>0.39985125533301608</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F99" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="7"/>
-        <v>1.7972250844695792</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H99" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I99" s="7">
         <f t="shared" si="9"/>
-        <v>2.7232468518976685</v>
+        <v>5.9679665052225497</v>
       </c>
       <c r="J99" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="8"/>
-        <v>9.2129801214178233</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B100" s="10">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="5"/>
-        <v>2.9726202311110557</v>
+        <v>3.7956584058486449</v>
       </c>
       <c r="D100" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="7">
         <f t="shared" si="6"/>
         <v>0.39985125533301608</v>
       </c>
       <c r="F100" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G100" s="7">
         <f t="shared" si="7"/>
-        <v>1.4976875703913159</v>
+        <v>1.7972250844695792</v>
       </c>
       <c r="H100" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I100" s="7">
         <f t="shared" si="9"/>
-        <v>2.0858912057088523</v>
+        <v>2.7232468518976685</v>
       </c>
       <c r="J100" s="10">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="8"/>
-        <v>8.5398856833233694</v>
+        <v>9.2129801214178233</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B101" s="10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="5"/>
-        <v>2.0430712337603674</v>
+        <v>2.9726202311110557</v>
       </c>
       <c r="D101" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.39985125533301608</v>
       </c>
       <c r="F101" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G101" s="7">
         <f t="shared" si="7"/>
-        <v>0.29953751407826318</v>
+        <v>1.4976875703913159</v>
       </c>
       <c r="H101" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I101" s="7">
         <f t="shared" si="9"/>
-        <v>1.390594137139235</v>
+        <v>2.0858912057088523</v>
       </c>
       <c r="J101" s="10">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="8"/>
-        <v>5.8895763333264624</v>
+        <v>8.5398856833233694</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B102" s="10">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="5"/>
-        <v>1.5976623391964959</v>
+        <v>2.0430712337603674</v>
       </c>
       <c r="D102" s="10">
         <v>0</v>
@@ -6305,37 +6305,37 @@
         <v>0</v>
       </c>
       <c r="F102" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.29953751407826318</v>
       </c>
       <c r="H102" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I102" s="7">
         <f t="shared" si="9"/>
-        <v>0.75323849095041895</v>
+        <v>1.390594137139235</v>
       </c>
       <c r="J102" s="10">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K102" s="7">
         <f t="shared" si="8"/>
-        <v>4.6695926642802661</v>
+        <v>5.8895763333264624</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B103" s="10">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="5"/>
-        <v>1.3071782775244056</v>
+        <v>1.5976623391964959</v>
       </c>
       <c r="D103" s="10">
         <v>0</v>
@@ -6352,30 +6352,30 @@
         <v>0</v>
       </c>
       <c r="H103" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I103" s="7">
         <f t="shared" si="9"/>
-        <v>0.57941422380801455</v>
+        <v>0.75323849095041895</v>
       </c>
       <c r="J103" s="10">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K103" s="7">
         <f t="shared" si="8"/>
-        <v>3.8282246166622</v>
+        <v>4.6695926642802661</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B104" s="10">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="5"/>
-        <v>0.81335537268185243</v>
+        <v>1.3071782775244056</v>
       </c>
       <c r="D104" s="10">
         <v>0</v>
@@ -6396,26 +6396,26 @@
       </c>
       <c r="I104" s="7">
         <f t="shared" si="9"/>
-        <v>0.69529706856961748</v>
+        <v>0.57941422380801455</v>
       </c>
       <c r="J104" s="10">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K104" s="7">
         <f t="shared" si="8"/>
-        <v>2.3978989357114884</v>
+        <v>3.8282246166622</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B105" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="5"/>
-        <v>0.58096812334418035</v>
+        <v>0.81335537268185243</v>
       </c>
       <c r="D105" s="10">
         <v>0</v>
@@ -6436,26 +6436,26 @@
       </c>
       <c r="I105" s="7">
         <f t="shared" si="9"/>
-        <v>0.63735564618881602</v>
+        <v>0.69529706856961748</v>
       </c>
       <c r="J105" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K105" s="7">
         <f t="shared" si="8"/>
-        <v>1.5144624857125188</v>
+        <v>2.3978989357114884</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B106" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="5"/>
-        <v>0.30016686372782653</v>
+        <v>0.58096812334418035</v>
       </c>
       <c r="D106" s="10">
         <v>0</v>
@@ -6472,30 +6472,30 @@
         <v>0</v>
       </c>
       <c r="H106" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" s="7">
         <f t="shared" si="9"/>
         <v>0.63735564618881602</v>
       </c>
       <c r="J106" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K106" s="7">
         <f t="shared" si="8"/>
-        <v>0.63102603571354954</v>
+        <v>1.5144624857125188</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B107" s="10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="5"/>
-        <v>0.17429043700325408</v>
+        <v>0.30016686372782653</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -6512,30 +6512,30 @@
         <v>0</v>
       </c>
       <c r="H107" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" s="7">
         <f t="shared" si="9"/>
-        <v>0.52147280142721308</v>
+        <v>0.63735564618881602</v>
       </c>
       <c r="J107" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K107" s="7">
         <f t="shared" si="8"/>
-        <v>0.21034201190451648</v>
+        <v>0.63102603571354954</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B108" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" si="5"/>
-        <v>0.12587642672457242</v>
+        <v>0.17429043700325408</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
@@ -6552,26 +6552,26 @@
         <v>0</v>
       </c>
       <c r="H108" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108" s="7">
         <f t="shared" si="9"/>
-        <v>0.34764853428480874</v>
+        <v>0.52147280142721308</v>
       </c>
       <c r="J108" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="7">
         <f t="shared" si="8"/>
-        <v>0.1682736095236132</v>
+        <v>0.21034201190451648</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B109" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C109" s="7">
         <f t="shared" si="5"/>
@@ -6592,14 +6592,14 @@
         <v>0</v>
       </c>
       <c r="H109" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" s="7">
         <f t="shared" si="9"/>
         <v>0.34764853428480874</v>
       </c>
       <c r="J109" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" s="7">
         <f t="shared" si="8"/>
@@ -6608,14 +6608,14 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B110" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C110" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363378E-2</v>
+        <v>0.12587642672457242</v>
       </c>
       <c r="D110" s="10">
         <v>0</v>
@@ -6632,30 +6632,30 @@
         <v>0</v>
       </c>
       <c r="H110" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" s="7">
         <f t="shared" si="9"/>
-        <v>0.23176568952320581</v>
+        <v>0.34764853428480874</v>
       </c>
       <c r="J110" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K110" s="7">
         <f t="shared" si="8"/>
-        <v>0.12620520714270991</v>
+        <v>0.1682736095236132</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B111" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C111" s="7">
         <f t="shared" si="5"/>
-        <v>1.936560411147268E-2</v>
+        <v>9.6828020557363378E-2</v>
       </c>
       <c r="D111" s="10">
         <v>0</v>
@@ -6672,30 +6672,30 @@
         <v>0</v>
       </c>
       <c r="H111" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I111" s="7">
         <f t="shared" si="9"/>
-        <v>5.7941422380801452E-2</v>
+        <v>0.23176568952320581</v>
       </c>
       <c r="J111" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K111" s="7">
         <f t="shared" si="8"/>
-        <v>4.20684023809033E-2</v>
+        <v>0.12620520714270991</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B112" s="10">
         <v>1</v>
       </c>
       <c r="C112" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>1.936560411147268E-2</v>
       </c>
       <c r="D112" s="10">
         <v>0</v>
@@ -6712,30 +6712,30 @@
         <v>0</v>
       </c>
       <c r="H112" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" s="7">
         <f t="shared" si="9"/>
         <v>5.7941422380801452E-2</v>
       </c>
       <c r="J112" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.20684023809033E-2</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B113" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D113" s="10">
         <v>0</v>
@@ -6752,11 +6752,11 @@
         <v>0</v>
       </c>
       <c r="H113" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.7941422380801452E-2</v>
       </c>
       <c r="J113" s="10">
         <v>0</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B114" s="10">
         <v>0</v>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B115" s="10">
         <v>0</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B116" s="10">
         <v>0</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -7008,7 +7008,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -7328,14 +7328,14 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
       </c>
       <c r="C128" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>0</v>
       </c>
       <c r="D128" s="10">
         <v>0</v>
@@ -7368,47 +7368,47 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B129" s="10">
         <v>0</v>
       </c>
-      <c r="C129" s="7" t="str">
+      <c r="C129" s="7">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D129" s="10">
         <v>0</v>
       </c>
-      <c r="E129" s="7" t="str">
+      <c r="E129" s="7">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F129" s="10">
         <v>0</v>
       </c>
-      <c r="G129" s="7" t="str">
+      <c r="G129" s="7">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H129" s="10">
         <v>0</v>
       </c>
-      <c r="I129" s="7" t="str">
+      <c r="I129" s="7">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J129" s="10">
         <v>0</v>
       </c>
-      <c r="K129" s="7" t="str">
+      <c r="K129" s="7">
         <f t="shared" si="8"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B130" s="10">
         <v>0</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B131" s="10">
         <v>0</v>
@@ -7488,7 +7488,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B132" s="10">
         <v>0</v>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B133" s="10">
         <v>0</v>
@@ -7568,10 +7568,10 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B134" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" s="7" t="str">
         <f t="shared" si="10"/>
@@ -7607,28 +7607,40 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="10"/>
+      <c r="A135" s="4">
+        <v>43865</v>
+      </c>
+      <c r="B135" s="10">
+        <v>1</v>
+      </c>
       <c r="C135" s="7" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D135" s="10"/>
+      <c r="D135" s="10">
+        <v>0</v>
+      </c>
       <c r="E135" s="7" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F135" s="10"/>
+      <c r="F135" s="10">
+        <v>0</v>
+      </c>
       <c r="G135" s="7" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H135" s="10"/>
+      <c r="H135" s="10">
+        <v>0</v>
+      </c>
       <c r="I135" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J135" s="10"/>
+      <c r="J135" s="10">
+        <v>0</v>
+      </c>
       <c r="K135" s="7" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -31850,14 +31862,14 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B4" s="11">
-        <v>1396</v>
+        <v>1247</v>
       </c>
       <c r="C4" s="9">
         <f>IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/D4*100000)</f>
-        <v>66.236709081401429</v>
+        <v>69.172924947278233</v>
       </c>
       <c r="D4">
         <v>10183175</v>
@@ -31870,14 +31882,14 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B5" s="10">
-        <v>1474</v>
+        <v>1396</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C68" si="0">IF(OR(ISBLANK(B5),ISBLANK(B11)),"",SUM(B5:B11)/D5*100000)</f>
-        <v>62.897868297461251</v>
+        <v>66.236709081401429</v>
       </c>
       <c r="D5">
         <v>10183175</v>
@@ -31890,14 +31902,14 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B6" s="10">
-        <v>890</v>
+        <v>1474</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>59.02874103607175</v>
+        <v>62.897868297461251</v>
       </c>
       <c r="D6">
         <v>10183175</v>
@@ -31912,14 +31924,14 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B7" s="10">
-        <v>791</v>
+        <v>890</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>72.030579853532913</v>
+        <v>59.02874103607175</v>
       </c>
       <c r="D7" s="13">
         <v>10183175</v>
@@ -31936,14 +31948,14 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B8" s="10">
-        <v>403</v>
+        <v>791</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>71.873457934288666</v>
+        <v>72.030579853532913</v>
       </c>
       <c r="D8" s="13">
         <v>10183175</v>
@@ -31958,14 +31970,14 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B9" s="10">
-        <v>843</v>
+        <v>403</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>70.587022220476413</v>
+        <v>71.873457934288666</v>
       </c>
       <c r="D9" s="13">
         <v>10183175</v>
@@ -31980,14 +31992,14 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B10" s="10">
-        <v>948</v>
+        <v>843</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>66.521492560031618</v>
+        <v>70.587022220476413</v>
       </c>
       <c r="D10" s="13">
         <v>10183175</v>
@@ -32002,14 +32014,14 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B11" s="10">
-        <v>1056</v>
+        <v>948</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>63.467435254721636</v>
+        <v>66.521492560031618</v>
       </c>
       <c r="D11" s="13">
         <v>10183175</v>
@@ -32024,14 +32036,14 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B12" s="10">
-        <v>1080</v>
+        <v>1056</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>60.452658429222708</v>
+        <v>63.467435254721636</v>
       </c>
       <c r="D12" s="13">
         <v>10183175</v>
@@ -32046,14 +32058,14 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B13" s="10">
-        <v>2214</v>
+        <v>1080</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>56.121985530053252</v>
+        <v>60.452658429222708</v>
       </c>
       <c r="D13" s="13">
         <v>10183175</v>
@@ -32068,14 +32080,14 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B14" s="10">
-        <v>775</v>
+        <v>2214</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>40.743677684022906</v>
+        <v>56.121985530053252</v>
       </c>
       <c r="D14" s="13">
         <v>10183175</v>
@@ -32090,14 +32102,14 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B15" s="10">
-        <v>272</v>
+        <v>775</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>38.995696332430697</v>
+        <v>40.743677684022906</v>
       </c>
       <c r="D15" s="13">
         <v>10183175</v>
@@ -32112,14 +32124,14 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B16" s="10">
-        <v>429</v>
+        <v>272</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>40.095549767140405</v>
+        <v>38.995696332430697</v>
       </c>
       <c r="D16" s="13">
         <v>10183175</v>
@@ -32134,14 +32146,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B17" s="10">
-        <v>637</v>
+        <v>429</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>38.543970814603497</v>
+        <v>40.095549767140405</v>
       </c>
       <c r="D17" s="13">
         <v>10183175</v>
@@ -32156,14 +32168,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B18" s="10">
-        <v>749</v>
+        <v>637</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>36.010379866790075</v>
+        <v>38.543970814603497</v>
       </c>
       <c r="D18" s="13">
         <v>10183175</v>
@@ -32178,14 +32190,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B19" s="10">
-        <v>639</v>
+        <v>749</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>34.910526432080367</v>
+        <v>36.010379866790075</v>
       </c>
       <c r="D19" s="13">
         <v>10183175</v>
@@ -32200,14 +32212,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B20" s="10">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>35.008727631608025</v>
+        <v>34.910526432080367</v>
       </c>
       <c r="D20" s="13">
         <v>10183175</v>
@@ -32222,14 +32234,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B21" s="10">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>35.755056748018177</v>
+        <v>35.008727631608025</v>
       </c>
       <c r="D21" s="13">
         <v>10183175</v>
@@ -32244,14 +32256,14 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B22" s="10">
-        <v>384</v>
+        <v>597</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>34.036535756284266</v>
+        <v>35.755056748018177</v>
       </c>
       <c r="D22" s="13">
         <v>10183175</v>
@@ -32266,14 +32278,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B23" s="10">
-        <v>271</v>
+        <v>384</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>32.563517763369482</v>
+        <v>34.036535756284266</v>
       </c>
       <c r="D23" s="13">
         <v>10183175</v>
@@ -32288,14 +32300,14 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B24" s="10">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>34.478441154158702</v>
+        <v>32.563517763369482</v>
       </c>
       <c r="D24" s="13">
         <v>10183175</v>
@@ -32310,14 +32322,14 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B25" s="10">
-        <v>637</v>
+        <v>379</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>35.372072069860337</v>
+        <v>34.478441154158702</v>
       </c>
       <c r="D25" s="13">
         <v>10183175</v>
@@ -32332,14 +32344,14 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B26" s="10">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>35.254230630427152</v>
+        <v>35.372072069860337</v>
       </c>
       <c r="D26" s="13">
         <v>10183175</v>
@@ -32354,14 +32366,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B27" s="10">
-        <v>724</v>
+        <v>649</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>35.489913509293515</v>
+        <v>35.254230630427152</v>
       </c>
       <c r="D27" s="13">
         <v>10183175</v>
@@ -32376,14 +32388,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B28" s="10">
-        <v>422</v>
+        <v>724</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>34.635563073402942</v>
+        <v>35.489913509293515</v>
       </c>
       <c r="D28" s="13">
         <v>10183175</v>
@@ -32398,14 +32410,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B29" s="10">
-        <v>234</v>
+        <v>422</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>36.403184664900685</v>
+        <v>34.635563073402942</v>
       </c>
       <c r="D29" s="13">
         <v>10183175</v>
@@ -32420,14 +32432,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B30" s="10">
-        <v>466</v>
+        <v>234</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>37.52267833951592</v>
+        <v>36.403184664900685</v>
       </c>
       <c r="D30" s="13">
         <v>10183175</v>
@@ -32442,14 +32454,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B31" s="10">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>36.884370542586176</v>
+        <v>37.52267833951592</v>
       </c>
       <c r="D31" s="13">
         <v>10183175</v>
@@ -32464,14 +32476,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B32" s="10">
-        <v>625</v>
+        <v>470</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>38.710912853800508</v>
+        <v>36.884370542586176</v>
       </c>
       <c r="D32" s="13">
         <v>10183175</v>
@@ -32486,14 +32498,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B33" s="10">
-        <v>673</v>
+        <v>625</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>38.877854892997519</v>
+        <v>38.710912853800508</v>
       </c>
       <c r="D33" s="13">
         <v>10183175</v>
@@ -32508,14 +32520,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B34" s="10">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>39.192098731486006</v>
+        <v>38.877854892997519</v>
       </c>
       <c r="D34" s="13">
         <v>10183175</v>
@@ -32530,14 +32542,14 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B35" s="10">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>39.830406528415743</v>
+        <v>39.192098731486006</v>
       </c>
       <c r="D35" s="13">
         <v>10183175</v>
@@ -32552,14 +32564,14 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B36" s="10">
-        <v>348</v>
+        <v>602</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>38.779653693469868</v>
+        <v>39.830406528415743</v>
       </c>
       <c r="D36" s="13">
         <v>10183175</v>
@@ -32574,14 +32586,14 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B37" s="10">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>39.329580410824718</v>
+        <v>38.779653693469868</v>
       </c>
       <c r="D37" s="13">
         <v>10183175</v>
@@ -32596,14 +32608,14 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B38" s="10">
-        <v>656</v>
+        <v>401</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>37.699440498665695</v>
+        <v>39.329580410824718</v>
       </c>
       <c r="D38" s="13">
         <v>10183175</v>
@@ -32618,14 +32630,14 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B39" s="10">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>36.776349223105761</v>
+        <v>37.699440498665695</v>
       </c>
       <c r="D39" s="13">
         <v>10183175</v>
@@ -32640,14 +32652,14 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B40" s="10">
-        <v>705</v>
+        <v>642</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>34.674843553214004</v>
+        <v>36.776349223105761</v>
       </c>
       <c r="D40" s="13">
         <v>10183175</v>
@@ -32662,14 +32674,14 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B41" s="10">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>35.50955374919905</v>
+        <v>34.674843553214004</v>
       </c>
       <c r="D41" s="13">
         <v>10183175</v>
@@ -32684,14 +32696,14 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B42" s="10">
-        <v>495</v>
+        <v>702</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>35.303331230190977</v>
+        <v>35.50955374919905</v>
       </c>
       <c r="D42" s="13">
         <v>10183175</v>
@@ -32706,14 +32718,14 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B43" s="10">
-        <v>404</v>
+        <v>495</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>37.267355220744022</v>
+        <v>35.303331230190977</v>
       </c>
       <c r="D43" s="13">
         <v>10183175</v>
@@ -32728,14 +32740,14 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B44" s="10">
-        <v>235</v>
+        <v>404</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>36.108581066317726</v>
+        <v>37.267355220744022</v>
       </c>
       <c r="D44" s="13">
         <v>10183175</v>
@@ -32750,14 +32762,14 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B45" s="10">
-        <v>562</v>
+        <v>235</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>38.347568415548196</v>
+        <v>36.108581066317726</v>
       </c>
       <c r="D45" s="13">
         <v>10183175</v>
@@ -32772,14 +32784,14 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B46" s="10">
-        <v>428</v>
+        <v>562</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>38.818934173280923</v>
+        <v>38.347568415548196</v>
       </c>
       <c r="D46" s="13">
         <v>10183175</v>
@@ -32794,14 +32806,14 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B47" s="10">
-        <v>790</v>
+        <v>428</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>42.589860235142773</v>
+        <v>38.818934173280923</v>
       </c>
       <c r="D47" s="13">
         <v>10183175</v>
@@ -32816,14 +32828,14 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B48" s="10">
-        <v>681</v>
+        <v>790</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>42.206875556984933</v>
+        <v>42.589860235142773</v>
       </c>
       <c r="D48" s="13">
         <v>10183175</v>
@@ -32838,14 +32850,14 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B49" s="10">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>42.216695676937697</v>
+        <v>42.206875556984933</v>
       </c>
       <c r="D49" s="13">
         <v>10183175</v>
@@ -32860,14 +32872,14 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B50" s="10">
-        <v>286</v>
+        <v>695</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>40.743677684022906</v>
+        <v>42.216695676937697</v>
       </c>
       <c r="D50" s="13">
         <v>10183175</v>
@@ -32882,14 +32894,14 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B51" s="10">
-        <v>463</v>
+        <v>286</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>41.784610399016024</v>
+        <v>40.743677684022906</v>
       </c>
       <c r="D51" s="13">
         <v>10183175</v>
@@ -32904,14 +32916,14 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B52" s="10">
-        <v>610</v>
+        <v>463</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>42.766622394292547</v>
+        <v>41.784610399016024</v>
       </c>
       <c r="D52" s="13">
         <v>10183175</v>
@@ -32926,14 +32938,14 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B53" s="10">
-        <v>812</v>
+        <v>610</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>42.727341914481485</v>
+        <v>42.766622394292547</v>
       </c>
       <c r="D53" s="13">
         <v>10183175</v>
@@ -32948,14 +32960,14 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B54" s="10">
-        <v>751</v>
+        <v>812</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>41.391805600905414</v>
+        <v>42.727341914481485</v>
       </c>
       <c r="D54" s="13">
         <v>10183175</v>
@@ -32970,14 +32982,14 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B55" s="10">
-        <v>682</v>
+        <v>751</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>40.036629047423816</v>
+        <v>41.391805600905414</v>
       </c>
       <c r="D55" s="13">
         <v>10183175</v>
@@ -32992,14 +33004,14 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B56" s="10">
-        <v>545</v>
+        <v>682</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>38.072605056870771</v>
+        <v>40.036629047423816</v>
       </c>
       <c r="D56" s="13">
         <v>10183175</v>
@@ -33014,14 +33026,14 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B57" s="10">
-        <v>392</v>
+        <v>545</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>37.601239299138037</v>
+        <v>38.072605056870771</v>
       </c>
       <c r="D57" s="13">
         <v>10183175</v>
@@ -33036,14 +33048,14 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B58" s="10">
-        <v>563</v>
+        <v>392</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>38.318108055689898</v>
+        <v>37.601239299138037</v>
       </c>
       <c r="D58" s="13">
         <v>10183175</v>
@@ -33058,14 +33070,14 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B59" s="10">
-        <v>606</v>
+        <v>563</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>36.049660346601136</v>
+        <v>38.318108055689898</v>
       </c>
       <c r="D59" s="13">
         <v>10183175</v>
@@ -33080,14 +33092,14 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B60" s="10">
-        <v>676</v>
+        <v>606</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>34.674843553214004</v>
+        <v>36.049660346601136</v>
       </c>
       <c r="D60" s="13">
         <v>10183175</v>
@@ -33102,14 +33114,14 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B61" s="10">
-        <v>613</v>
+        <v>676</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>33.378587719448994</v>
+        <v>34.674843553214004</v>
       </c>
       <c r="D61" s="13">
         <v>10183175</v>
@@ -33124,14 +33136,14 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B62" s="10">
-        <v>482</v>
+        <v>613</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>34.448980794300404</v>
+        <v>33.378587719448994</v>
       </c>
       <c r="D62" s="13">
         <v>10183175</v>
@@ -33146,14 +33158,14 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B63" s="10">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>36.845090062775121</v>
+        <v>34.448980794300404</v>
       </c>
       <c r="D63" s="13">
         <v>10183175</v>
@@ -33168,14 +33180,14 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B64" s="10">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>36.746888863247463</v>
+        <v>36.845090062775121</v>
       </c>
       <c r="D64" s="13">
         <v>10183175</v>
@@ -33190,14 +33202,14 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B65" s="10">
-        <v>332</v>
+        <v>465</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>35.872898187451362</v>
+        <v>36.746888863247463</v>
       </c>
       <c r="D65" s="13">
         <v>10183175</v>
@@ -33212,14 +33224,14 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B66" s="10">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>36.413004784853449</v>
+        <v>35.872898187451362</v>
       </c>
       <c r="D66" s="13">
         <v>10183175</v>
@@ -33234,14 +33246,14 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B67" s="10">
-        <v>544</v>
+        <v>466</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>35.421172669624163</v>
+        <v>36.413004784853449</v>
       </c>
       <c r="D67" s="13">
         <v>10183175</v>
@@ -33256,14 +33268,14 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B68" s="10">
-        <v>722</v>
+        <v>544</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" si="0"/>
-        <v>36.088940826412191</v>
+        <v>35.421172669624163</v>
       </c>
       <c r="D68" s="13">
         <v>10183175</v>
@@ -33278,14 +33290,14 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B69" s="10">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" ref="C69:C132" si="1">IF(OR(ISBLANK(B69),ISBLANK(B75)),"",SUM(B69:B75)/D69*100000)</f>
-        <v>34.095456476000855</v>
+        <v>36.088940826412191</v>
       </c>
       <c r="D69" s="13">
         <v>10183175</v>
@@ -33300,14 +33312,14 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B70" s="10">
-        <v>487</v>
+        <v>726</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="1"/>
-        <v>31.993950806109098</v>
+        <v>34.095456476000855</v>
       </c>
       <c r="D70" s="13">
         <v>10183175</v>
@@ -33322,14 +33334,14 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B71" s="10">
-        <v>376</v>
+        <v>487</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="1"/>
-        <v>31.208341209887877</v>
+        <v>31.993950806109098</v>
       </c>
       <c r="D71" s="13">
         <v>10183175</v>
@@ -33344,14 +33356,14 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B72" s="10">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="1"/>
-        <v>30.736975452155146</v>
+        <v>31.208341209887877</v>
       </c>
       <c r="D72" s="13">
         <v>10183175</v>
@@ -33366,14 +33378,14 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B73" s="10">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="1"/>
-        <v>29.421079378484606</v>
+        <v>30.736975452155146</v>
       </c>
       <c r="D73" s="13">
         <v>10183175</v>
@@ -33388,14 +33400,14 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B74" s="10">
-        <v>612</v>
+        <v>365</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="1"/>
-        <v>29.774603696784155</v>
+        <v>29.421079378484606</v>
       </c>
       <c r="D74" s="13">
         <v>10183175</v>
@@ -33410,14 +33422,14 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B75" s="10">
-        <v>519</v>
+        <v>612</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="1"/>
-        <v>26.121519074355493</v>
+        <v>29.774603696784155</v>
       </c>
       <c r="D75" s="13">
         <v>10183175</v>
@@ -33432,14 +33444,14 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B76" s="10">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="1"/>
-        <v>23.931632324888849</v>
+        <v>26.121519074355493</v>
       </c>
       <c r="D76" s="13">
         <v>10183175</v>
@@ -33454,14 +33466,14 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B77" s="10">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="1"/>
-        <v>21.240919457831176</v>
+        <v>23.931632324888849</v>
       </c>
       <c r="D77" s="13">
         <v>10183175</v>
@@ -33476,14 +33488,14 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B78" s="10">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="1"/>
-        <v>19.758081344963628</v>
+        <v>21.240919457831176</v>
       </c>
       <c r="D78" s="13">
         <v>10183175</v>
@@ -33498,14 +33510,14 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B79" s="10">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="1"/>
-        <v>17.617295195260809</v>
+        <v>19.758081344963628</v>
       </c>
       <c r="D79" s="13">
         <v>10183175</v>
@@ -33520,14 +33532,14 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B80" s="10">
-        <v>401</v>
+        <v>253</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="1"/>
-        <v>16.704024039653646</v>
+        <v>17.617295195260809</v>
       </c>
       <c r="D80" s="13">
         <v>10183175</v>
@@ -33542,14 +33554,14 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B81" s="10">
-        <v>240</v>
+        <v>401</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="1"/>
-        <v>13.974030692784911</v>
+        <v>16.704024039653646</v>
       </c>
       <c r="D81" s="13">
         <v>10183175</v>
@@ -33564,14 +33576,14 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B82" s="10">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="1"/>
-        <v>13.581225894674303</v>
+        <v>13.974030692784911</v>
       </c>
       <c r="D82" s="13">
         <v>10183175</v>
@@ -33586,14 +33598,14 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B83" s="10">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="1"/>
-        <v>11.872525022893154</v>
+        <v>13.581225894674303</v>
       </c>
       <c r="D83" s="13">
         <v>10183175</v>
@@ -33608,14 +33620,14 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B84" s="10">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="1"/>
-        <v>10.851232547805571</v>
+        <v>11.872525022893154</v>
       </c>
       <c r="D84" s="13">
         <v>10183175</v>
@@ -33630,14 +33642,14 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B85" s="10">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="1"/>
-        <v>8.7890073577248753</v>
+        <v>10.851232547805571</v>
       </c>
       <c r="D85" s="13">
         <v>10183175</v>
@@ -33652,14 +33664,14 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B86" s="10">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="1"/>
-        <v>8.5827848387168046</v>
+        <v>8.7890073577248753</v>
       </c>
       <c r="D86" s="13">
         <v>10183175</v>
@@ -33674,14 +33686,14 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B87" s="10">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="1"/>
-        <v>8.0721386011730143</v>
+        <v>8.5827848387168046</v>
       </c>
       <c r="D87" s="13">
         <v>10183175</v>
@@ -33696,14 +33708,14 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B88" s="10">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="1"/>
-        <v>8.3274617199449086</v>
+        <v>8.0721386011730143</v>
       </c>
       <c r="D88" s="13">
         <v>10183175</v>
@@ -33718,14 +33730,14 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B89" s="10">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="1"/>
-        <v>7.8855563220704736</v>
+        <v>8.3274617199449086</v>
       </c>
       <c r="D89" s="13">
         <v>10183175</v>
@@ -33740,14 +33752,14 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B90" s="10">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="1"/>
-        <v>8.2390806403700214</v>
+        <v>7.8855563220704736</v>
       </c>
       <c r="D90" s="13">
         <v>10183175</v>
@@ -33762,14 +33774,14 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B91" s="10">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="1"/>
-        <v>8.2587208802755523</v>
+        <v>8.2390806403700214</v>
       </c>
       <c r="D91" s="13">
         <v>10183175</v>
@@ -33784,14 +33796,14 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B92" s="10">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="1"/>
-        <v>8.5729647187640392</v>
+        <v>8.2587208802755523</v>
       </c>
       <c r="D92" s="13">
         <v>10183175</v>
@@ -33806,14 +33818,14 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B93" s="10">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="1"/>
-        <v>8.1408794408423706</v>
+        <v>8.5729647187640392</v>
       </c>
       <c r="D93" s="13">
         <v>10183175</v>
@@ -33828,14 +33840,14 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B94" s="10">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="1"/>
-        <v>7.492751523959865</v>
+        <v>8.1408794408423706</v>
       </c>
       <c r="D94" s="13">
         <v>10183175</v>
@@ -33850,14 +33862,14 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B95" s="10">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="1"/>
-        <v>6.2652365298642119</v>
+        <v>7.492751523959865</v>
       </c>
       <c r="D95" s="13">
         <v>10183175</v>
@@ -33872,14 +33884,14 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B96" s="10">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="1"/>
-        <v>5.48944705359576</v>
+        <v>6.2652365298642119</v>
       </c>
       <c r="D96" s="13">
         <v>10183175</v>
@@ -33894,14 +33906,14 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B97" s="10">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="1"/>
-        <v>4.1931912198307497</v>
+        <v>5.48944705359576</v>
       </c>
       <c r="D97" s="13">
         <v>10183175</v>
@@ -33916,14 +33928,14 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B98" s="10">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="1"/>
-        <v>2.9656762257350975</v>
+        <v>4.1931912198307497</v>
       </c>
       <c r="D98" s="13">
         <v>10183175</v>
@@ -33938,14 +33950,14 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B99" s="10">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="1"/>
-        <v>2.2880879489942969</v>
+        <v>2.9656762257350975</v>
       </c>
       <c r="D99" s="13">
         <v>10183175</v>
@@ -33960,14 +33972,14 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B100" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="1"/>
-        <v>1.856002671072627</v>
+        <v>2.2880879489942969</v>
       </c>
       <c r="D100" s="13">
         <v>10183175</v>
@@ -33982,14 +33994,14 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B101" s="10">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="1"/>
-        <v>1.4533777530092531</v>
+        <v>1.856002671072627</v>
       </c>
       <c r="D101" s="13">
         <v>10183175</v>
@@ -34004,14 +34016,14 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B102" s="10">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="1"/>
-        <v>1.2275149940956529</v>
+        <v>1.4533777530092531</v>
       </c>
       <c r="D102" s="13">
         <v>10183175</v>
@@ -34026,14 +34038,14 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B103" s="10">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="1"/>
-        <v>0.530286477449322</v>
+        <v>1.2275149940956529</v>
       </c>
       <c r="D103" s="13">
         <v>10183175</v>
@@ -34048,14 +34060,14 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B104" s="10">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="1"/>
-        <v>0.32406395844125235</v>
+        <v>0.530286477449322</v>
       </c>
       <c r="D104" s="13">
         <v>10183175</v>
@@ -34070,14 +34082,14 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B105" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="1"/>
-        <v>0.22586275891360011</v>
+        <v>0.32406395844125235</v>
       </c>
       <c r="D105" s="13">
         <v>10183175</v>
@@ -34092,14 +34104,14 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B106" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="1"/>
-        <v>0.13748167933871314</v>
+        <v>0.22586275891360011</v>
       </c>
       <c r="D106" s="13">
         <v>10183175</v>
@@ -34114,14 +34126,14 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B107" s="10">
         <v>1</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="1"/>
-        <v>0.12766155938594789</v>
+        <v>0.13748167933871314</v>
       </c>
       <c r="D107" s="13">
         <v>10183175</v>
@@ -34136,14 +34148,14 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B108" s="10">
         <v>1</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" si="1"/>
-        <v>0.11784143943318268</v>
+        <v>0.12766155938594789</v>
       </c>
       <c r="D108" s="13">
         <v>10183175</v>
@@ -34158,14 +34170,14 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B109" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C109" s="7">
         <f t="shared" si="1"/>
-        <v>0.10802131948041746</v>
+        <v>0.11784143943318268</v>
       </c>
       <c r="D109" s="13">
         <v>10183175</v>
@@ -34180,14 +34192,14 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B110" s="10">
         <v>5</v>
       </c>
       <c r="C110" s="7">
         <f t="shared" si="1"/>
-        <v>5.8920719716591338E-2</v>
+        <v>0.10802131948041746</v>
       </c>
       <c r="D110" s="13">
         <v>10183175</v>
@@ -34202,14 +34214,14 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B111" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C111" s="7">
         <f t="shared" si="1"/>
-        <v>9.820119952765223E-3</v>
+        <v>5.8920719716591338E-2</v>
       </c>
       <c r="D111" s="13">
         <v>10183175</v>
@@ -34224,14 +34236,14 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B112" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.820119952765223E-3</v>
       </c>
       <c r="D112" s="13">
         <v>10183175</v>
@@ -34246,7 +34258,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B113" s="10">
         <v>0</v>
@@ -34268,7 +34280,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B114" s="10">
         <v>0</v>
@@ -34290,7 +34302,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B115" s="10">
         <v>0</v>
@@ -34312,7 +34324,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B116" s="10">
         <v>0</v>
@@ -34334,7 +34346,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -34356,7 +34368,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -34378,7 +34390,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -34400,7 +34412,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -34422,7 +34434,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -34444,7 +34456,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
@@ -34466,7 +34478,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
@@ -34488,7 +34500,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
@@ -34510,7 +34522,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
@@ -34532,7 +34544,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
@@ -34554,7 +34566,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -34576,7 +34588,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
@@ -34598,7 +34610,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B129" s="10">
         <v>0</v>
@@ -34620,7 +34632,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B130" s="10">
         <v>0</v>
@@ -34642,14 +34654,14 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B131" s="10">
         <v>0</v>
       </c>
       <c r="C131" s="7">
         <f t="shared" si="1"/>
-        <v>9.820119952765223E-3</v>
+        <v>0</v>
       </c>
       <c r="D131" s="13">
         <v>10183175</v>
@@ -34664,7 +34676,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B132" s="10">
         <v>0</v>
@@ -34686,7 +34698,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B133" s="10">
         <v>0</v>
@@ -34708,7 +34720,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B134" s="10">
         <v>0</v>
@@ -34730,7 +34742,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="B135" s="10">
         <v>0</v>
@@ -34752,7 +34764,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>43863</v>
+        <v>43864</v>
       </c>
       <c r="B136" s="10">
         <v>0</v>
@@ -34774,10 +34786,10 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>43862</v>
+        <v>43863</v>
       </c>
       <c r="B137" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" s="7">
         <f t="shared" si="2"/>
@@ -34796,14 +34808,14 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="B138" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.820119952765223E-3</v>
       </c>
       <c r="D138" s="13">
         <v>10183175</v>
@@ -34818,7 +34830,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="B139" s="10">
         <v>0</v>
@@ -34840,7 +34852,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="B140" s="10">
         <v>0</v>
@@ -34862,7 +34874,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B141" s="10">
         <v>0</v>
@@ -34884,7 +34896,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>43857</v>
+        <v>43858</v>
       </c>
       <c r="B142" s="10">
         <v>0</v>
@@ -34906,7 +34918,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>43856</v>
+        <v>43857</v>
       </c>
       <c r="B143" s="10">
         <v>0</v>
@@ -34928,7 +34940,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>43855</v>
+        <v>43856</v>
       </c>
       <c r="B144" s="10">
         <v>0</v>
@@ -34950,7 +34962,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>43854</v>
+        <v>43855</v>
       </c>
       <c r="B145" s="10">
         <v>0</v>
@@ -34972,7 +34984,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>43853</v>
+        <v>43854</v>
       </c>
       <c r="B146" s="10">
         <v>0</v>
@@ -34994,7 +35006,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="B147" s="10">
         <v>0</v>
@@ -35016,7 +35028,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="B148" s="10">
         <v>0</v>
@@ -35038,7 +35050,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="B149" s="10">
         <v>0</v>
@@ -35060,7 +35072,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>43849</v>
+        <v>43850</v>
       </c>
       <c r="B150" s="10">
         <v>0</v>
@@ -35082,7 +35094,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="B151" s="10">
         <v>0</v>
@@ -35104,7 +35116,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>43847</v>
+        <v>43848</v>
       </c>
       <c r="B152" s="10">
         <v>0</v>
@@ -35126,7 +35138,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="B153" s="10">
         <v>0</v>
@@ -35148,7 +35160,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="B154" s="10">
         <v>0</v>
@@ -35170,7 +35182,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="B155" s="10">
         <v>0</v>
@@ -35192,7 +35204,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>43843</v>
+        <v>43844</v>
       </c>
       <c r="B156" s="10">
         <v>0</v>
@@ -35214,7 +35226,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>43842</v>
+        <v>43843</v>
       </c>
       <c r="B157" s="10">
         <v>0</v>
@@ -35236,7 +35248,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>43841</v>
+        <v>43842</v>
       </c>
       <c r="B158" s="10">
         <v>0</v>
@@ -35258,7 +35270,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>43840</v>
+        <v>43841</v>
       </c>
       <c r="B159" s="10">
         <v>0</v>
@@ -35280,7 +35292,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>43839</v>
+        <v>43840</v>
       </c>
       <c r="B160" s="10">
         <v>0</v>
@@ -35302,7 +35314,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>43838</v>
+        <v>43839</v>
       </c>
       <c r="B161" s="10">
         <v>0</v>
@@ -35324,7 +35336,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="B162" s="10">
         <v>0</v>
@@ -35346,7 +35358,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="B163" s="10">
         <v>0</v>
@@ -35368,14 +35380,14 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>43835</v>
+        <v>43836</v>
       </c>
       <c r="B164" s="10">
         <v>0</v>
       </c>
-      <c r="C164" s="7" t="str">
+      <c r="C164" s="7">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D164" s="13">
         <v>10183175</v>
@@ -35390,7 +35402,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>43834</v>
+        <v>43835</v>
       </c>
       <c r="B165" s="10">
         <v>0</v>
@@ -35412,7 +35424,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>43833</v>
+        <v>43834</v>
       </c>
       <c r="B166" s="10">
         <v>0</v>
@@ -35434,7 +35446,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>43832</v>
+        <v>43833</v>
       </c>
       <c r="B167" s="10">
         <v>0</v>
@@ -35456,7 +35468,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>43831</v>
+        <v>43832</v>
       </c>
       <c r="B168" s="10">
         <v>0</v>
@@ -35478,7 +35490,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="B169" s="10">
         <v>0</v>
@@ -35499,13 +35511,19 @@
       <c r="K169" s="10"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
-      <c r="B170" s="10"/>
+      <c r="A170" s="4">
+        <v>43830</v>
+      </c>
+      <c r="B170" s="10">
+        <v>0</v>
+      </c>
       <c r="C170" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D170" s="13"/>
+      <c r="D170" s="13">
+        <v>10183175</v>
+      </c>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A428BC-B3ED-4F3F-9EF0-57DF2BE0324C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAC92D9-9905-4937-9462-29BDF568FFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="3180" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <t>Einwohner</t>
   </si>
   <si>
-    <t>Datenabruf: Sonntag 2020-06-14 16:49</t>
+    <t>Datenabruf: Montag 2020-06-15 22:14</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Sonntag 2020-06-14 16:49</a:t>
+              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Montag 2020-06-15 22:14</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -394,187 +394,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43996</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43937</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,187 +586,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>62.221686010161719</c:v>
+                  <c:v>64.409999274758121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.32719408179392</c:v>
+                  <c:v>68.321851305275601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.682786369597011</c:v>
+                  <c:v>70.44238495548187</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>67.692469171652746</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>65.291134261830123</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>62.33787963483055</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>58.300151177588504</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>57.854742283024628</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>58.832705290653998</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>56.925193285673934</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>53.110169275713822</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>49.556580921258586</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>46.932541564154029</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44.473109841997008</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43.194979970639807</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>41.849070484892458</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>41.316516371826957</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>41.035715112210603</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>38.64406300444373</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>37.123863081693123</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>37.211008300194749</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>36.087803261729334</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>36.562260562460416</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>36.126534469952283</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>37.888804444096294</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>38.585966192109311</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>37.578954778312728</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>38.653745806499465</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>38.934547066115819</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>39.118520305174812</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>40.580623415590999</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>40.59998901970247</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>41.907167297226877</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>42.197651358898966</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>40.861424675207346</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>41.006666706043397</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>40.851741873151617</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>38.808670639391245</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>37.056083467302969</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>35.671442773332672</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>36.436384135735842</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>37.394981539253742</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>38.121191693433964</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>38.48913817155195</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>40.183628531305807</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>42.643060253462835</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43.417684417921748</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>42.371941795902217</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>41.839387682836723</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>40.725865446427036</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>41.57795202733184</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>42.149237348620282</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>41.200322747158118</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>39.893144469633718</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>38.750573827056826</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>36.320190511067004</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>37.056083467302969</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>35.729539585667091</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>33.463763904624784</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>33.676785549850983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,187 +830,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43996</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43937</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,187 +1022,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>67.601705754835791</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>69.172924947278233</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>66.236709081401429</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>62.897868297461251</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>59.02874103607175</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>72.030579853532913</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>71.873457934288666</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>70.587022220476413</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>66.521492560031618</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>63.467435254721636</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>60.452658429222708</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>56.121985530053252</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>40.743677684022906</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>38.995696332430697</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>40.095549767140405</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>38.543970814603497</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>36.010379866790075</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>34.910526432080367</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>35.008727631608025</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>35.755056748018177</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>34.036535756284266</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>32.563517763369482</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>34.478441154158702</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>35.372072069860337</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>35.254230630427152</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>35.489913509293515</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>34.635563073402942</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>36.403184664900685</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>37.52267833951592</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>36.884370542586176</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>38.710912853800508</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>38.877854892997519</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>39.192098731486006</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>39.830406528415743</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>38.779653693469868</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>39.329580410824718</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>37.699440498665695</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>36.776349223105761</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>34.674843553214004</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>35.50955374919905</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>35.303331230190977</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>37.267355220744022</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>36.108581066317726</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>38.347568415548196</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>38.818934173280923</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>42.589860235142773</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>42.206875556984933</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>42.216695676937697</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>40.743677684022906</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>41.784610399016024</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>42.766622394292547</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>42.727341914481485</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>41.391805600905414</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>40.036629047423816</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>38.072605056870771</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>37.601239299138037</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>38.318108055689898</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>36.049660346601136</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>34.674843553214004</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>33.378587719448994</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>34.448980794300404</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>36.845090062775121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,187 +1247,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43996</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43937</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,187 +1439,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>41.584530554633673</c:v>
+                  <c:v>60.377539555285431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.584530554633673</c:v>
+                  <c:v>71.57337470460989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.38348934196479</c:v>
+                  <c:v>55.179473235956216</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>45.18319185263082</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>35.186910469305417</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>37.985869256636533</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>39.185423022635582</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>38.385720511969545</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34.787059213972405</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>34.787059213972405</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>34.787059213972405</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>33.187654192640338</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>35.186910469305417</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>29.98884414997621</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>27.98958787331113</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>27.189885362645096</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.59196778798287</c:v>
+                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.39464519198858</c:v>
+                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>14.39464519198858</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>11.195835149324452</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>8.7967276173263542</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>9.1965788726593711</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>9.9962813833254032</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>9.5964301279923863</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>12.395388915323501</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>15.994050213320644</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>15.194347702654612</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>13.594942681322548</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>17.193603979319693</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>17.193603979319693</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>16.393901468653663</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>16.793752723986675</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>19.592711511317791</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>17.993306489985727</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>18.393157745318742</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>21.991819043315886</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>18.793009000651757</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>15.594198957987629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,82 +2335,82 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B4" s="11">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C67" si="0">IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/$O$6*100000)</f>
-        <v>62.221686010161719</v>
+        <v>64.409999274758121</v>
       </c>
       <c r="D4" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:E67" si="1">IF(OR(ISBLANK(D4),ISBLANK(D10)),"",SUM(D4:D10)/$O$7*100000)</f>
-        <v>41.584530554633673</v>
+        <v>60.377539555285431</v>
       </c>
       <c r="F4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G67" si="2">IF(OR(ISBLANK(F4),ISBLANK(F10)),"",SUM(F4:F10)/$O$8*100000)</f>
-        <v>43.432939541348162</v>
+        <v>40.138026886487268</v>
       </c>
       <c r="H4" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I4" s="9">
         <f>IF(OR(ISBLANK(H4),ISBLANK(H10)),"",SUM(H4:H10)/$O$9*100000)</f>
-        <v>140.39206642868191</v>
+        <v>141.02942207487075</v>
       </c>
       <c r="J4" s="11">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K67" si="3">IF(OR(ISBLANK(J4),ISBLANK(J10)),"",SUM(J4:J10)/$O$10*100000)</f>
-        <v>49.262099188037766</v>
+        <v>49.598646407084992</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B5" s="10">
-        <v>686</v>
+        <v>243</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>66.32719408179392</v>
+        <v>68.321851305275601</v>
       </c>
       <c r="D5" s="10">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>41.584530554633673</v>
+        <v>71.57337470460989</v>
       </c>
       <c r="F5" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="2"/>
-        <v>45.529702139895996</v>
+        <v>45.230164625817736</v>
       </c>
       <c r="H5" s="3">
-        <v>376</v>
+        <v>55</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" ref="I5:I68" si="4">IF(OR(ISBLANK(H5),ISBLANK(H11)),"",SUM(H5:H11)/$O$9*100000)</f>
-        <v>153.02329650769664</v>
+        <v>146.99738858009329</v>
       </c>
       <c r="J5" s="10">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="3"/>
-        <v>50.944835283273896</v>
+        <v>54.184102266603453</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>6</v>
@@ -2418,42 +2418,42 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B6" s="10">
-        <v>1390</v>
+        <v>1110</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>67.682786369597011</v>
+        <v>70.44238495548187</v>
       </c>
       <c r="D6" s="10">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>44.38348934196479</v>
+        <v>55.179473235956216</v>
       </c>
       <c r="F6" s="3">
         <v>24</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>45.529702139895996</v>
+        <v>47.027389710287316</v>
       </c>
       <c r="H6" s="3">
-        <v>541</v>
+        <v>447</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>147.69268564866292</v>
+        <v>157.13713749673357</v>
       </c>
       <c r="J6" s="10">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="3"/>
-        <v>54.899265107078811</v>
+        <v>53.931691852318032</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
@@ -2464,42 +2464,42 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B7" s="10">
-        <v>1347</v>
+        <v>1391</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>65.291134261830123</v>
+        <v>67.692469171652746</v>
       </c>
       <c r="D7" s="10">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>35.186910469305417</v>
+        <v>45.18319185263082</v>
       </c>
       <c r="F7" s="3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>45.230164625817736</v>
+        <v>45.529702139895996</v>
       </c>
       <c r="H7" s="3">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>144.33208315057644</v>
+        <v>147.69268564866292</v>
       </c>
       <c r="J7" s="10">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
-        <v>56.119248776125005</v>
+        <v>54.899265107078811</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -2510,42 +2510,42 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B8" s="10">
-        <v>1487</v>
+        <v>1347</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>62.33787963483055</v>
+        <v>65.291134261830123</v>
       </c>
       <c r="D8" s="10">
         <v>12</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>37.985869256636533</v>
+        <v>35.186910469305417</v>
       </c>
       <c r="F8" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>43.133402027269895</v>
+        <v>45.230164625817736</v>
       </c>
       <c r="H8" s="3">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="4"/>
-        <v>137.14734677535705</v>
+        <v>144.33208315057644</v>
       </c>
       <c r="J8" s="10">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>55.950975166601388</v>
+        <v>56.119248776125005</v>
       </c>
       <c r="N8" t="s">
         <v>2</v>
@@ -2556,42 +2556,42 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B9" s="10">
-        <v>935</v>
+        <v>1487</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>58.300151177588504</v>
+        <v>62.33787963483055</v>
       </c>
       <c r="D9" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>39.185423022635582</v>
+        <v>37.985869256636533</v>
       </c>
       <c r="F9" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>38.640339316095947</v>
+        <v>43.133402027269895</v>
       </c>
       <c r="H9" s="3">
-        <v>258</v>
+        <v>584</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="4"/>
-        <v>128.16642630633282</v>
+        <v>137.14734677535705</v>
       </c>
       <c r="J9" s="10">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>55.23581232612603</v>
+        <v>55.950975166601388</v>
       </c>
       <c r="N9" t="s">
         <v>8</v>
@@ -2602,42 +2602,42 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B10" s="10">
-        <v>543</v>
+        <v>935</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>57.854742283024628</v>
+        <v>58.300151177588504</v>
       </c>
       <c r="D10" s="10">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>38.385720511969545</v>
+        <v>39.185423022635582</v>
       </c>
       <c r="F10" s="3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>39.239414344252474</v>
+        <v>38.640339316095947</v>
       </c>
       <c r="H10" s="3">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="4"/>
-        <v>128.80378195252166</v>
+        <v>128.16642630633282</v>
       </c>
       <c r="J10" s="10">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>52.122750549939191</v>
+        <v>55.23581232612603</v>
       </c>
       <c r="N10" t="s">
         <v>3</v>
@@ -2648,638 +2648,638 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B11" s="10">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>58.832705290653998</v>
+        <v>57.854742283024628</v>
       </c>
       <c r="D11" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>34.787059213972405</v>
+        <v>38.385720511969545</v>
       </c>
       <c r="F11" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>40.737101914643794</v>
+        <v>39.239414344252474</v>
       </c>
       <c r="H11" s="3">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="4"/>
-        <v>127.06553928109759</v>
+        <v>128.80378195252166</v>
       </c>
       <c r="J11" s="10">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>53.468939426128095</v>
+        <v>52.122750549939191</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B12" s="10">
-        <v>826</v>
+        <v>462</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>56.925193285673934</v>
+        <v>58.832705290653998</v>
       </c>
       <c r="D12" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>34.787059213972405</v>
       </c>
       <c r="F12" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>40.437564400565527</v>
+        <v>40.737101914643794</v>
       </c>
       <c r="H12" s="3">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="4"/>
-        <v>119.4752129492126</v>
+        <v>127.06553928109759</v>
       </c>
       <c r="J12" s="10">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>54.310307473746164</v>
+        <v>53.468939426128095</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B13" s="10">
-        <v>1143</v>
+        <v>826</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>53.110169275713822</v>
+        <v>56.925193285673934</v>
       </c>
       <c r="D13" s="10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>33.187654192640338</v>
+        <v>34.787059213972405</v>
       </c>
       <c r="F13" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>38.04126428793942</v>
+        <v>40.437564400565527</v>
       </c>
       <c r="H13" s="3">
-        <v>483</v>
+        <v>284</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="4"/>
-        <v>109.79899541161878</v>
+        <v>119.4752129492126</v>
       </c>
       <c r="J13" s="10">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>48.673141554705118</v>
+        <v>54.310307473746164</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B14" s="10">
-        <v>1042</v>
+        <v>1143</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>49.556580921258586</v>
+        <v>53.110169275713822</v>
       </c>
       <c r="D14" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>35.186910469305417</v>
+        <v>33.187654192640338</v>
       </c>
       <c r="F14" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>36.244039203469846</v>
+        <v>38.04126428793942</v>
       </c>
       <c r="H14" s="3">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="4"/>
-        <v>94.734225592610386</v>
+        <v>109.79899541161878</v>
       </c>
       <c r="J14" s="10">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>47.83177350708705</v>
+        <v>48.673141554705118</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B15" s="10">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>46.932541564154029</v>
+        <v>49.556580921258586</v>
       </c>
       <c r="D15" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>29.98884414997621</v>
+        <v>35.186910469305417</v>
       </c>
       <c r="F15" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>37.741726773861153</v>
+        <v>36.244039203469846</v>
       </c>
       <c r="H15" s="3">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="4"/>
-        <v>77.17797461122754</v>
+        <v>94.734225592610386</v>
       </c>
       <c r="J15" s="10">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="3"/>
-        <v>50.482082857083967</v>
+        <v>47.83177350708705</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B16" s="10">
-        <v>889</v>
+        <v>1070</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>44.473109841997008</v>
+        <v>46.932541564154029</v>
       </c>
       <c r="D16" s="10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>27.98958787331113</v>
+        <v>29.98884414997621</v>
       </c>
       <c r="F16" s="3">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>44.631089597661216</v>
+        <v>37.741726773861153</v>
       </c>
       <c r="H16" s="3">
-        <v>269</v>
+        <v>429</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="4"/>
-        <v>58.462895182228671</v>
+        <v>77.17797461122754</v>
       </c>
       <c r="J16" s="10">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="3"/>
-        <v>49.430372797561382</v>
+        <v>50.482082857083967</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B17" s="10">
-        <v>644</v>
+        <v>889</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>43.194979970639807</v>
+        <v>44.473109841997008</v>
       </c>
       <c r="D17" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
-        <v>27.189885362645096</v>
+        <v>27.98958787331113</v>
       </c>
       <c r="F17" s="3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>41.635714456878574</v>
+        <v>44.631089597661216</v>
       </c>
       <c r="H17" s="3">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="4"/>
-        <v>49.829623247489252</v>
+        <v>58.462895182228671</v>
       </c>
       <c r="J17" s="10">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
-        <v>51.99654534279648</v>
+        <v>49.430372797561382</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B18" s="10">
-        <v>265</v>
+        <v>644</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>41.849070484892458</v>
+        <v>43.194979970639807</v>
       </c>
       <c r="D18" s="10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>27.189885362645096</v>
       </c>
       <c r="F18" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>37.442189259782893</v>
+        <v>41.635714456878574</v>
       </c>
       <c r="H18" s="3">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="4"/>
-        <v>50.640803160820475</v>
+        <v>49.829623247489252</v>
       </c>
       <c r="J18" s="10">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
-        <v>52.879981792795448</v>
+        <v>51.99654534279648</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B19" s="10">
-        <v>432</v>
+        <v>265</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>41.316516371826957</v>
+        <v>41.849070484892458</v>
       </c>
       <c r="D19" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
         <v>22.391670298648904</v>
       </c>
       <c r="F19" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>35.944501689391579</v>
+        <v>37.442189259782893</v>
       </c>
       <c r="H19" s="3">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="4"/>
-        <v>46.469020749402766</v>
+        <v>50.640803160820475</v>
       </c>
       <c r="J19" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
-        <v>52.543434573748222</v>
+        <v>52.879981792795448</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B20" s="10">
-        <v>776</v>
+        <v>432</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>41.035715112210603</v>
+        <v>41.316516371826957</v>
       </c>
       <c r="D20" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F20" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>34.446814119000265</v>
+        <v>35.944501689391579</v>
       </c>
       <c r="H20" s="3">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.469020749402766</v>
       </c>
       <c r="J20" s="10">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
-        <v>52.753776585652744</v>
+        <v>52.543434573748222</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B21" s="10">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>38.64406300444373</v>
+        <v>41.035715112210603</v>
       </c>
       <c r="D21" s="10">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F21" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
-        <v>31.750976492295894</v>
+        <v>34.446814119000265</v>
       </c>
       <c r="H21" s="3">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="4"/>
-        <v>40.095464287514609</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J21" s="10">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
-        <v>49.808988418989507</v>
+        <v>52.753776585652744</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B22" s="10">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>37.123863081693123</v>
+        <v>38.64406300444373</v>
       </c>
       <c r="D22" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
         <v>14.39464519198858</v>
       </c>
       <c r="F22" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>31.750976492295894</v>
       </c>
       <c r="H22" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="4"/>
-        <v>43.91959816464751</v>
+        <v>40.095464287514609</v>
       </c>
       <c r="J22" s="10">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
-        <v>43.162180842806784</v>
+        <v>49.808988418989507</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B23" s="10">
-        <v>757</v>
+        <v>816</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>37.211008300194749</v>
+        <v>37.123863081693123</v>
       </c>
       <c r="D23" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F23" s="3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="2"/>
-        <v>29.05513886559153</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H23" s="3">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>43.91959816464751</v>
       </c>
       <c r="J23" s="10">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
-        <v>41.731855161856075</v>
+        <v>43.162180842806784</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B24" s="10">
-        <v>505</v>
+        <v>757</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>37.211008300194749</v>
       </c>
       <c r="D24" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>11.195835149324452</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F24" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>26.958376267043683</v>
+        <v>29.05513886559153</v>
       </c>
       <c r="H24" s="3">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="4"/>
-        <v>46.295196482260366</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J24" s="10">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>41.269102735666138</v>
+        <v>41.731855161856075</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B25" s="10">
-        <v>210</v>
+        <v>505</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>36.087803261729334</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D25" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="1"/>
-        <v>8.7967276173263542</v>
+        <v>11.195835149324452</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
-        <v>30.253288921904577</v>
+        <v>26.958376267043683</v>
       </c>
       <c r="H25" s="3">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="4"/>
-        <v>42.413121182746664</v>
+        <v>46.295196482260366</v>
       </c>
       <c r="J25" s="10">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>41.100829126142528</v>
+        <v>41.269102735666138</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B26" s="10">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>36.562260562460416</v>
+        <v>36.087803261729334</v>
       </c>
       <c r="D26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
-        <v>9.1965788726593711</v>
+        <v>8.7967276173263542</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>30.852363950061104</v>
+        <v>30.253288921904577</v>
       </c>
       <c r="H26" s="3">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="4"/>
-        <v>46.005489370356358</v>
+        <v>42.413121182746664</v>
       </c>
       <c r="J26" s="10">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
@@ -3288,1654 +3288,1654 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B27" s="10">
-        <v>529</v>
+        <v>403</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>36.126534469952283</v>
+        <v>36.562260562460416</v>
       </c>
       <c r="D27" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
-        <v>9.9962813833254032</v>
+        <v>9.1965788726593711</v>
       </c>
       <c r="F27" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
-        <v>31.451438978217631</v>
+        <v>30.852363950061104</v>
       </c>
       <c r="H27" s="3">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="4"/>
-        <v>46.758727861306781</v>
+        <v>46.005489370356358</v>
       </c>
       <c r="J27" s="10">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
-        <v>40.511871492809881</v>
+        <v>41.100829126142528</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B28" s="10">
-        <v>614</v>
+        <v>529</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>37.888804444096294</v>
+        <v>36.126534469952283</v>
       </c>
       <c r="D28" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="1"/>
-        <v>9.5964301279923863</v>
+        <v>9.9962813833254032</v>
       </c>
       <c r="F28" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>35.644964175313319</v>
+        <v>31.451438978217631</v>
       </c>
       <c r="H28" s="3">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="4"/>
-        <v>47.222259240353189</v>
+        <v>46.758727861306781</v>
       </c>
       <c r="J28" s="10">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>43.078044038044979</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B29" s="10">
-        <v>825</v>
+        <v>614</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>38.585966192109311</v>
+        <v>37.888804444096294</v>
       </c>
       <c r="D29" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
         <v>9.5964301279923863</v>
       </c>
       <c r="F29" s="3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="2"/>
-        <v>36.543576717548106</v>
+        <v>35.644964175313319</v>
       </c>
       <c r="H29" s="3">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="4"/>
-        <v>46.237255059879566</v>
+        <v>47.222259240353189</v>
       </c>
       <c r="J29" s="10">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
-        <v>45.307669364232851</v>
+        <v>43.078044038044979</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B30" s="10">
-        <v>689</v>
+        <v>825</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>37.578954778312728</v>
+        <v>38.585966192109311</v>
       </c>
       <c r="D30" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F30" s="3">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>26.059763724808892</v>
+        <v>36.543576717548106</v>
       </c>
       <c r="H30" s="3">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.237255059879566</v>
       </c>
       <c r="J30" s="10">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
-        <v>48.168320726134283</v>
+        <v>45.307669364232851</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B31" s="10">
-        <v>457</v>
+        <v>689</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>38.653745806499465</v>
+        <v>37.578954778312728</v>
       </c>
       <c r="D31" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F31" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>26.059763724808892</v>
       </c>
       <c r="H31" s="3">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J31" s="10">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
-        <v>51.449656111844739</v>
+        <v>48.168320726134283</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B32" s="10">
-        <v>259</v>
+        <v>457</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>38.934547066115819</v>
+        <v>38.653745806499465</v>
       </c>
       <c r="D32" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F32" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
-        <v>23.064388584026261</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H32" s="3">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J32" s="10">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
-        <v>54.142033864222554</v>
+        <v>51.449656111844739</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B33" s="10">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>39.118520305174812</v>
+        <v>38.934547066115819</v>
       </c>
       <c r="D33" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
-        <v>15.994050213320644</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F33" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="2"/>
         <v>23.064388584026261</v>
       </c>
       <c r="H33" s="3">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="4"/>
-        <v>47.801673464161205</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J33" s="10">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
-        <v>54.941333509459717</v>
+        <v>54.142033864222554</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B34" s="10">
-        <v>711</v>
+        <v>358</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>40.580623415590999</v>
+        <v>39.118520305174812</v>
       </c>
       <c r="D34" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F34" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>23.064388584026261</v>
       </c>
       <c r="H34" s="3">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="4"/>
-        <v>48.49697053273082</v>
+        <v>47.801673464161205</v>
       </c>
       <c r="J34" s="10">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
-        <v>57.044753628504878</v>
+        <v>54.941333509459717</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B35" s="10">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>40.59998901970247</v>
+        <v>40.580623415590999</v>
       </c>
       <c r="D35" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F35" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="2"/>
-        <v>20.069013443243634</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H35" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="4"/>
-        <v>47.048434973210782</v>
+        <v>48.49697053273082</v>
       </c>
       <c r="J35" s="10">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
-        <v>58.222668895170173</v>
+        <v>57.044753628504878</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B36" s="10">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>41.907167297226877</v>
+        <v>40.59998901970247</v>
       </c>
       <c r="D36" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>15.194347702654612</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F36" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>20.668088471400157</v>
+        <v>20.069013443243634</v>
       </c>
       <c r="H36" s="3">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="4"/>
-        <v>47.743732041780397</v>
+        <v>47.048434973210782</v>
       </c>
       <c r="J36" s="10">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
-        <v>63.565355997544884</v>
+        <v>58.222668895170173</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B37" s="10">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>42.197651358898966</v>
+        <v>41.907167297226877</v>
       </c>
       <c r="D37" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
-        <v>13.594942681322548</v>
+        <v>15.194347702654612</v>
       </c>
       <c r="F37" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="2"/>
-        <v>25.460688696652372</v>
+        <v>20.668088471400157</v>
       </c>
       <c r="H37" s="3">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="4"/>
-        <v>50.29315462653566</v>
+        <v>47.743732041780397</v>
       </c>
       <c r="J37" s="10">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>61.588141085642427</v>
+        <v>63.565355997544884</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B38" s="10">
-        <v>486</v>
+        <v>800</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>40.861424675207346</v>
+        <v>42.197651358898966</v>
       </c>
       <c r="D38" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F38" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>27.856988809278473</v>
+        <v>25.460688696652372</v>
       </c>
       <c r="H38" s="3">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>50.29315462653566</v>
       </c>
       <c r="J38" s="10">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
-        <v>57.086822030885784</v>
+        <v>61.588141085642427</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B39" s="10">
-        <v>278</v>
+        <v>486</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>41.006666706043397</v>
+        <v>40.861424675207346</v>
       </c>
       <c r="D39" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F39" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="2"/>
         <v>27.856988809278473</v>
       </c>
       <c r="H39" s="3">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="4"/>
-        <v>49.192267601300436</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J39" s="10">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
-        <v>54.226170668984352</v>
+        <v>57.086822030885784</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B40" s="10">
-        <v>509</v>
+        <v>278</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>40.851741873151617</v>
+        <v>41.006666706043397</v>
       </c>
       <c r="D40" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F40" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
-        <v>27.257913781121946</v>
+        <v>27.856988809278473</v>
       </c>
       <c r="H40" s="3">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="4"/>
-        <v>46.642845016545174</v>
+        <v>49.192267601300436</v>
       </c>
       <c r="J40" s="10">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
-        <v>56.329590788029527</v>
+        <v>54.226170668984352</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B41" s="10">
-        <v>713</v>
+        <v>509</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>38.808670639391245</v>
+        <v>40.851741873151617</v>
       </c>
       <c r="D41" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F41" s="10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>27.257913781121946</v>
       </c>
       <c r="H41" s="10">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="4"/>
-        <v>42.239296915604264</v>
+        <v>46.642845016545174</v>
       </c>
       <c r="J41" s="10">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
-        <v>54.899265107078811</v>
+        <v>56.329590788029527</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B42" s="10">
-        <v>821</v>
+        <v>713</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>38.808670639391245</v>
       </c>
       <c r="D42" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F42" s="10">
         <v>15</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
-        <v>24.262538640339319</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H42" s="10">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="4"/>
-        <v>41.891648381319456</v>
+        <v>42.239296915604264</v>
       </c>
       <c r="J42" s="10">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="3"/>
-        <v>50.944835283273896</v>
+        <v>54.899265107078811</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B43" s="10">
-        <v>751</v>
+        <v>821</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>35.671442773332672</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D43" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F43" s="10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>24.262538640339319</v>
       </c>
       <c r="H43" s="10">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="4"/>
-        <v>37.951631659424955</v>
+        <v>41.891648381319456</v>
       </c>
       <c r="J43" s="10">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
-        <v>48.967620371371439</v>
+        <v>50.944835283273896</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B44" s="10">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>36.436384135735842</v>
+        <v>35.671442773332672</v>
       </c>
       <c r="D44" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F44" s="10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H44" s="10">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>36.329271832762508</v>
+        <v>37.951631659424955</v>
       </c>
       <c r="J44" s="10">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="3"/>
-        <v>51.786203330891965</v>
+        <v>48.967620371371439</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B45" s="10">
-        <v>501</v>
+        <v>662</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>37.394981539253742</v>
+        <v>36.436384135735842</v>
       </c>
       <c r="D45" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F45" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="2"/>
-        <v>14.976875703913157</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H45" s="10">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="4"/>
-        <v>34.764853428480876</v>
+        <v>36.329271832762508</v>
       </c>
       <c r="J45" s="10">
         <v>173</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="3"/>
-        <v>55.404085935649647</v>
+        <v>51.786203330891965</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B46" s="10">
-        <v>262</v>
+        <v>501</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>38.121191693433964</v>
+        <v>37.394981539253742</v>
       </c>
       <c r="D46" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F46" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>17.373175816539263</v>
+        <v>14.976875703913157</v>
       </c>
       <c r="H46" s="10">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="4"/>
-        <v>36.155447565620108</v>
+        <v>34.764853428480876</v>
       </c>
       <c r="J46" s="10">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="3"/>
-        <v>57.633711261837526</v>
+        <v>55.404085935649647</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B47" s="10">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>38.48913817155195</v>
+        <v>38.121191693433964</v>
       </c>
       <c r="D47" s="10">
         <v>1</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F47" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H47" s="10">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="4"/>
-        <v>36.387213255143315</v>
+        <v>36.155447565620108</v>
       </c>
       <c r="J47" s="10">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="3"/>
-        <v>56.876480018981269</v>
+        <v>57.633711261837526</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B48" s="10">
-        <v>532</v>
+        <v>298</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>40.183628531305807</v>
+        <v>38.48913817155195</v>
       </c>
       <c r="D48" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F48" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>16.474563274304476</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H48" s="10">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="4"/>
-        <v>39.921640020372202</v>
+        <v>36.387213255143315</v>
       </c>
       <c r="J48" s="10">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="3"/>
-        <v>59.316447357073656</v>
+        <v>56.876480018981269</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B49" s="10">
-        <v>678</v>
+        <v>532</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>42.643060253462835</v>
+        <v>40.183628531305807</v>
       </c>
       <c r="D49" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F49" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>16.474563274304476</v>
       </c>
       <c r="H49" s="10">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="4"/>
-        <v>41.312234157511433</v>
+        <v>39.921640020372202</v>
       </c>
       <c r="J49" s="10">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="3"/>
-        <v>63.186740376116752</v>
+        <v>59.316447357073656</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B50" s="10">
-        <v>830</v>
+        <v>678</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>43.417684417921748</v>
+        <v>42.643060253462835</v>
       </c>
       <c r="D50" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F50" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>23.963001126261055</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H50" s="10">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="4"/>
-        <v>39.979581442753009</v>
+        <v>41.312234157511433</v>
       </c>
       <c r="J50" s="10">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="3"/>
-        <v>64.617066057067476</v>
+        <v>63.186740376116752</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B51" s="10">
-        <v>761</v>
+        <v>830</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>42.371941795902217</v>
+        <v>43.417684417921748</v>
       </c>
       <c r="D51" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F51" s="10">
         <v>10</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>23.963001126261055</v>
       </c>
       <c r="H51" s="10">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="4"/>
-        <v>35.923681876096907</v>
+        <v>39.979581442753009</v>
       </c>
       <c r="J51" s="10">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="3"/>
-        <v>64.9956816784956</v>
+        <v>64.617066057067476</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B52" s="10">
-        <v>576</v>
+        <v>761</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>41.839387682836723</v>
+        <v>42.371941795902217</v>
       </c>
       <c r="D52" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F52" s="10">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>28.755601351513267</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H52" s="10">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="4"/>
-        <v>38.241338771328962</v>
+        <v>35.923681876096907</v>
       </c>
       <c r="J52" s="10">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="3"/>
-        <v>60.957115049928888</v>
+        <v>64.9956816784956</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B53" s="10">
-        <v>300</v>
+        <v>576</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>40.725865446427036</v>
+        <v>41.839387682836723</v>
       </c>
       <c r="D53" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F53" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="2"/>
-        <v>26.359301238887156</v>
+        <v>28.755601351513267</v>
       </c>
       <c r="H53" s="10">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>35.402209074669692</v>
+        <v>38.241338771328962</v>
       </c>
       <c r="J53" s="10">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="3"/>
-        <v>60.326089014215334</v>
+        <v>60.957115049928888</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B54" s="10">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>41.57795202733184</v>
+        <v>40.725865446427036</v>
       </c>
       <c r="D54" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="7">
         <f t="shared" si="1"/>
         <v>16.393901468653663</v>
       </c>
       <c r="F54" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>26.359301238887156</v>
       </c>
       <c r="H54" s="10">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="4"/>
-        <v>34.533087738957668</v>
+        <v>35.402209074669692</v>
       </c>
       <c r="J54" s="10">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="3"/>
-        <v>63.7756980094494</v>
+        <v>60.326089014215334</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B55" s="10">
-        <v>786</v>
+        <v>473</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>42.149237348620282</v>
+        <v>41.57795202733184</v>
       </c>
       <c r="D55" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
-        <v>16.793752723986675</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F55" s="10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H55" s="10">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="4"/>
-        <v>31.867782309440802</v>
+        <v>34.533087738957668</v>
       </c>
       <c r="J55" s="10">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="3"/>
-        <v>65.542570909447335</v>
+        <v>63.7756980094494</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B56" s="10">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>41.200322747158118</v>
+        <v>42.149237348620282</v>
       </c>
       <c r="D56" s="10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E56" s="7">
         <f t="shared" si="1"/>
-        <v>19.592711511317791</v>
+        <v>16.793752723986675</v>
       </c>
       <c r="F56" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H56" s="10">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="4"/>
-        <v>27.8118827427847</v>
+        <v>31.867782309440802</v>
       </c>
       <c r="J56" s="10">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="3"/>
-        <v>65.037750080876506</v>
+        <v>65.542570909447335</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B57" s="10">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>39.893144469633718</v>
+        <v>41.200322747158118</v>
       </c>
       <c r="D57" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E57" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>19.592711511317791</v>
       </c>
       <c r="F57" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="2"/>
-        <v>24.861613668495846</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H57" s="10">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="4"/>
-        <v>28.507179811354316</v>
+        <v>27.8118827427847</v>
       </c>
       <c r="J57" s="10">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="3"/>
-        <v>62.092961914213276</v>
+        <v>65.037750080876506</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B58" s="10">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>38.750573827056826</v>
+        <v>39.893144469633718</v>
       </c>
       <c r="D58" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58" s="7">
         <f t="shared" si="1"/>
-        <v>17.993306489985727</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F58" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>24.861613668495846</v>
       </c>
       <c r="H58" s="10">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="4"/>
-        <v>27.985707009927108</v>
+        <v>28.507179811354316</v>
       </c>
       <c r="J58" s="10">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="3"/>
-        <v>59.021968540407336</v>
+        <v>62.092961914213276</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B59" s="10">
-        <v>461</v>
+        <v>706</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>38.750573827056826</v>
       </c>
       <c r="D59" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="1"/>
-        <v>18.393157745318742</v>
+        <v>17.993306489985727</v>
       </c>
       <c r="F59" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="2"/>
-        <v>17.672713330617526</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H59" s="10">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="4"/>
-        <v>24.509221667079018</v>
+        <v>27.985707009927108</v>
       </c>
       <c r="J59" s="10">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="3"/>
-        <v>59.695062978501781</v>
+        <v>59.021968540407336</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B60" s="10">
-        <v>388</v>
+        <v>461</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>36.320190511067004</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D60" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E60" s="7">
         <f t="shared" si="1"/>
-        <v>21.991819043315886</v>
+        <v>18.393157745318742</v>
       </c>
       <c r="F60" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>15.575950732069684</v>
+        <v>17.672713330617526</v>
       </c>
       <c r="H60" s="10">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="4"/>
-        <v>24.393338822317414</v>
+        <v>24.509221667079018</v>
       </c>
       <c r="J60" s="10">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="3"/>
-        <v>59.232310552311851</v>
+        <v>59.695062978501781</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B61" s="10">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>36.320190511067004</v>
       </c>
       <c r="D61" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" si="1"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F61" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="2"/>
-        <v>14.677338189834897</v>
+        <v>15.575950732069684</v>
       </c>
       <c r="H61" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>24.393338822317414</v>
       </c>
       <c r="J61" s="10">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="3"/>
-        <v>58.811626528502821</v>
+        <v>59.232310552311851</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B62" s="10">
-        <v>688</v>
+        <v>532</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>35.729539585667091</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D62" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E62" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F62" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
-        <v>13.179650619443578</v>
+        <v>14.677338189834897</v>
       </c>
       <c r="H62" s="10">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="4"/>
-        <v>24.103631710413406</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J62" s="10">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="3"/>
-        <v>59.652994576120875</v>
+        <v>58.811626528502821</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B63" s="10">
-        <v>623</v>
+        <v>688</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>33.463763904624784</v>
+        <v>35.729539585667091</v>
       </c>
       <c r="D63" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F63" s="10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>13.179650619443578</v>
       </c>
       <c r="H63" s="10">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="4"/>
-        <v>23.640100331366995</v>
+        <v>24.103631710413406</v>
       </c>
       <c r="J63" s="10">
         <v>221</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="3"/>
-        <v>56.582001202314935</v>
+        <v>59.652994576120875</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B64" s="10">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>33.676785549850983</v>
+        <v>33.463763904624784</v>
       </c>
       <c r="D64" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F64" s="10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
-        <v>10.783350506817474</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H64" s="10">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="4"/>
-        <v>25.494225847552645</v>
+        <v>23.640100331366995</v>
       </c>
       <c r="J64" s="10">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="3"/>
-        <v>57.381300847552104</v>
+        <v>56.582001202314935</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B65" s="10">
-        <v>479</v>
+        <v>604</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>34.170608454693543</v>
+        <v>33.676785549850983</v>
       </c>
       <c r="D65" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="1"/>
-        <v>19.192860255984773</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F65" s="10">
         <v>6</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H65" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="4"/>
-        <v>25.378343002791041</v>
+        <v>25.494225847552645</v>
       </c>
       <c r="J65" s="10">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="3"/>
-        <v>59.737131380882687</v>
+        <v>57.381300847552104</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B66" s="10">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>36.678454187129248</v>
+        <v>34.170608454693543</v>
       </c>
       <c r="D66" s="10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="1"/>
-        <v>24.390926575313983</v>
+        <v>19.192860255984773</v>
       </c>
       <c r="F66" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>13.778725647600105</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H66" s="10">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="4"/>
-        <v>25.436284425171838</v>
+        <v>25.378343002791041</v>
       </c>
       <c r="J66" s="10">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="3"/>
-        <v>62.429509133260495</v>
+        <v>59.737131380882687</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B67" s="10">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>36.213679688453908</v>
+        <v>36.678454187129248</v>
       </c>
       <c r="D67" s="10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>24.390926575313983</v>
       </c>
       <c r="F67" s="10">
         <v>3</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="2"/>
-        <v>15.875488246147947</v>
+        <v>13.778725647600105</v>
       </c>
       <c r="H67" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I67" s="7">
         <f t="shared" si="4"/>
-        <v>25.725991537075849</v>
+        <v>25.436284425171838</v>
       </c>
       <c r="J67" s="10">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K67" s="7">
         <f t="shared" si="3"/>
-        <v>59.526789368978172</v>
+        <v>62.429509133260495</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B68" s="10">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" ref="C68:C131" si="5">IF(OR(ISBLANK(B68),ISBLANK(B74)),"",SUM(B68:B74)/$O$6*100000)</f>
-        <v>35.013012233542604</v>
+        <v>36.213679688453908</v>
       </c>
       <c r="D68" s="10">
         <v>2</v>
@@ -4945,1117 +4945,1117 @@
         <v>21.59196778798287</v>
       </c>
       <c r="F68" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" ref="G68:G131" si="7">IF(OR(ISBLANK(F68),ISBLANK(F74)),"",SUM(F68:F74)/$O$8*100000)</f>
         <v>15.875488246147947</v>
       </c>
       <c r="H68" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>25.725991537075849</v>
       </c>
       <c r="J68" s="10">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" ref="K68:K131" si="8">IF(OR(ISBLANK(J68),ISBLANK(J74)),"",SUM(J68:J74)/$O$10*100000)</f>
-        <v>59.106105345169134</v>
+        <v>59.526789368978172</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B69" s="10">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" si="5"/>
-        <v>34.645065755424618</v>
+        <v>35.013012233542604</v>
       </c>
       <c r="D69" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E69" s="7">
         <f t="shared" si="6"/>
-        <v>21.991819043315886</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F69" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="7"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H69" s="10">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" ref="I69:I132" si="9">IF(OR(ISBLANK(H69),ISBLANK(H75)),"",SUM(H69:H75)/$O$9*100000)</f>
-        <v>24.914811623744626</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J69" s="10">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="8"/>
-        <v>56.119248776125005</v>
+        <v>59.106105345169134</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B70" s="10">
-        <v>645</v>
+        <v>454</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="5"/>
-        <v>36.068437657617864</v>
+        <v>34.645065755424618</v>
       </c>
       <c r="D70" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="6"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F70" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="7"/>
-        <v>18.271788358774053</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H70" s="10">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="9"/>
-        <v>23.698041753747795</v>
+        <v>24.914811623744626</v>
       </c>
       <c r="J70" s="10">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="8"/>
-        <v>60.199883807072631</v>
+        <v>56.119248776125005</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B71" s="10">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="5"/>
-        <v>35.187302670545854</v>
+        <v>36.068437657617864</v>
       </c>
       <c r="D71" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E71" s="7">
         <f t="shared" si="6"/>
-        <v>23.191372809314934</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F71" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="7"/>
-        <v>17.373175816539263</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H71" s="10">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="9"/>
-        <v>19.700083609472497</v>
+        <v>23.698041753747795</v>
       </c>
       <c r="J71" s="10">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="8"/>
-        <v>59.190242149930945</v>
+        <v>60.199883807072631</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B72" s="10">
-        <v>738</v>
+        <v>655</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="5"/>
-        <v>33.550909123126416</v>
+        <v>35.187302670545854</v>
       </c>
       <c r="D72" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="6"/>
-        <v>20.392414021983821</v>
+        <v>23.191372809314934</v>
       </c>
       <c r="F72" s="10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="7"/>
-        <v>15.875488246147947</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H72" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I72" s="7">
         <f t="shared" si="9"/>
-        <v>17.440368136621238</v>
+        <v>19.700083609472497</v>
       </c>
       <c r="J72" s="10">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="8"/>
-        <v>56.413727592791325</v>
+        <v>59.190242149930945</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B73" s="10">
-        <v>389</v>
+        <v>738</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="5"/>
-        <v>31.004332182467756</v>
+        <v>33.550909123126416</v>
       </c>
       <c r="D73" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E73" s="7">
         <f t="shared" si="6"/>
-        <v>15.994050213320644</v>
+        <v>20.392414021983821</v>
       </c>
       <c r="F73" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="7"/>
-        <v>14.078263161678368</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H73" s="10">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I73" s="7">
         <f t="shared" si="9"/>
-        <v>15.412418353293189</v>
+        <v>17.440368136621238</v>
       </c>
       <c r="J73" s="10">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="8"/>
-        <v>54.983401911840609</v>
+        <v>56.413727592791325</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B74" s="10">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="5"/>
-        <v>31.265767837972639</v>
+        <v>31.004332182467756</v>
       </c>
       <c r="D74" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E74" s="7">
         <f t="shared" si="6"/>
-        <v>13.994793936655565</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F74" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="7"/>
-        <v>12.580575591287054</v>
+        <v>14.078263161678368</v>
       </c>
       <c r="H74" s="10">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I74" s="7">
         <f t="shared" si="9"/>
-        <v>13.90594137139235</v>
+        <v>15.412418353293189</v>
       </c>
       <c r="J74" s="10">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="8"/>
-        <v>56.708206409457652</v>
+        <v>54.983401911840609</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B75" s="10">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="5"/>
-        <v>30.694482516684193</v>
+        <v>31.265767837972639</v>
       </c>
       <c r="D75" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" s="7">
         <f t="shared" si="6"/>
         <v>13.994793936655565</v>
       </c>
       <c r="F75" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>12.580575591287054</v>
       </c>
       <c r="H75" s="10">
         <v>30</v>
       </c>
       <c r="I75" s="7">
         <f t="shared" si="9"/>
-        <v>13.036820035680329</v>
+        <v>13.90594137139235</v>
       </c>
       <c r="J75" s="10">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="8"/>
-        <v>55.782701557077772</v>
+        <v>56.708206409457652</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B76" s="10">
-        <v>601</v>
+        <v>357</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="5"/>
-        <v>30.142562799507225</v>
+        <v>30.694482516684193</v>
       </c>
       <c r="D76" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E76" s="7">
         <f t="shared" si="6"/>
-        <v>14.39464519198858</v>
+        <v>13.994793936655565</v>
       </c>
       <c r="F76" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="7"/>
-        <v>13.479188133521841</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H76" s="10">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I76" s="7">
         <f t="shared" si="9"/>
-        <v>12.747112923776323</v>
+        <v>13.036820035680329</v>
       </c>
       <c r="J76" s="10">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="8"/>
-        <v>56.539932799934029</v>
+        <v>55.782701557077772</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B77" s="10">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="5"/>
-        <v>27.867104316409186</v>
+        <v>30.142562799507225</v>
       </c>
       <c r="D77" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E77" s="7">
         <f t="shared" si="6"/>
-        <v>13.594942681322548</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F77" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="7"/>
-        <v>10.783350506817474</v>
+        <v>13.479188133521841</v>
       </c>
       <c r="H77" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" s="7">
         <f t="shared" si="9"/>
-        <v>11.008870252352278</v>
+        <v>12.747112923776323</v>
       </c>
       <c r="J77" s="10">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="8"/>
-        <v>53.637213035651705</v>
+        <v>56.539932799934029</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B78" s="10">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="5"/>
-        <v>25.272113365471846</v>
+        <v>27.867104316409186</v>
       </c>
       <c r="D78" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F78" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G78" s="7">
         <f t="shared" si="7"/>
         <v>10.783350506817474</v>
       </c>
       <c r="H78" s="10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="9"/>
-        <v>9.4444518480706368</v>
+        <v>11.008870252352278</v>
       </c>
       <c r="J78" s="10">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="8"/>
-        <v>50.103467235655835</v>
+        <v>53.637213035651705</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B79" s="10">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="5"/>
-        <v>23.606671411885195</v>
+        <v>25.272113365471846</v>
       </c>
       <c r="D79" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F79" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G79" s="7">
         <f t="shared" si="7"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H79" s="10">
         <v>29</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="9"/>
-        <v>8.865037624262623</v>
+        <v>9.4444518480706368</v>
       </c>
       <c r="J79" s="10">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="8"/>
-        <v>47.95797871422976</v>
+        <v>50.103467235655835</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B80" s="10">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="5"/>
-        <v>21.234384908229792</v>
+        <v>23.606671411885195</v>
       </c>
       <c r="D80" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E80" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F80" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" si="7"/>
-        <v>9.5852004505044217</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H80" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="9"/>
-        <v>7.7641505990273956</v>
+        <v>8.865037624262623</v>
       </c>
       <c r="J80" s="10">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="8"/>
-        <v>43.582864866615822</v>
+        <v>47.95797871422976</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B81" s="10">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="5"/>
-        <v>18.968609227187489</v>
+        <v>21.234384908229792</v>
       </c>
       <c r="D81" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E81" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F81" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>9.5852004505044217</v>
       </c>
       <c r="H81" s="10">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I81" s="7">
         <f t="shared" si="9"/>
-        <v>6.7212049961729692</v>
+        <v>7.7641505990273956</v>
       </c>
       <c r="J81" s="10">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="8"/>
-        <v>40.511871492809881</v>
+        <v>43.582864866615822</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B82" s="10">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="5"/>
-        <v>17.390312492102463</v>
+        <v>18.968609227187489</v>
       </c>
       <c r="D82" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E82" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F82" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="7"/>
-        <v>8.9861254223478948</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H82" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I82" s="7">
         <f t="shared" si="9"/>
-        <v>6.0838493499841535</v>
+        <v>6.7212049961729692</v>
       </c>
       <c r="J82" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="8"/>
-        <v>36.683646876147677</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B83" s="10">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="5"/>
-        <v>15.782967350850232</v>
+        <v>17.390312492102463</v>
       </c>
       <c r="D83" s="10">
         <v>4</v>
       </c>
       <c r="E83" s="7">
         <f t="shared" si="6"/>
-        <v>11.995537659990484</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F83" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="7"/>
-        <v>8.0875128801131062</v>
+        <v>8.9861254223478948</v>
       </c>
       <c r="H83" s="10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I83" s="7">
         <f t="shared" si="9"/>
-        <v>5.0988451695105281</v>
+        <v>6.0838493499841535</v>
       </c>
       <c r="J83" s="10">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="8"/>
-        <v>33.486448295199025</v>
+        <v>36.683646876147677</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B84" s="10">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="5"/>
-        <v>13.981966168483272</v>
+        <v>15.782967350850232</v>
       </c>
       <c r="D84" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F84" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="7"/>
-        <v>8.6865879082696313</v>
+        <v>8.0875128801131062</v>
       </c>
       <c r="H84" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="9"/>
-        <v>5.388552281414535</v>
+        <v>5.0988451695105281</v>
       </c>
       <c r="J84" s="10">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="K84" s="7">
         <f t="shared" si="8"/>
-        <v>29.616155276155926</v>
+        <v>33.486448295199025</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B85" s="10">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="5"/>
-        <v>12.597325474512976</v>
+        <v>13.981966168483272</v>
       </c>
       <c r="D85" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E85" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F85" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>8.6865879082696313</v>
       </c>
       <c r="H85" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I85" s="7">
         <f t="shared" si="9"/>
-        <v>5.0409037471297271</v>
+        <v>5.388552281414535</v>
       </c>
       <c r="J85" s="10">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="8"/>
-        <v>26.839640719016305</v>
+        <v>29.616155276155926</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B86" s="10">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="5"/>
-        <v>10.960931927093537</v>
+        <v>12.597325474512976</v>
       </c>
       <c r="D86" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E86" s="7">
         <f t="shared" si="6"/>
-        <v>9.5964301279923863</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F86" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G86" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H86" s="10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I86" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>5.0409037471297271</v>
       </c>
       <c r="J86" s="10">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="8"/>
-        <v>22.801074090449589</v>
+        <v>26.839640719016305</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B87" s="10">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="5"/>
-        <v>9.8861408989068025</v>
+        <v>10.960931927093537</v>
       </c>
       <c r="D87" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E87" s="7">
         <f t="shared" si="6"/>
-        <v>7.5971738513273062</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F87" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="7"/>
-        <v>5.9907502815652638</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H87" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I87" s="7">
         <f t="shared" si="9"/>
-        <v>4.6932552128449183</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J87" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="8"/>
-        <v>19.856285923786359</v>
+        <v>22.801074090449589</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B88" s="10">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="5"/>
-        <v>8.927543495388905</v>
+        <v>9.8861408989068025</v>
       </c>
       <c r="D88" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" si="6"/>
-        <v>5.5979175746622261</v>
+        <v>7.5971738513273062</v>
       </c>
       <c r="F88" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>5.9907502815652638</v>
       </c>
       <c r="H88" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I88" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>4.6932552128449183</v>
       </c>
       <c r="J88" s="10">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="8"/>
-        <v>17.121839769027645</v>
+        <v>19.856285923786359</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B89" s="10">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="5"/>
-        <v>8.4530861946578231</v>
+        <v>8.927543495388905</v>
       </c>
       <c r="D89" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89" s="7">
         <f t="shared" si="6"/>
-        <v>3.9985125533301611</v>
+        <v>5.5979175746622261</v>
       </c>
       <c r="F89" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" si="7"/>
-        <v>5.3916752534087369</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H89" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I89" s="7">
         <f t="shared" si="9"/>
-        <v>5.330610859033734</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J89" s="10">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="8"/>
-        <v>15.354966869029704</v>
+        <v>17.121839769027645</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B90" s="10">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="5"/>
-        <v>7.8430696651464347</v>
+        <v>8.4530861946578231</v>
       </c>
       <c r="D90" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90" s="7">
         <f t="shared" si="6"/>
-        <v>2.798958787331113</v>
+        <v>3.9985125533301611</v>
       </c>
       <c r="F90" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G90" s="7">
         <f t="shared" si="7"/>
-        <v>4.4930627111739474</v>
+        <v>5.3916752534087369</v>
       </c>
       <c r="H90" s="10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I90" s="7">
         <f t="shared" si="9"/>
-        <v>5.15678659189133</v>
+        <v>5.330610859033734</v>
       </c>
       <c r="J90" s="10">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="8"/>
-        <v>13.125341542841829</v>
+        <v>15.354966869029704</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B91" s="10">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="5"/>
-        <v>7.5719512075858173</v>
+        <v>7.8430696651464347</v>
       </c>
       <c r="D91" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" si="6"/>
-        <v>1.1995537659990483</v>
+        <v>2.798958787331113</v>
       </c>
       <c r="F91" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G91" s="7">
         <f t="shared" si="7"/>
-        <v>5.6912127674869994</v>
+        <v>4.4930627111739474</v>
       </c>
       <c r="H91" s="10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I91" s="7">
         <f t="shared" si="9"/>
-        <v>4.9250209023681242</v>
+        <v>5.15678659189133</v>
       </c>
       <c r="J91" s="10">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="8"/>
-        <v>10.895716216653955</v>
+        <v>13.125341542841829</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B92" s="10">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="5"/>
-        <v>7.6494136240317072</v>
+        <v>7.5719512075858173</v>
       </c>
       <c r="D92" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="7">
         <f t="shared" si="6"/>
-        <v>0.79970251066603215</v>
+        <v>1.1995537659990483</v>
       </c>
       <c r="F92" s="10">
         <v>2</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="7"/>
-        <v>7.7879753660348419</v>
+        <v>5.6912127674869994</v>
       </c>
       <c r="H92" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I92" s="7">
         <f t="shared" si="9"/>
-        <v>5.2147280142721311</v>
+        <v>4.9250209023681242</v>
       </c>
       <c r="J92" s="10">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="8"/>
-        <v>9.8860745595122772</v>
+        <v>10.895716216653955</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B93" s="10">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="5"/>
-        <v>8.1432365288742616</v>
+        <v>7.6494136240317072</v>
       </c>
       <c r="D93" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>0.79970251066603215</v>
       </c>
       <c r="F93" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>7.7879753660348419</v>
       </c>
       <c r="H93" s="10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I93" s="7">
         <f t="shared" si="9"/>
-        <v>7.9379748661697995</v>
+        <v>5.2147280142721311</v>
       </c>
       <c r="J93" s="10">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="8"/>
-        <v>8.7922960976087907</v>
+        <v>9.8860745595122772</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B94" s="10">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="5"/>
-        <v>7.9398976857037979</v>
+        <v>8.1432365288742616</v>
       </c>
       <c r="D94" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F94" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" s="7">
         <f t="shared" si="7"/>
-        <v>11.382425534973999</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H94" s="10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I94" s="7">
         <f t="shared" si="9"/>
         <v>7.9379748661697995</v>
       </c>
       <c r="J94" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="8"/>
-        <v>8.4136804761806605</v>
+        <v>8.7922960976087907</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B95" s="10">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="5"/>
-        <v>8.114188122707052</v>
+        <v>7.9398976857037979</v>
       </c>
       <c r="D95" s="10">
         <v>0</v>
       </c>
       <c r="E95" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F95" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>11.382425534973999</v>
       </c>
       <c r="H95" s="10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I95" s="7">
         <f t="shared" si="9"/>
-        <v>8.4594476675970114</v>
+        <v>7.9379748661697995</v>
       </c>
       <c r="J95" s="10">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>8.4136804761806605</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B96" s="10">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="5"/>
-        <v>7.8914836754251159</v>
+        <v>8.114188122707052</v>
       </c>
       <c r="D96" s="10">
         <v>0</v>
@@ -6065,277 +6065,277 @@
         <v>2.3991075319980966</v>
       </c>
       <c r="F96" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H96" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I96" s="7">
         <f t="shared" si="9"/>
-        <v>8.0538577109314033</v>
+        <v>8.4594476675970114</v>
       </c>
       <c r="J96" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="8"/>
-        <v>10.180553376178599</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B97" s="10">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="5"/>
-        <v>7.5235371973071361</v>
+        <v>7.8914836754251159</v>
       </c>
       <c r="D97" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="7">
         <f t="shared" si="6"/>
         <v>2.3991075319980966</v>
       </c>
       <c r="F97" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="7"/>
         <v>11.981500563130528</v>
       </c>
       <c r="H97" s="10">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="9"/>
         <v>8.0538577109314033</v>
       </c>
       <c r="J97" s="10">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="8"/>
-        <v>10.306758583321308</v>
+        <v>10.180553376178599</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B98" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="5"/>
-        <v>6.6230366061236561</v>
+        <v>7.5235371973071361</v>
       </c>
       <c r="D98" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F98" s="10">
         <v>9</v>
       </c>
       <c r="G98" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H98" s="10">
         <v>19</v>
       </c>
       <c r="I98" s="7">
         <f t="shared" si="9"/>
-        <v>7.0109121080769761</v>
+        <v>8.0538577109314033</v>
       </c>
       <c r="J98" s="10">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K98" s="7">
         <f t="shared" si="8"/>
-        <v>10.517100595225825</v>
+        <v>10.306758583321308</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B99" s="10">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="5"/>
-        <v>5.4030035471008766</v>
+        <v>6.6230366061236561</v>
       </c>
       <c r="D99" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E99" s="7">
         <f t="shared" si="6"/>
         <v>1.9992562766650805</v>
       </c>
       <c r="F99" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H99" s="10">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I99" s="7">
         <f t="shared" si="9"/>
-        <v>5.9679665052225497</v>
+        <v>7.0109121080769761</v>
       </c>
       <c r="J99" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>10.517100595225825</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B100" s="10">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="5"/>
-        <v>3.7956584058486449</v>
+        <v>5.4030035471008766</v>
       </c>
       <c r="D100" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E100" s="7">
         <f t="shared" si="6"/>
-        <v>0.39985125533301608</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F100" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G100" s="7">
         <f t="shared" si="7"/>
-        <v>1.7972250844695792</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H100" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I100" s="7">
         <f t="shared" si="9"/>
-        <v>2.7232468518976685</v>
+        <v>5.9679665052225497</v>
       </c>
       <c r="J100" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="8"/>
-        <v>9.2129801214178233</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B101" s="10">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="5"/>
-        <v>2.9726202311110557</v>
+        <v>3.7956584058486449</v>
       </c>
       <c r="D101" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" s="7">
         <f t="shared" si="6"/>
         <v>0.39985125533301608</v>
       </c>
       <c r="F101" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G101" s="7">
         <f t="shared" si="7"/>
-        <v>1.4976875703913159</v>
+        <v>1.7972250844695792</v>
       </c>
       <c r="H101" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I101" s="7">
         <f t="shared" si="9"/>
-        <v>2.0858912057088523</v>
+        <v>2.7232468518976685</v>
       </c>
       <c r="J101" s="10">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="8"/>
-        <v>8.5398856833233694</v>
+        <v>9.2129801214178233</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B102" s="10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="5"/>
-        <v>2.0430712337603674</v>
+        <v>2.9726202311110557</v>
       </c>
       <c r="D102" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.39985125533301608</v>
       </c>
       <c r="F102" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G102" s="7">
         <f t="shared" si="7"/>
-        <v>0.29953751407826318</v>
+        <v>1.4976875703913159</v>
       </c>
       <c r="H102" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I102" s="7">
         <f t="shared" si="9"/>
-        <v>1.390594137139235</v>
+        <v>2.0858912057088523</v>
       </c>
       <c r="J102" s="10">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K102" s="7">
         <f t="shared" si="8"/>
-        <v>5.8895763333264624</v>
+        <v>8.5398856833233694</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B103" s="10">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="5"/>
-        <v>1.5976623391964959</v>
+        <v>2.0430712337603674</v>
       </c>
       <c r="D103" s="10">
         <v>0</v>
@@ -6345,37 +6345,37 @@
         <v>0</v>
       </c>
       <c r="F103" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.29953751407826318</v>
       </c>
       <c r="H103" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I103" s="7">
         <f t="shared" si="9"/>
-        <v>0.75323849095041895</v>
+        <v>1.390594137139235</v>
       </c>
       <c r="J103" s="10">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K103" s="7">
         <f t="shared" si="8"/>
-        <v>4.6695926642802661</v>
+        <v>5.8895763333264624</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B104" s="10">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="5"/>
-        <v>1.3071782775244056</v>
+        <v>1.5976623391964959</v>
       </c>
       <c r="D104" s="10">
         <v>0</v>
@@ -6392,30 +6392,30 @@
         <v>0</v>
       </c>
       <c r="H104" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I104" s="7">
         <f t="shared" si="9"/>
-        <v>0.57941422380801455</v>
+        <v>0.75323849095041895</v>
       </c>
       <c r="J104" s="10">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K104" s="7">
         <f t="shared" si="8"/>
-        <v>3.8282246166622</v>
+        <v>4.6695926642802661</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B105" s="10">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="5"/>
-        <v>0.81335537268185243</v>
+        <v>1.3071782775244056</v>
       </c>
       <c r="D105" s="10">
         <v>0</v>
@@ -6436,26 +6436,26 @@
       </c>
       <c r="I105" s="7">
         <f t="shared" si="9"/>
-        <v>0.69529706856961748</v>
+        <v>0.57941422380801455</v>
       </c>
       <c r="J105" s="10">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K105" s="7">
         <f t="shared" si="8"/>
-        <v>2.3978989357114884</v>
+        <v>3.8282246166622</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B106" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="5"/>
-        <v>0.58096812334418035</v>
+        <v>0.81335537268185243</v>
       </c>
       <c r="D106" s="10">
         <v>0</v>
@@ -6476,26 +6476,26 @@
       </c>
       <c r="I106" s="7">
         <f t="shared" si="9"/>
-        <v>0.63735564618881602</v>
+        <v>0.69529706856961748</v>
       </c>
       <c r="J106" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K106" s="7">
         <f t="shared" si="8"/>
-        <v>1.5144624857125188</v>
+        <v>2.3978989357114884</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B107" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="5"/>
-        <v>0.30016686372782653</v>
+        <v>0.58096812334418035</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -6512,30 +6512,30 @@
         <v>0</v>
       </c>
       <c r="H107" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" s="7">
         <f t="shared" si="9"/>
         <v>0.63735564618881602</v>
       </c>
       <c r="J107" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K107" s="7">
         <f t="shared" si="8"/>
-        <v>0.63102603571354954</v>
+        <v>1.5144624857125188</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B108" s="10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" si="5"/>
-        <v>0.17429043700325408</v>
+        <v>0.30016686372782653</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
@@ -6552,30 +6552,30 @@
         <v>0</v>
       </c>
       <c r="H108" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" s="7">
         <f t="shared" si="9"/>
-        <v>0.52147280142721308</v>
+        <v>0.63735564618881602</v>
       </c>
       <c r="J108" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K108" s="7">
         <f t="shared" si="8"/>
-        <v>0.21034201190451648</v>
+        <v>0.63102603571354954</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B109" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C109" s="7">
         <f t="shared" si="5"/>
-        <v>0.12587642672457242</v>
+        <v>0.17429043700325408</v>
       </c>
       <c r="D109" s="10">
         <v>0</v>
@@ -6592,26 +6592,26 @@
         <v>0</v>
       </c>
       <c r="H109" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I109" s="7">
         <f t="shared" si="9"/>
-        <v>0.34764853428480874</v>
+        <v>0.52147280142721308</v>
       </c>
       <c r="J109" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" s="7">
         <f t="shared" si="8"/>
-        <v>0.1682736095236132</v>
+        <v>0.21034201190451648</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B110" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C110" s="7">
         <f t="shared" si="5"/>
@@ -6632,14 +6632,14 @@
         <v>0</v>
       </c>
       <c r="H110" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" s="7">
         <f t="shared" si="9"/>
         <v>0.34764853428480874</v>
       </c>
       <c r="J110" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" s="7">
         <f t="shared" si="8"/>
@@ -6648,14 +6648,14 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B111" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C111" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363378E-2</v>
+        <v>0.12587642672457242</v>
       </c>
       <c r="D111" s="10">
         <v>0</v>
@@ -6672,30 +6672,30 @@
         <v>0</v>
       </c>
       <c r="H111" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" s="7">
         <f t="shared" si="9"/>
-        <v>0.23176568952320581</v>
+        <v>0.34764853428480874</v>
       </c>
       <c r="J111" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K111" s="7">
         <f t="shared" si="8"/>
-        <v>0.12620520714270991</v>
+        <v>0.1682736095236132</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B112" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C112" s="7">
         <f t="shared" si="5"/>
-        <v>1.936560411147268E-2</v>
+        <v>9.6828020557363378E-2</v>
       </c>
       <c r="D112" s="10">
         <v>0</v>
@@ -6712,30 +6712,30 @@
         <v>0</v>
       </c>
       <c r="H112" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I112" s="7">
         <f t="shared" si="9"/>
-        <v>5.7941422380801452E-2</v>
+        <v>0.23176568952320581</v>
       </c>
       <c r="J112" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K112" s="7">
         <f t="shared" si="8"/>
-        <v>4.20684023809033E-2</v>
+        <v>0.12620520714270991</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B113" s="10">
         <v>1</v>
       </c>
       <c r="C113" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>1.936560411147268E-2</v>
       </c>
       <c r="D113" s="10">
         <v>0</v>
@@ -6752,30 +6752,30 @@
         <v>0</v>
       </c>
       <c r="H113" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" s="7">
         <f t="shared" si="9"/>
         <v>5.7941422380801452E-2</v>
       </c>
       <c r="J113" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.20684023809033E-2</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B114" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D114" s="10">
         <v>0</v>
@@ -6792,11 +6792,11 @@
         <v>0</v>
       </c>
       <c r="H114" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.7941422380801452E-2</v>
       </c>
       <c r="J114" s="10">
         <v>0</v>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B115" s="10">
         <v>0</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B116" s="10">
         <v>0</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -7008,7 +7008,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
@@ -7368,14 +7368,14 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B129" s="10">
         <v>0</v>
       </c>
       <c r="C129" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>0</v>
       </c>
       <c r="D129" s="10">
         <v>0</v>
@@ -7408,47 +7408,47 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B130" s="10">
         <v>0</v>
       </c>
-      <c r="C130" s="7" t="str">
+      <c r="C130" s="7">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D130" s="10">
         <v>0</v>
       </c>
-      <c r="E130" s="7" t="str">
+      <c r="E130" s="7">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F130" s="10">
         <v>0</v>
       </c>
-      <c r="G130" s="7" t="str">
+      <c r="G130" s="7">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H130" s="10">
         <v>0</v>
       </c>
-      <c r="I130" s="7" t="str">
+      <c r="I130" s="7">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J130" s="10">
         <v>0</v>
       </c>
-      <c r="K130" s="7" t="str">
+      <c r="K130" s="7">
         <f t="shared" si="8"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B131" s="10">
         <v>0</v>
@@ -7488,7 +7488,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B132" s="10">
         <v>0</v>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B133" s="10">
         <v>0</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B134" s="10">
         <v>0</v>
@@ -7608,10 +7608,10 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B135" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" s="7" t="str">
         <f t="shared" si="10"/>
@@ -7647,28 +7647,40 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="10"/>
+      <c r="A136" s="4">
+        <v>43865</v>
+      </c>
+      <c r="B136" s="10">
+        <v>1</v>
+      </c>
       <c r="C136" s="7" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D136" s="10"/>
+      <c r="D136" s="10">
+        <v>0</v>
+      </c>
       <c r="E136" s="7" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F136" s="10"/>
+      <c r="F136" s="10">
+        <v>0</v>
+      </c>
       <c r="G136" s="7" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H136" s="10"/>
+      <c r="H136" s="10">
+        <v>0</v>
+      </c>
       <c r="I136" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J136" s="10"/>
+      <c r="J136" s="10">
+        <v>0</v>
+      </c>
       <c r="K136" s="7" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -31862,14 +31874,14 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B4" s="11">
-        <v>1247</v>
+        <v>683</v>
       </c>
       <c r="C4" s="9">
         <f>IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/D4*100000)</f>
-        <v>69.172924947278233</v>
+        <v>67.601705754835791</v>
       </c>
       <c r="D4">
         <v>10183175</v>
@@ -31882,14 +31894,14 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B5" s="10">
-        <v>1396</v>
+        <v>1247</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C68" si="0">IF(OR(ISBLANK(B5),ISBLANK(B11)),"",SUM(B5:B11)/D5*100000)</f>
-        <v>66.236709081401429</v>
+        <v>69.172924947278233</v>
       </c>
       <c r="D5">
         <v>10183175</v>
@@ -31902,14 +31914,14 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B6" s="10">
-        <v>1474</v>
+        <v>1396</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>62.897868297461251</v>
+        <v>66.236709081401429</v>
       </c>
       <c r="D6">
         <v>10183175</v>
@@ -31924,14 +31936,14 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B7" s="10">
-        <v>890</v>
+        <v>1474</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>59.02874103607175</v>
+        <v>62.897868297461251</v>
       </c>
       <c r="D7" s="13">
         <v>10183175</v>
@@ -31948,14 +31960,14 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B8" s="10">
-        <v>791</v>
+        <v>890</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>72.030579853532913</v>
+        <v>59.02874103607175</v>
       </c>
       <c r="D8" s="13">
         <v>10183175</v>
@@ -31970,14 +31982,14 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B9" s="10">
-        <v>403</v>
+        <v>791</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>71.873457934288666</v>
+        <v>72.030579853532913</v>
       </c>
       <c r="D9" s="13">
         <v>10183175</v>
@@ -31992,14 +32004,14 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B10" s="10">
-        <v>843</v>
+        <v>403</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>70.587022220476413</v>
+        <v>71.873457934288666</v>
       </c>
       <c r="D10" s="13">
         <v>10183175</v>
@@ -32014,14 +32026,14 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B11" s="10">
-        <v>948</v>
+        <v>843</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>66.521492560031618</v>
+        <v>70.587022220476413</v>
       </c>
       <c r="D11" s="13">
         <v>10183175</v>
@@ -32036,14 +32048,14 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B12" s="10">
-        <v>1056</v>
+        <v>948</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>63.467435254721636</v>
+        <v>66.521492560031618</v>
       </c>
       <c r="D12" s="13">
         <v>10183175</v>
@@ -32058,14 +32070,14 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B13" s="10">
-        <v>1080</v>
+        <v>1056</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>60.452658429222708</v>
+        <v>63.467435254721636</v>
       </c>
       <c r="D13" s="13">
         <v>10183175</v>
@@ -32080,14 +32092,14 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B14" s="10">
-        <v>2214</v>
+        <v>1080</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>56.121985530053252</v>
+        <v>60.452658429222708</v>
       </c>
       <c r="D14" s="13">
         <v>10183175</v>
@@ -32102,14 +32114,14 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B15" s="10">
-        <v>775</v>
+        <v>2214</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>40.743677684022906</v>
+        <v>56.121985530053252</v>
       </c>
       <c r="D15" s="13">
         <v>10183175</v>
@@ -32124,14 +32136,14 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B16" s="10">
-        <v>272</v>
+        <v>775</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>38.995696332430697</v>
+        <v>40.743677684022906</v>
       </c>
       <c r="D16" s="13">
         <v>10183175</v>
@@ -32146,14 +32158,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B17" s="10">
-        <v>429</v>
+        <v>272</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>40.095549767140405</v>
+        <v>38.995696332430697</v>
       </c>
       <c r="D17" s="13">
         <v>10183175</v>
@@ -32168,14 +32180,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B18" s="10">
-        <v>637</v>
+        <v>429</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>38.543970814603497</v>
+        <v>40.095549767140405</v>
       </c>
       <c r="D18" s="13">
         <v>10183175</v>
@@ -32190,14 +32202,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B19" s="10">
-        <v>749</v>
+        <v>637</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>36.010379866790075</v>
+        <v>38.543970814603497</v>
       </c>
       <c r="D19" s="13">
         <v>10183175</v>
@@ -32212,14 +32224,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B20" s="10">
-        <v>639</v>
+        <v>749</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>34.910526432080367</v>
+        <v>36.010379866790075</v>
       </c>
       <c r="D20" s="13">
         <v>10183175</v>
@@ -32234,14 +32246,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B21" s="10">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>35.008727631608025</v>
+        <v>34.910526432080367</v>
       </c>
       <c r="D21" s="13">
         <v>10183175</v>
@@ -32256,14 +32268,14 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B22" s="10">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>35.755056748018177</v>
+        <v>35.008727631608025</v>
       </c>
       <c r="D22" s="13">
         <v>10183175</v>
@@ -32278,14 +32290,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B23" s="10">
-        <v>384</v>
+        <v>597</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>34.036535756284266</v>
+        <v>35.755056748018177</v>
       </c>
       <c r="D23" s="13">
         <v>10183175</v>
@@ -32300,14 +32312,14 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B24" s="10">
-        <v>271</v>
+        <v>384</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>32.563517763369482</v>
+        <v>34.036535756284266</v>
       </c>
       <c r="D24" s="13">
         <v>10183175</v>
@@ -32322,14 +32334,14 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B25" s="10">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>34.478441154158702</v>
+        <v>32.563517763369482</v>
       </c>
       <c r="D25" s="13">
         <v>10183175</v>
@@ -32344,14 +32356,14 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B26" s="10">
-        <v>637</v>
+        <v>379</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>35.372072069860337</v>
+        <v>34.478441154158702</v>
       </c>
       <c r="D26" s="13">
         <v>10183175</v>
@@ -32366,14 +32378,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B27" s="10">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>35.254230630427152</v>
+        <v>35.372072069860337</v>
       </c>
       <c r="D27" s="13">
         <v>10183175</v>
@@ -32388,14 +32400,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B28" s="10">
-        <v>724</v>
+        <v>649</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>35.489913509293515</v>
+        <v>35.254230630427152</v>
       </c>
       <c r="D28" s="13">
         <v>10183175</v>
@@ -32410,14 +32422,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B29" s="10">
-        <v>422</v>
+        <v>724</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>34.635563073402942</v>
+        <v>35.489913509293515</v>
       </c>
       <c r="D29" s="13">
         <v>10183175</v>
@@ -32432,14 +32444,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B30" s="10">
-        <v>234</v>
+        <v>422</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>36.403184664900685</v>
+        <v>34.635563073402942</v>
       </c>
       <c r="D30" s="13">
         <v>10183175</v>
@@ -32454,14 +32466,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B31" s="10">
-        <v>466</v>
+        <v>234</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>37.52267833951592</v>
+        <v>36.403184664900685</v>
       </c>
       <c r="D31" s="13">
         <v>10183175</v>
@@ -32476,14 +32488,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B32" s="10">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>36.884370542586176</v>
+        <v>37.52267833951592</v>
       </c>
       <c r="D32" s="13">
         <v>10183175</v>
@@ -32498,14 +32510,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B33" s="10">
-        <v>625</v>
+        <v>470</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>38.710912853800508</v>
+        <v>36.884370542586176</v>
       </c>
       <c r="D33" s="13">
         <v>10183175</v>
@@ -32520,14 +32532,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B34" s="10">
-        <v>673</v>
+        <v>625</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>38.877854892997519</v>
+        <v>38.710912853800508</v>
       </c>
       <c r="D34" s="13">
         <v>10183175</v>
@@ -32542,14 +32554,14 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B35" s="10">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>39.192098731486006</v>
+        <v>38.877854892997519</v>
       </c>
       <c r="D35" s="13">
         <v>10183175</v>
@@ -32564,14 +32576,14 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B36" s="10">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>39.830406528415743</v>
+        <v>39.192098731486006</v>
       </c>
       <c r="D36" s="13">
         <v>10183175</v>
@@ -32586,14 +32598,14 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B37" s="10">
-        <v>348</v>
+        <v>602</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>38.779653693469868</v>
+        <v>39.830406528415743</v>
       </c>
       <c r="D37" s="13">
         <v>10183175</v>
@@ -32608,14 +32620,14 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B38" s="10">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>39.329580410824718</v>
+        <v>38.779653693469868</v>
       </c>
       <c r="D38" s="13">
         <v>10183175</v>
@@ -32630,14 +32642,14 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B39" s="10">
-        <v>656</v>
+        <v>401</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>37.699440498665695</v>
+        <v>39.329580410824718</v>
       </c>
       <c r="D39" s="13">
         <v>10183175</v>
@@ -32652,14 +32664,14 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B40" s="10">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>36.776349223105761</v>
+        <v>37.699440498665695</v>
       </c>
       <c r="D40" s="13">
         <v>10183175</v>
@@ -32674,14 +32686,14 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B41" s="10">
-        <v>705</v>
+        <v>642</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>34.674843553214004</v>
+        <v>36.776349223105761</v>
       </c>
       <c r="D41" s="13">
         <v>10183175</v>
@@ -32696,14 +32708,14 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B42" s="10">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>35.50955374919905</v>
+        <v>34.674843553214004</v>
       </c>
       <c r="D42" s="13">
         <v>10183175</v>
@@ -32718,14 +32730,14 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B43" s="10">
-        <v>495</v>
+        <v>702</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>35.303331230190977</v>
+        <v>35.50955374919905</v>
       </c>
       <c r="D43" s="13">
         <v>10183175</v>
@@ -32740,14 +32752,14 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B44" s="10">
-        <v>404</v>
+        <v>495</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>37.267355220744022</v>
+        <v>35.303331230190977</v>
       </c>
       <c r="D44" s="13">
         <v>10183175</v>
@@ -32762,14 +32774,14 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B45" s="10">
-        <v>235</v>
+        <v>404</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>36.108581066317726</v>
+        <v>37.267355220744022</v>
       </c>
       <c r="D45" s="13">
         <v>10183175</v>
@@ -32784,14 +32796,14 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B46" s="10">
-        <v>562</v>
+        <v>235</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>38.347568415548196</v>
+        <v>36.108581066317726</v>
       </c>
       <c r="D46" s="13">
         <v>10183175</v>
@@ -32806,14 +32818,14 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B47" s="10">
-        <v>428</v>
+        <v>562</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>38.818934173280923</v>
+        <v>38.347568415548196</v>
       </c>
       <c r="D47" s="13">
         <v>10183175</v>
@@ -32828,14 +32840,14 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B48" s="10">
-        <v>790</v>
+        <v>428</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>42.589860235142773</v>
+        <v>38.818934173280923</v>
       </c>
       <c r="D48" s="13">
         <v>10183175</v>
@@ -32850,14 +32862,14 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B49" s="10">
-        <v>681</v>
+        <v>790</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>42.206875556984933</v>
+        <v>42.589860235142773</v>
       </c>
       <c r="D49" s="13">
         <v>10183175</v>
@@ -32872,14 +32884,14 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B50" s="10">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>42.216695676937697</v>
+        <v>42.206875556984933</v>
       </c>
       <c r="D50" s="13">
         <v>10183175</v>
@@ -32894,14 +32906,14 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B51" s="10">
-        <v>286</v>
+        <v>695</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>40.743677684022906</v>
+        <v>42.216695676937697</v>
       </c>
       <c r="D51" s="13">
         <v>10183175</v>
@@ -32916,14 +32928,14 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B52" s="10">
-        <v>463</v>
+        <v>286</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>41.784610399016024</v>
+        <v>40.743677684022906</v>
       </c>
       <c r="D52" s="13">
         <v>10183175</v>
@@ -32938,14 +32950,14 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B53" s="10">
-        <v>610</v>
+        <v>463</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>42.766622394292547</v>
+        <v>41.784610399016024</v>
       </c>
       <c r="D53" s="13">
         <v>10183175</v>
@@ -32960,14 +32972,14 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B54" s="10">
-        <v>812</v>
+        <v>610</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>42.727341914481485</v>
+        <v>42.766622394292547</v>
       </c>
       <c r="D54" s="13">
         <v>10183175</v>
@@ -32982,14 +32994,14 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B55" s="10">
-        <v>751</v>
+        <v>812</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>41.391805600905414</v>
+        <v>42.727341914481485</v>
       </c>
       <c r="D55" s="13">
         <v>10183175</v>
@@ -33004,14 +33016,14 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B56" s="10">
-        <v>682</v>
+        <v>751</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>40.036629047423816</v>
+        <v>41.391805600905414</v>
       </c>
       <c r="D56" s="13">
         <v>10183175</v>
@@ -33026,14 +33038,14 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B57" s="10">
-        <v>545</v>
+        <v>682</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>38.072605056870771</v>
+        <v>40.036629047423816</v>
       </c>
       <c r="D57" s="13">
         <v>10183175</v>
@@ -33048,14 +33060,14 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B58" s="10">
-        <v>392</v>
+        <v>545</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>37.601239299138037</v>
+        <v>38.072605056870771</v>
       </c>
       <c r="D58" s="13">
         <v>10183175</v>
@@ -33070,14 +33082,14 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B59" s="10">
-        <v>563</v>
+        <v>392</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>38.318108055689898</v>
+        <v>37.601239299138037</v>
       </c>
       <c r="D59" s="13">
         <v>10183175</v>
@@ -33092,14 +33104,14 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B60" s="10">
-        <v>606</v>
+        <v>563</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>36.049660346601136</v>
+        <v>38.318108055689898</v>
       </c>
       <c r="D60" s="13">
         <v>10183175</v>
@@ -33114,14 +33126,14 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B61" s="10">
-        <v>676</v>
+        <v>606</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>34.674843553214004</v>
+        <v>36.049660346601136</v>
       </c>
       <c r="D61" s="13">
         <v>10183175</v>
@@ -33136,14 +33148,14 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B62" s="10">
-        <v>613</v>
+        <v>676</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>33.378587719448994</v>
+        <v>34.674843553214004</v>
       </c>
       <c r="D62" s="13">
         <v>10183175</v>
@@ -33158,14 +33170,14 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B63" s="10">
-        <v>482</v>
+        <v>613</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>34.448980794300404</v>
+        <v>33.378587719448994</v>
       </c>
       <c r="D63" s="13">
         <v>10183175</v>
@@ -33180,14 +33192,14 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B64" s="10">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>36.845090062775121</v>
+        <v>34.448980794300404</v>
       </c>
       <c r="D64" s="13">
         <v>10183175</v>
@@ -33202,14 +33214,14 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B65" s="10">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>36.746888863247463</v>
+        <v>36.845090062775121</v>
       </c>
       <c r="D65" s="13">
         <v>10183175</v>
@@ -33224,14 +33236,14 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B66" s="10">
-        <v>332</v>
+        <v>465</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>35.872898187451362</v>
+        <v>36.746888863247463</v>
       </c>
       <c r="D66" s="13">
         <v>10183175</v>
@@ -33246,14 +33258,14 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B67" s="10">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>36.413004784853449</v>
+        <v>35.872898187451362</v>
       </c>
       <c r="D67" s="13">
         <v>10183175</v>
@@ -33268,14 +33280,14 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B68" s="10">
-        <v>544</v>
+        <v>466</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" si="0"/>
-        <v>35.421172669624163</v>
+        <v>36.413004784853449</v>
       </c>
       <c r="D68" s="13">
         <v>10183175</v>
@@ -33290,14 +33302,14 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B69" s="10">
-        <v>722</v>
+        <v>544</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" ref="C69:C132" si="1">IF(OR(ISBLANK(B69),ISBLANK(B75)),"",SUM(B69:B75)/D69*100000)</f>
-        <v>36.088940826412191</v>
+        <v>35.421172669624163</v>
       </c>
       <c r="D69" s="13">
         <v>10183175</v>
@@ -33312,14 +33324,14 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B70" s="10">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="1"/>
-        <v>34.095456476000855</v>
+        <v>36.088940826412191</v>
       </c>
       <c r="D70" s="13">
         <v>10183175</v>
@@ -33334,14 +33346,14 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B71" s="10">
-        <v>487</v>
+        <v>726</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="1"/>
-        <v>31.993950806109098</v>
+        <v>34.095456476000855</v>
       </c>
       <c r="D71" s="13">
         <v>10183175</v>
@@ -33356,14 +33368,14 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B72" s="10">
-        <v>376</v>
+        <v>487</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="1"/>
-        <v>31.208341209887877</v>
+        <v>31.993950806109098</v>
       </c>
       <c r="D72" s="13">
         <v>10183175</v>
@@ -33378,14 +33390,14 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B73" s="10">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="1"/>
-        <v>30.736975452155146</v>
+        <v>31.208341209887877</v>
       </c>
       <c r="D73" s="13">
         <v>10183175</v>
@@ -33400,14 +33412,14 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B74" s="10">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="1"/>
-        <v>29.421079378484606</v>
+        <v>30.736975452155146</v>
       </c>
       <c r="D74" s="13">
         <v>10183175</v>
@@ -33422,14 +33434,14 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B75" s="10">
-        <v>612</v>
+        <v>365</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="1"/>
-        <v>29.774603696784155</v>
+        <v>29.421079378484606</v>
       </c>
       <c r="D75" s="13">
         <v>10183175</v>
@@ -33444,14 +33456,14 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B76" s="10">
-        <v>519</v>
+        <v>612</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="1"/>
-        <v>26.121519074355493</v>
+        <v>29.774603696784155</v>
       </c>
       <c r="D76" s="13">
         <v>10183175</v>
@@ -33466,14 +33478,14 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B77" s="10">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="1"/>
-        <v>23.931632324888849</v>
+        <v>26.121519074355493</v>
       </c>
       <c r="D77" s="13">
         <v>10183175</v>
@@ -33488,14 +33500,14 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B78" s="10">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="1"/>
-        <v>21.240919457831176</v>
+        <v>23.931632324888849</v>
       </c>
       <c r="D78" s="13">
         <v>10183175</v>
@@ -33510,14 +33522,14 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B79" s="10">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="1"/>
-        <v>19.758081344963628</v>
+        <v>21.240919457831176</v>
       </c>
       <c r="D79" s="13">
         <v>10183175</v>
@@ -33532,14 +33544,14 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B80" s="10">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="1"/>
-        <v>17.617295195260809</v>
+        <v>19.758081344963628</v>
       </c>
       <c r="D80" s="13">
         <v>10183175</v>
@@ -33554,14 +33566,14 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B81" s="10">
-        <v>401</v>
+        <v>253</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="1"/>
-        <v>16.704024039653646</v>
+        <v>17.617295195260809</v>
       </c>
       <c r="D81" s="13">
         <v>10183175</v>
@@ -33576,14 +33588,14 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B82" s="10">
-        <v>240</v>
+        <v>401</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="1"/>
-        <v>13.974030692784911</v>
+        <v>16.704024039653646</v>
       </c>
       <c r="D82" s="13">
         <v>10183175</v>
@@ -33598,14 +33610,14 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B83" s="10">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="1"/>
-        <v>13.581225894674303</v>
+        <v>13.974030692784911</v>
       </c>
       <c r="D83" s="13">
         <v>10183175</v>
@@ -33620,14 +33632,14 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B84" s="10">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="1"/>
-        <v>11.872525022893154</v>
+        <v>13.581225894674303</v>
       </c>
       <c r="D84" s="13">
         <v>10183175</v>
@@ -33642,14 +33654,14 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B85" s="10">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="1"/>
-        <v>10.851232547805571</v>
+        <v>11.872525022893154</v>
       </c>
       <c r="D85" s="13">
         <v>10183175</v>
@@ -33664,14 +33676,14 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B86" s="10">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="1"/>
-        <v>8.7890073577248753</v>
+        <v>10.851232547805571</v>
       </c>
       <c r="D86" s="13">
         <v>10183175</v>
@@ -33686,14 +33698,14 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B87" s="10">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="1"/>
-        <v>8.5827848387168046</v>
+        <v>8.7890073577248753</v>
       </c>
       <c r="D87" s="13">
         <v>10183175</v>
@@ -33708,14 +33720,14 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B88" s="10">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="1"/>
-        <v>8.0721386011730143</v>
+        <v>8.5827848387168046</v>
       </c>
       <c r="D88" s="13">
         <v>10183175</v>
@@ -33730,14 +33742,14 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B89" s="10">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="1"/>
-        <v>8.3274617199449086</v>
+        <v>8.0721386011730143</v>
       </c>
       <c r="D89" s="13">
         <v>10183175</v>
@@ -33752,14 +33764,14 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B90" s="10">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="1"/>
-        <v>7.8855563220704736</v>
+        <v>8.3274617199449086</v>
       </c>
       <c r="D90" s="13">
         <v>10183175</v>
@@ -33774,14 +33786,14 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B91" s="10">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="1"/>
-        <v>8.2390806403700214</v>
+        <v>7.8855563220704736</v>
       </c>
       <c r="D91" s="13">
         <v>10183175</v>
@@ -33796,14 +33808,14 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B92" s="10">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="1"/>
-        <v>8.2587208802755523</v>
+        <v>8.2390806403700214</v>
       </c>
       <c r="D92" s="13">
         <v>10183175</v>
@@ -33818,14 +33830,14 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B93" s="10">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="1"/>
-        <v>8.5729647187640392</v>
+        <v>8.2587208802755523</v>
       </c>
       <c r="D93" s="13">
         <v>10183175</v>
@@ -33840,14 +33852,14 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B94" s="10">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="1"/>
-        <v>8.1408794408423706</v>
+        <v>8.5729647187640392</v>
       </c>
       <c r="D94" s="13">
         <v>10183175</v>
@@ -33862,14 +33874,14 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B95" s="10">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="1"/>
-        <v>7.492751523959865</v>
+        <v>8.1408794408423706</v>
       </c>
       <c r="D95" s="13">
         <v>10183175</v>
@@ -33884,14 +33896,14 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B96" s="10">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="1"/>
-        <v>6.2652365298642119</v>
+        <v>7.492751523959865</v>
       </c>
       <c r="D96" s="13">
         <v>10183175</v>
@@ -33906,14 +33918,14 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B97" s="10">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="1"/>
-        <v>5.48944705359576</v>
+        <v>6.2652365298642119</v>
       </c>
       <c r="D97" s="13">
         <v>10183175</v>
@@ -33928,14 +33940,14 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B98" s="10">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="1"/>
-        <v>4.1931912198307497</v>
+        <v>5.48944705359576</v>
       </c>
       <c r="D98" s="13">
         <v>10183175</v>
@@ -33950,14 +33962,14 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B99" s="10">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="1"/>
-        <v>2.9656762257350975</v>
+        <v>4.1931912198307497</v>
       </c>
       <c r="D99" s="13">
         <v>10183175</v>
@@ -33972,14 +33984,14 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B100" s="10">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="1"/>
-        <v>2.2880879489942969</v>
+        <v>2.9656762257350975</v>
       </c>
       <c r="D100" s="13">
         <v>10183175</v>
@@ -33994,14 +34006,14 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B101" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="1"/>
-        <v>1.856002671072627</v>
+        <v>2.2880879489942969</v>
       </c>
       <c r="D101" s="13">
         <v>10183175</v>
@@ -34016,14 +34028,14 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B102" s="10">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="1"/>
-        <v>1.4533777530092531</v>
+        <v>1.856002671072627</v>
       </c>
       <c r="D102" s="13">
         <v>10183175</v>
@@ -34038,14 +34050,14 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B103" s="10">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="1"/>
-        <v>1.2275149940956529</v>
+        <v>1.4533777530092531</v>
       </c>
       <c r="D103" s="13">
         <v>10183175</v>
@@ -34060,14 +34072,14 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B104" s="10">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="1"/>
-        <v>0.530286477449322</v>
+        <v>1.2275149940956529</v>
       </c>
       <c r="D104" s="13">
         <v>10183175</v>
@@ -34082,14 +34094,14 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B105" s="10">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="1"/>
-        <v>0.32406395844125235</v>
+        <v>0.530286477449322</v>
       </c>
       <c r="D105" s="13">
         <v>10183175</v>
@@ -34104,14 +34116,14 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B106" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="1"/>
-        <v>0.22586275891360011</v>
+        <v>0.32406395844125235</v>
       </c>
       <c r="D106" s="13">
         <v>10183175</v>
@@ -34126,14 +34138,14 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B107" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="1"/>
-        <v>0.13748167933871314</v>
+        <v>0.22586275891360011</v>
       </c>
       <c r="D107" s="13">
         <v>10183175</v>
@@ -34148,14 +34160,14 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B108" s="10">
         <v>1</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" si="1"/>
-        <v>0.12766155938594789</v>
+        <v>0.13748167933871314</v>
       </c>
       <c r="D108" s="13">
         <v>10183175</v>
@@ -34170,14 +34182,14 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B109" s="10">
         <v>1</v>
       </c>
       <c r="C109" s="7">
         <f t="shared" si="1"/>
-        <v>0.11784143943318268</v>
+        <v>0.12766155938594789</v>
       </c>
       <c r="D109" s="13">
         <v>10183175</v>
@@ -34192,14 +34204,14 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B110" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C110" s="7">
         <f t="shared" si="1"/>
-        <v>0.10802131948041746</v>
+        <v>0.11784143943318268</v>
       </c>
       <c r="D110" s="13">
         <v>10183175</v>
@@ -34214,14 +34226,14 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B111" s="10">
         <v>5</v>
       </c>
       <c r="C111" s="7">
         <f t="shared" si="1"/>
-        <v>5.8920719716591338E-2</v>
+        <v>0.10802131948041746</v>
       </c>
       <c r="D111" s="13">
         <v>10183175</v>
@@ -34236,14 +34248,14 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B112" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C112" s="7">
         <f t="shared" si="1"/>
-        <v>9.820119952765223E-3</v>
+        <v>5.8920719716591338E-2</v>
       </c>
       <c r="D112" s="13">
         <v>10183175</v>
@@ -34258,14 +34270,14 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B113" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.820119952765223E-3</v>
       </c>
       <c r="D113" s="13">
         <v>10183175</v>
@@ -34280,7 +34292,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B114" s="10">
         <v>0</v>
@@ -34302,7 +34314,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B115" s="10">
         <v>0</v>
@@ -34324,7 +34336,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B116" s="10">
         <v>0</v>
@@ -34346,7 +34358,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -34368,7 +34380,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -34390,7 +34402,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -34412,7 +34424,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -34434,7 +34446,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -34456,7 +34468,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
@@ -34478,7 +34490,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
@@ -34500,7 +34512,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
@@ -34522,7 +34534,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
@@ -34544,7 +34556,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
@@ -34566,7 +34578,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -34588,7 +34600,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
@@ -34610,7 +34622,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B129" s="10">
         <v>0</v>
@@ -34632,7 +34644,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B130" s="10">
         <v>0</v>
@@ -34654,7 +34666,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B131" s="10">
         <v>0</v>
@@ -34676,14 +34688,14 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B132" s="10">
         <v>0</v>
       </c>
       <c r="C132" s="7">
         <f t="shared" si="1"/>
-        <v>9.820119952765223E-3</v>
+        <v>0</v>
       </c>
       <c r="D132" s="13">
         <v>10183175</v>
@@ -34698,7 +34710,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B133" s="10">
         <v>0</v>
@@ -34720,7 +34732,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B134" s="10">
         <v>0</v>
@@ -34742,7 +34754,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B135" s="10">
         <v>0</v>
@@ -34764,7 +34776,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="B136" s="10">
         <v>0</v>
@@ -34786,7 +34798,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>43863</v>
+        <v>43864</v>
       </c>
       <c r="B137" s="10">
         <v>0</v>
@@ -34808,10 +34820,10 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>43862</v>
+        <v>43863</v>
       </c>
       <c r="B138" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" s="7">
         <f t="shared" si="2"/>
@@ -34830,14 +34842,14 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="B139" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.820119952765223E-3</v>
       </c>
       <c r="D139" s="13">
         <v>10183175</v>
@@ -34852,7 +34864,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="B140" s="10">
         <v>0</v>
@@ -34874,7 +34886,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="B141" s="10">
         <v>0</v>
@@ -34896,7 +34908,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B142" s="10">
         <v>0</v>
@@ -34918,7 +34930,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>43857</v>
+        <v>43858</v>
       </c>
       <c r="B143" s="10">
         <v>0</v>
@@ -34940,7 +34952,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>43856</v>
+        <v>43857</v>
       </c>
       <c r="B144" s="10">
         <v>0</v>
@@ -34962,7 +34974,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>43855</v>
+        <v>43856</v>
       </c>
       <c r="B145" s="10">
         <v>0</v>
@@ -34984,7 +34996,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>43854</v>
+        <v>43855</v>
       </c>
       <c r="B146" s="10">
         <v>0</v>
@@ -35006,7 +35018,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>43853</v>
+        <v>43854</v>
       </c>
       <c r="B147" s="10">
         <v>0</v>
@@ -35028,7 +35040,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="B148" s="10">
         <v>0</v>
@@ -35050,7 +35062,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="B149" s="10">
         <v>0</v>
@@ -35072,7 +35084,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="B150" s="10">
         <v>0</v>
@@ -35094,7 +35106,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>43849</v>
+        <v>43850</v>
       </c>
       <c r="B151" s="10">
         <v>0</v>
@@ -35116,7 +35128,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="B152" s="10">
         <v>0</v>
@@ -35138,7 +35150,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>43847</v>
+        <v>43848</v>
       </c>
       <c r="B153" s="10">
         <v>0</v>
@@ -35160,7 +35172,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="B154" s="10">
         <v>0</v>
@@ -35182,7 +35194,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="B155" s="10">
         <v>0</v>
@@ -35204,7 +35216,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="B156" s="10">
         <v>0</v>
@@ -35226,7 +35238,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>43843</v>
+        <v>43844</v>
       </c>
       <c r="B157" s="10">
         <v>0</v>
@@ -35248,7 +35260,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>43842</v>
+        <v>43843</v>
       </c>
       <c r="B158" s="10">
         <v>0</v>
@@ -35270,7 +35282,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>43841</v>
+        <v>43842</v>
       </c>
       <c r="B159" s="10">
         <v>0</v>
@@ -35292,7 +35304,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>43840</v>
+        <v>43841</v>
       </c>
       <c r="B160" s="10">
         <v>0</v>
@@ -35314,7 +35326,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>43839</v>
+        <v>43840</v>
       </c>
       <c r="B161" s="10">
         <v>0</v>
@@ -35336,7 +35348,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>43838</v>
+        <v>43839</v>
       </c>
       <c r="B162" s="10">
         <v>0</v>
@@ -35358,7 +35370,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="B163" s="10">
         <v>0</v>
@@ -35380,7 +35392,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="B164" s="10">
         <v>0</v>
@@ -35402,14 +35414,14 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>43835</v>
+        <v>43836</v>
       </c>
       <c r="B165" s="10">
         <v>0</v>
       </c>
-      <c r="C165" s="7" t="str">
+      <c r="C165" s="7">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D165" s="13">
         <v>10183175</v>
@@ -35424,7 +35436,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>43834</v>
+        <v>43835</v>
       </c>
       <c r="B166" s="10">
         <v>0</v>
@@ -35446,7 +35458,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>43833</v>
+        <v>43834</v>
       </c>
       <c r="B167" s="10">
         <v>0</v>
@@ -35468,7 +35480,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>43832</v>
+        <v>43833</v>
       </c>
       <c r="B168" s="10">
         <v>0</v>
@@ -35490,7 +35502,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>43831</v>
+        <v>43832</v>
       </c>
       <c r="B169" s="10">
         <v>0</v>
@@ -35512,7 +35524,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="B170" s="10">
         <v>0</v>
@@ -35533,13 +35545,19 @@
       <c r="K170" s="10"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
-      <c r="B171" s="10"/>
+      <c r="A171" s="4">
+        <v>43830</v>
+      </c>
+      <c r="B171" s="10">
+        <v>0</v>
+      </c>
       <c r="C171" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D171" s="13"/>
+      <c r="D171" s="13">
+        <v>10183175</v>
+      </c>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAC92D9-9905-4937-9462-29BDF568FFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A6A259-6CCB-42A6-AD80-947737EF4F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="3180" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <t>Einwohner</t>
   </si>
   <si>
-    <t>Datenabruf: Montag 2020-06-15 22:14</t>
+    <t>Datenabruf: Mittwoch 2020-06-17 00:29</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Montag 2020-06-15 22:14</a:t>
+              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Mittwoch 2020-06-17 00:29</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -394,187 +394,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43996</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,187 +586,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>64.409999274758121</c:v>
+                  <c:v>64.439047680925327</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.321851305275601</c:v>
+                  <c:v>71.459079171334182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.44238495548187</c:v>
+                  <c:v>70.055072873252414</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>70.471433361649076</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>67.692469171652746</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>65.291134261830123</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>62.33787963483055</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>58.300151177588504</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>57.854742283024628</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>58.832705290653998</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>56.925193285673934</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>53.110169275713822</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>49.556580921258586</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>46.932541564154029</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>44.473109841997008</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43.194979970639807</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>41.849070484892458</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>41.316516371826957</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>41.035715112210603</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>38.64406300444373</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>37.123863081693123</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>37.211008300194749</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>36.087803261729334</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>36.562260562460416</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>36.126534469952283</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>37.888804444096294</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>38.585966192109311</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>37.578954778312728</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>38.653745806499465</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>38.934547066115819</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>39.118520305174812</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>40.580623415590999</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>40.59998901970247</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>41.907167297226877</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>42.197651358898966</c:v>
+                  <c:v>41.916850099282613</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.861424675207346</c:v>
+                  <c:v>42.217016963010437</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41.006666706043397</c:v>
+                  <c:v>40.880790279318823</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40.851741873151617</c:v>
+                  <c:v>41.026032310154868</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.808670639391245</c:v>
+                  <c:v>40.871107477263088</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>38.828036243502723</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37.07544907141444</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.681125575388407</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36.436384135735842</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37.394981539253742</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38.121191693433964</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>38.48913817155195</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40.183628531305807</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42.643060253462835</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43.417684417921748</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42.371941795902217</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41.839387682836723</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>40.725865446427036</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41.57795202733184</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42.149237348620282</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41.200322747158118</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39.893144469633718</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>38.750573827056826</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36.552577760404681</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36.320190511067004</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>37.056083467302969</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>35.671442773332672</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>36.436384135735842</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>37.394981539253742</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>38.121191693433964</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>38.48913817155195</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>40.183628531305807</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>42.643060253462835</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43.417684417921748</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>42.371941795902217</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>41.839387682836723</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>40.725865446427036</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>41.57795202733184</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>42.149237348620282</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>41.200322747158118</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>39.893144469633718</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>38.750573827056826</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>36.552577760404681</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>36.320190511067004</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>37.056083467302969</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>35.729539585667091</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>33.463763904624784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,187 +830,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43996</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,187 +1022,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>71.195869657547874</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>67.601705754835791</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>69.172924947278233</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>66.236709081401429</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>62.897868297461251</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>59.02874103607175</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>72.030579853532913</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>71.873457934288666</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>70.587022220476413</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>66.521492560031618</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>63.467435254721636</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>60.452658429222708</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>56.121985530053252</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>40.743677684022906</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>38.995696332430697</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>40.095549767140405</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>38.543970814603497</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>36.010379866790075</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>34.910526432080367</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>35.008727631608025</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>35.755056748018177</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>34.036535756284266</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>32.563517763369482</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>34.478441154158702</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>35.372072069860337</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>35.254230630427152</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>35.489913509293515</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>34.635563073402942</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>36.403184664900685</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>37.52267833951592</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>36.884370542586176</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>38.710912853800508</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>38.877854892997519</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>39.192098731486006</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>39.830406528415743</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>38.779653693469868</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>39.329580410824718</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>37.699440498665695</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>36.776349223105761</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>34.674843553214004</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>35.50955374919905</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>35.303331230190977</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>37.267355220744022</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>36.108581066317726</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>38.347568415548196</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>38.818934173280923</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>42.589860235142773</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>42.206875556984933</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>42.216695676937697</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>40.743677684022906</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>41.784610399016024</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>42.766622394292547</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>42.727341914481485</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>41.391805600905414</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>40.036629047423816</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>38.072605056870771</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>37.601239299138037</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>38.318108055689898</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>36.049660346601136</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>34.674843553214004</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>33.378587719448994</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>34.448980794300404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,187 +1247,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43996</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,187 +1439,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>60.377539555285431</c:v>
+                  <c:v>74.372333491940992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.57337470460989</c:v>
+                  <c:v>78.770697300604169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.179473235956216</c:v>
+                  <c:v>71.973225959942909</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>55.579324491289242</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>45.18319185263082</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>35.186910469305417</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>37.985869256636533</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>39.185423022635582</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>38.385720511969545</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34.787059213972405</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>34.787059213972405</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>34.787059213972405</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>33.187654192640338</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>35.186910469305417</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>29.98884414997621</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>27.98958787331113</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>27.189885362645096</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.59196778798287</c:v>
+                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.39464519198858</c:v>
+                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>14.39464519198858</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>11.195835149324452</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>8.7967276173263542</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>9.1965788726593711</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>9.9962813833254032</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>9.5964301279923863</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>12.395388915323501</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>15.994050213320644</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>15.194347702654612</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>13.594942681322548</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>17.193603979319693</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>17.193603979319693</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>16.393901468653663</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>16.793752723986675</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>19.592711511317791</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>17.993306489985727</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>18.393157745318742</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>22.391670298648904</c:v>
+                  <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>18.793009000651757</c:v>
+                  <c:v>22.391670298648904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,8 +1646,8 @@
         <c:axId val="271719768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43997"/>
-          <c:min val="43941"/>
+          <c:max val="44004"/>
+          <c:min val="43948"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2335,82 +2335,82 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B4" s="11">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C67" si="0">IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/$O$6*100000)</f>
-        <v>64.409999274758121</v>
+        <v>64.439047680925327</v>
       </c>
       <c r="D4" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:E67" si="1">IF(OR(ISBLANK(D4),ISBLANK(D10)),"",SUM(D4:D10)/$O$7*100000)</f>
-        <v>60.377539555285431</v>
+        <v>74.372333491940992</v>
       </c>
       <c r="F4" s="12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G67" si="2">IF(OR(ISBLANK(F4),ISBLANK(F10)),"",SUM(F4:F10)/$O$8*100000)</f>
-        <v>40.138026886487268</v>
+        <v>36.843114231626373</v>
       </c>
       <c r="H4" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I4" s="9">
         <f>IF(OR(ISBLANK(H4),ISBLANK(H10)),"",SUM(H4:H10)/$O$9*100000)</f>
-        <v>141.02942207487075</v>
+        <v>145.72267728771567</v>
       </c>
       <c r="J4" s="11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K67" si="3">IF(OR(ISBLANK(J4),ISBLANK(J10)),"",SUM(J4:J10)/$O$10*100000)</f>
-        <v>49.598646407084992</v>
+        <v>47.116610666611699</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B5" s="10">
-        <v>243</v>
+        <v>688</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>68.321851305275601</v>
+        <v>71.459079171334182</v>
       </c>
       <c r="D5" s="10">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>71.57337470460989</v>
+        <v>78.770697300604169</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="2"/>
-        <v>45.230164625817736</v>
+        <v>43.432939541348162</v>
       </c>
       <c r="H5" s="3">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" ref="I5:I68" si="4">IF(OR(ISBLANK(H5),ISBLANK(H11)),"",SUM(H5:H11)/$O$9*100000)</f>
-        <v>146.99738858009329</v>
+        <v>157.77449314292238</v>
       </c>
       <c r="J5" s="10">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="3"/>
-        <v>54.184102266603453</v>
+        <v>55.698564752315974</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>6</v>
@@ -2418,42 +2418,42 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B6" s="10">
-        <v>1110</v>
+        <v>419</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>70.44238495548187</v>
+        <v>70.055072873252414</v>
       </c>
       <c r="D6" s="10">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>55.179473235956216</v>
+        <v>71.973225959942909</v>
       </c>
       <c r="F6" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>47.027389710287316</v>
+        <v>45.829239653974263</v>
       </c>
       <c r="H6" s="3">
-        <v>447</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>157.13713749673357</v>
+        <v>153.25506219721984</v>
       </c>
       <c r="J6" s="10">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="3"/>
-        <v>53.931691852318032</v>
+        <v>55.109607118983327</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
@@ -2464,42 +2464,42 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B7" s="10">
-        <v>1391</v>
+        <v>1113</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>67.692469171652746</v>
+        <v>70.471433361649076</v>
       </c>
       <c r="D7" s="10">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>45.18319185263082</v>
+        <v>55.579324491289242</v>
       </c>
       <c r="F7" s="3">
         <v>24</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>45.529702139895996</v>
+        <v>47.027389710287316</v>
       </c>
       <c r="H7" s="3">
-        <v>541</v>
+        <v>448</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>147.69268564866292</v>
+        <v>157.19507891911437</v>
       </c>
       <c r="J7" s="10">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
-        <v>54.899265107078811</v>
+        <v>53.931691852318032</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -2510,42 +2510,42 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B8" s="10">
-        <v>1347</v>
+        <v>1391</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>65.291134261830123</v>
+        <v>67.692469171652746</v>
       </c>
       <c r="D8" s="10">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>35.186910469305417</v>
+        <v>45.18319185263082</v>
       </c>
       <c r="F8" s="3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>45.230164625817736</v>
+        <v>45.529702139895996</v>
       </c>
       <c r="H8" s="3">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="4"/>
-        <v>144.33208315057644</v>
+        <v>147.69268564866292</v>
       </c>
       <c r="J8" s="10">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>56.119248776125005</v>
+        <v>54.899265107078811</v>
       </c>
       <c r="N8" t="s">
         <v>2</v>
@@ -2556,42 +2556,42 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B9" s="10">
-        <v>1487</v>
+        <v>1347</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>62.33787963483055</v>
+        <v>65.291134261830123</v>
       </c>
       <c r="D9" s="10">
         <v>12</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>37.985869256636533</v>
+        <v>35.186910469305417</v>
       </c>
       <c r="F9" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>43.133402027269895</v>
+        <v>45.230164625817736</v>
       </c>
       <c r="H9" s="3">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="4"/>
-        <v>137.14734677535705</v>
+        <v>144.33208315057644</v>
       </c>
       <c r="J9" s="10">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>55.950975166601388</v>
+        <v>56.119248776125005</v>
       </c>
       <c r="N9" t="s">
         <v>8</v>
@@ -2602,42 +2602,42 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B10" s="10">
-        <v>935</v>
+        <v>1487</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>58.300151177588504</v>
+        <v>62.33787963483055</v>
       </c>
       <c r="D10" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>39.185423022635582</v>
+        <v>37.985869256636533</v>
       </c>
       <c r="F10" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>38.640339316095947</v>
+        <v>43.133402027269895</v>
       </c>
       <c r="H10" s="3">
-        <v>258</v>
+        <v>584</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="4"/>
-        <v>128.16642630633282</v>
+        <v>137.14734677535705</v>
       </c>
       <c r="J10" s="10">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>55.23581232612603</v>
+        <v>55.950975166601388</v>
       </c>
       <c r="N10" t="s">
         <v>3</v>
@@ -2648,678 +2648,678 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B11" s="10">
-        <v>543</v>
+        <v>935</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>57.854742283024628</v>
+        <v>58.300151177588504</v>
       </c>
       <c r="D11" s="10">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>38.385720511969545</v>
+        <v>39.185423022635582</v>
       </c>
       <c r="F11" s="3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>39.239414344252474</v>
+        <v>38.640339316095947</v>
       </c>
       <c r="H11" s="3">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="4"/>
-        <v>128.80378195252166</v>
+        <v>128.16642630633282</v>
       </c>
       <c r="J11" s="10">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>52.122750549939191</v>
+        <v>55.23581232612603</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B12" s="10">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>58.832705290653998</v>
+        <v>57.854742283024628</v>
       </c>
       <c r="D12" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>34.787059213972405</v>
+        <v>38.385720511969545</v>
       </c>
       <c r="F12" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>40.737101914643794</v>
+        <v>39.239414344252474</v>
       </c>
       <c r="H12" s="3">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="4"/>
-        <v>127.06553928109759</v>
+        <v>128.80378195252166</v>
       </c>
       <c r="J12" s="10">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>53.468939426128095</v>
+        <v>52.122750549939191</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B13" s="10">
-        <v>826</v>
+        <v>462</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>56.925193285673934</v>
+        <v>58.832705290653998</v>
       </c>
       <c r="D13" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>34.787059213972405</v>
       </c>
       <c r="F13" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>40.437564400565527</v>
+        <v>40.737101914643794</v>
       </c>
       <c r="H13" s="3">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="4"/>
-        <v>119.4752129492126</v>
+        <v>127.06553928109759</v>
       </c>
       <c r="J13" s="10">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>54.310307473746164</v>
+        <v>53.468939426128095</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B14" s="10">
-        <v>1143</v>
+        <v>826</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>53.110169275713822</v>
+        <v>56.925193285673934</v>
       </c>
       <c r="D14" s="10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>33.187654192640338</v>
+        <v>34.787059213972405</v>
       </c>
       <c r="F14" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>38.04126428793942</v>
+        <v>40.437564400565527</v>
       </c>
       <c r="H14" s="3">
-        <v>483</v>
+        <v>284</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="4"/>
-        <v>109.79899541161878</v>
+        <v>119.4752129492126</v>
       </c>
       <c r="J14" s="10">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>48.673141554705118</v>
+        <v>54.310307473746164</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B15" s="10">
-        <v>1042</v>
+        <v>1143</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>49.556580921258586</v>
+        <v>53.110169275713822</v>
       </c>
       <c r="D15" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>35.186910469305417</v>
+        <v>33.187654192640338</v>
       </c>
       <c r="F15" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>36.244039203469846</v>
+        <v>38.04126428793942</v>
       </c>
       <c r="H15" s="3">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="4"/>
-        <v>94.734225592610386</v>
+        <v>109.79899541161878</v>
       </c>
       <c r="J15" s="10">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="3"/>
-        <v>47.83177350708705</v>
+        <v>48.673141554705118</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B16" s="10">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>46.932541564154029</v>
+        <v>49.556580921258586</v>
       </c>
       <c r="D16" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>29.98884414997621</v>
+        <v>35.186910469305417</v>
       </c>
       <c r="F16" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>37.741726773861153</v>
+        <v>36.244039203469846</v>
       </c>
       <c r="H16" s="3">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="4"/>
-        <v>77.17797461122754</v>
+        <v>94.734225592610386</v>
       </c>
       <c r="J16" s="10">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="3"/>
-        <v>50.482082857083967</v>
+        <v>47.83177350708705</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B17" s="10">
-        <v>889</v>
+        <v>1070</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>44.473109841997008</v>
+        <v>46.932541564154029</v>
       </c>
       <c r="D17" s="10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
-        <v>27.98958787331113</v>
+        <v>29.98884414997621</v>
       </c>
       <c r="F17" s="3">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>44.631089597661216</v>
+        <v>37.741726773861153</v>
       </c>
       <c r="H17" s="3">
-        <v>269</v>
+        <v>429</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="4"/>
-        <v>58.462895182228671</v>
+        <v>77.17797461122754</v>
       </c>
       <c r="J17" s="10">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
-        <v>49.430372797561382</v>
+        <v>50.482082857083967</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B18" s="10">
-        <v>644</v>
+        <v>889</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>43.194979970639807</v>
+        <v>44.473109841997008</v>
       </c>
       <c r="D18" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>27.189885362645096</v>
+        <v>27.98958787331113</v>
       </c>
       <c r="F18" s="3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>41.635714456878574</v>
+        <v>44.631089597661216</v>
       </c>
       <c r="H18" s="3">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="4"/>
-        <v>49.829623247489252</v>
+        <v>58.462895182228671</v>
       </c>
       <c r="J18" s="10">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
-        <v>51.99654534279648</v>
+        <v>49.430372797561382</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B19" s="10">
-        <v>265</v>
+        <v>644</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>41.849070484892458</v>
+        <v>43.194979970639807</v>
       </c>
       <c r="D19" s="10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>27.189885362645096</v>
       </c>
       <c r="F19" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>37.442189259782893</v>
+        <v>41.635714456878574</v>
       </c>
       <c r="H19" s="3">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="4"/>
-        <v>50.640803160820475</v>
+        <v>49.829623247489252</v>
       </c>
       <c r="J19" s="10">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
-        <v>52.879981792795448</v>
+        <v>51.99654534279648</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B20" s="10">
-        <v>432</v>
+        <v>265</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>41.316516371826957</v>
+        <v>41.849070484892458</v>
       </c>
       <c r="D20" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="1"/>
         <v>22.391670298648904</v>
       </c>
       <c r="F20" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>35.944501689391579</v>
+        <v>37.442189259782893</v>
       </c>
       <c r="H20" s="3">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
-        <v>46.469020749402766</v>
+        <v>50.640803160820475</v>
       </c>
       <c r="J20" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
-        <v>52.543434573748222</v>
+        <v>52.879981792795448</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B21" s="10">
-        <v>776</v>
+        <v>432</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>41.035715112210603</v>
+        <v>41.316516371826957</v>
       </c>
       <c r="D21" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F21" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
-        <v>34.446814119000265</v>
+        <v>35.944501689391579</v>
       </c>
       <c r="H21" s="3">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.469020749402766</v>
       </c>
       <c r="J21" s="10">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
-        <v>52.753776585652744</v>
+        <v>52.543434573748222</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B22" s="10">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>38.64406300444373</v>
+        <v>41.035715112210603</v>
       </c>
       <c r="D22" s="10">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F22" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>31.750976492295894</v>
+        <v>34.446814119000265</v>
       </c>
       <c r="H22" s="3">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="4"/>
-        <v>40.095464287514609</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J22" s="10">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
-        <v>49.808988418989507</v>
+        <v>52.753776585652744</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B23" s="10">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>37.123863081693123</v>
+        <v>38.64406300444373</v>
       </c>
       <c r="D23" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
         <v>14.39464519198858</v>
       </c>
       <c r="F23" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>31.750976492295894</v>
       </c>
       <c r="H23" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="4"/>
-        <v>43.91959816464751</v>
+        <v>40.095464287514609</v>
       </c>
       <c r="J23" s="10">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
-        <v>43.162180842806784</v>
+        <v>49.808988418989507</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B24" s="10">
-        <v>757</v>
+        <v>816</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>37.211008300194749</v>
+        <v>37.123863081693123</v>
       </c>
       <c r="D24" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F24" s="3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>29.05513886559153</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H24" s="3">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>43.91959816464751</v>
       </c>
       <c r="J24" s="10">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>41.731855161856075</v>
+        <v>43.162180842806784</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B25" s="10">
-        <v>505</v>
+        <v>757</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>37.211008300194749</v>
       </c>
       <c r="D25" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="1"/>
-        <v>11.195835149324452</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F25" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
-        <v>26.958376267043683</v>
+        <v>29.05513886559153</v>
       </c>
       <c r="H25" s="3">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="4"/>
-        <v>46.295196482260366</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J25" s="10">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>41.269102735666138</v>
+        <v>41.731855161856075</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B26" s="10">
-        <v>210</v>
+        <v>505</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>36.087803261729334</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D26" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
-        <v>8.7967276173263542</v>
+        <v>11.195835149324452</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>30.253288921904577</v>
+        <v>26.958376267043683</v>
       </c>
       <c r="H26" s="3">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="4"/>
-        <v>42.413121182746664</v>
+        <v>46.295196482260366</v>
       </c>
       <c r="J26" s="10">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
-        <v>41.100829126142528</v>
+        <v>41.269102735666138</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B27" s="10">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>36.562260562460416</v>
+        <v>36.087803261729334</v>
       </c>
       <c r="D27" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
-        <v>9.1965788726593711</v>
+        <v>8.7967276173263542</v>
       </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
-        <v>30.852363950061104</v>
+        <v>30.253288921904577</v>
       </c>
       <c r="H27" s="3">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="4"/>
-        <v>46.005489370356358</v>
+        <v>42.413121182746664</v>
       </c>
       <c r="J27" s="10">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
@@ -3328,1654 +3328,1654 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B28" s="10">
-        <v>529</v>
+        <v>403</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>36.126534469952283</v>
+        <v>36.562260562460416</v>
       </c>
       <c r="D28" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="1"/>
-        <v>9.9962813833254032</v>
+        <v>9.1965788726593711</v>
       </c>
       <c r="F28" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>31.451438978217631</v>
+        <v>30.852363950061104</v>
       </c>
       <c r="H28" s="3">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="4"/>
-        <v>46.758727861306781</v>
+        <v>46.005489370356358</v>
       </c>
       <c r="J28" s="10">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>40.511871492809881</v>
+        <v>41.100829126142528</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B29" s="10">
-        <v>614</v>
+        <v>529</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>37.888804444096294</v>
+        <v>36.126534469952283</v>
       </c>
       <c r="D29" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
-        <v>9.5964301279923863</v>
+        <v>9.9962813833254032</v>
       </c>
       <c r="F29" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="2"/>
-        <v>35.644964175313319</v>
+        <v>31.451438978217631</v>
       </c>
       <c r="H29" s="3">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="4"/>
-        <v>47.222259240353189</v>
+        <v>46.758727861306781</v>
       </c>
       <c r="J29" s="10">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
-        <v>43.078044038044979</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B30" s="10">
-        <v>825</v>
+        <v>614</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>38.585966192109311</v>
+        <v>37.888804444096294</v>
       </c>
       <c r="D30" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
         <v>9.5964301279923863</v>
       </c>
       <c r="F30" s="3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>36.543576717548106</v>
+        <v>35.644964175313319</v>
       </c>
       <c r="H30" s="3">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="4"/>
-        <v>46.237255059879566</v>
+        <v>47.222259240353189</v>
       </c>
       <c r="J30" s="10">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
-        <v>45.307669364232851</v>
+        <v>43.078044038044979</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B31" s="10">
-        <v>689</v>
+        <v>825</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>37.578954778312728</v>
+        <v>38.585966192109311</v>
       </c>
       <c r="D31" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F31" s="3">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="2"/>
-        <v>26.059763724808892</v>
+        <v>36.543576717548106</v>
       </c>
       <c r="H31" s="3">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.237255059879566</v>
       </c>
       <c r="J31" s="10">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
-        <v>48.168320726134283</v>
+        <v>45.307669364232851</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B32" s="10">
-        <v>457</v>
+        <v>689</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>38.653745806499465</v>
+        <v>37.578954778312728</v>
       </c>
       <c r="D32" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F32" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>26.059763724808892</v>
       </c>
       <c r="H32" s="3">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J32" s="10">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
-        <v>51.449656111844739</v>
+        <v>48.168320726134283</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B33" s="10">
-        <v>259</v>
+        <v>457</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>38.934547066115819</v>
+        <v>38.653745806499465</v>
       </c>
       <c r="D33" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F33" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="2"/>
-        <v>23.064388584026261</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H33" s="3">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J33" s="10">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
-        <v>54.142033864222554</v>
+        <v>51.449656111844739</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B34" s="10">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>39.118520305174812</v>
+        <v>38.934547066115819</v>
       </c>
       <c r="D34" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>15.994050213320644</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F34" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
         <v>23.064388584026261</v>
       </c>
       <c r="H34" s="3">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="4"/>
-        <v>47.801673464161205</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J34" s="10">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
-        <v>54.941333509459717</v>
+        <v>54.142033864222554</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B35" s="10">
-        <v>711</v>
+        <v>358</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>40.580623415590999</v>
+        <v>39.118520305174812</v>
       </c>
       <c r="D35" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F35" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>23.064388584026261</v>
       </c>
       <c r="H35" s="3">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="4"/>
-        <v>48.49697053273082</v>
+        <v>47.801673464161205</v>
       </c>
       <c r="J35" s="10">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
-        <v>57.044753628504878</v>
+        <v>54.941333509459717</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B36" s="10">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>40.59998901970247</v>
+        <v>40.580623415590999</v>
       </c>
       <c r="D36" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F36" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>20.069013443243634</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H36" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="4"/>
-        <v>47.048434973210782</v>
+        <v>48.49697053273082</v>
       </c>
       <c r="J36" s="10">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
-        <v>58.222668895170173</v>
+        <v>57.044753628504878</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B37" s="10">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>41.907167297226877</v>
+        <v>40.59998901970247</v>
       </c>
       <c r="D37" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
-        <v>15.194347702654612</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F37" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="2"/>
-        <v>20.668088471400157</v>
+        <v>20.069013443243634</v>
       </c>
       <c r="H37" s="3">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="4"/>
-        <v>47.743732041780397</v>
+        <v>47.048434973210782</v>
       </c>
       <c r="J37" s="10">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>63.565355997544884</v>
+        <v>58.222668895170173</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B38" s="10">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>42.197651358898966</v>
+        <v>41.916850099282613</v>
       </c>
       <c r="D38" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
-        <v>13.594942681322548</v>
+        <v>15.194347702654612</v>
       </c>
       <c r="F38" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>25.460688696652372</v>
+        <v>20.668088471400157</v>
       </c>
       <c r="H38" s="3">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="4"/>
-        <v>50.29315462653566</v>
+        <v>47.801673464161205</v>
       </c>
       <c r="J38" s="10">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
-        <v>61.588141085642427</v>
+        <v>63.565355997544884</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B39" s="10">
-        <v>486</v>
+        <v>800</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>40.861424675207346</v>
+        <v>42.217016963010437</v>
       </c>
       <c r="D39" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F39" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="2"/>
-        <v>27.856988809278473</v>
+        <v>25.460688696652372</v>
       </c>
       <c r="H39" s="3">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>50.351096048916467</v>
       </c>
       <c r="J39" s="10">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
-        <v>57.086822030885784</v>
+        <v>61.630209488023333</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B40" s="10">
-        <v>278</v>
+        <v>486</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>41.006666706043397</v>
+        <v>40.880790279318823</v>
       </c>
       <c r="D40" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F40" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
         <v>27.856988809278473</v>
       </c>
       <c r="H40" s="3">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="4"/>
-        <v>49.192267601300436</v>
+        <v>48.033439153684405</v>
       </c>
       <c r="J40" s="10">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
-        <v>54.226170668984352</v>
+        <v>57.128890433266676</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B41" s="10">
-        <v>509</v>
+        <v>278</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>40.851741873151617</v>
+        <v>41.026032310154868</v>
       </c>
       <c r="D41" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F41" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="2"/>
-        <v>27.257913781121946</v>
+        <v>27.856988809278473</v>
       </c>
       <c r="H41" s="10">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="4"/>
-        <v>46.642845016545174</v>
+        <v>49.250209023681244</v>
       </c>
       <c r="J41" s="10">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
-        <v>56.329590788029527</v>
+        <v>54.268239071365258</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B42" s="10">
-        <v>713</v>
+        <v>509</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>38.808670639391245</v>
+        <v>40.871107477263088</v>
       </c>
       <c r="D42" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F42" s="10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>27.257913781121946</v>
       </c>
       <c r="H42" s="10">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="4"/>
-        <v>42.239296915604264</v>
+        <v>46.700786438925974</v>
       </c>
       <c r="J42" s="10">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="3"/>
-        <v>54.899265107078811</v>
+        <v>56.371659190410419</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B43" s="10">
-        <v>821</v>
+        <v>713</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>38.828036243502723</v>
       </c>
       <c r="D43" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F43" s="10">
         <v>15</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="2"/>
-        <v>24.262538640339319</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H43" s="10">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="4"/>
-        <v>41.891648381319456</v>
+        <v>42.297238337985064</v>
       </c>
       <c r="J43" s="10">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
-        <v>50.944835283273896</v>
+        <v>54.941333509459717</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B44" s="10">
-        <v>751</v>
+        <v>822</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>35.671442773332672</v>
+        <v>37.07544907141444</v>
       </c>
       <c r="D44" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F44" s="10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>24.262538640339319</v>
       </c>
       <c r="H44" s="10">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>37.951631659424955</v>
+        <v>41.949589803700256</v>
       </c>
       <c r="J44" s="10">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="3"/>
-        <v>48.967620371371439</v>
+        <v>50.986903685654802</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B45" s="10">
-        <v>662</v>
+        <v>752</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>36.436384135735842</v>
+        <v>35.681125575388407</v>
       </c>
       <c r="D45" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F45" s="10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H45" s="10">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="4"/>
-        <v>36.329271832762508</v>
+        <v>37.951631659424955</v>
       </c>
       <c r="J45" s="10">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="3"/>
-        <v>51.786203330891965</v>
+        <v>49.009688773752345</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B46" s="10">
-        <v>501</v>
+        <v>662</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>37.394981539253742</v>
+        <v>36.436384135735842</v>
       </c>
       <c r="D46" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F46" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>14.976875703913157</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H46" s="10">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="4"/>
-        <v>34.764853428480876</v>
+        <v>36.329271832762508</v>
       </c>
       <c r="J46" s="10">
         <v>173</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="3"/>
-        <v>55.404085935649647</v>
+        <v>51.786203330891965</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B47" s="10">
-        <v>262</v>
+        <v>501</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>38.121191693433964</v>
+        <v>37.394981539253742</v>
       </c>
       <c r="D47" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F47" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="2"/>
-        <v>17.373175816539263</v>
+        <v>14.976875703913157</v>
       </c>
       <c r="H47" s="10">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="4"/>
-        <v>36.155447565620108</v>
+        <v>34.764853428480876</v>
       </c>
       <c r="J47" s="10">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="3"/>
-        <v>57.633711261837526</v>
+        <v>55.404085935649647</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B48" s="10">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>38.48913817155195</v>
+        <v>38.121191693433964</v>
       </c>
       <c r="D48" s="10">
         <v>1</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F48" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H48" s="10">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="4"/>
-        <v>36.387213255143315</v>
+        <v>36.155447565620108</v>
       </c>
       <c r="J48" s="10">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="3"/>
-        <v>56.876480018981269</v>
+        <v>57.633711261837526</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B49" s="10">
-        <v>532</v>
+        <v>298</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>40.183628531305807</v>
+        <v>38.48913817155195</v>
       </c>
       <c r="D49" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F49" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="2"/>
-        <v>16.474563274304476</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H49" s="10">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="4"/>
-        <v>39.921640020372202</v>
+        <v>36.387213255143315</v>
       </c>
       <c r="J49" s="10">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="3"/>
-        <v>59.316447357073656</v>
+        <v>56.876480018981269</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B50" s="10">
-        <v>678</v>
+        <v>532</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>42.643060253462835</v>
+        <v>40.183628531305807</v>
       </c>
       <c r="D50" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F50" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>16.474563274304476</v>
       </c>
       <c r="H50" s="10">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="4"/>
-        <v>41.312234157511433</v>
+        <v>39.921640020372202</v>
       </c>
       <c r="J50" s="10">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="3"/>
-        <v>63.186740376116752</v>
+        <v>59.316447357073656</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B51" s="10">
-        <v>830</v>
+        <v>678</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>43.417684417921748</v>
+        <v>42.643060253462835</v>
       </c>
       <c r="D51" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F51" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="2"/>
-        <v>23.963001126261055</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H51" s="10">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="4"/>
-        <v>39.979581442753009</v>
+        <v>41.312234157511433</v>
       </c>
       <c r="J51" s="10">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="3"/>
-        <v>64.617066057067476</v>
+        <v>63.186740376116752</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B52" s="10">
-        <v>761</v>
+        <v>830</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>42.371941795902217</v>
+        <v>43.417684417921748</v>
       </c>
       <c r="D52" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F52" s="10">
         <v>10</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>23.963001126261055</v>
       </c>
       <c r="H52" s="10">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="4"/>
-        <v>35.923681876096907</v>
+        <v>39.979581442753009</v>
       </c>
       <c r="J52" s="10">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="3"/>
-        <v>64.9956816784956</v>
+        <v>64.617066057067476</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B53" s="10">
-        <v>576</v>
+        <v>761</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>41.839387682836723</v>
+        <v>42.371941795902217</v>
       </c>
       <c r="D53" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F53" s="10">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="2"/>
-        <v>28.755601351513267</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H53" s="10">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>38.241338771328962</v>
+        <v>35.923681876096907</v>
       </c>
       <c r="J53" s="10">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="3"/>
-        <v>60.957115049928888</v>
+        <v>64.9956816784956</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B54" s="10">
-        <v>300</v>
+        <v>576</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>40.725865446427036</v>
+        <v>41.839387682836723</v>
       </c>
       <c r="D54" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E54" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F54" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>26.359301238887156</v>
+        <v>28.755601351513267</v>
       </c>
       <c r="H54" s="10">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="4"/>
-        <v>35.402209074669692</v>
+        <v>38.241338771328962</v>
       </c>
       <c r="J54" s="10">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="3"/>
-        <v>60.326089014215334</v>
+        <v>60.957115049928888</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B55" s="10">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>41.57795202733184</v>
+        <v>40.725865446427036</v>
       </c>
       <c r="D55" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
         <v>16.393901468653663</v>
       </c>
       <c r="F55" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>26.359301238887156</v>
       </c>
       <c r="H55" s="10">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="4"/>
-        <v>34.533087738957668</v>
+        <v>35.402209074669692</v>
       </c>
       <c r="J55" s="10">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="3"/>
-        <v>63.7756980094494</v>
+        <v>60.326089014215334</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B56" s="10">
-        <v>786</v>
+        <v>473</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>42.149237348620282</v>
+        <v>41.57795202733184</v>
       </c>
       <c r="D56" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E56" s="7">
         <f t="shared" si="1"/>
-        <v>16.793752723986675</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F56" s="10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H56" s="10">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="4"/>
-        <v>31.867782309440802</v>
+        <v>34.533087738957668</v>
       </c>
       <c r="J56" s="10">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="3"/>
-        <v>65.542570909447335</v>
+        <v>63.7756980094494</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B57" s="10">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>41.200322747158118</v>
+        <v>42.149237348620282</v>
       </c>
       <c r="D57" s="10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E57" s="7">
         <f t="shared" si="1"/>
-        <v>19.592711511317791</v>
+        <v>16.793752723986675</v>
       </c>
       <c r="F57" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H57" s="10">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="4"/>
-        <v>27.8118827427847</v>
+        <v>31.867782309440802</v>
       </c>
       <c r="J57" s="10">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="3"/>
-        <v>65.037750080876506</v>
+        <v>65.542570909447335</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B58" s="10">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>39.893144469633718</v>
+        <v>41.200322747158118</v>
       </c>
       <c r="D58" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E58" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>19.592711511317791</v>
       </c>
       <c r="F58" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>24.861613668495846</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H58" s="10">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="4"/>
-        <v>28.507179811354316</v>
+        <v>27.8118827427847</v>
       </c>
       <c r="J58" s="10">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="3"/>
-        <v>62.092961914213276</v>
+        <v>65.037750080876506</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B59" s="10">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>38.750573827056826</v>
+        <v>39.893144469633718</v>
       </c>
       <c r="D59" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="1"/>
-        <v>17.993306489985727</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F59" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>24.861613668495846</v>
       </c>
       <c r="H59" s="10">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="4"/>
-        <v>27.985707009927108</v>
+        <v>28.507179811354316</v>
       </c>
       <c r="J59" s="10">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="3"/>
-        <v>59.021968540407336</v>
+        <v>62.092961914213276</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B60" s="10">
-        <v>461</v>
+        <v>706</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>38.750573827056826</v>
       </c>
       <c r="D60" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E60" s="7">
         <f t="shared" si="1"/>
-        <v>18.393157745318742</v>
+        <v>17.993306489985727</v>
       </c>
       <c r="F60" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>17.672713330617526</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H60" s="10">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="4"/>
-        <v>24.509221667079018</v>
+        <v>27.985707009927108</v>
       </c>
       <c r="J60" s="10">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="3"/>
-        <v>59.695062978501781</v>
+        <v>59.021968540407336</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B61" s="10">
-        <v>388</v>
+        <v>461</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>36.320190511067004</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D61" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" si="1"/>
-        <v>21.991819043315886</v>
+        <v>18.393157745318742</v>
       </c>
       <c r="F61" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="2"/>
-        <v>15.575950732069684</v>
+        <v>17.672713330617526</v>
       </c>
       <c r="H61" s="10">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="4"/>
-        <v>24.393338822317414</v>
+        <v>24.509221667079018</v>
       </c>
       <c r="J61" s="10">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="3"/>
-        <v>59.232310552311851</v>
+        <v>59.695062978501781</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B62" s="10">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>36.320190511067004</v>
       </c>
       <c r="D62" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="7">
         <f t="shared" si="1"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F62" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
-        <v>14.677338189834897</v>
+        <v>15.575950732069684</v>
       </c>
       <c r="H62" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>24.393338822317414</v>
       </c>
       <c r="J62" s="10">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="3"/>
-        <v>58.811626528502821</v>
+        <v>59.232310552311851</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B63" s="10">
-        <v>688</v>
+        <v>532</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>35.729539585667091</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D63" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F63" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="2"/>
-        <v>13.179650619443578</v>
+        <v>14.677338189834897</v>
       </c>
       <c r="H63" s="10">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="4"/>
-        <v>24.103631710413406</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J63" s="10">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="3"/>
-        <v>59.652994576120875</v>
+        <v>58.811626528502821</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B64" s="10">
-        <v>623</v>
+        <v>688</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>33.463763904624784</v>
+        <v>35.729539585667091</v>
       </c>
       <c r="D64" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F64" s="10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>13.179650619443578</v>
       </c>
       <c r="H64" s="10">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="4"/>
-        <v>23.640100331366995</v>
+        <v>24.103631710413406</v>
       </c>
       <c r="J64" s="10">
         <v>221</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="3"/>
-        <v>56.582001202314935</v>
+        <v>59.652994576120875</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B65" s="10">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>33.676785549850983</v>
+        <v>33.463763904624784</v>
       </c>
       <c r="D65" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F65" s="10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="2"/>
-        <v>10.783350506817474</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H65" s="10">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="4"/>
-        <v>25.494225847552645</v>
+        <v>23.640100331366995</v>
       </c>
       <c r="J65" s="10">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="3"/>
-        <v>57.381300847552104</v>
+        <v>56.582001202314935</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B66" s="10">
-        <v>479</v>
+        <v>604</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>34.170608454693543</v>
+        <v>33.676785549850983</v>
       </c>
       <c r="D66" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="1"/>
-        <v>19.192860255984773</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F66" s="10">
         <v>6</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H66" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="4"/>
-        <v>25.378343002791041</v>
+        <v>25.494225847552645</v>
       </c>
       <c r="J66" s="10">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="3"/>
-        <v>59.737131380882687</v>
+        <v>57.381300847552104</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B67" s="10">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>36.678454187129248</v>
+        <v>34.170608454693543</v>
       </c>
       <c r="D67" s="10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="1"/>
-        <v>24.390926575313983</v>
+        <v>19.192860255984773</v>
       </c>
       <c r="F67" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="2"/>
-        <v>13.778725647600105</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H67" s="10">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I67" s="7">
         <f t="shared" si="4"/>
-        <v>25.436284425171838</v>
+        <v>25.378343002791041</v>
       </c>
       <c r="J67" s="10">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K67" s="7">
         <f t="shared" si="3"/>
-        <v>62.429509133260495</v>
+        <v>59.737131380882687</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B68" s="10">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" ref="C68:C131" si="5">IF(OR(ISBLANK(B68),ISBLANK(B74)),"",SUM(B68:B74)/$O$6*100000)</f>
-        <v>36.213679688453908</v>
+        <v>36.678454187129248</v>
       </c>
       <c r="D68" s="10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" ref="E68:E131" si="6">IF(OR(ISBLANK(D68),ISBLANK(D74)),"",SUM(D68:D74)/$O$7*100000)</f>
-        <v>21.59196778798287</v>
+        <v>24.390926575313983</v>
       </c>
       <c r="F68" s="10">
         <v>3</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" ref="G68:G131" si="7">IF(OR(ISBLANK(F68),ISBLANK(F74)),"",SUM(F68:F74)/$O$8*100000)</f>
-        <v>15.875488246147947</v>
+        <v>13.778725647600105</v>
       </c>
       <c r="H68" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="4"/>
-        <v>25.725991537075849</v>
+        <v>25.436284425171838</v>
       </c>
       <c r="J68" s="10">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" ref="K68:K131" si="8">IF(OR(ISBLANK(J68),ISBLANK(J74)),"",SUM(J68:J74)/$O$10*100000)</f>
-        <v>59.526789368978172</v>
+        <v>62.429509133260495</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B69" s="10">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" si="5"/>
-        <v>35.013012233542604</v>
+        <v>36.213679688453908</v>
       </c>
       <c r="D69" s="10">
         <v>2</v>
@@ -4985,1117 +4985,1117 @@
         <v>21.59196778798287</v>
       </c>
       <c r="F69" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="7"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H69" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" ref="I69:I132" si="9">IF(OR(ISBLANK(H69),ISBLANK(H75)),"",SUM(H69:H75)/$O$9*100000)</f>
-        <v>25.030694468506226</v>
+        <v>25.725991537075849</v>
       </c>
       <c r="J69" s="10">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="8"/>
-        <v>59.106105345169134</v>
+        <v>59.526789368978172</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B70" s="10">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="5"/>
-        <v>34.645065755424618</v>
+        <v>35.013012233542604</v>
       </c>
       <c r="D70" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="6"/>
-        <v>21.991819043315886</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F70" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="7"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H70" s="10">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="9"/>
-        <v>24.914811623744626</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J70" s="10">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="8"/>
-        <v>56.119248776125005</v>
+        <v>59.106105345169134</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B71" s="10">
-        <v>645</v>
+        <v>454</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="5"/>
-        <v>36.068437657617864</v>
+        <v>34.645065755424618</v>
       </c>
       <c r="D71" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E71" s="7">
         <f t="shared" si="6"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F71" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="7"/>
-        <v>18.271788358774053</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H71" s="10">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="9"/>
-        <v>23.698041753747795</v>
+        <v>24.914811623744626</v>
       </c>
       <c r="J71" s="10">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="8"/>
-        <v>60.199883807072631</v>
+        <v>56.119248776125005</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B72" s="10">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="5"/>
-        <v>35.187302670545854</v>
+        <v>36.068437657617864</v>
       </c>
       <c r="D72" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="6"/>
-        <v>23.191372809314934</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F72" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="7"/>
-        <v>17.373175816539263</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H72" s="10">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="I72" s="7">
         <f t="shared" si="9"/>
-        <v>19.700083609472497</v>
+        <v>23.698041753747795</v>
       </c>
       <c r="J72" s="10">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="8"/>
-        <v>59.190242149930945</v>
+        <v>60.199883807072631</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B73" s="10">
-        <v>738</v>
+        <v>655</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="5"/>
-        <v>33.550909123126416</v>
+        <v>35.187302670545854</v>
       </c>
       <c r="D73" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E73" s="7">
         <f t="shared" si="6"/>
-        <v>20.392414021983821</v>
+        <v>23.191372809314934</v>
       </c>
       <c r="F73" s="10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="7"/>
-        <v>15.875488246147947</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H73" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I73" s="7">
         <f t="shared" si="9"/>
-        <v>17.440368136621238</v>
+        <v>19.700083609472497</v>
       </c>
       <c r="J73" s="10">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="8"/>
-        <v>56.413727592791325</v>
+        <v>59.190242149930945</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B74" s="10">
-        <v>389</v>
+        <v>738</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="5"/>
-        <v>31.004332182467756</v>
+        <v>33.550909123126416</v>
       </c>
       <c r="D74" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E74" s="7">
         <f t="shared" si="6"/>
-        <v>15.994050213320644</v>
+        <v>20.392414021983821</v>
       </c>
       <c r="F74" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="7"/>
-        <v>14.078263161678368</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H74" s="10">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I74" s="7">
         <f t="shared" si="9"/>
-        <v>15.412418353293189</v>
+        <v>17.440368136621238</v>
       </c>
       <c r="J74" s="10">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="8"/>
-        <v>54.983401911840609</v>
+        <v>56.413727592791325</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B75" s="10">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="5"/>
-        <v>31.265767837972639</v>
+        <v>31.004332182467756</v>
       </c>
       <c r="D75" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E75" s="7">
         <f t="shared" si="6"/>
-        <v>13.994793936655565</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F75" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="7"/>
-        <v>12.580575591287054</v>
+        <v>14.078263161678368</v>
       </c>
       <c r="H75" s="10">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I75" s="7">
         <f t="shared" si="9"/>
-        <v>13.90594137139235</v>
+        <v>15.412418353293189</v>
       </c>
       <c r="J75" s="10">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="8"/>
-        <v>56.708206409457652</v>
+        <v>54.983401911840609</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B76" s="10">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="5"/>
-        <v>30.694482516684193</v>
+        <v>31.265767837972639</v>
       </c>
       <c r="D76" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" s="7">
         <f t="shared" si="6"/>
         <v>13.994793936655565</v>
       </c>
       <c r="F76" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>12.580575591287054</v>
       </c>
       <c r="H76" s="10">
         <v>30</v>
       </c>
       <c r="I76" s="7">
         <f t="shared" si="9"/>
-        <v>13.036820035680329</v>
+        <v>13.90594137139235</v>
       </c>
       <c r="J76" s="10">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="8"/>
-        <v>55.782701557077772</v>
+        <v>56.708206409457652</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B77" s="10">
-        <v>601</v>
+        <v>357</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="5"/>
-        <v>30.142562799507225</v>
+        <v>30.694482516684193</v>
       </c>
       <c r="D77" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E77" s="7">
         <f t="shared" si="6"/>
-        <v>14.39464519198858</v>
+        <v>13.994793936655565</v>
       </c>
       <c r="F77" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="7"/>
-        <v>13.479188133521841</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H77" s="10">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I77" s="7">
         <f t="shared" si="9"/>
-        <v>12.747112923776323</v>
+        <v>13.036820035680329</v>
       </c>
       <c r="J77" s="10">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="8"/>
-        <v>56.539932799934029</v>
+        <v>55.782701557077772</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B78" s="10">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="5"/>
-        <v>27.867104316409186</v>
+        <v>30.142562799507225</v>
       </c>
       <c r="D78" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="6"/>
-        <v>13.594942681322548</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F78" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G78" s="7">
         <f t="shared" si="7"/>
-        <v>10.783350506817474</v>
+        <v>13.479188133521841</v>
       </c>
       <c r="H78" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="9"/>
-        <v>11.008870252352278</v>
+        <v>12.747112923776323</v>
       </c>
       <c r="J78" s="10">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="8"/>
-        <v>53.637213035651705</v>
+        <v>56.539932799934029</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B79" s="10">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="5"/>
-        <v>25.272113365471846</v>
+        <v>27.867104316409186</v>
       </c>
       <c r="D79" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E79" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F79" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G79" s="7">
         <f t="shared" si="7"/>
         <v>10.783350506817474</v>
       </c>
       <c r="H79" s="10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="9"/>
-        <v>9.4444518480706368</v>
+        <v>11.008870252352278</v>
       </c>
       <c r="J79" s="10">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="8"/>
-        <v>50.103467235655835</v>
+        <v>53.637213035651705</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B80" s="10">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="5"/>
-        <v>23.606671411885195</v>
+        <v>25.272113365471846</v>
       </c>
       <c r="D80" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F80" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" si="7"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H80" s="10">
         <v>29</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="9"/>
-        <v>8.865037624262623</v>
+        <v>9.4444518480706368</v>
       </c>
       <c r="J80" s="10">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="8"/>
-        <v>47.95797871422976</v>
+        <v>50.103467235655835</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B81" s="10">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="5"/>
-        <v>21.234384908229792</v>
+        <v>23.606671411885195</v>
       </c>
       <c r="D81" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E81" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F81" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="7"/>
-        <v>9.5852004505044217</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H81" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I81" s="7">
         <f t="shared" si="9"/>
-        <v>7.7641505990273956</v>
+        <v>8.865037624262623</v>
       </c>
       <c r="J81" s="10">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="8"/>
-        <v>43.582864866615822</v>
+        <v>47.95797871422976</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B82" s="10">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="5"/>
-        <v>18.968609227187489</v>
+        <v>21.234384908229792</v>
       </c>
       <c r="D82" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E82" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F82" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>9.5852004505044217</v>
       </c>
       <c r="H82" s="10">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I82" s="7">
         <f t="shared" si="9"/>
-        <v>6.7212049961729692</v>
+        <v>7.7641505990273956</v>
       </c>
       <c r="J82" s="10">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="8"/>
-        <v>40.511871492809881</v>
+        <v>43.582864866615822</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B83" s="10">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="5"/>
-        <v>17.390312492102463</v>
+        <v>18.968609227187489</v>
       </c>
       <c r="D83" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E83" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F83" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="7"/>
-        <v>8.9861254223478948</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H83" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I83" s="7">
         <f t="shared" si="9"/>
-        <v>6.0838493499841535</v>
+        <v>6.7212049961729692</v>
       </c>
       <c r="J83" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="8"/>
-        <v>36.683646876147677</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B84" s="10">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="5"/>
-        <v>15.782967350850232</v>
+        <v>17.390312492102463</v>
       </c>
       <c r="D84" s="10">
         <v>4</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" si="6"/>
-        <v>11.995537659990484</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F84" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="7"/>
-        <v>8.0875128801131062</v>
+        <v>8.9861254223478948</v>
       </c>
       <c r="H84" s="10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="9"/>
-        <v>5.0988451695105281</v>
+        <v>6.0838493499841535</v>
       </c>
       <c r="J84" s="10">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="K84" s="7">
         <f t="shared" si="8"/>
-        <v>33.486448295199025</v>
+        <v>36.683646876147677</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B85" s="10">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="5"/>
-        <v>13.981966168483272</v>
+        <v>15.782967350850232</v>
       </c>
       <c r="D85" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F85" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" si="7"/>
-        <v>8.6865879082696313</v>
+        <v>8.0875128801131062</v>
       </c>
       <c r="H85" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I85" s="7">
         <f t="shared" si="9"/>
-        <v>5.388552281414535</v>
+        <v>5.0988451695105281</v>
       </c>
       <c r="J85" s="10">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="8"/>
-        <v>29.616155276155926</v>
+        <v>33.486448295199025</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B86" s="10">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="5"/>
-        <v>12.597325474512976</v>
+        <v>13.981966168483272</v>
       </c>
       <c r="D86" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E86" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F86" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G86" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>8.6865879082696313</v>
       </c>
       <c r="H86" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I86" s="7">
         <f t="shared" si="9"/>
-        <v>5.0409037471297271</v>
+        <v>5.388552281414535</v>
       </c>
       <c r="J86" s="10">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="8"/>
-        <v>26.839640719016305</v>
+        <v>29.616155276155926</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B87" s="10">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="5"/>
-        <v>10.960931927093537</v>
+        <v>12.597325474512976</v>
       </c>
       <c r="D87" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E87" s="7">
         <f t="shared" si="6"/>
-        <v>9.5964301279923863</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F87" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H87" s="10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I87" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>5.0409037471297271</v>
       </c>
       <c r="J87" s="10">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="8"/>
-        <v>22.801074090449589</v>
+        <v>26.839640719016305</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B88" s="10">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="5"/>
-        <v>9.8861408989068025</v>
+        <v>10.960931927093537</v>
       </c>
       <c r="D88" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" si="6"/>
-        <v>7.5971738513273062</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F88" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="7"/>
-        <v>5.9907502815652638</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H88" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I88" s="7">
         <f t="shared" si="9"/>
-        <v>4.6932552128449183</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J88" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="8"/>
-        <v>19.856285923786359</v>
+        <v>22.801074090449589</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B89" s="10">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="5"/>
-        <v>8.927543495388905</v>
+        <v>9.8861408989068025</v>
       </c>
       <c r="D89" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E89" s="7">
         <f t="shared" si="6"/>
-        <v>5.5979175746622261</v>
+        <v>7.5971738513273062</v>
       </c>
       <c r="F89" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>5.9907502815652638</v>
       </c>
       <c r="H89" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I89" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>4.6932552128449183</v>
       </c>
       <c r="J89" s="10">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="8"/>
-        <v>17.121839769027645</v>
+        <v>19.856285923786359</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B90" s="10">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="5"/>
-        <v>8.4530861946578231</v>
+        <v>8.927543495388905</v>
       </c>
       <c r="D90" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90" s="7">
         <f t="shared" si="6"/>
-        <v>3.9985125533301611</v>
+        <v>5.5979175746622261</v>
       </c>
       <c r="F90" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G90" s="7">
         <f t="shared" si="7"/>
-        <v>5.3916752534087369</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H90" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I90" s="7">
         <f t="shared" si="9"/>
-        <v>5.330610859033734</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J90" s="10">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="8"/>
-        <v>15.354966869029704</v>
+        <v>17.121839769027645</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B91" s="10">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="5"/>
-        <v>7.8430696651464347</v>
+        <v>8.4530861946578231</v>
       </c>
       <c r="D91" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" si="6"/>
-        <v>2.798958787331113</v>
+        <v>3.9985125533301611</v>
       </c>
       <c r="F91" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G91" s="7">
         <f t="shared" si="7"/>
-        <v>4.4930627111739474</v>
+        <v>5.3916752534087369</v>
       </c>
       <c r="H91" s="10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I91" s="7">
         <f t="shared" si="9"/>
-        <v>5.15678659189133</v>
+        <v>5.330610859033734</v>
       </c>
       <c r="J91" s="10">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="8"/>
-        <v>13.125341542841829</v>
+        <v>15.354966869029704</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B92" s="10">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="5"/>
-        <v>7.5719512075858173</v>
+        <v>7.8430696651464347</v>
       </c>
       <c r="D92" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E92" s="7">
         <f t="shared" si="6"/>
-        <v>1.1995537659990483</v>
+        <v>2.798958787331113</v>
       </c>
       <c r="F92" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="7"/>
-        <v>5.6912127674869994</v>
+        <v>4.4930627111739474</v>
       </c>
       <c r="H92" s="10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I92" s="7">
         <f t="shared" si="9"/>
-        <v>4.9250209023681242</v>
+        <v>5.15678659189133</v>
       </c>
       <c r="J92" s="10">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="8"/>
-        <v>10.895716216653955</v>
+        <v>13.125341542841829</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B93" s="10">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="5"/>
-        <v>7.6494136240317072</v>
+        <v>7.5719512075858173</v>
       </c>
       <c r="D93" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" si="6"/>
-        <v>0.79970251066603215</v>
+        <v>1.1995537659990483</v>
       </c>
       <c r="F93" s="10">
         <v>2</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="7"/>
-        <v>7.7879753660348419</v>
+        <v>5.6912127674869994</v>
       </c>
       <c r="H93" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I93" s="7">
         <f t="shared" si="9"/>
-        <v>5.2147280142721311</v>
+        <v>4.9250209023681242</v>
       </c>
       <c r="J93" s="10">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="8"/>
-        <v>9.8860745595122772</v>
+        <v>10.895716216653955</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B94" s="10">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="5"/>
-        <v>8.1432365288742616</v>
+        <v>7.6494136240317072</v>
       </c>
       <c r="D94" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>0.79970251066603215</v>
       </c>
       <c r="F94" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G94" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>7.7879753660348419</v>
       </c>
       <c r="H94" s="10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I94" s="7">
         <f t="shared" si="9"/>
-        <v>7.9379748661697995</v>
+        <v>5.2147280142721311</v>
       </c>
       <c r="J94" s="10">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="8"/>
-        <v>8.7922960976087907</v>
+        <v>9.8860745595122772</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B95" s="10">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="5"/>
-        <v>7.9398976857037979</v>
+        <v>8.1432365288742616</v>
       </c>
       <c r="D95" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F95" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" si="7"/>
-        <v>11.382425534973999</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H95" s="10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I95" s="7">
         <f t="shared" si="9"/>
         <v>7.9379748661697995</v>
       </c>
       <c r="J95" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="8"/>
-        <v>8.4136804761806605</v>
+        <v>8.7922960976087907</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B96" s="10">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="5"/>
-        <v>8.114188122707052</v>
+        <v>7.9398976857037979</v>
       </c>
       <c r="D96" s="10">
         <v>0</v>
       </c>
       <c r="E96" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F96" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>11.382425534973999</v>
       </c>
       <c r="H96" s="10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I96" s="7">
         <f t="shared" si="9"/>
-        <v>8.4594476675970114</v>
+        <v>7.9379748661697995</v>
       </c>
       <c r="J96" s="10">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>8.4136804761806605</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B97" s="10">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="5"/>
-        <v>7.8914836754251159</v>
+        <v>8.114188122707052</v>
       </c>
       <c r="D97" s="10">
         <v>0</v>
@@ -6105,277 +6105,277 @@
         <v>2.3991075319980966</v>
       </c>
       <c r="F97" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H97" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="9"/>
-        <v>8.0538577109314033</v>
+        <v>8.4594476675970114</v>
       </c>
       <c r="J97" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="8"/>
-        <v>10.180553376178599</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B98" s="10">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="5"/>
-        <v>7.5235371973071361</v>
+        <v>7.8914836754251159</v>
       </c>
       <c r="D98" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" s="7">
         <f t="shared" si="6"/>
         <v>2.3991075319980966</v>
       </c>
       <c r="F98" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G98" s="7">
         <f t="shared" si="7"/>
         <v>11.981500563130528</v>
       </c>
       <c r="H98" s="10">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I98" s="7">
         <f t="shared" si="9"/>
         <v>8.0538577109314033</v>
       </c>
       <c r="J98" s="10">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K98" s="7">
         <f t="shared" si="8"/>
-        <v>10.306758583321308</v>
+        <v>10.180553376178599</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B99" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="5"/>
-        <v>6.6230366061236561</v>
+        <v>7.5235371973071361</v>
       </c>
       <c r="D99" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F99" s="10">
         <v>9</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H99" s="10">
         <v>19</v>
       </c>
       <c r="I99" s="7">
         <f t="shared" si="9"/>
-        <v>7.0109121080769761</v>
+        <v>8.0538577109314033</v>
       </c>
       <c r="J99" s="10">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="8"/>
-        <v>10.517100595225825</v>
+        <v>10.306758583321308</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B100" s="10">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="5"/>
-        <v>5.4030035471008766</v>
+        <v>6.6230366061236561</v>
       </c>
       <c r="D100" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E100" s="7">
         <f t="shared" si="6"/>
         <v>1.9992562766650805</v>
       </c>
       <c r="F100" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G100" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H100" s="10">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I100" s="7">
         <f t="shared" si="9"/>
-        <v>5.9679665052225497</v>
+        <v>7.0109121080769761</v>
       </c>
       <c r="J100" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>10.517100595225825</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B101" s="10">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="5"/>
-        <v>3.7956584058486449</v>
+        <v>5.4030035471008766</v>
       </c>
       <c r="D101" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E101" s="7">
         <f t="shared" si="6"/>
-        <v>0.39985125533301608</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F101" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G101" s="7">
         <f t="shared" si="7"/>
-        <v>1.7972250844695792</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H101" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I101" s="7">
         <f t="shared" si="9"/>
-        <v>2.7232468518976685</v>
+        <v>5.9679665052225497</v>
       </c>
       <c r="J101" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="8"/>
-        <v>9.2129801214178233</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B102" s="10">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="5"/>
-        <v>2.9726202311110557</v>
+        <v>3.7956584058486449</v>
       </c>
       <c r="D102" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" s="7">
         <f t="shared" si="6"/>
         <v>0.39985125533301608</v>
       </c>
       <c r="F102" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G102" s="7">
         <f t="shared" si="7"/>
-        <v>1.4976875703913159</v>
+        <v>1.7972250844695792</v>
       </c>
       <c r="H102" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I102" s="7">
         <f t="shared" si="9"/>
-        <v>2.0858912057088523</v>
+        <v>2.7232468518976685</v>
       </c>
       <c r="J102" s="10">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="K102" s="7">
         <f t="shared" si="8"/>
-        <v>8.5398856833233694</v>
+        <v>9.2129801214178233</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B103" s="10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="5"/>
-        <v>2.0430712337603674</v>
+        <v>2.9726202311110557</v>
       </c>
       <c r="D103" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.39985125533301608</v>
       </c>
       <c r="F103" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G103" s="7">
         <f t="shared" si="7"/>
-        <v>0.29953751407826318</v>
+        <v>1.4976875703913159</v>
       </c>
       <c r="H103" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I103" s="7">
         <f t="shared" si="9"/>
-        <v>1.390594137139235</v>
+        <v>2.0858912057088523</v>
       </c>
       <c r="J103" s="10">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K103" s="7">
         <f t="shared" si="8"/>
-        <v>5.8895763333264624</v>
+        <v>8.5398856833233694</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B104" s="10">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="5"/>
-        <v>1.5976623391964959</v>
+        <v>2.0430712337603674</v>
       </c>
       <c r="D104" s="10">
         <v>0</v>
@@ -6385,37 +6385,37 @@
         <v>0</v>
       </c>
       <c r="F104" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.29953751407826318</v>
       </c>
       <c r="H104" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I104" s="7">
         <f t="shared" si="9"/>
-        <v>0.75323849095041895</v>
+        <v>1.390594137139235</v>
       </c>
       <c r="J104" s="10">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K104" s="7">
         <f t="shared" si="8"/>
-        <v>4.6695926642802661</v>
+        <v>5.8895763333264624</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B105" s="10">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="5"/>
-        <v>1.3071782775244056</v>
+        <v>1.5976623391964959</v>
       </c>
       <c r="D105" s="10">
         <v>0</v>
@@ -6432,30 +6432,30 @@
         <v>0</v>
       </c>
       <c r="H105" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I105" s="7">
         <f t="shared" si="9"/>
-        <v>0.57941422380801455</v>
+        <v>0.75323849095041895</v>
       </c>
       <c r="J105" s="10">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K105" s="7">
         <f t="shared" si="8"/>
-        <v>3.8282246166622</v>
+        <v>4.6695926642802661</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B106" s="10">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="5"/>
-        <v>0.81335537268185243</v>
+        <v>1.3071782775244056</v>
       </c>
       <c r="D106" s="10">
         <v>0</v>
@@ -6476,26 +6476,26 @@
       </c>
       <c r="I106" s="7">
         <f t="shared" si="9"/>
-        <v>0.69529706856961748</v>
+        <v>0.57941422380801455</v>
       </c>
       <c r="J106" s="10">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K106" s="7">
         <f t="shared" si="8"/>
-        <v>2.3978989357114884</v>
+        <v>3.8282246166622</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B107" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="5"/>
-        <v>0.58096812334418035</v>
+        <v>0.81335537268185243</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -6516,26 +6516,26 @@
       </c>
       <c r="I107" s="7">
         <f t="shared" si="9"/>
-        <v>0.63735564618881602</v>
+        <v>0.69529706856961748</v>
       </c>
       <c r="J107" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K107" s="7">
         <f t="shared" si="8"/>
-        <v>1.5144624857125188</v>
+        <v>2.3978989357114884</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B108" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" si="5"/>
-        <v>0.30016686372782653</v>
+        <v>0.58096812334418035</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
@@ -6552,30 +6552,30 @@
         <v>0</v>
       </c>
       <c r="H108" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" s="7">
         <f t="shared" si="9"/>
         <v>0.63735564618881602</v>
       </c>
       <c r="J108" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K108" s="7">
         <f t="shared" si="8"/>
-        <v>0.63102603571354954</v>
+        <v>1.5144624857125188</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B109" s="10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C109" s="7">
         <f t="shared" si="5"/>
-        <v>0.17429043700325408</v>
+        <v>0.30016686372782653</v>
       </c>
       <c r="D109" s="10">
         <v>0</v>
@@ -6592,30 +6592,30 @@
         <v>0</v>
       </c>
       <c r="H109" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" s="7">
         <f t="shared" si="9"/>
-        <v>0.52147280142721308</v>
+        <v>0.63735564618881602</v>
       </c>
       <c r="J109" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K109" s="7">
         <f t="shared" si="8"/>
-        <v>0.21034201190451648</v>
+        <v>0.63102603571354954</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B110" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C110" s="7">
         <f t="shared" si="5"/>
-        <v>0.12587642672457242</v>
+        <v>0.17429043700325408</v>
       </c>
       <c r="D110" s="10">
         <v>0</v>
@@ -6632,26 +6632,26 @@
         <v>0</v>
       </c>
       <c r="H110" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I110" s="7">
         <f t="shared" si="9"/>
-        <v>0.34764853428480874</v>
+        <v>0.52147280142721308</v>
       </c>
       <c r="J110" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" s="7">
         <f t="shared" si="8"/>
-        <v>0.1682736095236132</v>
+        <v>0.21034201190451648</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B111" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C111" s="7">
         <f t="shared" si="5"/>
@@ -6672,14 +6672,14 @@
         <v>0</v>
       </c>
       <c r="H111" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" s="7">
         <f t="shared" si="9"/>
         <v>0.34764853428480874</v>
       </c>
       <c r="J111" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" s="7">
         <f t="shared" si="8"/>
@@ -6688,14 +6688,14 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B112" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C112" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363378E-2</v>
+        <v>0.12587642672457242</v>
       </c>
       <c r="D112" s="10">
         <v>0</v>
@@ -6712,30 +6712,30 @@
         <v>0</v>
       </c>
       <c r="H112" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" s="7">
         <f t="shared" si="9"/>
-        <v>0.23176568952320581</v>
+        <v>0.34764853428480874</v>
       </c>
       <c r="J112" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K112" s="7">
         <f t="shared" si="8"/>
-        <v>0.12620520714270991</v>
+        <v>0.1682736095236132</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B113" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C113" s="7">
         <f t="shared" si="5"/>
-        <v>1.936560411147268E-2</v>
+        <v>9.6828020557363378E-2</v>
       </c>
       <c r="D113" s="10">
         <v>0</v>
@@ -6752,30 +6752,30 @@
         <v>0</v>
       </c>
       <c r="H113" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I113" s="7">
         <f t="shared" si="9"/>
-        <v>5.7941422380801452E-2</v>
+        <v>0.23176568952320581</v>
       </c>
       <c r="J113" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K113" s="7">
         <f t="shared" si="8"/>
-        <v>4.20684023809033E-2</v>
+        <v>0.12620520714270991</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B114" s="10">
         <v>1</v>
       </c>
       <c r="C114" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>1.936560411147268E-2</v>
       </c>
       <c r="D114" s="10">
         <v>0</v>
@@ -6792,30 +6792,30 @@
         <v>0</v>
       </c>
       <c r="H114" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" s="7">
         <f t="shared" si="9"/>
         <v>5.7941422380801452E-2</v>
       </c>
       <c r="J114" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.20684023809033E-2</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B115" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D115" s="10">
         <v>0</v>
@@ -6832,11 +6832,11 @@
         <v>0</v>
       </c>
       <c r="H115" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.7941422380801452E-2</v>
       </c>
       <c r="J115" s="10">
         <v>0</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B116" s="10">
         <v>0</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -7008,7 +7008,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B129" s="10">
         <v>0</v>
@@ -7408,14 +7408,14 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B130" s="10">
         <v>0</v>
       </c>
       <c r="C130" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>0</v>
       </c>
       <c r="D130" s="10">
         <v>0</v>
@@ -7448,47 +7448,47 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B131" s="10">
         <v>0</v>
       </c>
-      <c r="C131" s="7" t="str">
+      <c r="C131" s="7">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D131" s="10">
         <v>0</v>
       </c>
-      <c r="E131" s="7" t="str">
+      <c r="E131" s="7">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F131" s="10">
         <v>0</v>
       </c>
-      <c r="G131" s="7" t="str">
+      <c r="G131" s="7">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H131" s="10">
         <v>0</v>
       </c>
-      <c r="I131" s="7" t="str">
+      <c r="I131" s="7">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J131" s="10">
         <v>0</v>
       </c>
-      <c r="K131" s="7" t="str">
+      <c r="K131" s="7">
         <f t="shared" si="8"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B132" s="10">
         <v>0</v>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B133" s="10">
         <v>0</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B134" s="10">
         <v>0</v>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B135" s="10">
         <v>0</v>
@@ -7648,10 +7648,10 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B136" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" s="7" t="str">
         <f t="shared" si="10"/>
@@ -7687,28 +7687,40 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="10"/>
+      <c r="A137" s="4">
+        <v>43865</v>
+      </c>
+      <c r="B137" s="10">
+        <v>1</v>
+      </c>
       <c r="C137" s="7" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D137" s="10"/>
+      <c r="D137" s="10">
+        <v>0</v>
+      </c>
       <c r="E137" s="7" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F137" s="10"/>
+      <c r="F137" s="10">
+        <v>0</v>
+      </c>
       <c r="G137" s="7" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H137" s="10"/>
+      <c r="H137" s="10">
+        <v>0</v>
+      </c>
       <c r="I137" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J137" s="10"/>
+      <c r="J137" s="10">
+        <v>0</v>
+      </c>
       <c r="K137" s="7" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -31874,14 +31886,14 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B4" s="11">
-        <v>683</v>
+        <v>769</v>
       </c>
       <c r="C4" s="9">
         <f>IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/D4*100000)</f>
-        <v>67.601705754835791</v>
+        <v>71.195869657547874</v>
       </c>
       <c r="D4">
         <v>10183175</v>
@@ -31894,14 +31906,14 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B5" s="10">
-        <v>1247</v>
+        <v>683</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C68" si="0">IF(OR(ISBLANK(B5),ISBLANK(B11)),"",SUM(B5:B11)/D5*100000)</f>
-        <v>69.172924947278233</v>
+        <v>67.601705754835791</v>
       </c>
       <c r="D5">
         <v>10183175</v>
@@ -31914,14 +31926,14 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B6" s="10">
-        <v>1396</v>
+        <v>1247</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>66.236709081401429</v>
+        <v>69.172924947278233</v>
       </c>
       <c r="D6">
         <v>10183175</v>
@@ -31936,14 +31948,14 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B7" s="10">
-        <v>1474</v>
+        <v>1396</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>62.897868297461251</v>
+        <v>66.236709081401429</v>
       </c>
       <c r="D7" s="13">
         <v>10183175</v>
@@ -31960,14 +31972,14 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B8" s="10">
-        <v>890</v>
+        <v>1474</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>59.02874103607175</v>
+        <v>62.897868297461251</v>
       </c>
       <c r="D8" s="13">
         <v>10183175</v>
@@ -31982,14 +31994,14 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B9" s="10">
-        <v>791</v>
+        <v>890</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>72.030579853532913</v>
+        <v>59.02874103607175</v>
       </c>
       <c r="D9" s="13">
         <v>10183175</v>
@@ -32004,14 +32016,14 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B10" s="10">
-        <v>403</v>
+        <v>791</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>71.873457934288666</v>
+        <v>72.030579853532913</v>
       </c>
       <c r="D10" s="13">
         <v>10183175</v>
@@ -32026,14 +32038,14 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B11" s="10">
-        <v>843</v>
+        <v>403</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>70.587022220476413</v>
+        <v>71.873457934288666</v>
       </c>
       <c r="D11" s="13">
         <v>10183175</v>
@@ -32048,14 +32060,14 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B12" s="10">
-        <v>948</v>
+        <v>843</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>66.521492560031618</v>
+        <v>70.587022220476413</v>
       </c>
       <c r="D12" s="13">
         <v>10183175</v>
@@ -32070,14 +32082,14 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B13" s="10">
-        <v>1056</v>
+        <v>948</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>63.467435254721636</v>
+        <v>66.521492560031618</v>
       </c>
       <c r="D13" s="13">
         <v>10183175</v>
@@ -32092,14 +32104,14 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B14" s="10">
-        <v>1080</v>
+        <v>1056</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>60.452658429222708</v>
+        <v>63.467435254721636</v>
       </c>
       <c r="D14" s="13">
         <v>10183175</v>
@@ -32114,14 +32126,14 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B15" s="10">
-        <v>2214</v>
+        <v>1080</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>56.121985530053252</v>
+        <v>60.452658429222708</v>
       </c>
       <c r="D15" s="13">
         <v>10183175</v>
@@ -32136,14 +32148,14 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B16" s="10">
-        <v>775</v>
+        <v>2214</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>40.743677684022906</v>
+        <v>56.121985530053252</v>
       </c>
       <c r="D16" s="13">
         <v>10183175</v>
@@ -32158,14 +32170,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B17" s="10">
-        <v>272</v>
+        <v>775</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>38.995696332430697</v>
+        <v>40.743677684022906</v>
       </c>
       <c r="D17" s="13">
         <v>10183175</v>
@@ -32180,14 +32192,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B18" s="10">
-        <v>429</v>
+        <v>272</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>40.095549767140405</v>
+        <v>38.995696332430697</v>
       </c>
       <c r="D18" s="13">
         <v>10183175</v>
@@ -32202,14 +32214,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B19" s="10">
-        <v>637</v>
+        <v>429</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>38.543970814603497</v>
+        <v>40.095549767140405</v>
       </c>
       <c r="D19" s="13">
         <v>10183175</v>
@@ -32224,14 +32236,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B20" s="10">
-        <v>749</v>
+        <v>637</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>36.010379866790075</v>
+        <v>38.543970814603497</v>
       </c>
       <c r="D20" s="13">
         <v>10183175</v>
@@ -32246,14 +32258,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B21" s="10">
-        <v>639</v>
+        <v>749</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>34.910526432080367</v>
+        <v>36.010379866790075</v>
       </c>
       <c r="D21" s="13">
         <v>10183175</v>
@@ -32268,14 +32280,14 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B22" s="10">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>35.008727631608025</v>
+        <v>34.910526432080367</v>
       </c>
       <c r="D22" s="13">
         <v>10183175</v>
@@ -32290,14 +32302,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B23" s="10">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>35.755056748018177</v>
+        <v>35.008727631608025</v>
       </c>
       <c r="D23" s="13">
         <v>10183175</v>
@@ -32312,14 +32324,14 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B24" s="10">
-        <v>384</v>
+        <v>597</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>34.036535756284266</v>
+        <v>35.755056748018177</v>
       </c>
       <c r="D24" s="13">
         <v>10183175</v>
@@ -32334,14 +32346,14 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B25" s="10">
-        <v>271</v>
+        <v>384</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>32.563517763369482</v>
+        <v>34.036535756284266</v>
       </c>
       <c r="D25" s="13">
         <v>10183175</v>
@@ -32356,14 +32368,14 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B26" s="10">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>34.478441154158702</v>
+        <v>32.563517763369482</v>
       </c>
       <c r="D26" s="13">
         <v>10183175</v>
@@ -32378,14 +32390,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B27" s="10">
-        <v>637</v>
+        <v>379</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>35.372072069860337</v>
+        <v>34.478441154158702</v>
       </c>
       <c r="D27" s="13">
         <v>10183175</v>
@@ -32400,14 +32412,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B28" s="10">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>35.254230630427152</v>
+        <v>35.372072069860337</v>
       </c>
       <c r="D28" s="13">
         <v>10183175</v>
@@ -32422,14 +32434,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B29" s="10">
-        <v>724</v>
+        <v>649</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>35.489913509293515</v>
+        <v>35.254230630427152</v>
       </c>
       <c r="D29" s="13">
         <v>10183175</v>
@@ -32444,14 +32456,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B30" s="10">
-        <v>422</v>
+        <v>724</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>34.635563073402942</v>
+        <v>35.489913509293515</v>
       </c>
       <c r="D30" s="13">
         <v>10183175</v>
@@ -32466,14 +32478,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B31" s="10">
-        <v>234</v>
+        <v>422</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>36.403184664900685</v>
+        <v>34.635563073402942</v>
       </c>
       <c r="D31" s="13">
         <v>10183175</v>
@@ -32488,14 +32500,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B32" s="10">
-        <v>466</v>
+        <v>234</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>37.52267833951592</v>
+        <v>36.403184664900685</v>
       </c>
       <c r="D32" s="13">
         <v>10183175</v>
@@ -32510,14 +32522,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B33" s="10">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>36.884370542586176</v>
+        <v>37.52267833951592</v>
       </c>
       <c r="D33" s="13">
         <v>10183175</v>
@@ -32532,14 +32544,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B34" s="10">
-        <v>625</v>
+        <v>470</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>38.710912853800508</v>
+        <v>36.884370542586176</v>
       </c>
       <c r="D34" s="13">
         <v>10183175</v>
@@ -32554,14 +32566,14 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B35" s="10">
-        <v>673</v>
+        <v>625</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>38.877854892997519</v>
+        <v>38.710912853800508</v>
       </c>
       <c r="D35" s="13">
         <v>10183175</v>
@@ -32576,14 +32588,14 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B36" s="10">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>39.192098731486006</v>
+        <v>38.877854892997519</v>
       </c>
       <c r="D36" s="13">
         <v>10183175</v>
@@ -32598,14 +32610,14 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B37" s="10">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>39.830406528415743</v>
+        <v>39.192098731486006</v>
       </c>
       <c r="D37" s="13">
         <v>10183175</v>
@@ -32620,14 +32632,14 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B38" s="10">
-        <v>348</v>
+        <v>602</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>38.779653693469868</v>
+        <v>39.830406528415743</v>
       </c>
       <c r="D38" s="13">
         <v>10183175</v>
@@ -32642,14 +32654,14 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B39" s="10">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>39.329580410824718</v>
+        <v>38.779653693469868</v>
       </c>
       <c r="D39" s="13">
         <v>10183175</v>
@@ -32664,14 +32676,14 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B40" s="10">
-        <v>656</v>
+        <v>401</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>37.699440498665695</v>
+        <v>39.329580410824718</v>
       </c>
       <c r="D40" s="13">
         <v>10183175</v>
@@ -32686,14 +32698,14 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B41" s="10">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>36.776349223105761</v>
+        <v>37.699440498665695</v>
       </c>
       <c r="D41" s="13">
         <v>10183175</v>
@@ -32708,14 +32720,14 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B42" s="10">
-        <v>705</v>
+        <v>642</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>34.674843553214004</v>
+        <v>36.776349223105761</v>
       </c>
       <c r="D42" s="13">
         <v>10183175</v>
@@ -32730,14 +32742,14 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B43" s="10">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>35.50955374919905</v>
+        <v>34.674843553214004</v>
       </c>
       <c r="D43" s="13">
         <v>10183175</v>
@@ -32752,14 +32764,14 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B44" s="10">
-        <v>495</v>
+        <v>702</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>35.303331230190977</v>
+        <v>35.50955374919905</v>
       </c>
       <c r="D44" s="13">
         <v>10183175</v>
@@ -32774,14 +32786,14 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B45" s="10">
-        <v>404</v>
+        <v>495</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>37.267355220744022</v>
+        <v>35.303331230190977</v>
       </c>
       <c r="D45" s="13">
         <v>10183175</v>
@@ -32796,14 +32808,14 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B46" s="10">
-        <v>235</v>
+        <v>404</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>36.108581066317726</v>
+        <v>37.267355220744022</v>
       </c>
       <c r="D46" s="13">
         <v>10183175</v>
@@ -32818,14 +32830,14 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B47" s="10">
-        <v>562</v>
+        <v>235</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>38.347568415548196</v>
+        <v>36.108581066317726</v>
       </c>
       <c r="D47" s="13">
         <v>10183175</v>
@@ -32840,14 +32852,14 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B48" s="10">
-        <v>428</v>
+        <v>562</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>38.818934173280923</v>
+        <v>38.347568415548196</v>
       </c>
       <c r="D48" s="13">
         <v>10183175</v>
@@ -32862,14 +32874,14 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B49" s="10">
-        <v>790</v>
+        <v>428</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>42.589860235142773</v>
+        <v>38.818934173280923</v>
       </c>
       <c r="D49" s="13">
         <v>10183175</v>
@@ -32884,14 +32896,14 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B50" s="10">
-        <v>681</v>
+        <v>790</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>42.206875556984933</v>
+        <v>42.589860235142773</v>
       </c>
       <c r="D50" s="13">
         <v>10183175</v>
@@ -32906,14 +32918,14 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B51" s="10">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>42.216695676937697</v>
+        <v>42.206875556984933</v>
       </c>
       <c r="D51" s="13">
         <v>10183175</v>
@@ -32928,14 +32940,14 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B52" s="10">
-        <v>286</v>
+        <v>695</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>40.743677684022906</v>
+        <v>42.216695676937697</v>
       </c>
       <c r="D52" s="13">
         <v>10183175</v>
@@ -32950,14 +32962,14 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B53" s="10">
-        <v>463</v>
+        <v>286</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>41.784610399016024</v>
+        <v>40.743677684022906</v>
       </c>
       <c r="D53" s="13">
         <v>10183175</v>
@@ -32972,14 +32984,14 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B54" s="10">
-        <v>610</v>
+        <v>463</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>42.766622394292547</v>
+        <v>41.784610399016024</v>
       </c>
       <c r="D54" s="13">
         <v>10183175</v>
@@ -32994,14 +33006,14 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B55" s="10">
-        <v>812</v>
+        <v>610</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>42.727341914481485</v>
+        <v>42.766622394292547</v>
       </c>
       <c r="D55" s="13">
         <v>10183175</v>
@@ -33016,14 +33028,14 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B56" s="10">
-        <v>751</v>
+        <v>812</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>41.391805600905414</v>
+        <v>42.727341914481485</v>
       </c>
       <c r="D56" s="13">
         <v>10183175</v>
@@ -33038,14 +33050,14 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B57" s="10">
-        <v>682</v>
+        <v>751</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>40.036629047423816</v>
+        <v>41.391805600905414</v>
       </c>
       <c r="D57" s="13">
         <v>10183175</v>
@@ -33060,14 +33072,14 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B58" s="10">
-        <v>545</v>
+        <v>682</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>38.072605056870771</v>
+        <v>40.036629047423816</v>
       </c>
       <c r="D58" s="13">
         <v>10183175</v>
@@ -33082,14 +33094,14 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B59" s="10">
-        <v>392</v>
+        <v>545</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>37.601239299138037</v>
+        <v>38.072605056870771</v>
       </c>
       <c r="D59" s="13">
         <v>10183175</v>
@@ -33104,14 +33116,14 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B60" s="10">
-        <v>563</v>
+        <v>392</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>38.318108055689898</v>
+        <v>37.601239299138037</v>
       </c>
       <c r="D60" s="13">
         <v>10183175</v>
@@ -33126,14 +33138,14 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B61" s="10">
-        <v>606</v>
+        <v>563</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>36.049660346601136</v>
+        <v>38.318108055689898</v>
       </c>
       <c r="D61" s="13">
         <v>10183175</v>
@@ -33148,14 +33160,14 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B62" s="10">
-        <v>676</v>
+        <v>606</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>34.674843553214004</v>
+        <v>36.049660346601136</v>
       </c>
       <c r="D62" s="13">
         <v>10183175</v>
@@ -33170,14 +33182,14 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B63" s="10">
-        <v>613</v>
+        <v>676</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>33.378587719448994</v>
+        <v>34.674843553214004</v>
       </c>
       <c r="D63" s="13">
         <v>10183175</v>
@@ -33192,14 +33204,14 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B64" s="10">
-        <v>482</v>
+        <v>613</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>34.448980794300404</v>
+        <v>33.378587719448994</v>
       </c>
       <c r="D64" s="13">
         <v>10183175</v>
@@ -33214,14 +33226,14 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B65" s="10">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>36.845090062775121</v>
+        <v>34.448980794300404</v>
       </c>
       <c r="D65" s="13">
         <v>10183175</v>
@@ -33236,14 +33248,14 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B66" s="10">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>36.746888863247463</v>
+        <v>36.845090062775121</v>
       </c>
       <c r="D66" s="13">
         <v>10183175</v>
@@ -33258,14 +33270,14 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B67" s="10">
-        <v>332</v>
+        <v>465</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>35.872898187451362</v>
+        <v>36.746888863247463</v>
       </c>
       <c r="D67" s="13">
         <v>10183175</v>
@@ -33280,14 +33292,14 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B68" s="10">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" si="0"/>
-        <v>36.413004784853449</v>
+        <v>35.872898187451362</v>
       </c>
       <c r="D68" s="13">
         <v>10183175</v>
@@ -33302,14 +33314,14 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B69" s="10">
-        <v>544</v>
+        <v>466</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" ref="C69:C132" si="1">IF(OR(ISBLANK(B69),ISBLANK(B75)),"",SUM(B69:B75)/D69*100000)</f>
-        <v>35.421172669624163</v>
+        <v>36.413004784853449</v>
       </c>
       <c r="D69" s="13">
         <v>10183175</v>
@@ -33324,14 +33336,14 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B70" s="10">
-        <v>722</v>
+        <v>544</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="1"/>
-        <v>36.088940826412191</v>
+        <v>35.421172669624163</v>
       </c>
       <c r="D70" s="13">
         <v>10183175</v>
@@ -33346,14 +33358,14 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B71" s="10">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="1"/>
-        <v>34.095456476000855</v>
+        <v>36.088940826412191</v>
       </c>
       <c r="D71" s="13">
         <v>10183175</v>
@@ -33368,14 +33380,14 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B72" s="10">
-        <v>487</v>
+        <v>726</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="1"/>
-        <v>31.993950806109098</v>
+        <v>34.095456476000855</v>
       </c>
       <c r="D72" s="13">
         <v>10183175</v>
@@ -33390,14 +33402,14 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B73" s="10">
-        <v>376</v>
+        <v>487</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="1"/>
-        <v>31.208341209887877</v>
+        <v>31.993950806109098</v>
       </c>
       <c r="D73" s="13">
         <v>10183175</v>
@@ -33412,14 +33424,14 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B74" s="10">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="1"/>
-        <v>30.736975452155146</v>
+        <v>31.208341209887877</v>
       </c>
       <c r="D74" s="13">
         <v>10183175</v>
@@ -33434,14 +33446,14 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B75" s="10">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="1"/>
-        <v>29.421079378484606</v>
+        <v>30.736975452155146</v>
       </c>
       <c r="D75" s="13">
         <v>10183175</v>
@@ -33456,14 +33468,14 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B76" s="10">
-        <v>612</v>
+        <v>365</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="1"/>
-        <v>29.774603696784155</v>
+        <v>29.421079378484606</v>
       </c>
       <c r="D76" s="13">
         <v>10183175</v>
@@ -33478,14 +33490,14 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B77" s="10">
-        <v>519</v>
+        <v>612</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="1"/>
-        <v>26.121519074355493</v>
+        <v>29.774603696784155</v>
       </c>
       <c r="D77" s="13">
         <v>10183175</v>
@@ -33500,14 +33512,14 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B78" s="10">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="1"/>
-        <v>23.931632324888849</v>
+        <v>26.121519074355493</v>
       </c>
       <c r="D78" s="13">
         <v>10183175</v>
@@ -33522,14 +33534,14 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B79" s="10">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="1"/>
-        <v>21.240919457831176</v>
+        <v>23.931632324888849</v>
       </c>
       <c r="D79" s="13">
         <v>10183175</v>
@@ -33544,14 +33556,14 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B80" s="10">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="1"/>
-        <v>19.758081344963628</v>
+        <v>21.240919457831176</v>
       </c>
       <c r="D80" s="13">
         <v>10183175</v>
@@ -33566,14 +33578,14 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B81" s="10">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="1"/>
-        <v>17.617295195260809</v>
+        <v>19.758081344963628</v>
       </c>
       <c r="D81" s="13">
         <v>10183175</v>
@@ -33588,14 +33600,14 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B82" s="10">
-        <v>401</v>
+        <v>253</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="1"/>
-        <v>16.704024039653646</v>
+        <v>17.617295195260809</v>
       </c>
       <c r="D82" s="13">
         <v>10183175</v>
@@ -33610,14 +33622,14 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B83" s="10">
-        <v>240</v>
+        <v>401</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="1"/>
-        <v>13.974030692784911</v>
+        <v>16.704024039653646</v>
       </c>
       <c r="D83" s="13">
         <v>10183175</v>
@@ -33632,14 +33644,14 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B84" s="10">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="1"/>
-        <v>13.581225894674303</v>
+        <v>13.974030692784911</v>
       </c>
       <c r="D84" s="13">
         <v>10183175</v>
@@ -33654,14 +33666,14 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B85" s="10">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="1"/>
-        <v>11.872525022893154</v>
+        <v>13.581225894674303</v>
       </c>
       <c r="D85" s="13">
         <v>10183175</v>
@@ -33676,14 +33688,14 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B86" s="10">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="1"/>
-        <v>10.851232547805571</v>
+        <v>11.872525022893154</v>
       </c>
       <c r="D86" s="13">
         <v>10183175</v>
@@ -33698,14 +33710,14 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B87" s="10">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="1"/>
-        <v>8.7890073577248753</v>
+        <v>10.851232547805571</v>
       </c>
       <c r="D87" s="13">
         <v>10183175</v>
@@ -33720,14 +33732,14 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B88" s="10">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="1"/>
-        <v>8.5827848387168046</v>
+        <v>8.7890073577248753</v>
       </c>
       <c r="D88" s="13">
         <v>10183175</v>
@@ -33742,14 +33754,14 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B89" s="10">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="1"/>
-        <v>8.0721386011730143</v>
+        <v>8.5827848387168046</v>
       </c>
       <c r="D89" s="13">
         <v>10183175</v>
@@ -33764,14 +33776,14 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B90" s="10">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="1"/>
-        <v>8.3274617199449086</v>
+        <v>8.0721386011730143</v>
       </c>
       <c r="D90" s="13">
         <v>10183175</v>
@@ -33786,14 +33798,14 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B91" s="10">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="1"/>
-        <v>7.8855563220704736</v>
+        <v>8.3274617199449086</v>
       </c>
       <c r="D91" s="13">
         <v>10183175</v>
@@ -33808,14 +33820,14 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B92" s="10">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="1"/>
-        <v>8.2390806403700214</v>
+        <v>7.8855563220704736</v>
       </c>
       <c r="D92" s="13">
         <v>10183175</v>
@@ -33830,14 +33842,14 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B93" s="10">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="1"/>
-        <v>8.2587208802755523</v>
+        <v>8.2390806403700214</v>
       </c>
       <c r="D93" s="13">
         <v>10183175</v>
@@ -33852,14 +33864,14 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B94" s="10">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="1"/>
-        <v>8.5729647187640392</v>
+        <v>8.2587208802755523</v>
       </c>
       <c r="D94" s="13">
         <v>10183175</v>
@@ -33874,14 +33886,14 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B95" s="10">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="1"/>
-        <v>8.1408794408423706</v>
+        <v>8.5729647187640392</v>
       </c>
       <c r="D95" s="13">
         <v>10183175</v>
@@ -33896,14 +33908,14 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B96" s="10">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="1"/>
-        <v>7.492751523959865</v>
+        <v>8.1408794408423706</v>
       </c>
       <c r="D96" s="13">
         <v>10183175</v>
@@ -33918,14 +33930,14 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B97" s="10">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="1"/>
-        <v>6.2652365298642119</v>
+        <v>7.492751523959865</v>
       </c>
       <c r="D97" s="13">
         <v>10183175</v>
@@ -33940,14 +33952,14 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B98" s="10">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="1"/>
-        <v>5.48944705359576</v>
+        <v>6.2652365298642119</v>
       </c>
       <c r="D98" s="13">
         <v>10183175</v>
@@ -33962,14 +33974,14 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B99" s="10">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="1"/>
-        <v>4.1931912198307497</v>
+        <v>5.48944705359576</v>
       </c>
       <c r="D99" s="13">
         <v>10183175</v>
@@ -33984,14 +33996,14 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B100" s="10">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="1"/>
-        <v>2.9656762257350975</v>
+        <v>4.1931912198307497</v>
       </c>
       <c r="D100" s="13">
         <v>10183175</v>
@@ -34006,14 +34018,14 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B101" s="10">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="1"/>
-        <v>2.2880879489942969</v>
+        <v>2.9656762257350975</v>
       </c>
       <c r="D101" s="13">
         <v>10183175</v>
@@ -34028,14 +34040,14 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B102" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="1"/>
-        <v>1.856002671072627</v>
+        <v>2.2880879489942969</v>
       </c>
       <c r="D102" s="13">
         <v>10183175</v>
@@ -34050,14 +34062,14 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B103" s="10">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="1"/>
-        <v>1.4533777530092531</v>
+        <v>1.856002671072627</v>
       </c>
       <c r="D103" s="13">
         <v>10183175</v>
@@ -34072,14 +34084,14 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B104" s="10">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="1"/>
-        <v>1.2275149940956529</v>
+        <v>1.4533777530092531</v>
       </c>
       <c r="D104" s="13">
         <v>10183175</v>
@@ -34094,14 +34106,14 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B105" s="10">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="1"/>
-        <v>0.530286477449322</v>
+        <v>1.2275149940956529</v>
       </c>
       <c r="D105" s="13">
         <v>10183175</v>
@@ -34116,14 +34128,14 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B106" s="10">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="1"/>
-        <v>0.32406395844125235</v>
+        <v>0.530286477449322</v>
       </c>
       <c r="D106" s="13">
         <v>10183175</v>
@@ -34138,14 +34150,14 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B107" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="1"/>
-        <v>0.22586275891360011</v>
+        <v>0.32406395844125235</v>
       </c>
       <c r="D107" s="13">
         <v>10183175</v>
@@ -34160,14 +34172,14 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B108" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" si="1"/>
-        <v>0.13748167933871314</v>
+        <v>0.22586275891360011</v>
       </c>
       <c r="D108" s="13">
         <v>10183175</v>
@@ -34182,14 +34194,14 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B109" s="10">
         <v>1</v>
       </c>
       <c r="C109" s="7">
         <f t="shared" si="1"/>
-        <v>0.12766155938594789</v>
+        <v>0.13748167933871314</v>
       </c>
       <c r="D109" s="13">
         <v>10183175</v>
@@ -34204,14 +34216,14 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B110" s="10">
         <v>1</v>
       </c>
       <c r="C110" s="7">
         <f t="shared" si="1"/>
-        <v>0.11784143943318268</v>
+        <v>0.12766155938594789</v>
       </c>
       <c r="D110" s="13">
         <v>10183175</v>
@@ -34226,14 +34238,14 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B111" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C111" s="7">
         <f t="shared" si="1"/>
-        <v>0.10802131948041746</v>
+        <v>0.11784143943318268</v>
       </c>
       <c r="D111" s="13">
         <v>10183175</v>
@@ -34248,14 +34260,14 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B112" s="10">
         <v>5</v>
       </c>
       <c r="C112" s="7">
         <f t="shared" si="1"/>
-        <v>5.8920719716591338E-2</v>
+        <v>0.10802131948041746</v>
       </c>
       <c r="D112" s="13">
         <v>10183175</v>
@@ -34270,14 +34282,14 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B113" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C113" s="7">
         <f t="shared" si="1"/>
-        <v>9.820119952765223E-3</v>
+        <v>5.8920719716591338E-2</v>
       </c>
       <c r="D113" s="13">
         <v>10183175</v>
@@ -34292,14 +34304,14 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B114" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.820119952765223E-3</v>
       </c>
       <c r="D114" s="13">
         <v>10183175</v>
@@ -34314,7 +34326,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B115" s="10">
         <v>0</v>
@@ -34336,7 +34348,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B116" s="10">
         <v>0</v>
@@ -34358,7 +34370,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -34380,7 +34392,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -34402,7 +34414,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -34424,7 +34436,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -34446,7 +34458,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -34468,7 +34480,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
@@ -34490,7 +34502,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
@@ -34512,7 +34524,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
@@ -34534,7 +34546,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
@@ -34556,7 +34568,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
@@ -34578,7 +34590,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -34600,7 +34612,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
@@ -34622,7 +34634,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B129" s="10">
         <v>0</v>
@@ -34644,7 +34656,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B130" s="10">
         <v>0</v>
@@ -34666,7 +34678,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B131" s="10">
         <v>0</v>
@@ -34688,7 +34700,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B132" s="10">
         <v>0</v>
@@ -34710,14 +34722,14 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B133" s="10">
         <v>0</v>
       </c>
       <c r="C133" s="7">
         <f t="shared" ref="C133:C196" si="2">IF(OR(ISBLANK(B133),ISBLANK(B139)),"",SUM(B133:B139)/D133*100000)</f>
-        <v>9.820119952765223E-3</v>
+        <v>0</v>
       </c>
       <c r="D133" s="13">
         <v>10183175</v>
@@ -34732,7 +34744,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B134" s="10">
         <v>0</v>
@@ -34754,7 +34766,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B135" s="10">
         <v>0</v>
@@ -34776,7 +34788,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B136" s="10">
         <v>0</v>
@@ -34798,7 +34810,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="B137" s="10">
         <v>0</v>
@@ -34820,7 +34832,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>43863</v>
+        <v>43864</v>
       </c>
       <c r="B138" s="10">
         <v>0</v>
@@ -34842,10 +34854,10 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>43862</v>
+        <v>43863</v>
       </c>
       <c r="B139" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" s="7">
         <f t="shared" si="2"/>
@@ -34864,14 +34876,14 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="B140" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.820119952765223E-3</v>
       </c>
       <c r="D140" s="13">
         <v>10183175</v>
@@ -34886,7 +34898,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="B141" s="10">
         <v>0</v>
@@ -34908,7 +34920,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="B142" s="10">
         <v>0</v>
@@ -34930,7 +34942,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B143" s="10">
         <v>0</v>
@@ -34952,7 +34964,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>43857</v>
+        <v>43858</v>
       </c>
       <c r="B144" s="10">
         <v>0</v>
@@ -34974,7 +34986,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>43856</v>
+        <v>43857</v>
       </c>
       <c r="B145" s="10">
         <v>0</v>
@@ -34996,7 +35008,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>43855</v>
+        <v>43856</v>
       </c>
       <c r="B146" s="10">
         <v>0</v>
@@ -35018,7 +35030,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>43854</v>
+        <v>43855</v>
       </c>
       <c r="B147" s="10">
         <v>0</v>
@@ -35040,7 +35052,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>43853</v>
+        <v>43854</v>
       </c>
       <c r="B148" s="10">
         <v>0</v>
@@ -35062,7 +35074,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="B149" s="10">
         <v>0</v>
@@ -35084,7 +35096,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="B150" s="10">
         <v>0</v>
@@ -35106,7 +35118,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="B151" s="10">
         <v>0</v>
@@ -35128,7 +35140,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>43849</v>
+        <v>43850</v>
       </c>
       <c r="B152" s="10">
         <v>0</v>
@@ -35150,7 +35162,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="B153" s="10">
         <v>0</v>
@@ -35172,7 +35184,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>43847</v>
+        <v>43848</v>
       </c>
       <c r="B154" s="10">
         <v>0</v>
@@ -35194,7 +35206,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="B155" s="10">
         <v>0</v>
@@ -35216,7 +35228,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="B156" s="10">
         <v>0</v>
@@ -35238,7 +35250,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="B157" s="10">
         <v>0</v>
@@ -35260,7 +35272,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>43843</v>
+        <v>43844</v>
       </c>
       <c r="B158" s="10">
         <v>0</v>
@@ -35282,7 +35294,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>43842</v>
+        <v>43843</v>
       </c>
       <c r="B159" s="10">
         <v>0</v>
@@ -35304,7 +35316,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>43841</v>
+        <v>43842</v>
       </c>
       <c r="B160" s="10">
         <v>0</v>
@@ -35326,7 +35338,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>43840</v>
+        <v>43841</v>
       </c>
       <c r="B161" s="10">
         <v>0</v>
@@ -35348,7 +35360,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>43839</v>
+        <v>43840</v>
       </c>
       <c r="B162" s="10">
         <v>0</v>
@@ -35370,7 +35382,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>43838</v>
+        <v>43839</v>
       </c>
       <c r="B163" s="10">
         <v>0</v>
@@ -35392,7 +35404,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="B164" s="10">
         <v>0</v>
@@ -35414,7 +35426,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="B165" s="10">
         <v>0</v>
@@ -35436,14 +35448,14 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>43835</v>
+        <v>43836</v>
       </c>
       <c r="B166" s="10">
         <v>0</v>
       </c>
-      <c r="C166" s="7" t="str">
+      <c r="C166" s="7">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D166" s="13">
         <v>10183175</v>
@@ -35458,7 +35470,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>43834</v>
+        <v>43835</v>
       </c>
       <c r="B167" s="10">
         <v>0</v>
@@ -35480,7 +35492,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>43833</v>
+        <v>43834</v>
       </c>
       <c r="B168" s="10">
         <v>0</v>
@@ -35502,7 +35514,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>43832</v>
+        <v>43833</v>
       </c>
       <c r="B169" s="10">
         <v>0</v>
@@ -35524,7 +35536,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>43831</v>
+        <v>43832</v>
       </c>
       <c r="B170" s="10">
         <v>0</v>
@@ -35546,7 +35558,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="B171" s="10">
         <v>0</v>
@@ -35567,13 +35579,19 @@
       <c r="K171" s="10"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
-      <c r="B172" s="10"/>
+      <c r="A172" s="4">
+        <v>43830</v>
+      </c>
+      <c r="B172" s="10">
+        <v>0</v>
+      </c>
       <c r="C172" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D172" s="13"/>
+      <c r="D172" s="13">
+        <v>10183175</v>
+      </c>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A6A259-6CCB-42A6-AD80-947737EF4F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE320A23-AF49-4B1D-A244-40E916E30234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="3180" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <t>Einwohner</t>
   </si>
   <si>
-    <t>Datenabruf: Mittwoch 2020-06-17 00:29</t>
+    <t>Datenabruf: Mittwoch 2020-06-17 17:40</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Mittwoch 2020-06-17 00:29</a:t>
+              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Mittwoch 2020-06-17 17:40</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -394,187 +394,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43998</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43997</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43996</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43939</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,187 +586,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>64.439047680925327</c:v>
+                  <c:v>62.047395573158454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.459079171334182</c:v>
+                  <c:v>75.061081536068102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.055072873252414</c:v>
+                  <c:v>71.662418014504652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.471433361649076</c:v>
+                  <c:v>70.045390071196678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.692469171652746</c:v>
+                  <c:v>70.461750559593327</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.291134261830123</c:v>
+                  <c:v>67.682786369597011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.33787963483055</c:v>
+                  <c:v>65.281451459774402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.300151177588504</c:v>
+                  <c:v>62.328196832774815</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>58.290468375532761</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>57.854742283024628</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>58.832705290653998</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>56.925193285673934</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>53.110169275713822</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>49.556580921258586</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>46.932541564154029</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>44.473109841997008</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43.194979970639807</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>41.849070484892458</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>41.316516371826957</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>41.035715112210603</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>38.64406300444373</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>37.123863081693123</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>37.211008300194749</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>36.087803261729334</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>36.562260562460416</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>36.126534469952283</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>37.888804444096294</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>38.585966192109311</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>37.578954778312728</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>38.653745806499465</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>38.934547066115819</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>39.118520305174812</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>40.580623415590999</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>40.59998901970247</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>41.916850099282613</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>42.217016963010437</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>40.880790279318823</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>41.026032310154868</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>40.871107477263088</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>38.828036243502723</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>37.07544907141444</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>35.681125575388407</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>36.436384135735842</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>37.394981539253742</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>38.121191693433964</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>38.48913817155195</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>40.183628531305807</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>42.643060253462835</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43.417684417921748</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>42.371941795902217</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>41.839387682836723</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>40.725865446427036</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>41.57795202733184</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>42.149237348620282</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>41.200322747158118</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>39.893144469633718</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>38.750573827056826</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>36.320190511067004</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>37.056083467302969</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>35.729539585667091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,187 +830,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43998</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43997</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43996</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43939</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,187 +1022,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>72.659067530509887</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>71.195869657547874</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>67.601705754835791</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>69.172924947278233</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>66.236709081401429</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>62.897868297461251</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>59.02874103607175</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>72.030579853532913</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>71.873457934288666</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>70.587022220476413</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>66.521492560031618</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>63.467435254721636</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>60.452658429222708</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>56.121985530053252</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>40.743677684022906</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>38.995696332430697</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>40.095549767140405</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>38.543970814603497</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>36.010379866790075</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>34.910526432080367</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>35.008727631608025</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>35.755056748018177</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>34.036535756284266</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>32.563517763369482</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>34.478441154158702</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>35.372072069860337</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>35.254230630427152</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>35.489913509293515</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>34.635563073402942</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>36.403184664900685</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>37.52267833951592</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>36.884370542586176</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>38.710912853800508</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>38.877854892997519</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>39.192098731486006</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>39.830406528415743</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>38.779653693469868</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>39.329580410824718</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>37.699440498665695</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>36.776349223105761</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>34.674843553214004</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>35.50955374919905</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>35.303331230190977</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>37.267355220744022</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>36.108581066317726</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>38.347568415548196</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>38.818934173280923</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>42.589860235142773</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>42.206875556984933</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>42.216695676937697</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>40.743677684022906</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>41.784610399016024</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>42.766622394292547</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>42.727341914481485</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>41.391805600905414</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>40.036629047423816</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>38.072605056870771</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>37.601239299138037</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>38.318108055689898</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>36.049660346601136</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>34.674843553214004</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>33.378587719448994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,187 +1247,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43998</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43997</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43996</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43939</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,187 +1439,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>74.372333491940992</c:v>
+                  <c:v>91.965788726593715</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>96.764003790589896</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>78.770697300604169</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>71.973225959942909</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>55.579324491289242</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45.18319185263082</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>35.186910469305417</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>37.985869256636533</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>39.185423022635582</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>38.385720511969545</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34.787059213972405</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>34.787059213972405</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>34.787059213972405</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>33.187654192640338</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>35.186910469305417</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>29.98884414997621</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>27.98958787331113</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>27.189885362645096</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.59196778798287</c:v>
+                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.39464519198858</c:v>
+                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>14.39464519198858</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>11.195835149324452</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>8.7967276173263542</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>9.1965788726593711</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>9.9962813833254032</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>9.5964301279923863</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>12.395388915323501</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>15.994050213320644</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>15.194347702654612</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>13.594942681322548</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>17.193603979319693</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>17.193603979319693</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>16.393901468653663</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>16.793752723986675</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>19.592711511317791</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>17.993306489985727</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>18.393157745318742</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>22.391670298648904</c:v>
+                  <c:v>21.991819043315886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,82 +2335,82 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B4" s="11">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C67" si="0">IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/$O$6*100000)</f>
-        <v>64.439047680925327</v>
+        <v>62.047395573158454</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:E67" si="1">IF(OR(ISBLANK(D4),ISBLANK(D10)),"",SUM(D4:D10)/$O$7*100000)</f>
-        <v>74.372333491940992</v>
+        <v>91.965788726593715</v>
       </c>
       <c r="F4" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G67" si="2">IF(OR(ISBLANK(F4),ISBLANK(F10)),"",SUM(F4:F10)/$O$8*100000)</f>
-        <v>36.843114231626373</v>
+        <v>43.133402027269895</v>
       </c>
       <c r="H4" s="12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="9">
         <f>IF(OR(ISBLANK(H4),ISBLANK(H10)),"",SUM(H4:H10)/$O$9*100000)</f>
-        <v>145.72267728771567</v>
+        <v>133.43909574298576</v>
       </c>
       <c r="J4" s="11">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K67" si="3">IF(OR(ISBLANK(J4),ISBLANK(J10)),"",SUM(J4:J10)/$O$10*100000)</f>
-        <v>47.116610666611699</v>
+        <v>45.013190547566531</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B5" s="10">
-        <v>688</v>
+        <v>1285</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>71.459079171334182</v>
+        <v>75.061081536068102</v>
       </c>
       <c r="D5" s="10">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>78.770697300604169</v>
+        <v>96.764003790589896</v>
       </c>
       <c r="F5" s="3">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="2"/>
-        <v>43.432939541348162</v>
+        <v>49.423689822913417</v>
       </c>
       <c r="H5" s="3">
-        <v>201</v>
+        <v>352</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" ref="I5:I68" si="4">IF(OR(ISBLANK(H5),ISBLANK(H11)),"",SUM(H5:H11)/$O$9*100000)</f>
-        <v>157.77449314292238</v>
+        <v>164.43775671671452</v>
       </c>
       <c r="J5" s="10">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="3"/>
-        <v>55.698564752315974</v>
+        <v>56.077180373744099</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>6</v>
@@ -2418,42 +2418,42 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B6" s="10">
-        <v>419</v>
+        <v>710</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>70.055072873252414</v>
+        <v>71.662418014504652</v>
       </c>
       <c r="D6" s="10">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>71.973225959942909</v>
+        <v>78.770697300604169</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>45.829239653974263</v>
+        <v>43.432939541348162</v>
       </c>
       <c r="H6" s="3">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>153.25506219721984</v>
+        <v>158.99126301291921</v>
       </c>
       <c r="J6" s="10">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="3"/>
-        <v>55.109607118983327</v>
+        <v>55.530291142792365</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
@@ -2464,42 +2464,42 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B7" s="10">
-        <v>1113</v>
+        <v>419</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>70.471433361649076</v>
+        <v>70.045390071196678</v>
       </c>
       <c r="D7" s="10">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>55.579324491289242</v>
+        <v>71.973225959942909</v>
       </c>
       <c r="F7" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>47.027389710287316</v>
+        <v>45.829239653974263</v>
       </c>
       <c r="H7" s="3">
-        <v>448</v>
+        <v>162</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>157.19507891911437</v>
+        <v>153.25506219721984</v>
       </c>
       <c r="J7" s="10">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
-        <v>53.931691852318032</v>
+        <v>54.941333509459717</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -2510,42 +2510,42 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B8" s="10">
-        <v>1391</v>
+        <v>1113</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>67.692469171652746</v>
+        <v>70.461750559593327</v>
       </c>
       <c r="D8" s="10">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>45.18319185263082</v>
+        <v>55.579324491289242</v>
       </c>
       <c r="F8" s="3">
         <v>24</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>45.529702139895996</v>
+        <v>47.027389710287316</v>
       </c>
       <c r="H8" s="3">
-        <v>541</v>
+        <v>448</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="4"/>
-        <v>147.69268564866292</v>
+        <v>157.19507891911437</v>
       </c>
       <c r="J8" s="10">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>54.899265107078811</v>
+        <v>53.763418242794422</v>
       </c>
       <c r="N8" t="s">
         <v>2</v>
@@ -2556,42 +2556,42 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B9" s="10">
-        <v>1347</v>
+        <v>1391</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>65.291134261830123</v>
+        <v>67.682786369597011</v>
       </c>
       <c r="D9" s="10">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>35.186910469305417</v>
+        <v>45.18319185263082</v>
       </c>
       <c r="F9" s="3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>45.230164625817736</v>
+        <v>45.529702139895996</v>
       </c>
       <c r="H9" s="3">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="4"/>
-        <v>144.33208315057644</v>
+        <v>147.69268564866292</v>
       </c>
       <c r="J9" s="10">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>56.119248776125005</v>
+        <v>54.730991497555195</v>
       </c>
       <c r="N9" t="s">
         <v>8</v>
@@ -2602,42 +2602,42 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B10" s="10">
-        <v>1487</v>
+        <v>1347</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>62.33787963483055</v>
+        <v>65.281451459774402</v>
       </c>
       <c r="D10" s="10">
         <v>12</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>37.985869256636533</v>
+        <v>35.186910469305417</v>
       </c>
       <c r="F10" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>43.133402027269895</v>
+        <v>45.230164625817736</v>
       </c>
       <c r="H10" s="3">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="4"/>
-        <v>137.14734677535705</v>
+        <v>144.33208315057644</v>
       </c>
       <c r="J10" s="10">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>55.950975166601388</v>
+        <v>56.119248776125005</v>
       </c>
       <c r="N10" t="s">
         <v>3</v>
@@ -2648,718 +2648,718 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B11" s="10">
-        <v>935</v>
+        <v>1487</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>58.300151177588504</v>
+        <v>62.328196832774815</v>
       </c>
       <c r="D11" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>39.185423022635582</v>
+        <v>37.985869256636533</v>
       </c>
       <c r="F11" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>38.640339316095947</v>
+        <v>43.133402027269895</v>
       </c>
       <c r="H11" s="3">
-        <v>258</v>
+        <v>584</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="4"/>
-        <v>128.16642630633282</v>
+        <v>137.14734677535705</v>
       </c>
       <c r="J11" s="10">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>55.23581232612603</v>
+        <v>55.950975166601388</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B12" s="10">
-        <v>543</v>
+        <v>934</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>57.854742283024628</v>
+        <v>58.290468375532761</v>
       </c>
       <c r="D12" s="10">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>38.385720511969545</v>
+        <v>39.185423022635582</v>
       </c>
       <c r="F12" s="3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>39.239414344252474</v>
+        <v>38.640339316095947</v>
       </c>
       <c r="H12" s="3">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="4"/>
-        <v>128.80378195252166</v>
+        <v>128.16642630633282</v>
       </c>
       <c r="J12" s="10">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>52.122750549939191</v>
+        <v>55.23581232612603</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B13" s="10">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>58.832705290653998</v>
+        <v>57.854742283024628</v>
       </c>
       <c r="D13" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>34.787059213972405</v>
+        <v>38.385720511969545</v>
       </c>
       <c r="F13" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>40.737101914643794</v>
+        <v>39.239414344252474</v>
       </c>
       <c r="H13" s="3">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="4"/>
-        <v>127.06553928109759</v>
+        <v>128.80378195252166</v>
       </c>
       <c r="J13" s="10">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>53.468939426128095</v>
+        <v>52.122750549939191</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B14" s="10">
-        <v>826</v>
+        <v>462</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>56.925193285673934</v>
+        <v>58.832705290653998</v>
       </c>
       <c r="D14" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>34.787059213972405</v>
       </c>
       <c r="F14" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>40.437564400565527</v>
+        <v>40.737101914643794</v>
       </c>
       <c r="H14" s="3">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="4"/>
-        <v>119.4752129492126</v>
+        <v>127.06553928109759</v>
       </c>
       <c r="J14" s="10">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>54.310307473746164</v>
+        <v>53.468939426128095</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B15" s="10">
-        <v>1143</v>
+        <v>826</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>53.110169275713822</v>
+        <v>56.925193285673934</v>
       </c>
       <c r="D15" s="10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>33.187654192640338</v>
+        <v>34.787059213972405</v>
       </c>
       <c r="F15" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>38.04126428793942</v>
+        <v>40.437564400565527</v>
       </c>
       <c r="H15" s="3">
-        <v>483</v>
+        <v>284</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="4"/>
-        <v>109.79899541161878</v>
+        <v>119.4752129492126</v>
       </c>
       <c r="J15" s="10">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="3"/>
-        <v>48.673141554705118</v>
+        <v>54.310307473746164</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B16" s="10">
-        <v>1042</v>
+        <v>1143</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>49.556580921258586</v>
+        <v>53.110169275713822</v>
       </c>
       <c r="D16" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>35.186910469305417</v>
+        <v>33.187654192640338</v>
       </c>
       <c r="F16" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>36.244039203469846</v>
+        <v>38.04126428793942</v>
       </c>
       <c r="H16" s="3">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="4"/>
-        <v>94.734225592610386</v>
+        <v>109.79899541161878</v>
       </c>
       <c r="J16" s="10">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="3"/>
-        <v>47.83177350708705</v>
+        <v>48.673141554705118</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B17" s="10">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>46.932541564154029</v>
+        <v>49.556580921258586</v>
       </c>
       <c r="D17" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
-        <v>29.98884414997621</v>
+        <v>35.186910469305417</v>
       </c>
       <c r="F17" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>37.741726773861153</v>
+        <v>36.244039203469846</v>
       </c>
       <c r="H17" s="3">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="4"/>
-        <v>77.17797461122754</v>
+        <v>94.734225592610386</v>
       </c>
       <c r="J17" s="10">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
-        <v>50.482082857083967</v>
+        <v>47.83177350708705</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B18" s="10">
-        <v>889</v>
+        <v>1070</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>44.473109841997008</v>
+        <v>46.932541564154029</v>
       </c>
       <c r="D18" s="10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>27.98958787331113</v>
+        <v>29.98884414997621</v>
       </c>
       <c r="F18" s="3">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>44.631089597661216</v>
+        <v>37.741726773861153</v>
       </c>
       <c r="H18" s="3">
-        <v>269</v>
+        <v>429</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="4"/>
-        <v>58.462895182228671</v>
+        <v>77.17797461122754</v>
       </c>
       <c r="J18" s="10">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
-        <v>49.430372797561382</v>
+        <v>50.482082857083967</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B19" s="10">
-        <v>644</v>
+        <v>889</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>43.194979970639807</v>
+        <v>44.473109841997008</v>
       </c>
       <c r="D19" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>27.189885362645096</v>
+        <v>27.98958787331113</v>
       </c>
       <c r="F19" s="3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>41.635714456878574</v>
+        <v>44.631089597661216</v>
       </c>
       <c r="H19" s="3">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="4"/>
-        <v>49.829623247489252</v>
+        <v>58.462895182228671</v>
       </c>
       <c r="J19" s="10">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
-        <v>51.99654534279648</v>
+        <v>49.430372797561382</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B20" s="10">
-        <v>265</v>
+        <v>644</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>41.849070484892458</v>
+        <v>43.194979970639807</v>
       </c>
       <c r="D20" s="10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>27.189885362645096</v>
       </c>
       <c r="F20" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>37.442189259782893</v>
+        <v>41.635714456878574</v>
       </c>
       <c r="H20" s="3">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
-        <v>50.640803160820475</v>
+        <v>49.829623247489252</v>
       </c>
       <c r="J20" s="10">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
-        <v>52.879981792795448</v>
+        <v>51.99654534279648</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B21" s="10">
-        <v>432</v>
+        <v>265</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>41.316516371826957</v>
+        <v>41.849070484892458</v>
       </c>
       <c r="D21" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>22.391670298648904</v>
       </c>
       <c r="F21" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
-        <v>35.944501689391579</v>
+        <v>37.442189259782893</v>
       </c>
       <c r="H21" s="3">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="4"/>
-        <v>46.469020749402766</v>
+        <v>50.640803160820475</v>
       </c>
       <c r="J21" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
-        <v>52.543434573748222</v>
+        <v>52.879981792795448</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B22" s="10">
-        <v>776</v>
+        <v>432</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>41.035715112210603</v>
+        <v>41.316516371826957</v>
       </c>
       <c r="D22" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F22" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>34.446814119000265</v>
+        <v>35.944501689391579</v>
       </c>
       <c r="H22" s="3">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.469020749402766</v>
       </c>
       <c r="J22" s="10">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
-        <v>52.753776585652744</v>
+        <v>52.543434573748222</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B23" s="10">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>38.64406300444373</v>
+        <v>41.035715112210603</v>
       </c>
       <c r="D23" s="10">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F23" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="2"/>
-        <v>31.750976492295894</v>
+        <v>34.446814119000265</v>
       </c>
       <c r="H23" s="3">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="4"/>
-        <v>40.095464287514609</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J23" s="10">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
-        <v>49.808988418989507</v>
+        <v>52.753776585652744</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B24" s="10">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>37.123863081693123</v>
+        <v>38.64406300444373</v>
       </c>
       <c r="D24" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
         <v>14.39464519198858</v>
       </c>
       <c r="F24" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>31.750976492295894</v>
       </c>
       <c r="H24" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="4"/>
-        <v>43.91959816464751</v>
+        <v>40.095464287514609</v>
       </c>
       <c r="J24" s="10">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>43.162180842806784</v>
+        <v>49.808988418989507</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B25" s="10">
-        <v>757</v>
+        <v>816</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>37.211008300194749</v>
+        <v>37.123863081693123</v>
       </c>
       <c r="D25" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F25" s="3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
-        <v>29.05513886559153</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H25" s="3">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>43.91959816464751</v>
       </c>
       <c r="J25" s="10">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>41.731855161856075</v>
+        <v>43.162180842806784</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B26" s="10">
-        <v>505</v>
+        <v>757</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>37.211008300194749</v>
       </c>
       <c r="D26" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
-        <v>11.195835149324452</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F26" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>26.958376267043683</v>
+        <v>29.05513886559153</v>
       </c>
       <c r="H26" s="3">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="4"/>
-        <v>46.295196482260366</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J26" s="10">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
-        <v>41.269102735666138</v>
+        <v>41.731855161856075</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B27" s="10">
-        <v>210</v>
+        <v>505</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>36.087803261729334</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D27" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
-        <v>8.7967276173263542</v>
+        <v>11.195835149324452</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
-        <v>30.253288921904577</v>
+        <v>26.958376267043683</v>
       </c>
       <c r="H27" s="3">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="4"/>
-        <v>42.413121182746664</v>
+        <v>46.295196482260366</v>
       </c>
       <c r="J27" s="10">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
-        <v>41.100829126142528</v>
+        <v>41.269102735666138</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B28" s="10">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>36.562260562460416</v>
+        <v>36.087803261729334</v>
       </c>
       <c r="D28" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="1"/>
-        <v>9.1965788726593711</v>
+        <v>8.7967276173263542</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>30.852363950061104</v>
+        <v>30.253288921904577</v>
       </c>
       <c r="H28" s="3">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="4"/>
-        <v>46.005489370356358</v>
+        <v>42.413121182746664</v>
       </c>
       <c r="J28" s="10">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
@@ -3368,1654 +3368,1654 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B29" s="10">
-        <v>529</v>
+        <v>403</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>36.126534469952283</v>
+        <v>36.562260562460416</v>
       </c>
       <c r="D29" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
-        <v>9.9962813833254032</v>
+        <v>9.1965788726593711</v>
       </c>
       <c r="F29" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="2"/>
-        <v>31.451438978217631</v>
+        <v>30.852363950061104</v>
       </c>
       <c r="H29" s="3">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="4"/>
-        <v>46.758727861306781</v>
+        <v>46.005489370356358</v>
       </c>
       <c r="J29" s="10">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
-        <v>40.511871492809881</v>
+        <v>41.100829126142528</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B30" s="10">
-        <v>614</v>
+        <v>529</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>37.888804444096294</v>
+        <v>36.126534469952283</v>
       </c>
       <c r="D30" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
-        <v>9.5964301279923863</v>
+        <v>9.9962813833254032</v>
       </c>
       <c r="F30" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>35.644964175313319</v>
+        <v>31.451438978217631</v>
       </c>
       <c r="H30" s="3">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="4"/>
-        <v>47.222259240353189</v>
+        <v>46.758727861306781</v>
       </c>
       <c r="J30" s="10">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
-        <v>43.078044038044979</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B31" s="10">
-        <v>825</v>
+        <v>614</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>38.585966192109311</v>
+        <v>37.888804444096294</v>
       </c>
       <c r="D31" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
         <v>9.5964301279923863</v>
       </c>
       <c r="F31" s="3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="2"/>
-        <v>36.543576717548106</v>
+        <v>35.644964175313319</v>
       </c>
       <c r="H31" s="3">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="4"/>
-        <v>46.237255059879566</v>
+        <v>47.222259240353189</v>
       </c>
       <c r="J31" s="10">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
-        <v>45.307669364232851</v>
+        <v>43.078044038044979</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B32" s="10">
-        <v>689</v>
+        <v>825</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>37.578954778312728</v>
+        <v>38.585966192109311</v>
       </c>
       <c r="D32" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F32" s="3">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
-        <v>26.059763724808892</v>
+        <v>36.543576717548106</v>
       </c>
       <c r="H32" s="3">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.237255059879566</v>
       </c>
       <c r="J32" s="10">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
-        <v>48.168320726134283</v>
+        <v>45.307669364232851</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B33" s="10">
-        <v>457</v>
+        <v>689</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>38.653745806499465</v>
+        <v>37.578954778312728</v>
       </c>
       <c r="D33" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F33" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>26.059763724808892</v>
       </c>
       <c r="H33" s="3">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J33" s="10">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
-        <v>51.449656111844739</v>
+        <v>48.168320726134283</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B34" s="10">
-        <v>259</v>
+        <v>457</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>38.934547066115819</v>
+        <v>38.653745806499465</v>
       </c>
       <c r="D34" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F34" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
-        <v>23.064388584026261</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H34" s="3">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J34" s="10">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
-        <v>54.142033864222554</v>
+        <v>51.449656111844739</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B35" s="10">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>39.118520305174812</v>
+        <v>38.934547066115819</v>
       </c>
       <c r="D35" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
-        <v>15.994050213320644</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="2"/>
         <v>23.064388584026261</v>
       </c>
       <c r="H35" s="3">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="4"/>
-        <v>47.801673464161205</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J35" s="10">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
-        <v>54.941333509459717</v>
+        <v>54.142033864222554</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B36" s="10">
-        <v>711</v>
+        <v>358</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>40.580623415590999</v>
+        <v>39.118520305174812</v>
       </c>
       <c r="D36" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F36" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>23.064388584026261</v>
       </c>
       <c r="H36" s="3">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="4"/>
-        <v>48.49697053273082</v>
+        <v>47.801673464161205</v>
       </c>
       <c r="J36" s="10">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
-        <v>57.044753628504878</v>
+        <v>54.941333509459717</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B37" s="10">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>40.59998901970247</v>
+        <v>40.580623415590999</v>
       </c>
       <c r="D37" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F37" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="2"/>
-        <v>20.069013443243634</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H37" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="4"/>
-        <v>47.048434973210782</v>
+        <v>48.49697053273082</v>
       </c>
       <c r="J37" s="10">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>58.222668895170173</v>
+        <v>57.044753628504878</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B38" s="10">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>41.916850099282613</v>
+        <v>40.59998901970247</v>
       </c>
       <c r="D38" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
-        <v>15.194347702654612</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F38" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>20.668088471400157</v>
+        <v>20.069013443243634</v>
       </c>
       <c r="H38" s="3">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="4"/>
-        <v>47.801673464161205</v>
+        <v>47.048434973210782</v>
       </c>
       <c r="J38" s="10">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
-        <v>63.565355997544884</v>
+        <v>58.222668895170173</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B39" s="10">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>42.217016963010437</v>
+        <v>41.916850099282613</v>
       </c>
       <c r="D39" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>13.594942681322548</v>
+        <v>15.194347702654612</v>
       </c>
       <c r="F39" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="2"/>
-        <v>25.460688696652372</v>
+        <v>20.668088471400157</v>
       </c>
       <c r="H39" s="3">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="4"/>
-        <v>50.351096048916467</v>
+        <v>47.801673464161205</v>
       </c>
       <c r="J39" s="10">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
-        <v>61.630209488023333</v>
+        <v>63.565355997544884</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B40" s="10">
-        <v>486</v>
+        <v>800</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>40.880790279318823</v>
+        <v>42.217016963010437</v>
       </c>
       <c r="D40" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F40" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
-        <v>27.856988809278473</v>
+        <v>25.460688696652372</v>
       </c>
       <c r="H40" s="3">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="4"/>
-        <v>48.033439153684405</v>
+        <v>50.351096048916467</v>
       </c>
       <c r="J40" s="10">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
-        <v>57.128890433266676</v>
+        <v>61.630209488023333</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B41" s="10">
-        <v>278</v>
+        <v>486</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>41.026032310154868</v>
+        <v>40.880790279318823</v>
       </c>
       <c r="D41" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F41" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="2"/>
         <v>27.856988809278473</v>
       </c>
       <c r="H41" s="10">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="4"/>
-        <v>49.250209023681244</v>
+        <v>48.033439153684405</v>
       </c>
       <c r="J41" s="10">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
-        <v>54.268239071365258</v>
+        <v>57.128890433266676</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B42" s="10">
-        <v>509</v>
+        <v>278</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>40.871107477263088</v>
+        <v>41.026032310154868</v>
       </c>
       <c r="D42" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F42" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
-        <v>27.257913781121946</v>
+        <v>27.856988809278473</v>
       </c>
       <c r="H42" s="10">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="4"/>
-        <v>46.700786438925974</v>
+        <v>49.250209023681244</v>
       </c>
       <c r="J42" s="10">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="3"/>
-        <v>56.371659190410419</v>
+        <v>54.268239071365258</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B43" s="10">
-        <v>713</v>
+        <v>509</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>38.828036243502723</v>
+        <v>40.871107477263088</v>
       </c>
       <c r="D43" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F43" s="10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>27.257913781121946</v>
       </c>
       <c r="H43" s="10">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="4"/>
-        <v>42.297238337985064</v>
+        <v>46.700786438925974</v>
       </c>
       <c r="J43" s="10">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
-        <v>54.941333509459717</v>
+        <v>56.371659190410419</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B44" s="10">
-        <v>822</v>
+        <v>713</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>37.07544907141444</v>
+        <v>38.828036243502723</v>
       </c>
       <c r="D44" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F44" s="10">
         <v>15</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>24.262538640339319</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H44" s="10">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>41.949589803700256</v>
+        <v>42.297238337985064</v>
       </c>
       <c r="J44" s="10">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="3"/>
-        <v>50.986903685654802</v>
+        <v>54.941333509459717</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B45" s="10">
-        <v>752</v>
+        <v>822</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>35.681125575388407</v>
+        <v>37.07544907141444</v>
       </c>
       <c r="D45" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F45" s="10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>24.262538640339319</v>
       </c>
       <c r="H45" s="10">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="4"/>
-        <v>37.951631659424955</v>
+        <v>41.949589803700256</v>
       </c>
       <c r="J45" s="10">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="3"/>
-        <v>49.009688773752345</v>
+        <v>50.986903685654802</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B46" s="10">
-        <v>662</v>
+        <v>752</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>36.436384135735842</v>
+        <v>35.681125575388407</v>
       </c>
       <c r="D46" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F46" s="10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H46" s="10">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="4"/>
-        <v>36.329271832762508</v>
+        <v>37.951631659424955</v>
       </c>
       <c r="J46" s="10">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="3"/>
-        <v>51.786203330891965</v>
+        <v>49.009688773752345</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B47" s="10">
-        <v>501</v>
+        <v>662</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>37.394981539253742</v>
+        <v>36.436384135735842</v>
       </c>
       <c r="D47" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F47" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="2"/>
-        <v>14.976875703913157</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H47" s="10">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="4"/>
-        <v>34.764853428480876</v>
+        <v>36.329271832762508</v>
       </c>
       <c r="J47" s="10">
         <v>173</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="3"/>
-        <v>55.404085935649647</v>
+        <v>51.786203330891965</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B48" s="10">
-        <v>262</v>
+        <v>501</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>38.121191693433964</v>
+        <v>37.394981539253742</v>
       </c>
       <c r="D48" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F48" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>17.373175816539263</v>
+        <v>14.976875703913157</v>
       </c>
       <c r="H48" s="10">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="4"/>
-        <v>36.155447565620108</v>
+        <v>34.764853428480876</v>
       </c>
       <c r="J48" s="10">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="3"/>
-        <v>57.633711261837526</v>
+        <v>55.404085935649647</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B49" s="10">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>38.48913817155195</v>
+        <v>38.121191693433964</v>
       </c>
       <c r="D49" s="10">
         <v>1</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F49" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H49" s="10">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="4"/>
-        <v>36.387213255143315</v>
+        <v>36.155447565620108</v>
       </c>
       <c r="J49" s="10">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="3"/>
-        <v>56.876480018981269</v>
+        <v>57.633711261837526</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B50" s="10">
-        <v>532</v>
+        <v>298</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>40.183628531305807</v>
+        <v>38.48913817155195</v>
       </c>
       <c r="D50" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F50" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>16.474563274304476</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H50" s="10">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="4"/>
-        <v>39.921640020372202</v>
+        <v>36.387213255143315</v>
       </c>
       <c r="J50" s="10">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="3"/>
-        <v>59.316447357073656</v>
+        <v>56.876480018981269</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B51" s="10">
-        <v>678</v>
+        <v>532</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>42.643060253462835</v>
+        <v>40.183628531305807</v>
       </c>
       <c r="D51" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F51" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>16.474563274304476</v>
       </c>
       <c r="H51" s="10">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="4"/>
-        <v>41.312234157511433</v>
+        <v>39.921640020372202</v>
       </c>
       <c r="J51" s="10">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="3"/>
-        <v>63.186740376116752</v>
+        <v>59.316447357073656</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B52" s="10">
-        <v>830</v>
+        <v>678</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>43.417684417921748</v>
+        <v>42.643060253462835</v>
       </c>
       <c r="D52" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F52" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>23.963001126261055</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H52" s="10">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="4"/>
-        <v>39.979581442753009</v>
+        <v>41.312234157511433</v>
       </c>
       <c r="J52" s="10">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="3"/>
-        <v>64.617066057067476</v>
+        <v>63.186740376116752</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B53" s="10">
-        <v>761</v>
+        <v>830</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>42.371941795902217</v>
+        <v>43.417684417921748</v>
       </c>
       <c r="D53" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F53" s="10">
         <v>10</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>23.963001126261055</v>
       </c>
       <c r="H53" s="10">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>35.923681876096907</v>
+        <v>39.979581442753009</v>
       </c>
       <c r="J53" s="10">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="3"/>
-        <v>64.9956816784956</v>
+        <v>64.617066057067476</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B54" s="10">
-        <v>576</v>
+        <v>761</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>41.839387682836723</v>
+        <v>42.371941795902217</v>
       </c>
       <c r="D54" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E54" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F54" s="10">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>28.755601351513267</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H54" s="10">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="4"/>
-        <v>38.241338771328962</v>
+        <v>35.923681876096907</v>
       </c>
       <c r="J54" s="10">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="3"/>
-        <v>60.957115049928888</v>
+        <v>64.9956816784956</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B55" s="10">
-        <v>300</v>
+        <v>576</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>40.725865446427036</v>
+        <v>41.839387682836723</v>
       </c>
       <c r="D55" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F55" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="2"/>
-        <v>26.359301238887156</v>
+        <v>28.755601351513267</v>
       </c>
       <c r="H55" s="10">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="4"/>
-        <v>35.402209074669692</v>
+        <v>38.241338771328962</v>
       </c>
       <c r="J55" s="10">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="3"/>
-        <v>60.326089014215334</v>
+        <v>60.957115049928888</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B56" s="10">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>41.57795202733184</v>
+        <v>40.725865446427036</v>
       </c>
       <c r="D56" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56" s="7">
         <f t="shared" si="1"/>
         <v>16.393901468653663</v>
       </c>
       <c r="F56" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>26.359301238887156</v>
       </c>
       <c r="H56" s="10">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="4"/>
-        <v>34.533087738957668</v>
+        <v>35.402209074669692</v>
       </c>
       <c r="J56" s="10">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="3"/>
-        <v>63.7756980094494</v>
+        <v>60.326089014215334</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B57" s="10">
-        <v>786</v>
+        <v>473</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>42.149237348620282</v>
+        <v>41.57795202733184</v>
       </c>
       <c r="D57" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E57" s="7">
         <f t="shared" si="1"/>
-        <v>16.793752723986675</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F57" s="10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H57" s="10">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="4"/>
-        <v>31.867782309440802</v>
+        <v>34.533087738957668</v>
       </c>
       <c r="J57" s="10">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="3"/>
-        <v>65.542570909447335</v>
+        <v>63.7756980094494</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B58" s="10">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>41.200322747158118</v>
+        <v>42.149237348620282</v>
       </c>
       <c r="D58" s="10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E58" s="7">
         <f t="shared" si="1"/>
-        <v>19.592711511317791</v>
+        <v>16.793752723986675</v>
       </c>
       <c r="F58" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H58" s="10">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="4"/>
-        <v>27.8118827427847</v>
+        <v>31.867782309440802</v>
       </c>
       <c r="J58" s="10">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="3"/>
-        <v>65.037750080876506</v>
+        <v>65.542570909447335</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B59" s="10">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>39.893144469633718</v>
+        <v>41.200322747158118</v>
       </c>
       <c r="D59" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>19.592711511317791</v>
       </c>
       <c r="F59" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="2"/>
-        <v>24.861613668495846</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H59" s="10">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="4"/>
-        <v>28.507179811354316</v>
+        <v>27.8118827427847</v>
       </c>
       <c r="J59" s="10">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="3"/>
-        <v>62.092961914213276</v>
+        <v>65.037750080876506</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B60" s="10">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>38.750573827056826</v>
+        <v>39.893144469633718</v>
       </c>
       <c r="D60" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E60" s="7">
         <f t="shared" si="1"/>
-        <v>17.993306489985727</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F60" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>24.861613668495846</v>
       </c>
       <c r="H60" s="10">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="4"/>
-        <v>27.985707009927108</v>
+        <v>28.507179811354316</v>
       </c>
       <c r="J60" s="10">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="3"/>
-        <v>59.021968540407336</v>
+        <v>62.092961914213276</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B61" s="10">
-        <v>461</v>
+        <v>706</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>38.750573827056826</v>
       </c>
       <c r="D61" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" si="1"/>
-        <v>18.393157745318742</v>
+        <v>17.993306489985727</v>
       </c>
       <c r="F61" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="2"/>
-        <v>17.672713330617526</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H61" s="10">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="4"/>
-        <v>24.509221667079018</v>
+        <v>27.985707009927108</v>
       </c>
       <c r="J61" s="10">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="3"/>
-        <v>59.695062978501781</v>
+        <v>59.021968540407336</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B62" s="10">
-        <v>388</v>
+        <v>461</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>36.320190511067004</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D62" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E62" s="7">
         <f t="shared" si="1"/>
-        <v>21.991819043315886</v>
+        <v>18.393157745318742</v>
       </c>
       <c r="F62" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
-        <v>15.575950732069684</v>
+        <v>17.672713330617526</v>
       </c>
       <c r="H62" s="10">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="4"/>
-        <v>24.393338822317414</v>
+        <v>24.509221667079018</v>
       </c>
       <c r="J62" s="10">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="3"/>
-        <v>59.232310552311851</v>
+        <v>59.695062978501781</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B63" s="10">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>36.320190511067004</v>
       </c>
       <c r="D63" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="1"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F63" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="2"/>
-        <v>14.677338189834897</v>
+        <v>15.575950732069684</v>
       </c>
       <c r="H63" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>24.393338822317414</v>
       </c>
       <c r="J63" s="10">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="3"/>
-        <v>58.811626528502821</v>
+        <v>59.232310552311851</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B64" s="10">
-        <v>688</v>
+        <v>532</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>35.729539585667091</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D64" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F64" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
-        <v>13.179650619443578</v>
+        <v>14.677338189834897</v>
       </c>
       <c r="H64" s="10">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="4"/>
-        <v>24.103631710413406</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J64" s="10">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="3"/>
-        <v>59.652994576120875</v>
+        <v>58.811626528502821</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B65" s="10">
-        <v>623</v>
+        <v>688</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>33.463763904624784</v>
+        <v>35.729539585667091</v>
       </c>
       <c r="D65" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F65" s="10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>13.179650619443578</v>
       </c>
       <c r="H65" s="10">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="4"/>
-        <v>23.640100331366995</v>
+        <v>24.103631710413406</v>
       </c>
       <c r="J65" s="10">
         <v>221</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="3"/>
-        <v>56.582001202314935</v>
+        <v>59.652994576120875</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B66" s="10">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>33.676785549850983</v>
+        <v>33.463763904624784</v>
       </c>
       <c r="D66" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F66" s="10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>10.783350506817474</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H66" s="10">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="4"/>
-        <v>25.494225847552645</v>
+        <v>23.640100331366995</v>
       </c>
       <c r="J66" s="10">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="3"/>
-        <v>57.381300847552104</v>
+        <v>56.582001202314935</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B67" s="10">
-        <v>479</v>
+        <v>604</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>34.170608454693543</v>
+        <v>33.676785549850983</v>
       </c>
       <c r="D67" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="1"/>
-        <v>19.192860255984773</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F67" s="10">
         <v>6</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H67" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I67" s="7">
         <f t="shared" si="4"/>
-        <v>25.378343002791041</v>
+        <v>25.494225847552645</v>
       </c>
       <c r="J67" s="10">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="K67" s="7">
         <f t="shared" si="3"/>
-        <v>59.737131380882687</v>
+        <v>57.381300847552104</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B68" s="10">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" ref="C68:C131" si="5">IF(OR(ISBLANK(B68),ISBLANK(B74)),"",SUM(B68:B74)/$O$6*100000)</f>
-        <v>36.678454187129248</v>
+        <v>34.170608454693543</v>
       </c>
       <c r="D68" s="10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" ref="E68:E131" si="6">IF(OR(ISBLANK(D68),ISBLANK(D74)),"",SUM(D68:D74)/$O$7*100000)</f>
-        <v>24.390926575313983</v>
+        <v>19.192860255984773</v>
       </c>
       <c r="F68" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" ref="G68:G131" si="7">IF(OR(ISBLANK(F68),ISBLANK(F74)),"",SUM(F68:F74)/$O$8*100000)</f>
-        <v>13.778725647600105</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H68" s="10">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="4"/>
-        <v>25.436284425171838</v>
+        <v>25.378343002791041</v>
       </c>
       <c r="J68" s="10">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" ref="K68:K131" si="8">IF(OR(ISBLANK(J68),ISBLANK(J74)),"",SUM(J68:J74)/$O$10*100000)</f>
-        <v>62.429509133260495</v>
+        <v>59.737131380882687</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B69" s="10">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" si="5"/>
-        <v>36.213679688453908</v>
+        <v>36.678454187129248</v>
       </c>
       <c r="D69" s="10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E69" s="7">
         <f t="shared" si="6"/>
-        <v>21.59196778798287</v>
+        <v>24.390926575313983</v>
       </c>
       <c r="F69" s="10">
         <v>3</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="7"/>
-        <v>15.875488246147947</v>
+        <v>13.778725647600105</v>
       </c>
       <c r="H69" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" ref="I69:I132" si="9">IF(OR(ISBLANK(H69),ISBLANK(H75)),"",SUM(H69:H75)/$O$9*100000)</f>
-        <v>25.725991537075849</v>
+        <v>25.436284425171838</v>
       </c>
       <c r="J69" s="10">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="8"/>
-        <v>59.526789368978172</v>
+        <v>62.429509133260495</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B70" s="10">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="5"/>
-        <v>35.013012233542604</v>
+        <v>36.213679688453908</v>
       </c>
       <c r="D70" s="10">
         <v>2</v>
@@ -5025,1117 +5025,1117 @@
         <v>21.59196778798287</v>
       </c>
       <c r="F70" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="7"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H70" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="9"/>
-        <v>25.030694468506226</v>
+        <v>25.725991537075849</v>
       </c>
       <c r="J70" s="10">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="8"/>
-        <v>59.106105345169134</v>
+        <v>59.526789368978172</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B71" s="10">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="5"/>
-        <v>34.645065755424618</v>
+        <v>35.013012233542604</v>
       </c>
       <c r="D71" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E71" s="7">
         <f t="shared" si="6"/>
-        <v>21.991819043315886</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F71" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="7"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H71" s="10">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="9"/>
-        <v>24.914811623744626</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J71" s="10">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="8"/>
-        <v>56.119248776125005</v>
+        <v>59.106105345169134</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B72" s="10">
-        <v>645</v>
+        <v>454</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="5"/>
-        <v>36.068437657617864</v>
+        <v>34.645065755424618</v>
       </c>
       <c r="D72" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="6"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F72" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="7"/>
-        <v>18.271788358774053</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H72" s="10">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I72" s="7">
         <f t="shared" si="9"/>
-        <v>23.698041753747795</v>
+        <v>24.914811623744626</v>
       </c>
       <c r="J72" s="10">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="8"/>
-        <v>60.199883807072631</v>
+        <v>56.119248776125005</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B73" s="10">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="5"/>
-        <v>35.187302670545854</v>
+        <v>36.068437657617864</v>
       </c>
       <c r="D73" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E73" s="7">
         <f t="shared" si="6"/>
-        <v>23.191372809314934</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F73" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="7"/>
-        <v>17.373175816539263</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H73" s="10">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="I73" s="7">
         <f t="shared" si="9"/>
-        <v>19.700083609472497</v>
+        <v>23.698041753747795</v>
       </c>
       <c r="J73" s="10">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="8"/>
-        <v>59.190242149930945</v>
+        <v>60.199883807072631</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B74" s="10">
-        <v>738</v>
+        <v>655</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="5"/>
-        <v>33.550909123126416</v>
+        <v>35.187302670545854</v>
       </c>
       <c r="D74" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E74" s="7">
         <f t="shared" si="6"/>
-        <v>20.392414021983821</v>
+        <v>23.191372809314934</v>
       </c>
       <c r="F74" s="10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="7"/>
-        <v>15.875488246147947</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H74" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I74" s="7">
         <f t="shared" si="9"/>
-        <v>17.440368136621238</v>
+        <v>19.700083609472497</v>
       </c>
       <c r="J74" s="10">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="8"/>
-        <v>56.413727592791325</v>
+        <v>59.190242149930945</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B75" s="10">
-        <v>389</v>
+        <v>738</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="5"/>
-        <v>31.004332182467756</v>
+        <v>33.550909123126416</v>
       </c>
       <c r="D75" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E75" s="7">
         <f t="shared" si="6"/>
-        <v>15.994050213320644</v>
+        <v>20.392414021983821</v>
       </c>
       <c r="F75" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="7"/>
-        <v>14.078263161678368</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H75" s="10">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I75" s="7">
         <f t="shared" si="9"/>
-        <v>15.412418353293189</v>
+        <v>17.440368136621238</v>
       </c>
       <c r="J75" s="10">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="8"/>
-        <v>54.983401911840609</v>
+        <v>56.413727592791325</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B76" s="10">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="5"/>
-        <v>31.265767837972639</v>
+        <v>31.004332182467756</v>
       </c>
       <c r="D76" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E76" s="7">
         <f t="shared" si="6"/>
-        <v>13.994793936655565</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F76" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="7"/>
-        <v>12.580575591287054</v>
+        <v>14.078263161678368</v>
       </c>
       <c r="H76" s="10">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I76" s="7">
         <f t="shared" si="9"/>
-        <v>13.90594137139235</v>
+        <v>15.412418353293189</v>
       </c>
       <c r="J76" s="10">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="8"/>
-        <v>56.708206409457652</v>
+        <v>54.983401911840609</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B77" s="10">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="5"/>
-        <v>30.694482516684193</v>
+        <v>31.265767837972639</v>
       </c>
       <c r="D77" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" s="7">
         <f t="shared" si="6"/>
         <v>13.994793936655565</v>
       </c>
       <c r="F77" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>12.580575591287054</v>
       </c>
       <c r="H77" s="10">
         <v>30</v>
       </c>
       <c r="I77" s="7">
         <f t="shared" si="9"/>
-        <v>13.036820035680329</v>
+        <v>13.90594137139235</v>
       </c>
       <c r="J77" s="10">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="8"/>
-        <v>55.782701557077772</v>
+        <v>56.708206409457652</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B78" s="10">
-        <v>601</v>
+        <v>357</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="5"/>
-        <v>30.142562799507225</v>
+        <v>30.694482516684193</v>
       </c>
       <c r="D78" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="6"/>
-        <v>14.39464519198858</v>
+        <v>13.994793936655565</v>
       </c>
       <c r="F78" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G78" s="7">
         <f t="shared" si="7"/>
-        <v>13.479188133521841</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H78" s="10">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="9"/>
-        <v>12.747112923776323</v>
+        <v>13.036820035680329</v>
       </c>
       <c r="J78" s="10">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="8"/>
-        <v>56.539932799934029</v>
+        <v>55.782701557077772</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B79" s="10">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="5"/>
-        <v>27.867104316409186</v>
+        <v>30.142562799507225</v>
       </c>
       <c r="D79" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E79" s="7">
         <f t="shared" si="6"/>
-        <v>13.594942681322548</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F79" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G79" s="7">
         <f t="shared" si="7"/>
-        <v>10.783350506817474</v>
+        <v>13.479188133521841</v>
       </c>
       <c r="H79" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="9"/>
-        <v>11.008870252352278</v>
+        <v>12.747112923776323</v>
       </c>
       <c r="J79" s="10">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="8"/>
-        <v>53.637213035651705</v>
+        <v>56.539932799934029</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B80" s="10">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="5"/>
-        <v>25.272113365471846</v>
+        <v>27.867104316409186</v>
       </c>
       <c r="D80" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E80" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F80" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" si="7"/>
         <v>10.783350506817474</v>
       </c>
       <c r="H80" s="10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="9"/>
-        <v>9.4444518480706368</v>
+        <v>11.008870252352278</v>
       </c>
       <c r="J80" s="10">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="8"/>
-        <v>50.103467235655835</v>
+        <v>53.637213035651705</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B81" s="10">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="5"/>
-        <v>23.606671411885195</v>
+        <v>25.272113365471846</v>
       </c>
       <c r="D81" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E81" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F81" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="7"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H81" s="10">
         <v>29</v>
       </c>
       <c r="I81" s="7">
         <f t="shared" si="9"/>
-        <v>8.865037624262623</v>
+        <v>9.4444518480706368</v>
       </c>
       <c r="J81" s="10">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="8"/>
-        <v>47.95797871422976</v>
+        <v>50.103467235655835</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B82" s="10">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="5"/>
-        <v>21.234384908229792</v>
+        <v>23.606671411885195</v>
       </c>
       <c r="D82" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E82" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F82" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="7"/>
-        <v>9.5852004505044217</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H82" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I82" s="7">
         <f t="shared" si="9"/>
-        <v>7.7641505990273956</v>
+        <v>8.865037624262623</v>
       </c>
       <c r="J82" s="10">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="8"/>
-        <v>43.582864866615822</v>
+        <v>47.95797871422976</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B83" s="10">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="5"/>
-        <v>18.968609227187489</v>
+        <v>21.234384908229792</v>
       </c>
       <c r="D83" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E83" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F83" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>9.5852004505044217</v>
       </c>
       <c r="H83" s="10">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I83" s="7">
         <f t="shared" si="9"/>
-        <v>6.7212049961729692</v>
+        <v>7.7641505990273956</v>
       </c>
       <c r="J83" s="10">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="8"/>
-        <v>40.511871492809881</v>
+        <v>43.582864866615822</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B84" s="10">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="5"/>
-        <v>17.390312492102463</v>
+        <v>18.968609227187489</v>
       </c>
       <c r="D84" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F84" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="7"/>
-        <v>8.9861254223478948</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H84" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="9"/>
-        <v>6.0838493499841535</v>
+        <v>6.7212049961729692</v>
       </c>
       <c r="J84" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K84" s="7">
         <f t="shared" si="8"/>
-        <v>36.683646876147677</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B85" s="10">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="5"/>
-        <v>15.782967350850232</v>
+        <v>17.390312492102463</v>
       </c>
       <c r="D85" s="10">
         <v>4</v>
       </c>
       <c r="E85" s="7">
         <f t="shared" si="6"/>
-        <v>11.995537659990484</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F85" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" si="7"/>
-        <v>8.0875128801131062</v>
+        <v>8.9861254223478948</v>
       </c>
       <c r="H85" s="10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I85" s="7">
         <f t="shared" si="9"/>
-        <v>5.0988451695105281</v>
+        <v>6.0838493499841535</v>
       </c>
       <c r="J85" s="10">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="8"/>
-        <v>33.486448295199025</v>
+        <v>36.683646876147677</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B86" s="10">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="5"/>
-        <v>13.981966168483272</v>
+        <v>15.782967350850232</v>
       </c>
       <c r="D86" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F86" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G86" s="7">
         <f t="shared" si="7"/>
-        <v>8.6865879082696313</v>
+        <v>8.0875128801131062</v>
       </c>
       <c r="H86" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I86" s="7">
         <f t="shared" si="9"/>
-        <v>5.388552281414535</v>
+        <v>5.0988451695105281</v>
       </c>
       <c r="J86" s="10">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="8"/>
-        <v>29.616155276155926</v>
+        <v>33.486448295199025</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B87" s="10">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="5"/>
-        <v>12.597325474512976</v>
+        <v>13.981966168483272</v>
       </c>
       <c r="D87" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E87" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F87" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>8.6865879082696313</v>
       </c>
       <c r="H87" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I87" s="7">
         <f t="shared" si="9"/>
-        <v>5.0409037471297271</v>
+        <v>5.388552281414535</v>
       </c>
       <c r="J87" s="10">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="8"/>
-        <v>26.839640719016305</v>
+        <v>29.616155276155926</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B88" s="10">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="5"/>
-        <v>10.960931927093537</v>
+        <v>12.597325474512976</v>
       </c>
       <c r="D88" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" si="6"/>
-        <v>9.5964301279923863</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F88" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H88" s="10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I88" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>5.0409037471297271</v>
       </c>
       <c r="J88" s="10">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="8"/>
-        <v>22.801074090449589</v>
+        <v>26.839640719016305</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B89" s="10">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="5"/>
-        <v>9.8861408989068025</v>
+        <v>10.960931927093537</v>
       </c>
       <c r="D89" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E89" s="7">
         <f t="shared" si="6"/>
-        <v>7.5971738513273062</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F89" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" si="7"/>
-        <v>5.9907502815652638</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H89" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I89" s="7">
         <f t="shared" si="9"/>
-        <v>4.6932552128449183</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J89" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="8"/>
-        <v>19.856285923786359</v>
+        <v>22.801074090449589</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B90" s="10">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="5"/>
-        <v>8.927543495388905</v>
+        <v>9.8861408989068025</v>
       </c>
       <c r="D90" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E90" s="7">
         <f t="shared" si="6"/>
-        <v>5.5979175746622261</v>
+        <v>7.5971738513273062</v>
       </c>
       <c r="F90" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G90" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>5.9907502815652638</v>
       </c>
       <c r="H90" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I90" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>4.6932552128449183</v>
       </c>
       <c r="J90" s="10">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="8"/>
-        <v>17.121839769027645</v>
+        <v>19.856285923786359</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B91" s="10">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="5"/>
-        <v>8.4530861946578231</v>
+        <v>8.927543495388905</v>
       </c>
       <c r="D91" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" si="6"/>
-        <v>3.9985125533301611</v>
+        <v>5.5979175746622261</v>
       </c>
       <c r="F91" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G91" s="7">
         <f t="shared" si="7"/>
-        <v>5.3916752534087369</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H91" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I91" s="7">
         <f t="shared" si="9"/>
-        <v>5.330610859033734</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J91" s="10">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="8"/>
-        <v>15.354966869029704</v>
+        <v>17.121839769027645</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B92" s="10">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="5"/>
-        <v>7.8430696651464347</v>
+        <v>8.4530861946578231</v>
       </c>
       <c r="D92" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E92" s="7">
         <f t="shared" si="6"/>
-        <v>2.798958787331113</v>
+        <v>3.9985125533301611</v>
       </c>
       <c r="F92" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="7"/>
-        <v>4.4930627111739474</v>
+        <v>5.3916752534087369</v>
       </c>
       <c r="H92" s="10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I92" s="7">
         <f t="shared" si="9"/>
-        <v>5.15678659189133</v>
+        <v>5.330610859033734</v>
       </c>
       <c r="J92" s="10">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="8"/>
-        <v>13.125341542841829</v>
+        <v>15.354966869029704</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B93" s="10">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="5"/>
-        <v>7.5719512075858173</v>
+        <v>7.8430696651464347</v>
       </c>
       <c r="D93" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" si="6"/>
-        <v>1.1995537659990483</v>
+        <v>2.798958787331113</v>
       </c>
       <c r="F93" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="7"/>
-        <v>5.6912127674869994</v>
+        <v>4.4930627111739474</v>
       </c>
       <c r="H93" s="10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I93" s="7">
         <f t="shared" si="9"/>
-        <v>4.9250209023681242</v>
+        <v>5.15678659189133</v>
       </c>
       <c r="J93" s="10">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="8"/>
-        <v>10.895716216653955</v>
+        <v>13.125341542841829</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B94" s="10">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="5"/>
-        <v>7.6494136240317072</v>
+        <v>7.5719512075858173</v>
       </c>
       <c r="D94" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="7">
         <f t="shared" si="6"/>
-        <v>0.79970251066603215</v>
+        <v>1.1995537659990483</v>
       </c>
       <c r="F94" s="10">
         <v>2</v>
       </c>
       <c r="G94" s="7">
         <f t="shared" si="7"/>
-        <v>7.7879753660348419</v>
+        <v>5.6912127674869994</v>
       </c>
       <c r="H94" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I94" s="7">
         <f t="shared" si="9"/>
-        <v>5.2147280142721311</v>
+        <v>4.9250209023681242</v>
       </c>
       <c r="J94" s="10">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="8"/>
-        <v>9.8860745595122772</v>
+        <v>10.895716216653955</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B95" s="10">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="5"/>
-        <v>8.1432365288742616</v>
+        <v>7.6494136240317072</v>
       </c>
       <c r="D95" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>0.79970251066603215</v>
       </c>
       <c r="F95" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>7.7879753660348419</v>
       </c>
       <c r="H95" s="10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I95" s="7">
         <f t="shared" si="9"/>
-        <v>7.9379748661697995</v>
+        <v>5.2147280142721311</v>
       </c>
       <c r="J95" s="10">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="8"/>
-        <v>8.7922960976087907</v>
+        <v>9.8860745595122772</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B96" s="10">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="5"/>
-        <v>7.9398976857037979</v>
+        <v>8.1432365288742616</v>
       </c>
       <c r="D96" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F96" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G96" s="7">
         <f t="shared" si="7"/>
-        <v>11.382425534973999</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H96" s="10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I96" s="7">
         <f t="shared" si="9"/>
         <v>7.9379748661697995</v>
       </c>
       <c r="J96" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="8"/>
-        <v>8.4136804761806605</v>
+        <v>8.7922960976087907</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B97" s="10">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="5"/>
-        <v>8.114188122707052</v>
+        <v>7.9398976857037979</v>
       </c>
       <c r="D97" s="10">
         <v>0</v>
       </c>
       <c r="E97" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F97" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>11.382425534973999</v>
       </c>
       <c r="H97" s="10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="9"/>
-        <v>8.4594476675970114</v>
+        <v>7.9379748661697995</v>
       </c>
       <c r="J97" s="10">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>8.4136804761806605</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B98" s="10">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="5"/>
-        <v>7.8914836754251159</v>
+        <v>8.114188122707052</v>
       </c>
       <c r="D98" s="10">
         <v>0</v>
@@ -6145,277 +6145,277 @@
         <v>2.3991075319980966</v>
       </c>
       <c r="F98" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H98" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I98" s="7">
         <f t="shared" si="9"/>
-        <v>8.0538577109314033</v>
+        <v>8.4594476675970114</v>
       </c>
       <c r="J98" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K98" s="7">
         <f t="shared" si="8"/>
-        <v>10.180553376178599</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B99" s="10">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="5"/>
-        <v>7.5235371973071361</v>
+        <v>7.8914836754251159</v>
       </c>
       <c r="D99" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="7">
         <f t="shared" si="6"/>
         <v>2.3991075319980966</v>
       </c>
       <c r="F99" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="7"/>
         <v>11.981500563130528</v>
       </c>
       <c r="H99" s="10">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I99" s="7">
         <f t="shared" si="9"/>
         <v>8.0538577109314033</v>
       </c>
       <c r="J99" s="10">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="8"/>
-        <v>10.306758583321308</v>
+        <v>10.180553376178599</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B100" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="5"/>
-        <v>6.6230366061236561</v>
+        <v>7.5235371973071361</v>
       </c>
       <c r="D100" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F100" s="10">
         <v>9</v>
       </c>
       <c r="G100" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H100" s="10">
         <v>19</v>
       </c>
       <c r="I100" s="7">
         <f t="shared" si="9"/>
-        <v>7.0109121080769761</v>
+        <v>8.0538577109314033</v>
       </c>
       <c r="J100" s="10">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="8"/>
-        <v>10.517100595225825</v>
+        <v>10.306758583321308</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B101" s="10">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="5"/>
-        <v>5.4030035471008766</v>
+        <v>6.6230366061236561</v>
       </c>
       <c r="D101" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E101" s="7">
         <f t="shared" si="6"/>
         <v>1.9992562766650805</v>
       </c>
       <c r="F101" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G101" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H101" s="10">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I101" s="7">
         <f t="shared" si="9"/>
-        <v>5.9679665052225497</v>
+        <v>7.0109121080769761</v>
       </c>
       <c r="J101" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>10.517100595225825</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B102" s="10">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="5"/>
-        <v>3.7956584058486449</v>
+        <v>5.4030035471008766</v>
       </c>
       <c r="D102" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E102" s="7">
         <f t="shared" si="6"/>
-        <v>0.39985125533301608</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F102" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G102" s="7">
         <f t="shared" si="7"/>
-        <v>1.7972250844695792</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H102" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I102" s="7">
         <f t="shared" si="9"/>
-        <v>2.7232468518976685</v>
+        <v>5.9679665052225497</v>
       </c>
       <c r="J102" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K102" s="7">
         <f t="shared" si="8"/>
-        <v>9.2129801214178233</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B103" s="10">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="5"/>
-        <v>2.9726202311110557</v>
+        <v>3.7956584058486449</v>
       </c>
       <c r="D103" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" s="7">
         <f t="shared" si="6"/>
         <v>0.39985125533301608</v>
       </c>
       <c r="F103" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G103" s="7">
         <f t="shared" si="7"/>
-        <v>1.4976875703913159</v>
+        <v>1.7972250844695792</v>
       </c>
       <c r="H103" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I103" s="7">
         <f t="shared" si="9"/>
-        <v>2.0858912057088523</v>
+        <v>2.7232468518976685</v>
       </c>
       <c r="J103" s="10">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="K103" s="7">
         <f t="shared" si="8"/>
-        <v>8.5398856833233694</v>
+        <v>9.2129801214178233</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B104" s="10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="5"/>
-        <v>2.0430712337603674</v>
+        <v>2.9726202311110557</v>
       </c>
       <c r="D104" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.39985125533301608</v>
       </c>
       <c r="F104" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G104" s="7">
         <f t="shared" si="7"/>
-        <v>0.29953751407826318</v>
+        <v>1.4976875703913159</v>
       </c>
       <c r="H104" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I104" s="7">
         <f t="shared" si="9"/>
-        <v>1.390594137139235</v>
+        <v>2.0858912057088523</v>
       </c>
       <c r="J104" s="10">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K104" s="7">
         <f t="shared" si="8"/>
-        <v>5.8895763333264624</v>
+        <v>8.5398856833233694</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B105" s="10">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="5"/>
-        <v>1.5976623391964959</v>
+        <v>2.0430712337603674</v>
       </c>
       <c r="D105" s="10">
         <v>0</v>
@@ -6425,37 +6425,37 @@
         <v>0</v>
       </c>
       <c r="F105" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.29953751407826318</v>
       </c>
       <c r="H105" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I105" s="7">
         <f t="shared" si="9"/>
-        <v>0.75323849095041895</v>
+        <v>1.390594137139235</v>
       </c>
       <c r="J105" s="10">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K105" s="7">
         <f t="shared" si="8"/>
-        <v>4.6695926642802661</v>
+        <v>5.8895763333264624</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B106" s="10">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="5"/>
-        <v>1.3071782775244056</v>
+        <v>1.5976623391964959</v>
       </c>
       <c r="D106" s="10">
         <v>0</v>
@@ -6472,30 +6472,30 @@
         <v>0</v>
       </c>
       <c r="H106" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I106" s="7">
         <f t="shared" si="9"/>
-        <v>0.57941422380801455</v>
+        <v>0.75323849095041895</v>
       </c>
       <c r="J106" s="10">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K106" s="7">
         <f t="shared" si="8"/>
-        <v>3.8282246166622</v>
+        <v>4.6695926642802661</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B107" s="10">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="5"/>
-        <v>0.81335537268185243</v>
+        <v>1.3071782775244056</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -6516,26 +6516,26 @@
       </c>
       <c r="I107" s="7">
         <f t="shared" si="9"/>
-        <v>0.69529706856961748</v>
+        <v>0.57941422380801455</v>
       </c>
       <c r="J107" s="10">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K107" s="7">
         <f t="shared" si="8"/>
-        <v>2.3978989357114884</v>
+        <v>3.8282246166622</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B108" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" si="5"/>
-        <v>0.58096812334418035</v>
+        <v>0.81335537268185243</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
@@ -6556,26 +6556,26 @@
       </c>
       <c r="I108" s="7">
         <f t="shared" si="9"/>
-        <v>0.63735564618881602</v>
+        <v>0.69529706856961748</v>
       </c>
       <c r="J108" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K108" s="7">
         <f t="shared" si="8"/>
-        <v>1.5144624857125188</v>
+        <v>2.3978989357114884</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B109" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C109" s="7">
         <f t="shared" si="5"/>
-        <v>0.30016686372782653</v>
+        <v>0.58096812334418035</v>
       </c>
       <c r="D109" s="10">
         <v>0</v>
@@ -6592,30 +6592,30 @@
         <v>0</v>
       </c>
       <c r="H109" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" s="7">
         <f t="shared" si="9"/>
         <v>0.63735564618881602</v>
       </c>
       <c r="J109" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K109" s="7">
         <f t="shared" si="8"/>
-        <v>0.63102603571354954</v>
+        <v>1.5144624857125188</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B110" s="10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C110" s="7">
         <f t="shared" si="5"/>
-        <v>0.17429043700325408</v>
+        <v>0.30016686372782653</v>
       </c>
       <c r="D110" s="10">
         <v>0</v>
@@ -6632,30 +6632,30 @@
         <v>0</v>
       </c>
       <c r="H110" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" s="7">
         <f t="shared" si="9"/>
-        <v>0.52147280142721308</v>
+        <v>0.63735564618881602</v>
       </c>
       <c r="J110" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K110" s="7">
         <f t="shared" si="8"/>
-        <v>0.21034201190451648</v>
+        <v>0.63102603571354954</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B111" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C111" s="7">
         <f t="shared" si="5"/>
-        <v>0.12587642672457242</v>
+        <v>0.17429043700325408</v>
       </c>
       <c r="D111" s="10">
         <v>0</v>
@@ -6672,26 +6672,26 @@
         <v>0</v>
       </c>
       <c r="H111" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I111" s="7">
         <f t="shared" si="9"/>
-        <v>0.34764853428480874</v>
+        <v>0.52147280142721308</v>
       </c>
       <c r="J111" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="7">
         <f t="shared" si="8"/>
-        <v>0.1682736095236132</v>
+        <v>0.21034201190451648</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B112" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C112" s="7">
         <f t="shared" si="5"/>
@@ -6712,14 +6712,14 @@
         <v>0</v>
       </c>
       <c r="H112" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" s="7">
         <f t="shared" si="9"/>
         <v>0.34764853428480874</v>
       </c>
       <c r="J112" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" s="7">
         <f t="shared" si="8"/>
@@ -6728,14 +6728,14 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B113" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C113" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363378E-2</v>
+        <v>0.12587642672457242</v>
       </c>
       <c r="D113" s="10">
         <v>0</v>
@@ -6752,30 +6752,30 @@
         <v>0</v>
       </c>
       <c r="H113" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" s="7">
         <f t="shared" si="9"/>
-        <v>0.23176568952320581</v>
+        <v>0.34764853428480874</v>
       </c>
       <c r="J113" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K113" s="7">
         <f t="shared" si="8"/>
-        <v>0.12620520714270991</v>
+        <v>0.1682736095236132</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B114" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C114" s="7">
         <f t="shared" si="5"/>
-        <v>1.936560411147268E-2</v>
+        <v>9.6828020557363378E-2</v>
       </c>
       <c r="D114" s="10">
         <v>0</v>
@@ -6792,30 +6792,30 @@
         <v>0</v>
       </c>
       <c r="H114" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I114" s="7">
         <f t="shared" si="9"/>
-        <v>5.7941422380801452E-2</v>
+        <v>0.23176568952320581</v>
       </c>
       <c r="J114" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K114" s="7">
         <f t="shared" si="8"/>
-        <v>4.20684023809033E-2</v>
+        <v>0.12620520714270991</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B115" s="10">
         <v>1</v>
       </c>
       <c r="C115" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>1.936560411147268E-2</v>
       </c>
       <c r="D115" s="10">
         <v>0</v>
@@ -6832,30 +6832,30 @@
         <v>0</v>
       </c>
       <c r="H115" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" s="7">
         <f t="shared" si="9"/>
         <v>5.7941422380801452E-2</v>
       </c>
       <c r="J115" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.20684023809033E-2</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B116" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D116" s="10">
         <v>0</v>
@@ -6872,11 +6872,11 @@
         <v>0</v>
       </c>
       <c r="H116" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.7941422380801452E-2</v>
       </c>
       <c r="J116" s="10">
         <v>0</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -7008,7 +7008,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B129" s="10">
         <v>0</v>
@@ -7408,7 +7408,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B130" s="10">
         <v>0</v>
@@ -7448,14 +7448,14 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B131" s="10">
         <v>0</v>
       </c>
       <c r="C131" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>0</v>
       </c>
       <c r="D131" s="10">
         <v>0</v>
@@ -7488,47 +7488,47 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B132" s="10">
         <v>0</v>
       </c>
-      <c r="C132" s="7" t="str">
+      <c r="C132" s="7">
         <f t="shared" ref="C132:C195" si="10">IF(OR(ISBLANK(B132),ISBLANK(B138)),"",SUM(B132:B138)/$O$6*100000)</f>
-        <v/>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D132" s="10">
         <v>0</v>
       </c>
-      <c r="E132" s="7" t="str">
+      <c r="E132" s="7">
         <f t="shared" ref="E132:E195" si="11">IF(OR(ISBLANK(D132),ISBLANK(D138)),"",SUM(D132:D138)/$O$7*100000)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F132" s="10">
         <v>0</v>
       </c>
-      <c r="G132" s="7" t="str">
+      <c r="G132" s="7">
         <f t="shared" ref="G132:G195" si="12">IF(OR(ISBLANK(F132),ISBLANK(F138)),"",SUM(F132:F138)/$O$8*100000)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H132" s="10">
         <v>0</v>
       </c>
-      <c r="I132" s="7" t="str">
+      <c r="I132" s="7">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J132" s="10">
         <v>0</v>
       </c>
-      <c r="K132" s="7" t="str">
+      <c r="K132" s="7">
         <f t="shared" ref="K132:K195" si="13">IF(OR(ISBLANK(J132),ISBLANK(J138)),"",SUM(J132:J138)/$O$10*100000)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B133" s="10">
         <v>0</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B134" s="10">
         <v>0</v>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B135" s="10">
         <v>0</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B136" s="10">
         <v>0</v>
@@ -7688,10 +7688,10 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B137" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" s="7" t="str">
         <f t="shared" si="10"/>
@@ -7727,28 +7727,40 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="B138" s="10"/>
+      <c r="A138" s="4">
+        <v>43865</v>
+      </c>
+      <c r="B138" s="10">
+        <v>1</v>
+      </c>
       <c r="C138" s="7" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D138" s="10"/>
+      <c r="D138" s="10">
+        <v>0</v>
+      </c>
       <c r="E138" s="7" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F138" s="10"/>
+      <c r="F138" s="10">
+        <v>0</v>
+      </c>
       <c r="G138" s="7" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H138" s="10"/>
+      <c r="H138" s="10">
+        <v>0</v>
+      </c>
       <c r="I138" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J138" s="10"/>
+      <c r="J138" s="10">
+        <v>0</v>
+      </c>
       <c r="K138" s="7" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -31886,14 +31898,14 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B4" s="11">
-        <v>769</v>
+        <v>940</v>
       </c>
       <c r="C4" s="9">
         <f>IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/D4*100000)</f>
-        <v>71.195869657547874</v>
+        <v>72.659067530509887</v>
       </c>
       <c r="D4">
         <v>10183175</v>
@@ -31906,14 +31918,14 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B5" s="10">
-        <v>683</v>
+        <v>769</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C68" si="0">IF(OR(ISBLANK(B5),ISBLANK(B11)),"",SUM(B5:B11)/D5*100000)</f>
-        <v>67.601705754835791</v>
+        <v>71.195869657547874</v>
       </c>
       <c r="D5">
         <v>10183175</v>
@@ -31926,14 +31938,14 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B6" s="10">
-        <v>1247</v>
+        <v>683</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>69.172924947278233</v>
+        <v>67.601705754835791</v>
       </c>
       <c r="D6">
         <v>10183175</v>
@@ -31948,14 +31960,14 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B7" s="10">
-        <v>1396</v>
+        <v>1247</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>66.236709081401429</v>
+        <v>69.172924947278233</v>
       </c>
       <c r="D7" s="13">
         <v>10183175</v>
@@ -31972,14 +31984,14 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B8" s="10">
-        <v>1474</v>
+        <v>1396</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>62.897868297461251</v>
+        <v>66.236709081401429</v>
       </c>
       <c r="D8" s="13">
         <v>10183175</v>
@@ -31994,14 +32006,14 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B9" s="10">
-        <v>890</v>
+        <v>1474</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>59.02874103607175</v>
+        <v>62.897868297461251</v>
       </c>
       <c r="D9" s="13">
         <v>10183175</v>
@@ -32016,14 +32028,14 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B10" s="10">
-        <v>791</v>
+        <v>890</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>72.030579853532913</v>
+        <v>59.02874103607175</v>
       </c>
       <c r="D10" s="13">
         <v>10183175</v>
@@ -32038,14 +32050,14 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B11" s="10">
-        <v>403</v>
+        <v>791</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>71.873457934288666</v>
+        <v>72.030579853532913</v>
       </c>
       <c r="D11" s="13">
         <v>10183175</v>
@@ -32060,14 +32072,14 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B12" s="10">
-        <v>843</v>
+        <v>403</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>70.587022220476413</v>
+        <v>71.873457934288666</v>
       </c>
       <c r="D12" s="13">
         <v>10183175</v>
@@ -32082,14 +32094,14 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B13" s="10">
-        <v>948</v>
+        <v>843</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>66.521492560031618</v>
+        <v>70.587022220476413</v>
       </c>
       <c r="D13" s="13">
         <v>10183175</v>
@@ -32104,14 +32116,14 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B14" s="10">
-        <v>1056</v>
+        <v>948</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>63.467435254721636</v>
+        <v>66.521492560031618</v>
       </c>
       <c r="D14" s="13">
         <v>10183175</v>
@@ -32126,14 +32138,14 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B15" s="10">
-        <v>1080</v>
+        <v>1056</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>60.452658429222708</v>
+        <v>63.467435254721636</v>
       </c>
       <c r="D15" s="13">
         <v>10183175</v>
@@ -32148,14 +32160,14 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B16" s="10">
-        <v>2214</v>
+        <v>1080</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>56.121985530053252</v>
+        <v>60.452658429222708</v>
       </c>
       <c r="D16" s="13">
         <v>10183175</v>
@@ -32170,14 +32182,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B17" s="10">
-        <v>775</v>
+        <v>2214</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>40.743677684022906</v>
+        <v>56.121985530053252</v>
       </c>
       <c r="D17" s="13">
         <v>10183175</v>
@@ -32192,14 +32204,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B18" s="10">
-        <v>272</v>
+        <v>775</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>38.995696332430697</v>
+        <v>40.743677684022906</v>
       </c>
       <c r="D18" s="13">
         <v>10183175</v>
@@ -32214,14 +32226,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B19" s="10">
-        <v>429</v>
+        <v>272</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>40.095549767140405</v>
+        <v>38.995696332430697</v>
       </c>
       <c r="D19" s="13">
         <v>10183175</v>
@@ -32236,14 +32248,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B20" s="10">
-        <v>637</v>
+        <v>429</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>38.543970814603497</v>
+        <v>40.095549767140405</v>
       </c>
       <c r="D20" s="13">
         <v>10183175</v>
@@ -32258,14 +32270,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B21" s="10">
-        <v>749</v>
+        <v>637</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>36.010379866790075</v>
+        <v>38.543970814603497</v>
       </c>
       <c r="D21" s="13">
         <v>10183175</v>
@@ -32280,14 +32292,14 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B22" s="10">
-        <v>639</v>
+        <v>749</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>34.910526432080367</v>
+        <v>36.010379866790075</v>
       </c>
       <c r="D22" s="13">
         <v>10183175</v>
@@ -32302,14 +32314,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B23" s="10">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>35.008727631608025</v>
+        <v>34.910526432080367</v>
       </c>
       <c r="D23" s="13">
         <v>10183175</v>
@@ -32324,14 +32336,14 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B24" s="10">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>35.755056748018177</v>
+        <v>35.008727631608025</v>
       </c>
       <c r="D24" s="13">
         <v>10183175</v>
@@ -32346,14 +32358,14 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B25" s="10">
-        <v>384</v>
+        <v>597</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>34.036535756284266</v>
+        <v>35.755056748018177</v>
       </c>
       <c r="D25" s="13">
         <v>10183175</v>
@@ -32368,14 +32380,14 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B26" s="10">
-        <v>271</v>
+        <v>384</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>32.563517763369482</v>
+        <v>34.036535756284266</v>
       </c>
       <c r="D26" s="13">
         <v>10183175</v>
@@ -32390,14 +32402,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B27" s="10">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>34.478441154158702</v>
+        <v>32.563517763369482</v>
       </c>
       <c r="D27" s="13">
         <v>10183175</v>
@@ -32412,14 +32424,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B28" s="10">
-        <v>637</v>
+        <v>379</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>35.372072069860337</v>
+        <v>34.478441154158702</v>
       </c>
       <c r="D28" s="13">
         <v>10183175</v>
@@ -32434,14 +32446,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B29" s="10">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>35.254230630427152</v>
+        <v>35.372072069860337</v>
       </c>
       <c r="D29" s="13">
         <v>10183175</v>
@@ -32456,14 +32468,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B30" s="10">
-        <v>724</v>
+        <v>649</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>35.489913509293515</v>
+        <v>35.254230630427152</v>
       </c>
       <c r="D30" s="13">
         <v>10183175</v>
@@ -32478,14 +32490,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B31" s="10">
-        <v>422</v>
+        <v>724</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>34.635563073402942</v>
+        <v>35.489913509293515</v>
       </c>
       <c r="D31" s="13">
         <v>10183175</v>
@@ -32500,14 +32512,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B32" s="10">
-        <v>234</v>
+        <v>422</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>36.403184664900685</v>
+        <v>34.635563073402942</v>
       </c>
       <c r="D32" s="13">
         <v>10183175</v>
@@ -32522,14 +32534,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B33" s="10">
-        <v>466</v>
+        <v>234</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>37.52267833951592</v>
+        <v>36.403184664900685</v>
       </c>
       <c r="D33" s="13">
         <v>10183175</v>
@@ -32544,14 +32556,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B34" s="10">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>36.884370542586176</v>
+        <v>37.52267833951592</v>
       </c>
       <c r="D34" s="13">
         <v>10183175</v>
@@ -32566,14 +32578,14 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B35" s="10">
-        <v>625</v>
+        <v>470</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>38.710912853800508</v>
+        <v>36.884370542586176</v>
       </c>
       <c r="D35" s="13">
         <v>10183175</v>
@@ -32588,14 +32600,14 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B36" s="10">
-        <v>673</v>
+        <v>625</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>38.877854892997519</v>
+        <v>38.710912853800508</v>
       </c>
       <c r="D36" s="13">
         <v>10183175</v>
@@ -32610,14 +32622,14 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B37" s="10">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>39.192098731486006</v>
+        <v>38.877854892997519</v>
       </c>
       <c r="D37" s="13">
         <v>10183175</v>
@@ -32632,14 +32644,14 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B38" s="10">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>39.830406528415743</v>
+        <v>39.192098731486006</v>
       </c>
       <c r="D38" s="13">
         <v>10183175</v>
@@ -32654,14 +32666,14 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B39" s="10">
-        <v>348</v>
+        <v>602</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>38.779653693469868</v>
+        <v>39.830406528415743</v>
       </c>
       <c r="D39" s="13">
         <v>10183175</v>
@@ -32676,14 +32688,14 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B40" s="10">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>39.329580410824718</v>
+        <v>38.779653693469868</v>
       </c>
       <c r="D40" s="13">
         <v>10183175</v>
@@ -32698,14 +32710,14 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B41" s="10">
-        <v>656</v>
+        <v>401</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>37.699440498665695</v>
+        <v>39.329580410824718</v>
       </c>
       <c r="D41" s="13">
         <v>10183175</v>
@@ -32720,14 +32732,14 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B42" s="10">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>36.776349223105761</v>
+        <v>37.699440498665695</v>
       </c>
       <c r="D42" s="13">
         <v>10183175</v>
@@ -32742,14 +32754,14 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B43" s="10">
-        <v>705</v>
+        <v>642</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>34.674843553214004</v>
+        <v>36.776349223105761</v>
       </c>
       <c r="D43" s="13">
         <v>10183175</v>
@@ -32764,14 +32776,14 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B44" s="10">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>35.50955374919905</v>
+        <v>34.674843553214004</v>
       </c>
       <c r="D44" s="13">
         <v>10183175</v>
@@ -32786,14 +32798,14 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B45" s="10">
-        <v>495</v>
+        <v>702</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>35.303331230190977</v>
+        <v>35.50955374919905</v>
       </c>
       <c r="D45" s="13">
         <v>10183175</v>
@@ -32808,14 +32820,14 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B46" s="10">
-        <v>404</v>
+        <v>495</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>37.267355220744022</v>
+        <v>35.303331230190977</v>
       </c>
       <c r="D46" s="13">
         <v>10183175</v>
@@ -32830,14 +32842,14 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B47" s="10">
-        <v>235</v>
+        <v>404</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>36.108581066317726</v>
+        <v>37.267355220744022</v>
       </c>
       <c r="D47" s="13">
         <v>10183175</v>
@@ -32852,14 +32864,14 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B48" s="10">
-        <v>562</v>
+        <v>235</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>38.347568415548196</v>
+        <v>36.108581066317726</v>
       </c>
       <c r="D48" s="13">
         <v>10183175</v>
@@ -32874,14 +32886,14 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B49" s="10">
-        <v>428</v>
+        <v>562</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>38.818934173280923</v>
+        <v>38.347568415548196</v>
       </c>
       <c r="D49" s="13">
         <v>10183175</v>
@@ -32896,14 +32908,14 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B50" s="10">
-        <v>790</v>
+        <v>428</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>42.589860235142773</v>
+        <v>38.818934173280923</v>
       </c>
       <c r="D50" s="13">
         <v>10183175</v>
@@ -32918,14 +32930,14 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B51" s="10">
-        <v>681</v>
+        <v>790</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>42.206875556984933</v>
+        <v>42.589860235142773</v>
       </c>
       <c r="D51" s="13">
         <v>10183175</v>
@@ -32940,14 +32952,14 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B52" s="10">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>42.216695676937697</v>
+        <v>42.206875556984933</v>
       </c>
       <c r="D52" s="13">
         <v>10183175</v>
@@ -32962,14 +32974,14 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B53" s="10">
-        <v>286</v>
+        <v>695</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>40.743677684022906</v>
+        <v>42.216695676937697</v>
       </c>
       <c r="D53" s="13">
         <v>10183175</v>
@@ -32984,14 +32996,14 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B54" s="10">
-        <v>463</v>
+        <v>286</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>41.784610399016024</v>
+        <v>40.743677684022906</v>
       </c>
       <c r="D54" s="13">
         <v>10183175</v>
@@ -33006,14 +33018,14 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B55" s="10">
-        <v>610</v>
+        <v>463</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>42.766622394292547</v>
+        <v>41.784610399016024</v>
       </c>
       <c r="D55" s="13">
         <v>10183175</v>
@@ -33028,14 +33040,14 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B56" s="10">
-        <v>812</v>
+        <v>610</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>42.727341914481485</v>
+        <v>42.766622394292547</v>
       </c>
       <c r="D56" s="13">
         <v>10183175</v>
@@ -33050,14 +33062,14 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B57" s="10">
-        <v>751</v>
+        <v>812</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>41.391805600905414</v>
+        <v>42.727341914481485</v>
       </c>
       <c r="D57" s="13">
         <v>10183175</v>
@@ -33072,14 +33084,14 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B58" s="10">
-        <v>682</v>
+        <v>751</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>40.036629047423816</v>
+        <v>41.391805600905414</v>
       </c>
       <c r="D58" s="13">
         <v>10183175</v>
@@ -33094,14 +33106,14 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B59" s="10">
-        <v>545</v>
+        <v>682</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>38.072605056870771</v>
+        <v>40.036629047423816</v>
       </c>
       <c r="D59" s="13">
         <v>10183175</v>
@@ -33116,14 +33128,14 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B60" s="10">
-        <v>392</v>
+        <v>545</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>37.601239299138037</v>
+        <v>38.072605056870771</v>
       </c>
       <c r="D60" s="13">
         <v>10183175</v>
@@ -33138,14 +33150,14 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B61" s="10">
-        <v>563</v>
+        <v>392</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>38.318108055689898</v>
+        <v>37.601239299138037</v>
       </c>
       <c r="D61" s="13">
         <v>10183175</v>
@@ -33160,14 +33172,14 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B62" s="10">
-        <v>606</v>
+        <v>563</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>36.049660346601136</v>
+        <v>38.318108055689898</v>
       </c>
       <c r="D62" s="13">
         <v>10183175</v>
@@ -33182,14 +33194,14 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B63" s="10">
-        <v>676</v>
+        <v>606</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>34.674843553214004</v>
+        <v>36.049660346601136</v>
       </c>
       <c r="D63" s="13">
         <v>10183175</v>
@@ -33204,14 +33216,14 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B64" s="10">
-        <v>613</v>
+        <v>676</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>33.378587719448994</v>
+        <v>34.674843553214004</v>
       </c>
       <c r="D64" s="13">
         <v>10183175</v>
@@ -33226,14 +33238,14 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B65" s="10">
-        <v>482</v>
+        <v>613</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>34.448980794300404</v>
+        <v>33.378587719448994</v>
       </c>
       <c r="D65" s="13">
         <v>10183175</v>
@@ -33248,14 +33260,14 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B66" s="10">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>36.845090062775121</v>
+        <v>34.448980794300404</v>
       </c>
       <c r="D66" s="13">
         <v>10183175</v>
@@ -33270,14 +33282,14 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B67" s="10">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>36.746888863247463</v>
+        <v>36.845090062775121</v>
       </c>
       <c r="D67" s="13">
         <v>10183175</v>
@@ -33292,14 +33304,14 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B68" s="10">
-        <v>332</v>
+        <v>465</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" si="0"/>
-        <v>35.872898187451362</v>
+        <v>36.746888863247463</v>
       </c>
       <c r="D68" s="13">
         <v>10183175</v>
@@ -33314,14 +33326,14 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B69" s="10">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" ref="C69:C132" si="1">IF(OR(ISBLANK(B69),ISBLANK(B75)),"",SUM(B69:B75)/D69*100000)</f>
-        <v>36.413004784853449</v>
+        <v>35.872898187451362</v>
       </c>
       <c r="D69" s="13">
         <v>10183175</v>
@@ -33336,14 +33348,14 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B70" s="10">
-        <v>544</v>
+        <v>466</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="1"/>
-        <v>35.421172669624163</v>
+        <v>36.413004784853449</v>
       </c>
       <c r="D70" s="13">
         <v>10183175</v>
@@ -33358,14 +33370,14 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B71" s="10">
-        <v>722</v>
+        <v>544</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="1"/>
-        <v>36.088940826412191</v>
+        <v>35.421172669624163</v>
       </c>
       <c r="D71" s="13">
         <v>10183175</v>
@@ -33380,14 +33392,14 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B72" s="10">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="1"/>
-        <v>34.095456476000855</v>
+        <v>36.088940826412191</v>
       </c>
       <c r="D72" s="13">
         <v>10183175</v>
@@ -33402,14 +33414,14 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B73" s="10">
-        <v>487</v>
+        <v>726</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="1"/>
-        <v>31.993950806109098</v>
+        <v>34.095456476000855</v>
       </c>
       <c r="D73" s="13">
         <v>10183175</v>
@@ -33424,14 +33436,14 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B74" s="10">
-        <v>376</v>
+        <v>487</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="1"/>
-        <v>31.208341209887877</v>
+        <v>31.993950806109098</v>
       </c>
       <c r="D74" s="13">
         <v>10183175</v>
@@ -33446,14 +33458,14 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B75" s="10">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="1"/>
-        <v>30.736975452155146</v>
+        <v>31.208341209887877</v>
       </c>
       <c r="D75" s="13">
         <v>10183175</v>
@@ -33468,14 +33480,14 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B76" s="10">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="1"/>
-        <v>29.421079378484606</v>
+        <v>30.736975452155146</v>
       </c>
       <c r="D76" s="13">
         <v>10183175</v>
@@ -33490,14 +33502,14 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B77" s="10">
-        <v>612</v>
+        <v>365</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="1"/>
-        <v>29.774603696784155</v>
+        <v>29.421079378484606</v>
       </c>
       <c r="D77" s="13">
         <v>10183175</v>
@@ -33512,14 +33524,14 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B78" s="10">
-        <v>519</v>
+        <v>612</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="1"/>
-        <v>26.121519074355493</v>
+        <v>29.774603696784155</v>
       </c>
       <c r="D78" s="13">
         <v>10183175</v>
@@ -33534,14 +33546,14 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B79" s="10">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="1"/>
-        <v>23.931632324888849</v>
+        <v>26.121519074355493</v>
       </c>
       <c r="D79" s="13">
         <v>10183175</v>
@@ -33556,14 +33568,14 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B80" s="10">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="1"/>
-        <v>21.240919457831176</v>
+        <v>23.931632324888849</v>
       </c>
       <c r="D80" s="13">
         <v>10183175</v>
@@ -33578,14 +33590,14 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B81" s="10">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="1"/>
-        <v>19.758081344963628</v>
+        <v>21.240919457831176</v>
       </c>
       <c r="D81" s="13">
         <v>10183175</v>
@@ -33600,14 +33612,14 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B82" s="10">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="1"/>
-        <v>17.617295195260809</v>
+        <v>19.758081344963628</v>
       </c>
       <c r="D82" s="13">
         <v>10183175</v>
@@ -33622,14 +33634,14 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B83" s="10">
-        <v>401</v>
+        <v>253</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="1"/>
-        <v>16.704024039653646</v>
+        <v>17.617295195260809</v>
       </c>
       <c r="D83" s="13">
         <v>10183175</v>
@@ -33644,14 +33656,14 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B84" s="10">
-        <v>240</v>
+        <v>401</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="1"/>
-        <v>13.974030692784911</v>
+        <v>16.704024039653646</v>
       </c>
       <c r="D84" s="13">
         <v>10183175</v>
@@ -33666,14 +33678,14 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B85" s="10">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="1"/>
-        <v>13.581225894674303</v>
+        <v>13.974030692784911</v>
       </c>
       <c r="D85" s="13">
         <v>10183175</v>
@@ -33688,14 +33700,14 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B86" s="10">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="1"/>
-        <v>11.872525022893154</v>
+        <v>13.581225894674303</v>
       </c>
       <c r="D86" s="13">
         <v>10183175</v>
@@ -33710,14 +33722,14 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B87" s="10">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="1"/>
-        <v>10.851232547805571</v>
+        <v>11.872525022893154</v>
       </c>
       <c r="D87" s="13">
         <v>10183175</v>
@@ -33732,14 +33744,14 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B88" s="10">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="1"/>
-        <v>8.7890073577248753</v>
+        <v>10.851232547805571</v>
       </c>
       <c r="D88" s="13">
         <v>10183175</v>
@@ -33754,14 +33766,14 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B89" s="10">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="1"/>
-        <v>8.5827848387168046</v>
+        <v>8.7890073577248753</v>
       </c>
       <c r="D89" s="13">
         <v>10183175</v>
@@ -33776,14 +33788,14 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B90" s="10">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="1"/>
-        <v>8.0721386011730143</v>
+        <v>8.5827848387168046</v>
       </c>
       <c r="D90" s="13">
         <v>10183175</v>
@@ -33798,14 +33810,14 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B91" s="10">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="1"/>
-        <v>8.3274617199449086</v>
+        <v>8.0721386011730143</v>
       </c>
       <c r="D91" s="13">
         <v>10183175</v>
@@ -33820,14 +33832,14 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B92" s="10">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="1"/>
-        <v>7.8855563220704736</v>
+        <v>8.3274617199449086</v>
       </c>
       <c r="D92" s="13">
         <v>10183175</v>
@@ -33842,14 +33854,14 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B93" s="10">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="1"/>
-        <v>8.2390806403700214</v>
+        <v>7.8855563220704736</v>
       </c>
       <c r="D93" s="13">
         <v>10183175</v>
@@ -33864,14 +33876,14 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B94" s="10">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="1"/>
-        <v>8.2587208802755523</v>
+        <v>8.2390806403700214</v>
       </c>
       <c r="D94" s="13">
         <v>10183175</v>
@@ -33886,14 +33898,14 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B95" s="10">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="1"/>
-        <v>8.5729647187640392</v>
+        <v>8.2587208802755523</v>
       </c>
       <c r="D95" s="13">
         <v>10183175</v>
@@ -33908,14 +33920,14 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B96" s="10">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="1"/>
-        <v>8.1408794408423706</v>
+        <v>8.5729647187640392</v>
       </c>
       <c r="D96" s="13">
         <v>10183175</v>
@@ -33930,14 +33942,14 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B97" s="10">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="1"/>
-        <v>7.492751523959865</v>
+        <v>8.1408794408423706</v>
       </c>
       <c r="D97" s="13">
         <v>10183175</v>
@@ -33952,14 +33964,14 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B98" s="10">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="1"/>
-        <v>6.2652365298642119</v>
+        <v>7.492751523959865</v>
       </c>
       <c r="D98" s="13">
         <v>10183175</v>
@@ -33974,14 +33986,14 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B99" s="10">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="1"/>
-        <v>5.48944705359576</v>
+        <v>6.2652365298642119</v>
       </c>
       <c r="D99" s="13">
         <v>10183175</v>
@@ -33996,14 +34008,14 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B100" s="10">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="1"/>
-        <v>4.1931912198307497</v>
+        <v>5.48944705359576</v>
       </c>
       <c r="D100" s="13">
         <v>10183175</v>
@@ -34018,14 +34030,14 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B101" s="10">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="1"/>
-        <v>2.9656762257350975</v>
+        <v>4.1931912198307497</v>
       </c>
       <c r="D101" s="13">
         <v>10183175</v>
@@ -34040,14 +34052,14 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B102" s="10">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="1"/>
-        <v>2.2880879489942969</v>
+        <v>2.9656762257350975</v>
       </c>
       <c r="D102" s="13">
         <v>10183175</v>
@@ -34062,14 +34074,14 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B103" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="1"/>
-        <v>1.856002671072627</v>
+        <v>2.2880879489942969</v>
       </c>
       <c r="D103" s="13">
         <v>10183175</v>
@@ -34084,14 +34096,14 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B104" s="10">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="1"/>
-        <v>1.4533777530092531</v>
+        <v>1.856002671072627</v>
       </c>
       <c r="D104" s="13">
         <v>10183175</v>
@@ -34106,14 +34118,14 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B105" s="10">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="1"/>
-        <v>1.2275149940956529</v>
+        <v>1.4533777530092531</v>
       </c>
       <c r="D105" s="13">
         <v>10183175</v>
@@ -34128,14 +34140,14 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B106" s="10">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="1"/>
-        <v>0.530286477449322</v>
+        <v>1.2275149940956529</v>
       </c>
       <c r="D106" s="13">
         <v>10183175</v>
@@ -34150,14 +34162,14 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B107" s="10">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="1"/>
-        <v>0.32406395844125235</v>
+        <v>0.530286477449322</v>
       </c>
       <c r="D107" s="13">
         <v>10183175</v>
@@ -34172,14 +34184,14 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B108" s="10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" si="1"/>
-        <v>0.22586275891360011</v>
+        <v>0.32406395844125235</v>
       </c>
       <c r="D108" s="13">
         <v>10183175</v>
@@ -34194,14 +34206,14 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B109" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C109" s="7">
         <f t="shared" si="1"/>
-        <v>0.13748167933871314</v>
+        <v>0.22586275891360011</v>
       </c>
       <c r="D109" s="13">
         <v>10183175</v>
@@ -34216,14 +34228,14 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B110" s="10">
         <v>1</v>
       </c>
       <c r="C110" s="7">
         <f t="shared" si="1"/>
-        <v>0.12766155938594789</v>
+        <v>0.13748167933871314</v>
       </c>
       <c r="D110" s="13">
         <v>10183175</v>
@@ -34238,14 +34250,14 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B111" s="10">
         <v>1</v>
       </c>
       <c r="C111" s="7">
         <f t="shared" si="1"/>
-        <v>0.11784143943318268</v>
+        <v>0.12766155938594789</v>
       </c>
       <c r="D111" s="13">
         <v>10183175</v>
@@ -34260,14 +34272,14 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B112" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C112" s="7">
         <f t="shared" si="1"/>
-        <v>0.10802131948041746</v>
+        <v>0.11784143943318268</v>
       </c>
       <c r="D112" s="13">
         <v>10183175</v>
@@ -34282,14 +34294,14 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B113" s="10">
         <v>5</v>
       </c>
       <c r="C113" s="7">
         <f t="shared" si="1"/>
-        <v>5.8920719716591338E-2</v>
+        <v>0.10802131948041746</v>
       </c>
       <c r="D113" s="13">
         <v>10183175</v>
@@ -34304,14 +34316,14 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B114" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C114" s="7">
         <f t="shared" si="1"/>
-        <v>9.820119952765223E-3</v>
+        <v>5.8920719716591338E-2</v>
       </c>
       <c r="D114" s="13">
         <v>10183175</v>
@@ -34326,14 +34338,14 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B115" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.820119952765223E-3</v>
       </c>
       <c r="D115" s="13">
         <v>10183175</v>
@@ -34348,7 +34360,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B116" s="10">
         <v>0</v>
@@ -34370,7 +34382,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B117" s="10">
         <v>0</v>
@@ -34392,7 +34404,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -34414,7 +34426,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -34436,7 +34448,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -34458,7 +34470,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -34480,7 +34492,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
@@ -34502,7 +34514,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
@@ -34524,7 +34536,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
@@ -34546,7 +34558,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
@@ -34568,7 +34580,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
@@ -34590,7 +34602,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -34612,7 +34624,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
@@ -34634,7 +34646,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B129" s="10">
         <v>0</v>
@@ -34656,7 +34668,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B130" s="10">
         <v>0</v>
@@ -34678,7 +34690,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B131" s="10">
         <v>0</v>
@@ -34700,7 +34712,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B132" s="10">
         <v>0</v>
@@ -34722,7 +34734,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B133" s="10">
         <v>0</v>
@@ -34744,14 +34756,14 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B134" s="10">
         <v>0</v>
       </c>
       <c r="C134" s="7">
         <f t="shared" si="2"/>
-        <v>9.820119952765223E-3</v>
+        <v>0</v>
       </c>
       <c r="D134" s="13">
         <v>10183175</v>
@@ -34766,7 +34778,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B135" s="10">
         <v>0</v>
@@ -34788,7 +34800,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B136" s="10">
         <v>0</v>
@@ -34810,7 +34822,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B137" s="10">
         <v>0</v>
@@ -34832,7 +34844,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="B138" s="10">
         <v>0</v>
@@ -34854,7 +34866,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>43863</v>
+        <v>43864</v>
       </c>
       <c r="B139" s="10">
         <v>0</v>
@@ -34876,10 +34888,10 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>43862</v>
+        <v>43863</v>
       </c>
       <c r="B140" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" s="7">
         <f t="shared" si="2"/>
@@ -34898,14 +34910,14 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="B141" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.820119952765223E-3</v>
       </c>
       <c r="D141" s="13">
         <v>10183175</v>
@@ -34920,7 +34932,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="B142" s="10">
         <v>0</v>
@@ -34942,7 +34954,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="B143" s="10">
         <v>0</v>
@@ -34964,7 +34976,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B144" s="10">
         <v>0</v>
@@ -34986,7 +34998,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>43857</v>
+        <v>43858</v>
       </c>
       <c r="B145" s="10">
         <v>0</v>
@@ -35008,7 +35020,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>43856</v>
+        <v>43857</v>
       </c>
       <c r="B146" s="10">
         <v>0</v>
@@ -35030,7 +35042,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>43855</v>
+        <v>43856</v>
       </c>
       <c r="B147" s="10">
         <v>0</v>
@@ -35052,7 +35064,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>43854</v>
+        <v>43855</v>
       </c>
       <c r="B148" s="10">
         <v>0</v>
@@ -35074,7 +35086,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>43853</v>
+        <v>43854</v>
       </c>
       <c r="B149" s="10">
         <v>0</v>
@@ -35096,7 +35108,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="B150" s="10">
         <v>0</v>
@@ -35118,7 +35130,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="B151" s="10">
         <v>0</v>
@@ -35140,7 +35152,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="B152" s="10">
         <v>0</v>
@@ -35162,7 +35174,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>43849</v>
+        <v>43850</v>
       </c>
       <c r="B153" s="10">
         <v>0</v>
@@ -35184,7 +35196,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>43848</v>
+        <v>43849</v>
       </c>
       <c r="B154" s="10">
         <v>0</v>
@@ -35206,7 +35218,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>43847</v>
+        <v>43848</v>
       </c>
       <c r="B155" s="10">
         <v>0</v>
@@ -35228,7 +35240,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="B156" s="10">
         <v>0</v>
@@ -35250,7 +35262,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="B157" s="10">
         <v>0</v>
@@ -35272,7 +35284,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="B158" s="10">
         <v>0</v>
@@ -35294,7 +35306,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>43843</v>
+        <v>43844</v>
       </c>
       <c r="B159" s="10">
         <v>0</v>
@@ -35316,7 +35328,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>43842</v>
+        <v>43843</v>
       </c>
       <c r="B160" s="10">
         <v>0</v>
@@ -35338,7 +35350,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>43841</v>
+        <v>43842</v>
       </c>
       <c r="B161" s="10">
         <v>0</v>
@@ -35360,7 +35372,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>43840</v>
+        <v>43841</v>
       </c>
       <c r="B162" s="10">
         <v>0</v>
@@ -35382,7 +35394,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>43839</v>
+        <v>43840</v>
       </c>
       <c r="B163" s="10">
         <v>0</v>
@@ -35404,7 +35416,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>43838</v>
+        <v>43839</v>
       </c>
       <c r="B164" s="10">
         <v>0</v>
@@ -35426,7 +35438,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="B165" s="10">
         <v>0</v>
@@ -35448,7 +35460,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="B166" s="10">
         <v>0</v>
@@ -35470,14 +35482,14 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>43835</v>
+        <v>43836</v>
       </c>
       <c r="B167" s="10">
         <v>0</v>
       </c>
-      <c r="C167" s="7" t="str">
+      <c r="C167" s="7">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D167" s="13">
         <v>10183175</v>
@@ -35492,7 +35504,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>43834</v>
+        <v>43835</v>
       </c>
       <c r="B168" s="10">
         <v>0</v>
@@ -35514,7 +35526,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>43833</v>
+        <v>43834</v>
       </c>
       <c r="B169" s="10">
         <v>0</v>
@@ -35536,7 +35548,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>43832</v>
+        <v>43833</v>
       </c>
       <c r="B170" s="10">
         <v>0</v>
@@ -35558,7 +35570,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <v>43831</v>
+        <v>43832</v>
       </c>
       <c r="B171" s="10">
         <v>0</v>
@@ -35580,7 +35592,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="B172" s="10">
         <v>0</v>
@@ -35601,13 +35613,19 @@
       <c r="K172" s="10"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
-      <c r="B173" s="10"/>
+      <c r="A173" s="4">
+        <v>43830</v>
+      </c>
+      <c r="B173" s="10">
+        <v>0</v>
+      </c>
       <c r="C173" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D173" s="13"/>
+      <c r="D173" s="13">
+        <v>10183175</v>
+      </c>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE320A23-AF49-4B1D-A244-40E916E30234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1146C80-1D58-489A-9EC9-95115D05BFBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="3180" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <t>Einwohner</t>
   </si>
   <si>
-    <t>Datenabruf: Mittwoch 2020-06-17 17:40</t>
+    <t>Datenabruf: Donnerstag 2020-06-18 16:03</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Mittwoch 2020-06-17 17:40</a:t>
+              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Donnerstag 2020-06-18 16:03</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -394,187 +394,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43997</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43996</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43940</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -586,187 +586,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>62.047395573158454</c:v>
+                  <c:v>63.344891048627133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.061081536068102</c:v>
+                  <c:v>73.850731279101055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.662418014504652</c:v>
+                  <c:v>75.032033129900896</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>71.643052410393167</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>70.045390071196678</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>70.461750559593327</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>67.682786369597011</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>65.281451459774402</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>62.328196832774815</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>58.290468375532761</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>57.854742283024628</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>58.832705290653998</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>56.925193285673934</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>53.110169275713822</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>49.556580921258586</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>46.932541564154029</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44.473109841997008</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43.194979970639807</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>41.849070484892458</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>41.316516371826957</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>41.035715112210603</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>38.64406300444373</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>37.123863081693123</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>37.211008300194749</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>36.087803261729334</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>36.562260562460416</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>36.126534469952283</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>37.888804444096294</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>38.585966192109311</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>37.578954778312728</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>38.653745806499465</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>38.934547066115819</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>39.118520305174812</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>40.580623415590999</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>40.59998901970247</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>41.916850099282613</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>42.217016963010437</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>40.880790279318823</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>41.026032310154868</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>40.871107477263088</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>38.828036243502723</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>37.07544907141444</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>35.681125575388407</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>36.436384135735842</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>37.394981539253742</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>38.121191693433964</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>38.48913817155195</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>40.183628531305807</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>42.643060253462835</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43.417684417921748</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>42.371941795902217</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>41.839387682836723</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>40.725865446427036</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>41.57795202733184</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>42.149237348620282</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>41.200322747158118</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>39.893144469633718</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>38.750573827056826</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>36.552577760404681</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>36.320190511067004</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>37.056083467302969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,187 +1247,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43997</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43996</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43940</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,184 +1439,184 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>91.965788726593715</c:v>
+                  <c:v>113.55775651457657</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>118.35597157857276</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>96.764003790589896</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>78.770697300604169</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>71.973225959942909</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>55.579324491289242</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45.18319185263082</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>35.186910469305417</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>37.985869256636533</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>39.185423022635582</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>38.385720511969545</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34.787059213972405</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>34.787059213972405</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>34.787059213972405</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>33.187654192640338</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>35.186910469305417</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>29.98884414997621</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>27.98958787331113</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>27.189885362645096</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.59196778798287</c:v>
+                  <c:v>22.391670298648904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.39464519198858</c:v>
+                  <c:v>21.59196778798287</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>14.39464519198858</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>11.195835149324452</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>8.7967276173263542</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>9.1965788726593711</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>9.9962813833254032</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>9.5964301279923863</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>9.5964301279923863</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>12.395388915323501</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>15.994050213320644</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>15.594198957987629</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>15.194347702654612</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>13.594942681322548</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>11.595686404657467</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>13.195091425989531</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>11.995537659990484</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>14.39464519198858</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>14.794496447321595</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>17.193603979319693</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>17.193603979319693</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>16.393901468653663</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>16.393901468653663</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>16.793752723986675</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>19.592711511317791</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>18.793009000651757</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>17.993306489985727</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>18.393157745318742</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>21.991819043315886</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>21.991819043315886</c:v>
@@ -2335,82 +2335,82 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B4" s="11">
-        <v>143</v>
+        <v>262</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" ref="C4:C67" si="0">IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/$O$6*100000)</f>
-        <v>62.047395573158454</v>
+        <v>63.344891048627133</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:E67" si="1">IF(OR(ISBLANK(D4),ISBLANK(D10)),"",SUM(D4:D10)/$O$7*100000)</f>
-        <v>91.965788726593715</v>
+        <v>113.55775651457657</v>
       </c>
       <c r="F4" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ref="G4:G67" si="2">IF(OR(ISBLANK(F4),ISBLANK(F10)),"",SUM(F4:F10)/$O$8*100000)</f>
-        <v>43.133402027269895</v>
+        <v>41.336176942800314</v>
       </c>
       <c r="H4" s="12">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="I4" s="9">
         <f>IF(OR(ISBLANK(H4),ISBLANK(H10)),"",SUM(H4:H10)/$O$9*100000)</f>
-        <v>133.43909574298576</v>
+        <v>124.40023385158074</v>
       </c>
       <c r="J4" s="11">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" ref="K4:K67" si="3">IF(OR(ISBLANK(J4),ISBLANK(J10)),"",SUM(J4:J10)/$O$10*100000)</f>
-        <v>45.013190547566531</v>
+        <v>51.828271733272871</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B5" s="10">
-        <v>1285</v>
+        <v>1365</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>75.061081536068102</v>
+        <v>73.850731279101055</v>
       </c>
       <c r="D5" s="10">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>96.764003790589896</v>
+        <v>118.35597157857276</v>
       </c>
       <c r="F5" s="3">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="2"/>
-        <v>49.423689822913417</v>
+        <v>48.824614794756897</v>
       </c>
       <c r="H5" s="3">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" ref="I5:I68" si="4">IF(OR(ISBLANK(H5),ISBLANK(H11)),"",SUM(H5:H11)/$O$9*100000)</f>
-        <v>164.43775671671452</v>
+        <v>148.96739694104053</v>
       </c>
       <c r="J5" s="10">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="3"/>
-        <v>56.077180373744099</v>
+        <v>56.918548421362161</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>6</v>
@@ -2418,42 +2418,42 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B6" s="10">
-        <v>710</v>
+        <v>1284</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>71.662418014504652</v>
+        <v>75.032033129900896</v>
       </c>
       <c r="D6" s="10">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>78.770697300604169</v>
+        <v>96.764003790589896</v>
       </c>
       <c r="F6" s="3">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>43.432939541348162</v>
+        <v>49.124152308835164</v>
       </c>
       <c r="H6" s="3">
-        <v>222</v>
+        <v>353</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="4"/>
-        <v>158.99126301291921</v>
+        <v>164.49569813909534</v>
       </c>
       <c r="J6" s="10">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="3"/>
-        <v>55.530291142792365</v>
+        <v>55.950975166601388</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
@@ -2464,42 +2464,42 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B7" s="10">
-        <v>419</v>
+        <v>708</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>70.045390071196678</v>
+        <v>71.643052410393167</v>
       </c>
       <c r="D7" s="10">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>71.973225959942909</v>
+        <v>78.770697300604169</v>
       </c>
       <c r="F7" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>45.829239653974263</v>
+        <v>43.432939541348162</v>
       </c>
       <c r="H7" s="3">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>153.25506219721984</v>
+        <v>158.99126301291921</v>
       </c>
       <c r="J7" s="10">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="3"/>
-        <v>54.941333509459717</v>
+        <v>55.446154338030553</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -2510,42 +2510,42 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B8" s="10">
-        <v>1113</v>
+        <v>419</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>70.461750559593327</v>
+        <v>70.045390071196678</v>
       </c>
       <c r="D8" s="10">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>55.579324491289242</v>
+        <v>71.973225959942909</v>
       </c>
       <c r="F8" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>47.027389710287316</v>
+        <v>45.829239653974263</v>
       </c>
       <c r="H8" s="3">
-        <v>448</v>
+        <v>162</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="4"/>
-        <v>157.19507891911437</v>
+        <v>153.25506219721984</v>
       </c>
       <c r="J8" s="10">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="3"/>
-        <v>53.763418242794422</v>
+        <v>54.899265107078811</v>
       </c>
       <c r="N8" t="s">
         <v>2</v>
@@ -2556,42 +2556,42 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B9" s="10">
-        <v>1391</v>
+        <v>1113</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>67.682786369597011</v>
+        <v>70.461750559593327</v>
       </c>
       <c r="D9" s="10">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>45.18319185263082</v>
+        <v>55.579324491289242</v>
       </c>
       <c r="F9" s="3">
         <v>24</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="2"/>
-        <v>45.529702139895996</v>
+        <v>47.027389710287316</v>
       </c>
       <c r="H9" s="3">
-        <v>541</v>
+        <v>448</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="4"/>
-        <v>147.69268564866292</v>
+        <v>157.19507891911437</v>
       </c>
       <c r="J9" s="10">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="3"/>
-        <v>54.730991497555195</v>
+        <v>53.721349840413517</v>
       </c>
       <c r="N9" t="s">
         <v>8</v>
@@ -2602,42 +2602,42 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B10" s="10">
-        <v>1347</v>
+        <v>1391</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>65.281451459774402</v>
+        <v>67.682786369597011</v>
       </c>
       <c r="D10" s="10">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>35.186910469305417</v>
+        <v>45.18319185263082</v>
       </c>
       <c r="F10" s="3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>45.230164625817736</v>
+        <v>45.529702139895996</v>
       </c>
       <c r="H10" s="3">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="4"/>
-        <v>144.33208315057644</v>
+        <v>147.69268564866292</v>
       </c>
       <c r="J10" s="10">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>56.119248776125005</v>
+        <v>54.730991497555195</v>
       </c>
       <c r="N10" t="s">
         <v>3</v>
@@ -2648,2414 +2648,2414 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B11" s="10">
-        <v>1487</v>
+        <v>1347</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>62.328196832774815</v>
+        <v>65.281451459774402</v>
       </c>
       <c r="D11" s="10">
         <v>12</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>37.985869256636533</v>
+        <v>35.186910469305417</v>
       </c>
       <c r="F11" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>43.133402027269895</v>
+        <v>45.230164625817736</v>
       </c>
       <c r="H11" s="3">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="4"/>
-        <v>137.14734677535705</v>
+        <v>144.33208315057644</v>
       </c>
       <c r="J11" s="10">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>55.950975166601388</v>
+        <v>56.119248776125005</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B12" s="10">
-        <v>934</v>
+        <v>1487</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>58.290468375532761</v>
+        <v>62.328196832774815</v>
       </c>
       <c r="D12" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>39.185423022635582</v>
+        <v>37.985869256636533</v>
       </c>
       <c r="F12" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="2"/>
-        <v>38.640339316095947</v>
+        <v>43.133402027269895</v>
       </c>
       <c r="H12" s="3">
-        <v>258</v>
+        <v>584</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="4"/>
-        <v>128.16642630633282</v>
+        <v>137.14734677535705</v>
       </c>
       <c r="J12" s="10">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="3"/>
-        <v>55.23581232612603</v>
+        <v>55.950975166601388</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B13" s="10">
-        <v>543</v>
+        <v>934</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>57.854742283024628</v>
+        <v>58.290468375532761</v>
       </c>
       <c r="D13" s="10">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>38.385720511969545</v>
+        <v>39.185423022635582</v>
       </c>
       <c r="F13" s="3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="2"/>
-        <v>39.239414344252474</v>
+        <v>38.640339316095947</v>
       </c>
       <c r="H13" s="3">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="4"/>
-        <v>128.80378195252166</v>
+        <v>128.16642630633282</v>
       </c>
       <c r="J13" s="10">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="3"/>
-        <v>52.122750549939191</v>
+        <v>55.23581232612603</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B14" s="10">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>58.832705290653998</v>
+        <v>57.854742283024628</v>
       </c>
       <c r="D14" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>34.787059213972405</v>
+        <v>38.385720511969545</v>
       </c>
       <c r="F14" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>40.737101914643794</v>
+        <v>39.239414344252474</v>
       </c>
       <c r="H14" s="3">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="4"/>
-        <v>127.06553928109759</v>
+        <v>128.80378195252166</v>
       </c>
       <c r="J14" s="10">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="3"/>
-        <v>53.468939426128095</v>
+        <v>52.122750549939191</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B15" s="10">
-        <v>826</v>
+        <v>462</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>56.925193285673934</v>
+        <v>58.832705290653998</v>
       </c>
       <c r="D15" s="10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>34.787059213972405</v>
       </c>
       <c r="F15" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>40.437564400565527</v>
+        <v>40.737101914643794</v>
       </c>
       <c r="H15" s="3">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="4"/>
-        <v>119.4752129492126</v>
+        <v>127.06553928109759</v>
       </c>
       <c r="J15" s="10">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="3"/>
-        <v>54.310307473746164</v>
+        <v>53.468939426128095</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B16" s="10">
-        <v>1143</v>
+        <v>826</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>53.110169275713822</v>
+        <v>56.925193285673934</v>
       </c>
       <c r="D16" s="10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>33.187654192640338</v>
+        <v>34.787059213972405</v>
       </c>
       <c r="F16" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="2"/>
-        <v>38.04126428793942</v>
+        <v>40.437564400565527</v>
       </c>
       <c r="H16" s="3">
-        <v>483</v>
+        <v>284</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="4"/>
-        <v>109.79899541161878</v>
+        <v>119.4752129492126</v>
       </c>
       <c r="J16" s="10">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="3"/>
-        <v>48.673141554705118</v>
+        <v>54.310307473746164</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B17" s="10">
-        <v>1042</v>
+        <v>1143</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>49.556580921258586</v>
+        <v>53.110169275713822</v>
       </c>
       <c r="D17" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="1"/>
-        <v>35.186910469305417</v>
+        <v>33.187654192640338</v>
       </c>
       <c r="F17" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>36.244039203469846</v>
+        <v>38.04126428793942</v>
       </c>
       <c r="H17" s="3">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="4"/>
-        <v>94.734225592610386</v>
+        <v>109.79899541161878</v>
       </c>
       <c r="J17" s="10">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="3"/>
-        <v>47.83177350708705</v>
+        <v>48.673141554705118</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B18" s="10">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>46.932541564154029</v>
+        <v>49.556580921258586</v>
       </c>
       <c r="D18" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>29.98884414997621</v>
+        <v>35.186910469305417</v>
       </c>
       <c r="F18" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>37.741726773861153</v>
+        <v>36.244039203469846</v>
       </c>
       <c r="H18" s="3">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="4"/>
-        <v>77.17797461122754</v>
+        <v>94.734225592610386</v>
       </c>
       <c r="J18" s="10">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
-        <v>50.482082857083967</v>
+        <v>47.83177350708705</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B19" s="10">
-        <v>889</v>
+        <v>1070</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>44.473109841997008</v>
+        <v>46.932541564154029</v>
       </c>
       <c r="D19" s="10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="1"/>
-        <v>27.98958787331113</v>
+        <v>29.98884414997621</v>
       </c>
       <c r="F19" s="3">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="2"/>
-        <v>44.631089597661216</v>
+        <v>37.741726773861153</v>
       </c>
       <c r="H19" s="3">
-        <v>269</v>
+        <v>429</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="4"/>
-        <v>58.462895182228671</v>
+        <v>77.17797461122754</v>
       </c>
       <c r="J19" s="10">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
-        <v>49.430372797561382</v>
+        <v>50.482082857083967</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B20" s="10">
-        <v>644</v>
+        <v>889</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>43.194979970639807</v>
+        <v>44.473109841997008</v>
       </c>
       <c r="D20" s="10">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="1"/>
-        <v>27.189885362645096</v>
+        <v>27.98958787331113</v>
       </c>
       <c r="F20" s="3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>41.635714456878574</v>
+        <v>44.631089597661216</v>
       </c>
       <c r="H20" s="3">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
-        <v>49.829623247489252</v>
+        <v>58.462895182228671</v>
       </c>
       <c r="J20" s="10">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="3"/>
-        <v>51.99654534279648</v>
+        <v>49.430372797561382</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B21" s="10">
-        <v>265</v>
+        <v>644</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>41.849070484892458</v>
+        <v>43.194979970639807</v>
       </c>
       <c r="D21" s="10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E21" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>27.189885362645096</v>
       </c>
       <c r="F21" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="2"/>
-        <v>37.442189259782893</v>
+        <v>41.635714456878574</v>
       </c>
       <c r="H21" s="3">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="4"/>
-        <v>50.640803160820475</v>
+        <v>49.829623247489252</v>
       </c>
       <c r="J21" s="10">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="3"/>
-        <v>52.879981792795448</v>
+        <v>51.99654534279648</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B22" s="10">
-        <v>432</v>
+        <v>265</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>41.316516371826957</v>
+        <v>41.849070484892458</v>
       </c>
       <c r="D22" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="1"/>
         <v>22.391670298648904</v>
       </c>
       <c r="F22" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>35.944501689391579</v>
+        <v>37.442189259782893</v>
       </c>
       <c r="H22" s="3">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="4"/>
-        <v>46.469020749402766</v>
+        <v>50.640803160820475</v>
       </c>
       <c r="J22" s="10">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" si="3"/>
-        <v>52.543434573748222</v>
+        <v>52.879981792795448</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B23" s="10">
-        <v>776</v>
+        <v>432</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>41.035715112210603</v>
+        <v>41.316516371826957</v>
       </c>
       <c r="D23" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="1"/>
-        <v>21.59196778798287</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F23" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="2"/>
-        <v>34.446814119000265</v>
+        <v>35.944501689391579</v>
       </c>
       <c r="H23" s="3">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.469020749402766</v>
       </c>
       <c r="J23" s="10">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="3"/>
-        <v>52.753776585652744</v>
+        <v>52.543434573748222</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B24" s="10">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>38.64406300444373</v>
+        <v>41.035715112210603</v>
       </c>
       <c r="D24" s="10">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F24" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>31.750976492295894</v>
+        <v>34.446814119000265</v>
       </c>
       <c r="H24" s="3">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="4"/>
-        <v>40.095464287514609</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J24" s="10">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="3"/>
-        <v>49.808988418989507</v>
+        <v>52.753776585652744</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B25" s="10">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>37.123863081693123</v>
+        <v>38.64406300444373</v>
       </c>
       <c r="D25" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="1"/>
         <v>14.39464519198858</v>
       </c>
       <c r="F25" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>31.750976492295894</v>
       </c>
       <c r="H25" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="4"/>
-        <v>43.91959816464751</v>
+        <v>40.095464287514609</v>
       </c>
       <c r="J25" s="10">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="3"/>
-        <v>43.162180842806784</v>
+        <v>49.851056821370413</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B26" s="10">
-        <v>757</v>
+        <v>816</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>37.211008300194749</v>
+        <v>37.123863081693123</v>
       </c>
       <c r="D26" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F26" s="3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
-        <v>29.05513886559153</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H26" s="3">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>43.91959816464751</v>
       </c>
       <c r="J26" s="10">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="3"/>
-        <v>41.731855161856075</v>
+        <v>43.20424924518769</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B27" s="10">
-        <v>505</v>
+        <v>757</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>37.211008300194749</v>
       </c>
       <c r="D27" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
-        <v>11.195835149324452</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F27" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
-        <v>26.958376267043683</v>
+        <v>29.05513886559153</v>
       </c>
       <c r="H27" s="3">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="4"/>
-        <v>46.295196482260366</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J27" s="10">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="3"/>
-        <v>41.269102735666138</v>
+        <v>41.773923564236981</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B28" s="10">
-        <v>210</v>
+        <v>505</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>36.087803261729334</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D28" s="10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="1"/>
-        <v>8.7967276173263542</v>
+        <v>11.195835149324452</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
-        <v>30.253288921904577</v>
+        <v>26.958376267043683</v>
       </c>
       <c r="H28" s="3">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="4"/>
-        <v>42.413121182746664</v>
+        <v>46.295196482260366</v>
       </c>
       <c r="J28" s="10">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="3"/>
-        <v>41.100829126142528</v>
+        <v>41.311171138047037</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B29" s="10">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>36.562260562460416</v>
+        <v>36.087803261729334</v>
       </c>
       <c r="D29" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
-        <v>9.1965788726593711</v>
+        <v>8.7967276173263542</v>
       </c>
       <c r="F29" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="2"/>
-        <v>30.852363950061104</v>
+        <v>30.253288921904577</v>
       </c>
       <c r="H29" s="3">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="4"/>
-        <v>46.005489370356358</v>
+        <v>42.413121182746664</v>
       </c>
       <c r="J29" s="10">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="3"/>
-        <v>41.100829126142528</v>
+        <v>41.142897528523427</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B30" s="10">
-        <v>529</v>
+        <v>403</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>36.126534469952283</v>
+        <v>36.562260562460416</v>
       </c>
       <c r="D30" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
-        <v>9.9962813833254032</v>
+        <v>9.1965788726593711</v>
       </c>
       <c r="F30" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>31.451438978217631</v>
+        <v>30.852363950061104</v>
       </c>
       <c r="H30" s="3">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="4"/>
-        <v>46.758727861306781</v>
+        <v>46.005489370356358</v>
       </c>
       <c r="J30" s="10">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="3"/>
-        <v>40.511871492809881</v>
+        <v>41.142897528523427</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B31" s="10">
-        <v>614</v>
+        <v>529</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>37.888804444096294</v>
+        <v>36.126534469952283</v>
       </c>
       <c r="D31" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
-        <v>9.5964301279923863</v>
+        <v>9.9962813833254032</v>
       </c>
       <c r="F31" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="2"/>
-        <v>35.644964175313319</v>
+        <v>31.451438978217631</v>
       </c>
       <c r="H31" s="3">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="4"/>
-        <v>47.222259240353189</v>
+        <v>46.758727861306781</v>
       </c>
       <c r="J31" s="10">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="3"/>
-        <v>43.078044038044979</v>
+        <v>40.55393989519078</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B32" s="10">
-        <v>825</v>
+        <v>614</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>38.585966192109311</v>
+        <v>37.888804444096294</v>
       </c>
       <c r="D32" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
         <v>9.5964301279923863</v>
       </c>
       <c r="F32" s="3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
-        <v>36.543576717548106</v>
+        <v>35.644964175313319</v>
       </c>
       <c r="H32" s="3">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="4"/>
-        <v>46.237255059879566</v>
+        <v>47.222259240353189</v>
       </c>
       <c r="J32" s="10">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="3"/>
-        <v>45.307669364232851</v>
+        <v>43.078044038044979</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B33" s="10">
-        <v>689</v>
+        <v>825</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>37.578954778312728</v>
+        <v>38.585966192109311</v>
       </c>
       <c r="D33" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F33" s="3">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="2"/>
-        <v>26.059763724808892</v>
+        <v>36.543576717548106</v>
       </c>
       <c r="H33" s="3">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="4"/>
-        <v>44.556953810836319</v>
+        <v>46.237255059879566</v>
       </c>
       <c r="J33" s="10">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="3"/>
-        <v>48.168320726134283</v>
+        <v>45.307669364232851</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B34" s="10">
-        <v>457</v>
+        <v>689</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>38.653745806499465</v>
+        <v>37.578954778312728</v>
       </c>
       <c r="D34" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F34" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>26.059763724808892</v>
       </c>
       <c r="H34" s="3">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="4"/>
-        <v>47.164317817972382</v>
+        <v>44.556953810836319</v>
       </c>
       <c r="J34" s="10">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="3"/>
-        <v>51.449656111844739</v>
+        <v>48.168320726134283</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B35" s="10">
-        <v>259</v>
+        <v>457</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>38.934547066115819</v>
+        <v>38.653745806499465</v>
       </c>
       <c r="D35" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F35" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="2"/>
-        <v>23.064388584026261</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H35" s="3">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="4"/>
-        <v>47.975497731303605</v>
+        <v>47.164317817972382</v>
       </c>
       <c r="J35" s="10">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="3"/>
-        <v>54.142033864222554</v>
+        <v>51.449656111844739</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B36" s="10">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>39.118520305174812</v>
+        <v>38.934547066115819</v>
       </c>
       <c r="D36" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>15.994050213320644</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F36" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
         <v>23.064388584026261</v>
       </c>
       <c r="H36" s="3">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="4"/>
-        <v>47.801673464161205</v>
+        <v>47.975497731303605</v>
       </c>
       <c r="J36" s="10">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="3"/>
-        <v>54.941333509459717</v>
+        <v>54.142033864222554</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B37" s="10">
-        <v>711</v>
+        <v>358</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>40.580623415590999</v>
+        <v>39.118520305174812</v>
       </c>
       <c r="D37" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F37" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>23.064388584026261</v>
       </c>
       <c r="H37" s="3">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="4"/>
-        <v>48.49697053273082</v>
+        <v>47.801673464161205</v>
       </c>
       <c r="J37" s="10">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="3"/>
-        <v>57.044753628504878</v>
+        <v>54.941333509459717</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B38" s="10">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>40.59998901970247</v>
+        <v>40.580623415590999</v>
       </c>
       <c r="D38" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F38" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
-        <v>20.069013443243634</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H38" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="4"/>
-        <v>47.048434973210782</v>
+        <v>48.49697053273082</v>
       </c>
       <c r="J38" s="10">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="3"/>
-        <v>58.222668895170173</v>
+        <v>57.044753628504878</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B39" s="10">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>41.916850099282613</v>
+        <v>40.59998901970247</v>
       </c>
       <c r="D39" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E39" s="7">
         <f t="shared" si="1"/>
-        <v>15.194347702654612</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F39" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="2"/>
-        <v>20.668088471400157</v>
+        <v>20.069013443243634</v>
       </c>
       <c r="H39" s="3">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="4"/>
-        <v>47.801673464161205</v>
+        <v>47.048434973210782</v>
       </c>
       <c r="J39" s="10">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="3"/>
-        <v>63.565355997544884</v>
+        <v>58.222668895170173</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B40" s="10">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>42.217016963010437</v>
+        <v>41.916850099282613</v>
       </c>
       <c r="D40" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" si="1"/>
-        <v>13.594942681322548</v>
+        <v>15.194347702654612</v>
       </c>
       <c r="F40" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="2"/>
-        <v>25.460688696652372</v>
+        <v>20.668088471400157</v>
       </c>
       <c r="H40" s="3">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="4"/>
-        <v>50.351096048916467</v>
+        <v>47.801673464161205</v>
       </c>
       <c r="J40" s="10">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="3"/>
-        <v>61.630209488023333</v>
+        <v>63.565355997544884</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B41" s="10">
-        <v>486</v>
+        <v>800</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>40.880790279318823</v>
+        <v>42.217016963010437</v>
       </c>
       <c r="D41" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F41" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="2"/>
-        <v>27.856988809278473</v>
+        <v>25.460688696652372</v>
       </c>
       <c r="H41" s="10">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="4"/>
-        <v>48.033439153684405</v>
+        <v>50.351096048916467</v>
       </c>
       <c r="J41" s="10">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="3"/>
-        <v>57.128890433266676</v>
+        <v>61.630209488023333</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B42" s="10">
-        <v>278</v>
+        <v>486</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>41.026032310154868</v>
+        <v>40.880790279318823</v>
       </c>
       <c r="D42" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F42" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="2"/>
         <v>27.856988809278473</v>
       </c>
       <c r="H42" s="10">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="4"/>
-        <v>49.250209023681244</v>
+        <v>48.033439153684405</v>
       </c>
       <c r="J42" s="10">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="3"/>
-        <v>54.268239071365258</v>
+        <v>57.128890433266676</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B43" s="10">
-        <v>509</v>
+        <v>278</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>40.871107477263088</v>
+        <v>41.026032310154868</v>
       </c>
       <c r="D43" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="1"/>
-        <v>11.595686404657467</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F43" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="2"/>
-        <v>27.257913781121946</v>
+        <v>27.856988809278473</v>
       </c>
       <c r="H43" s="10">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="4"/>
-        <v>46.700786438925974</v>
+        <v>49.250209023681244</v>
       </c>
       <c r="J43" s="10">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="3"/>
-        <v>56.371659190410419</v>
+        <v>54.268239071365258</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B44" s="10">
-        <v>713</v>
+        <v>509</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>38.828036243502723</v>
+        <v>40.871107477263088</v>
       </c>
       <c r="D44" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F44" s="10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>27.257913781121946</v>
       </c>
       <c r="H44" s="10">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="4"/>
-        <v>42.297238337985064</v>
+        <v>46.700786438925974</v>
       </c>
       <c r="J44" s="10">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="3"/>
-        <v>54.941333509459717</v>
+        <v>56.371659190410419</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B45" s="10">
-        <v>822</v>
+        <v>713</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>37.07544907141444</v>
+        <v>38.828036243502723</v>
       </c>
       <c r="D45" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="1"/>
-        <v>13.195091425989531</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F45" s="10">
         <v>15</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="2"/>
-        <v>24.262538640339319</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H45" s="10">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="4"/>
-        <v>41.949589803700256</v>
+        <v>42.297238337985064</v>
       </c>
       <c r="J45" s="10">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="3"/>
-        <v>50.986903685654802</v>
+        <v>54.941333509459717</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B46" s="10">
-        <v>752</v>
+        <v>822</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>35.681125575388407</v>
+        <v>37.07544907141444</v>
       </c>
       <c r="D46" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>13.195091425989531</v>
       </c>
       <c r="F46" s="10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="2"/>
-        <v>22.165776041791474</v>
+        <v>24.262538640339319</v>
       </c>
       <c r="H46" s="10">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="4"/>
-        <v>37.951631659424955</v>
+        <v>41.949589803700256</v>
       </c>
       <c r="J46" s="10">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="3"/>
-        <v>49.009688773752345</v>
+        <v>50.986903685654802</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B47" s="10">
-        <v>662</v>
+        <v>752</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>36.436384135735842</v>
+        <v>35.681125575388407</v>
       </c>
       <c r="D47" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F47" s="10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>22.165776041791474</v>
       </c>
       <c r="H47" s="10">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="4"/>
-        <v>36.329271832762508</v>
+        <v>37.951631659424955</v>
       </c>
       <c r="J47" s="10">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="3"/>
-        <v>51.786203330891965</v>
+        <v>49.009688773752345</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B48" s="10">
-        <v>501</v>
+        <v>662</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>37.394981539253742</v>
+        <v>36.436384135735842</v>
       </c>
       <c r="D48" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E48" s="7">
         <f t="shared" si="1"/>
-        <v>11.995537659990484</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F48" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="2"/>
-        <v>14.976875703913157</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H48" s="10">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="4"/>
-        <v>34.764853428480876</v>
+        <v>36.329271832762508</v>
       </c>
       <c r="J48" s="10">
         <v>173</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="3"/>
-        <v>55.404085935649647</v>
+        <v>51.786203330891965</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B49" s="10">
-        <v>262</v>
+        <v>501</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>38.121191693433964</v>
+        <v>37.394981539253742</v>
       </c>
       <c r="D49" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F49" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="2"/>
-        <v>17.373175816539263</v>
+        <v>14.976875703913157</v>
       </c>
       <c r="H49" s="10">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="4"/>
-        <v>36.155447565620108</v>
+        <v>34.764853428480876</v>
       </c>
       <c r="J49" s="10">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="3"/>
-        <v>57.633711261837526</v>
+        <v>55.404085935649647</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B50" s="10">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>38.48913817155195</v>
+        <v>38.121191693433964</v>
       </c>
       <c r="D50" s="10">
         <v>1</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F50" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="2"/>
-        <v>18.271788358774053</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H50" s="10">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="4"/>
-        <v>36.387213255143315</v>
+        <v>36.155447565620108</v>
       </c>
       <c r="J50" s="10">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="3"/>
-        <v>56.876480018981269</v>
+        <v>57.633711261837526</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B51" s="10">
-        <v>532</v>
+        <v>298</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>40.183628531305807</v>
+        <v>38.48913817155195</v>
       </c>
       <c r="D51" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" si="1"/>
-        <v>14.39464519198858</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F51" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="2"/>
-        <v>16.474563274304476</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H51" s="10">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="4"/>
-        <v>39.921640020372202</v>
+        <v>36.387213255143315</v>
       </c>
       <c r="J51" s="10">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="3"/>
-        <v>59.316447357073656</v>
+        <v>56.876480018981269</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B52" s="10">
-        <v>678</v>
+        <v>532</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>42.643060253462835</v>
+        <v>40.183628531305807</v>
       </c>
       <c r="D52" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="1"/>
-        <v>14.794496447321595</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F52" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>16.474563274304476</v>
       </c>
       <c r="H52" s="10">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="4"/>
-        <v>41.312234157511433</v>
+        <v>39.921640020372202</v>
       </c>
       <c r="J52" s="10">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="3"/>
-        <v>63.186740376116752</v>
+        <v>59.316447357073656</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B53" s="10">
-        <v>830</v>
+        <v>678</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>43.417684417921748</v>
+        <v>42.643060253462835</v>
       </c>
       <c r="D53" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>14.794496447321595</v>
       </c>
       <c r="F53" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="2"/>
-        <v>23.963001126261055</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H53" s="10">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="4"/>
-        <v>39.979581442753009</v>
+        <v>41.312234157511433</v>
       </c>
       <c r="J53" s="10">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="3"/>
-        <v>64.617066057067476</v>
+        <v>63.186740376116752</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B54" s="10">
-        <v>761</v>
+        <v>830</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>42.371941795902217</v>
+        <v>43.417684417921748</v>
       </c>
       <c r="D54" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E54" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F54" s="10">
         <v>10</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>23.963001126261055</v>
       </c>
       <c r="H54" s="10">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="4"/>
-        <v>35.923681876096907</v>
+        <v>39.979581442753009</v>
       </c>
       <c r="J54" s="10">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="3"/>
-        <v>64.9956816784956</v>
+        <v>64.617066057067476</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B55" s="10">
-        <v>576</v>
+        <v>761</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>41.839387682836723</v>
+        <v>42.371941795902217</v>
       </c>
       <c r="D55" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="1"/>
-        <v>17.193603979319693</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F55" s="10">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="2"/>
-        <v>28.755601351513267</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H55" s="10">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="4"/>
-        <v>38.241338771328962</v>
+        <v>35.923681876096907</v>
       </c>
       <c r="J55" s="10">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="3"/>
-        <v>60.957115049928888</v>
+        <v>64.9956816784956</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B56" s="10">
-        <v>300</v>
+        <v>576</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>40.725865446427036</v>
+        <v>41.839387682836723</v>
       </c>
       <c r="D56" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E56" s="7">
         <f t="shared" si="1"/>
-        <v>16.393901468653663</v>
+        <v>17.193603979319693</v>
       </c>
       <c r="F56" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>26.359301238887156</v>
+        <v>28.755601351513267</v>
       </c>
       <c r="H56" s="10">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="4"/>
-        <v>35.402209074669692</v>
+        <v>38.241338771328962</v>
       </c>
       <c r="J56" s="10">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="3"/>
-        <v>60.326089014215334</v>
+        <v>60.957115049928888</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B57" s="10">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>41.57795202733184</v>
+        <v>40.725865446427036</v>
       </c>
       <c r="D57" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" s="7">
         <f t="shared" si="1"/>
         <v>16.393901468653663</v>
       </c>
       <c r="F57" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="2"/>
-        <v>26.658838752965419</v>
+        <v>26.359301238887156</v>
       </c>
       <c r="H57" s="10">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="4"/>
-        <v>34.533087738957668</v>
+        <v>35.402209074669692</v>
       </c>
       <c r="J57" s="10">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="3"/>
-        <v>63.7756980094494</v>
+        <v>60.326089014215334</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B58" s="10">
-        <v>786</v>
+        <v>473</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>42.149237348620282</v>
+        <v>41.57795202733184</v>
       </c>
       <c r="D58" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E58" s="7">
         <f t="shared" si="1"/>
-        <v>16.793752723986675</v>
+        <v>16.393901468653663</v>
       </c>
       <c r="F58" s="10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="2"/>
-        <v>28.156526323356736</v>
+        <v>26.658838752965419</v>
       </c>
       <c r="H58" s="10">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="4"/>
-        <v>31.867782309440802</v>
+        <v>34.533087738957668</v>
       </c>
       <c r="J58" s="10">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="3"/>
-        <v>65.542570909447335</v>
+        <v>63.7756980094494</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B59" s="10">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>41.200322747158118</v>
+        <v>42.149237348620282</v>
       </c>
       <c r="D59" s="10">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="1"/>
-        <v>19.592711511317791</v>
+        <v>16.793752723986675</v>
       </c>
       <c r="F59" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="2"/>
-        <v>25.760226210730629</v>
+        <v>28.156526323356736</v>
       </c>
       <c r="H59" s="10">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="4"/>
-        <v>27.8118827427847</v>
+        <v>31.867782309440802</v>
       </c>
       <c r="J59" s="10">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="3"/>
-        <v>65.037750080876506</v>
+        <v>65.542570909447335</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B60" s="10">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>39.893144469633718</v>
+        <v>41.200322747158118</v>
       </c>
       <c r="D60" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E60" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>19.592711511317791</v>
       </c>
       <c r="F60" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>24.861613668495846</v>
+        <v>25.760226210730629</v>
       </c>
       <c r="H60" s="10">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="4"/>
-        <v>28.507179811354316</v>
+        <v>27.8118827427847</v>
       </c>
       <c r="J60" s="10">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="3"/>
-        <v>62.092961914213276</v>
+        <v>65.037750080876506</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B61" s="10">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>38.750573827056826</v>
+        <v>39.893144469633718</v>
       </c>
       <c r="D61" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" si="1"/>
-        <v>17.993306489985727</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F61" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="2"/>
-        <v>20.967625985478421</v>
+        <v>24.861613668495846</v>
       </c>
       <c r="H61" s="10">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="4"/>
-        <v>27.985707009927108</v>
+        <v>28.507179811354316</v>
       </c>
       <c r="J61" s="10">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="3"/>
-        <v>59.021968540407336</v>
+        <v>62.092961914213276</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B62" s="10">
-        <v>461</v>
+        <v>706</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>36.552577760404681</v>
+        <v>38.750573827056826</v>
       </c>
       <c r="D62" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E62" s="7">
         <f t="shared" si="1"/>
-        <v>18.393157745318742</v>
+        <v>17.993306489985727</v>
       </c>
       <c r="F62" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="2"/>
-        <v>17.672713330617526</v>
+        <v>20.967625985478421</v>
       </c>
       <c r="H62" s="10">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="4"/>
-        <v>24.509221667079018</v>
+        <v>27.985707009927108</v>
       </c>
       <c r="J62" s="10">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="3"/>
-        <v>59.695062978501781</v>
+        <v>59.021968540407336</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B63" s="10">
-        <v>388</v>
+        <v>461</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>36.320190511067004</v>
+        <v>36.552577760404681</v>
       </c>
       <c r="D63" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E63" s="7">
         <f t="shared" si="1"/>
-        <v>21.991819043315886</v>
+        <v>18.393157745318742</v>
       </c>
       <c r="F63" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="2"/>
-        <v>15.575950732069684</v>
+        <v>17.672713330617526</v>
       </c>
       <c r="H63" s="10">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="4"/>
-        <v>24.393338822317414</v>
+        <v>24.509221667079018</v>
       </c>
       <c r="J63" s="10">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="3"/>
-        <v>59.232310552311851</v>
+        <v>59.695062978501781</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B64" s="10">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>37.056083467302969</v>
+        <v>36.320190511067004</v>
       </c>
       <c r="D64" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" si="1"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F64" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="2"/>
-        <v>14.677338189834897</v>
+        <v>15.575950732069684</v>
       </c>
       <c r="H64" s="10">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="4"/>
-        <v>25.030694468506226</v>
+        <v>24.393338822317414</v>
       </c>
       <c r="J64" s="10">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="3"/>
-        <v>58.811626528502821</v>
+        <v>59.232310552311851</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B65" s="10">
-        <v>688</v>
+        <v>532</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>35.729539585667091</v>
+        <v>37.056083467302969</v>
       </c>
       <c r="D65" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="1"/>
-        <v>22.391670298648904</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F65" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="2"/>
-        <v>13.179650619443578</v>
+        <v>14.677338189834897</v>
       </c>
       <c r="H65" s="10">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="4"/>
-        <v>24.103631710413406</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J65" s="10">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="3"/>
-        <v>59.652994576120875</v>
+        <v>58.811626528502821</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B66" s="10">
-        <v>623</v>
+        <v>688</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>33.463763904624784</v>
+        <v>35.729539585667091</v>
       </c>
       <c r="D66" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="1"/>
-        <v>18.793009000651757</v>
+        <v>22.391670298648904</v>
       </c>
       <c r="F66" s="10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="2"/>
-        <v>11.681963049052262</v>
+        <v>13.179650619443578</v>
       </c>
       <c r="H66" s="10">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="4"/>
-        <v>23.640100331366995</v>
+        <v>24.103631710413406</v>
       </c>
       <c r="J66" s="10">
         <v>221</v>
       </c>
       <c r="K66" s="7">
         <f t="shared" si="3"/>
-        <v>56.582001202314935</v>
+        <v>59.652994576120875</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B67" s="10">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>33.676785549850983</v>
+        <v>33.463763904624784</v>
       </c>
       <c r="D67" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="1"/>
-        <v>15.594198957987629</v>
+        <v>18.793009000651757</v>
       </c>
       <c r="F67" s="10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="2"/>
-        <v>10.783350506817474</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H67" s="10">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I67" s="7">
         <f t="shared" si="4"/>
-        <v>25.494225847552645</v>
+        <v>23.640100331366995</v>
       </c>
       <c r="J67" s="10">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K67" s="7">
         <f t="shared" si="3"/>
-        <v>57.381300847552104</v>
+        <v>56.582001202314935</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B68" s="10">
-        <v>479</v>
+        <v>604</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" ref="C68:C131" si="5">IF(OR(ISBLANK(B68),ISBLANK(B74)),"",SUM(B68:B74)/$O$6*100000)</f>
-        <v>34.170608454693543</v>
+        <v>33.676785549850983</v>
       </c>
       <c r="D68" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" ref="E68:E131" si="6">IF(OR(ISBLANK(D68),ISBLANK(D74)),"",SUM(D68:D74)/$O$7*100000)</f>
-        <v>19.192860255984773</v>
+        <v>15.594198957987629</v>
       </c>
       <c r="F68" s="10">
         <v>6</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" ref="G68:G131" si="7">IF(OR(ISBLANK(F68),ISBLANK(F74)),"",SUM(F68:F74)/$O$8*100000)</f>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H68" s="10">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="4"/>
-        <v>25.378343002791041</v>
+        <v>25.494225847552645</v>
       </c>
       <c r="J68" s="10">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" ref="K68:K131" si="8">IF(OR(ISBLANK(J68),ISBLANK(J74)),"",SUM(J68:J74)/$O$10*100000)</f>
-        <v>59.737131380882687</v>
+        <v>57.381300847552104</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B69" s="10">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" si="5"/>
-        <v>36.678454187129248</v>
+        <v>34.170608454693543</v>
       </c>
       <c r="D69" s="10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E69" s="7">
         <f t="shared" si="6"/>
-        <v>24.390926575313983</v>
+        <v>19.192860255984773</v>
       </c>
       <c r="F69" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="7"/>
-        <v>13.778725647600105</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H69" s="10">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" ref="I69:I132" si="9">IF(OR(ISBLANK(H69),ISBLANK(H75)),"",SUM(H69:H75)/$O$9*100000)</f>
-        <v>25.436284425171838</v>
+        <v>25.378343002791041</v>
       </c>
       <c r="J69" s="10">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="8"/>
-        <v>62.429509133260495</v>
+        <v>59.737131380882687</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B70" s="10">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="5"/>
-        <v>36.213679688453908</v>
+        <v>36.678454187129248</v>
       </c>
       <c r="D70" s="10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="6"/>
-        <v>21.59196778798287</v>
+        <v>24.390926575313983</v>
       </c>
       <c r="F70" s="10">
         <v>3</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="7"/>
-        <v>15.875488246147947</v>
+        <v>13.778725647600105</v>
       </c>
       <c r="H70" s="10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="9"/>
-        <v>25.725991537075849</v>
+        <v>25.436284425171838</v>
       </c>
       <c r="J70" s="10">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="8"/>
-        <v>59.526789368978172</v>
+        <v>62.429509133260495</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B71" s="10">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="5"/>
-        <v>35.013012233542604</v>
+        <v>36.213679688453908</v>
       </c>
       <c r="D71" s="10">
         <v>2</v>
@@ -5065,1117 +5065,1117 @@
         <v>21.59196778798287</v>
       </c>
       <c r="F71" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="7"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H71" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="9"/>
-        <v>25.030694468506226</v>
+        <v>25.725991537075849</v>
       </c>
       <c r="J71" s="10">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="8"/>
-        <v>59.106105345169134</v>
+        <v>59.526789368978172</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B72" s="10">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="5"/>
-        <v>34.645065755424618</v>
+        <v>35.013012233542604</v>
       </c>
       <c r="D72" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E72" s="7">
         <f t="shared" si="6"/>
-        <v>21.991819043315886</v>
+        <v>21.59196778798287</v>
       </c>
       <c r="F72" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="7"/>
         <v>15.875488246147947</v>
       </c>
       <c r="H72" s="10">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I72" s="7">
         <f t="shared" si="9"/>
-        <v>24.914811623744626</v>
+        <v>25.030694468506226</v>
       </c>
       <c r="J72" s="10">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="8"/>
-        <v>56.119248776125005</v>
+        <v>59.106105345169134</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B73" s="10">
-        <v>645</v>
+        <v>454</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="5"/>
-        <v>36.068437657617864</v>
+        <v>34.645065755424618</v>
       </c>
       <c r="D73" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" s="7">
         <f t="shared" si="6"/>
         <v>21.991819043315886</v>
       </c>
       <c r="F73" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="7"/>
-        <v>18.271788358774053</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H73" s="10">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="I73" s="7">
         <f t="shared" si="9"/>
-        <v>23.698041753747795</v>
+        <v>24.914811623744626</v>
       </c>
       <c r="J73" s="10">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="8"/>
-        <v>60.199883807072631</v>
+        <v>56.119248776125005</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B74" s="10">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="5"/>
-        <v>35.187302670545854</v>
+        <v>36.068437657617864</v>
       </c>
       <c r="D74" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E74" s="7">
         <f t="shared" si="6"/>
-        <v>23.191372809314934</v>
+        <v>21.991819043315886</v>
       </c>
       <c r="F74" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="7"/>
-        <v>17.373175816539263</v>
+        <v>18.271788358774053</v>
       </c>
       <c r="H74" s="10">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="I74" s="7">
         <f t="shared" si="9"/>
-        <v>19.700083609472497</v>
+        <v>23.698041753747795</v>
       </c>
       <c r="J74" s="10">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="8"/>
-        <v>59.190242149930945</v>
+        <v>60.199883807072631</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B75" s="10">
-        <v>738</v>
+        <v>655</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="5"/>
-        <v>33.550909123126416</v>
+        <v>35.187302670545854</v>
       </c>
       <c r="D75" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E75" s="7">
         <f t="shared" si="6"/>
-        <v>20.392414021983821</v>
+        <v>23.191372809314934</v>
       </c>
       <c r="F75" s="10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="7"/>
-        <v>15.875488246147947</v>
+        <v>17.373175816539263</v>
       </c>
       <c r="H75" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I75" s="7">
         <f t="shared" si="9"/>
-        <v>17.440368136621238</v>
+        <v>19.700083609472497</v>
       </c>
       <c r="J75" s="10">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="8"/>
-        <v>56.413727592791325</v>
+        <v>59.190242149930945</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B76" s="10">
-        <v>389</v>
+        <v>738</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="5"/>
-        <v>31.004332182467756</v>
+        <v>33.550909123126416</v>
       </c>
       <c r="D76" s="10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E76" s="7">
         <f t="shared" si="6"/>
-        <v>15.994050213320644</v>
+        <v>20.392414021983821</v>
       </c>
       <c r="F76" s="10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="7"/>
-        <v>14.078263161678368</v>
+        <v>15.875488246147947</v>
       </c>
       <c r="H76" s="10">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I76" s="7">
         <f t="shared" si="9"/>
-        <v>15.412418353293189</v>
+        <v>17.440368136621238</v>
       </c>
       <c r="J76" s="10">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="8"/>
-        <v>54.983401911840609</v>
+        <v>56.413727592791325</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B77" s="10">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="5"/>
-        <v>31.265767837972639</v>
+        <v>31.004332182467756</v>
       </c>
       <c r="D77" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E77" s="7">
         <f t="shared" si="6"/>
-        <v>13.994793936655565</v>
+        <v>15.994050213320644</v>
       </c>
       <c r="F77" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="7"/>
-        <v>12.580575591287054</v>
+        <v>14.078263161678368</v>
       </c>
       <c r="H77" s="10">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I77" s="7">
         <f t="shared" si="9"/>
-        <v>13.90594137139235</v>
+        <v>15.412418353293189</v>
       </c>
       <c r="J77" s="10">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="8"/>
-        <v>56.708206409457652</v>
+        <v>54.983401911840609</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B78" s="10">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="5"/>
-        <v>30.694482516684193</v>
+        <v>31.265767837972639</v>
       </c>
       <c r="D78" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" s="7">
         <f t="shared" si="6"/>
         <v>13.994793936655565</v>
       </c>
       <c r="F78" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>12.580575591287054</v>
       </c>
       <c r="H78" s="10">
         <v>30</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="9"/>
-        <v>13.036820035680329</v>
+        <v>13.90594137139235</v>
       </c>
       <c r="J78" s="10">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="8"/>
-        <v>55.782701557077772</v>
+        <v>56.708206409457652</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B79" s="10">
-        <v>601</v>
+        <v>357</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="5"/>
-        <v>30.142562799507225</v>
+        <v>30.694482516684193</v>
       </c>
       <c r="D79" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E79" s="7">
         <f t="shared" si="6"/>
-        <v>14.39464519198858</v>
+        <v>13.994793936655565</v>
       </c>
       <c r="F79" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G79" s="7">
         <f t="shared" si="7"/>
-        <v>13.479188133521841</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H79" s="10">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="9"/>
-        <v>12.747112923776323</v>
+        <v>13.036820035680329</v>
       </c>
       <c r="J79" s="10">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="8"/>
-        <v>56.539932799934029</v>
+        <v>55.782701557077772</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B80" s="10">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="5"/>
-        <v>27.867104316409186</v>
+        <v>30.142562799507225</v>
       </c>
       <c r="D80" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E80" s="7">
         <f t="shared" si="6"/>
-        <v>13.594942681322548</v>
+        <v>14.39464519198858</v>
       </c>
       <c r="F80" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" si="7"/>
-        <v>10.783350506817474</v>
+        <v>13.479188133521841</v>
       </c>
       <c r="H80" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="9"/>
-        <v>11.008870252352278</v>
+        <v>12.747112923776323</v>
       </c>
       <c r="J80" s="10">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="8"/>
-        <v>53.637213035651705</v>
+        <v>56.539932799934029</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B81" s="10">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="5"/>
-        <v>25.272113365471846</v>
+        <v>27.867104316409186</v>
       </c>
       <c r="D81" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E81" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>13.594942681322548</v>
       </c>
       <c r="F81" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="7"/>
         <v>10.783350506817474</v>
       </c>
       <c r="H81" s="10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I81" s="7">
         <f t="shared" si="9"/>
-        <v>9.4444518480706368</v>
+        <v>11.008870252352278</v>
       </c>
       <c r="J81" s="10">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="8"/>
-        <v>50.103467235655835</v>
+        <v>53.637213035651705</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B82" s="10">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="5"/>
-        <v>23.606671411885195</v>
+        <v>25.272113365471846</v>
       </c>
       <c r="D82" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E82" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F82" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="7"/>
-        <v>11.681963049052262</v>
+        <v>10.783350506817474</v>
       </c>
       <c r="H82" s="10">
         <v>29</v>
       </c>
       <c r="I82" s="7">
         <f t="shared" si="9"/>
-        <v>8.865037624262623</v>
+        <v>9.4444518480706368</v>
       </c>
       <c r="J82" s="10">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="8"/>
-        <v>47.95797871422976</v>
+        <v>50.103467235655835</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B83" s="10">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="5"/>
-        <v>21.234384908229792</v>
+        <v>23.606671411885195</v>
       </c>
       <c r="D83" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E83" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F83" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="7"/>
-        <v>9.5852004505044217</v>
+        <v>11.681963049052262</v>
       </c>
       <c r="H83" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I83" s="7">
         <f t="shared" si="9"/>
-        <v>7.7641505990273956</v>
+        <v>8.865037624262623</v>
       </c>
       <c r="J83" s="10">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="8"/>
-        <v>43.582864866615822</v>
+        <v>47.95797871422976</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B84" s="10">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="5"/>
-        <v>18.968609227187489</v>
+        <v>21.234384908229792</v>
       </c>
       <c r="D84" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E84" s="7">
         <f t="shared" si="6"/>
         <v>11.595686404657467</v>
       </c>
       <c r="F84" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>9.5852004505044217</v>
       </c>
       <c r="H84" s="10">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I84" s="7">
         <f t="shared" si="9"/>
-        <v>6.7212049961729692</v>
+        <v>7.7641505990273956</v>
       </c>
       <c r="J84" s="10">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="K84" s="7">
         <f t="shared" si="8"/>
-        <v>40.511871492809881</v>
+        <v>43.582864866615822</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B85" s="10">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="5"/>
-        <v>17.390312492102463</v>
+        <v>18.968609227187489</v>
       </c>
       <c r="D85" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F85" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" si="7"/>
-        <v>8.9861254223478948</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H85" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I85" s="7">
         <f t="shared" si="9"/>
-        <v>6.0838493499841535</v>
+        <v>6.7212049961729692</v>
       </c>
       <c r="J85" s="10">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="8"/>
-        <v>36.683646876147677</v>
+        <v>40.511871492809881</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B86" s="10">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="5"/>
-        <v>15.782967350850232</v>
+        <v>17.390312492102463</v>
       </c>
       <c r="D86" s="10">
         <v>4</v>
       </c>
       <c r="E86" s="7">
         <f t="shared" si="6"/>
-        <v>11.995537659990484</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F86" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G86" s="7">
         <f t="shared" si="7"/>
-        <v>8.0875128801131062</v>
+        <v>8.9861254223478948</v>
       </c>
       <c r="H86" s="10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I86" s="7">
         <f t="shared" si="9"/>
-        <v>5.0988451695105281</v>
+        <v>6.0838493499841535</v>
       </c>
       <c r="J86" s="10">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="8"/>
-        <v>33.486448295199025</v>
+        <v>36.683646876147677</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B87" s="10">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="5"/>
-        <v>13.981966168483272</v>
+        <v>15.782967350850232</v>
       </c>
       <c r="D87" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E87" s="7">
         <f t="shared" si="6"/>
-        <v>12.395388915323501</v>
+        <v>11.995537659990484</v>
       </c>
       <c r="F87" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="7"/>
-        <v>8.6865879082696313</v>
+        <v>8.0875128801131062</v>
       </c>
       <c r="H87" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I87" s="7">
         <f t="shared" si="9"/>
-        <v>5.388552281414535</v>
+        <v>5.0988451695105281</v>
       </c>
       <c r="J87" s="10">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="8"/>
-        <v>29.616155276155926</v>
+        <v>33.486448295199025</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B88" s="10">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="5"/>
-        <v>12.597325474512976</v>
+        <v>13.981966168483272</v>
       </c>
       <c r="D88" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E88" s="7">
         <f t="shared" si="6"/>
-        <v>11.595686404657467</v>
+        <v>12.395388915323501</v>
       </c>
       <c r="F88" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>8.6865879082696313</v>
       </c>
       <c r="H88" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I88" s="7">
         <f t="shared" si="9"/>
-        <v>5.0409037471297271</v>
+        <v>5.388552281414535</v>
       </c>
       <c r="J88" s="10">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="8"/>
-        <v>26.839640719016305</v>
+        <v>29.616155276155926</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B89" s="10">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="5"/>
-        <v>10.960931927093537</v>
+        <v>12.597325474512976</v>
       </c>
       <c r="D89" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E89" s="7">
         <f t="shared" si="6"/>
-        <v>9.5964301279923863</v>
+        <v>11.595686404657467</v>
       </c>
       <c r="F89" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H89" s="10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I89" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>5.0409037471297271</v>
       </c>
       <c r="J89" s="10">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="8"/>
-        <v>22.801074090449589</v>
+        <v>26.839640719016305</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B90" s="10">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="5"/>
-        <v>9.8861408989068025</v>
+        <v>10.960931927093537</v>
       </c>
       <c r="D90" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E90" s="7">
         <f t="shared" si="6"/>
-        <v>7.5971738513273062</v>
+        <v>9.5964301279923863</v>
       </c>
       <c r="F90" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G90" s="7">
         <f t="shared" si="7"/>
-        <v>5.9907502815652638</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H90" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I90" s="7">
         <f t="shared" si="9"/>
-        <v>4.6932552128449183</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J90" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="8"/>
-        <v>19.856285923786359</v>
+        <v>22.801074090449589</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B91" s="10">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="5"/>
-        <v>8.927543495388905</v>
+        <v>9.8861408989068025</v>
       </c>
       <c r="D91" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" si="6"/>
-        <v>5.5979175746622261</v>
+        <v>7.5971738513273062</v>
       </c>
       <c r="F91" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G91" s="7">
         <f t="shared" si="7"/>
-        <v>5.0921377393304743</v>
+        <v>5.9907502815652638</v>
       </c>
       <c r="H91" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I91" s="7">
         <f t="shared" si="9"/>
-        <v>4.5194309457025135</v>
+        <v>4.6932552128449183</v>
       </c>
       <c r="J91" s="10">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="8"/>
-        <v>17.121839769027645</v>
+        <v>19.856285923786359</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B92" s="10">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="5"/>
-        <v>8.4530861946578231</v>
+        <v>8.927543495388905</v>
       </c>
       <c r="D92" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E92" s="7">
         <f t="shared" si="6"/>
-        <v>3.9985125533301611</v>
+        <v>5.5979175746622261</v>
       </c>
       <c r="F92" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="7"/>
-        <v>5.3916752534087369</v>
+        <v>5.0921377393304743</v>
       </c>
       <c r="H92" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I92" s="7">
         <f t="shared" si="9"/>
-        <v>5.330610859033734</v>
+        <v>4.5194309457025135</v>
       </c>
       <c r="J92" s="10">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="8"/>
-        <v>15.354966869029704</v>
+        <v>17.121839769027645</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B93" s="10">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="5"/>
-        <v>7.8430696651464347</v>
+        <v>8.4530861946578231</v>
       </c>
       <c r="D93" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" si="6"/>
-        <v>2.798958787331113</v>
+        <v>3.9985125533301611</v>
       </c>
       <c r="F93" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="7"/>
-        <v>4.4930627111739474</v>
+        <v>5.3916752534087369</v>
       </c>
       <c r="H93" s="10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I93" s="7">
         <f t="shared" si="9"/>
-        <v>5.15678659189133</v>
+        <v>5.330610859033734</v>
       </c>
       <c r="J93" s="10">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="8"/>
-        <v>13.125341542841829</v>
+        <v>15.354966869029704</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B94" s="10">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="5"/>
-        <v>7.5719512075858173</v>
+        <v>7.8430696651464347</v>
       </c>
       <c r="D94" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E94" s="7">
         <f t="shared" si="6"/>
-        <v>1.1995537659990483</v>
+        <v>2.798958787331113</v>
       </c>
       <c r="F94" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G94" s="7">
         <f t="shared" si="7"/>
-        <v>5.6912127674869994</v>
+        <v>4.4930627111739474</v>
       </c>
       <c r="H94" s="10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I94" s="7">
         <f t="shared" si="9"/>
-        <v>4.9250209023681242</v>
+        <v>5.15678659189133</v>
       </c>
       <c r="J94" s="10">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="8"/>
-        <v>10.895716216653955</v>
+        <v>13.125341542841829</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B95" s="10">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="5"/>
-        <v>7.6494136240317072</v>
+        <v>7.5719512075858173</v>
       </c>
       <c r="D95" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="7">
         <f t="shared" si="6"/>
-        <v>0.79970251066603215</v>
+        <v>1.1995537659990483</v>
       </c>
       <c r="F95" s="10">
         <v>2</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" si="7"/>
-        <v>7.7879753660348419</v>
+        <v>5.6912127674869994</v>
       </c>
       <c r="H95" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I95" s="7">
         <f t="shared" si="9"/>
-        <v>5.2147280142721311</v>
+        <v>4.9250209023681242</v>
       </c>
       <c r="J95" s="10">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="8"/>
-        <v>9.8860745595122772</v>
+        <v>10.895716216653955</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B96" s="10">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="5"/>
-        <v>8.1432365288742616</v>
+        <v>7.6494136240317072</v>
       </c>
       <c r="D96" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>0.79970251066603215</v>
       </c>
       <c r="F96" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>7.7879753660348419</v>
       </c>
       <c r="H96" s="10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I96" s="7">
         <f t="shared" si="9"/>
-        <v>7.9379748661697995</v>
+        <v>5.2147280142721311</v>
       </c>
       <c r="J96" s="10">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="8"/>
-        <v>8.7922960976087907</v>
+        <v>9.8860745595122772</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B97" s="10">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="5"/>
-        <v>7.9398976857037979</v>
+        <v>8.1432365288742616</v>
       </c>
       <c r="D97" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F97" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="7"/>
-        <v>11.382425534973999</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H97" s="10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="9"/>
         <v>7.9379748661697995</v>
       </c>
       <c r="J97" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="8"/>
-        <v>8.4136804761806605</v>
+        <v>8.7922960976087907</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B98" s="10">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="5"/>
-        <v>8.114188122707052</v>
+        <v>7.9398976857037979</v>
       </c>
       <c r="D98" s="10">
         <v>0</v>
       </c>
       <c r="E98" s="7">
         <f t="shared" si="6"/>
-        <v>2.3991075319980966</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F98" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" s="7">
         <f t="shared" si="7"/>
-        <v>12.281038077208791</v>
+        <v>11.382425534973999</v>
       </c>
       <c r="H98" s="10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I98" s="7">
         <f t="shared" si="9"/>
-        <v>8.4594476675970114</v>
+        <v>7.9379748661697995</v>
       </c>
       <c r="J98" s="10">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K98" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>8.4136804761806605</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B99" s="10">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="5"/>
-        <v>7.8914836754251159</v>
+        <v>8.114188122707052</v>
       </c>
       <c r="D99" s="10">
         <v>0</v>
@@ -6185,277 +6185,277 @@
         <v>2.3991075319980966</v>
       </c>
       <c r="F99" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="7"/>
-        <v>11.981500563130528</v>
+        <v>12.281038077208791</v>
       </c>
       <c r="H99" s="10">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I99" s="7">
         <f t="shared" si="9"/>
-        <v>8.0538577109314033</v>
+        <v>8.4594476675970114</v>
       </c>
       <c r="J99" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="8"/>
-        <v>10.180553376178599</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B100" s="10">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="5"/>
-        <v>7.5235371973071361</v>
+        <v>7.8914836754251159</v>
       </c>
       <c r="D100" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="7">
         <f t="shared" si="6"/>
         <v>2.3991075319980966</v>
       </c>
       <c r="F100" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G100" s="7">
         <f t="shared" si="7"/>
         <v>11.981500563130528</v>
       </c>
       <c r="H100" s="10">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I100" s="7">
         <f t="shared" si="9"/>
         <v>8.0538577109314033</v>
       </c>
       <c r="J100" s="10">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="8"/>
-        <v>10.306758583321308</v>
+        <v>10.180553376178599</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B101" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="5"/>
-        <v>6.6230366061236561</v>
+        <v>7.5235371973071361</v>
       </c>
       <c r="D101" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="7">
         <f t="shared" si="6"/>
-        <v>1.9992562766650805</v>
+        <v>2.3991075319980966</v>
       </c>
       <c r="F101" s="10">
         <v>9</v>
       </c>
       <c r="G101" s="7">
         <f t="shared" si="7"/>
-        <v>9.2856629364261583</v>
+        <v>11.981500563130528</v>
       </c>
       <c r="H101" s="10">
         <v>19</v>
       </c>
       <c r="I101" s="7">
         <f t="shared" si="9"/>
-        <v>7.0109121080769761</v>
+        <v>8.0538577109314033</v>
       </c>
       <c r="J101" s="10">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="8"/>
-        <v>10.517100595225825</v>
+        <v>10.306758583321308</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B102" s="10">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="5"/>
-        <v>5.4030035471008766</v>
+        <v>6.6230366061236561</v>
       </c>
       <c r="D102" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E102" s="7">
         <f t="shared" si="6"/>
         <v>1.9992562766650805</v>
       </c>
       <c r="F102" s="10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G102" s="7">
         <f t="shared" si="7"/>
-        <v>6.5898253097217889</v>
+        <v>9.2856629364261583</v>
       </c>
       <c r="H102" s="10">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="I102" s="7">
         <f t="shared" si="9"/>
-        <v>5.9679665052225497</v>
+        <v>7.0109121080769761</v>
       </c>
       <c r="J102" s="10">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K102" s="7">
         <f t="shared" si="8"/>
-        <v>9.6757325476077582</v>
+        <v>10.517100595225825</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B103" s="10">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="C103" s="7">
         <f t="shared" si="5"/>
-        <v>3.7956584058486449</v>
+        <v>5.4030035471008766</v>
       </c>
       <c r="D103" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E103" s="7">
         <f t="shared" si="6"/>
-        <v>0.39985125533301608</v>
+        <v>1.9992562766650805</v>
       </c>
       <c r="F103" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G103" s="7">
         <f t="shared" si="7"/>
-        <v>1.7972250844695792</v>
+        <v>6.5898253097217889</v>
       </c>
       <c r="H103" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I103" s="7">
         <f t="shared" si="9"/>
-        <v>2.7232468518976685</v>
+        <v>5.9679665052225497</v>
       </c>
       <c r="J103" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K103" s="7">
         <f t="shared" si="8"/>
-        <v>9.2129801214178233</v>
+        <v>9.6757325476077582</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B104" s="10">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C104" s="7">
         <f t="shared" si="5"/>
-        <v>2.9726202311110557</v>
+        <v>3.7956584058486449</v>
       </c>
       <c r="D104" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="7">
         <f t="shared" si="6"/>
         <v>0.39985125533301608</v>
       </c>
       <c r="F104" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G104" s="7">
         <f t="shared" si="7"/>
-        <v>1.4976875703913159</v>
+        <v>1.7972250844695792</v>
       </c>
       <c r="H104" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I104" s="7">
         <f t="shared" si="9"/>
-        <v>2.0858912057088523</v>
+        <v>2.7232468518976685</v>
       </c>
       <c r="J104" s="10">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="K104" s="7">
         <f t="shared" si="8"/>
-        <v>8.5398856833233694</v>
+        <v>9.2129801214178233</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B105" s="10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C105" s="7">
         <f t="shared" si="5"/>
-        <v>2.0430712337603674</v>
+        <v>2.9726202311110557</v>
       </c>
       <c r="D105" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.39985125533301608</v>
       </c>
       <c r="F105" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G105" s="7">
         <f t="shared" si="7"/>
-        <v>0.29953751407826318</v>
+        <v>1.4976875703913159</v>
       </c>
       <c r="H105" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I105" s="7">
         <f t="shared" si="9"/>
-        <v>1.390594137139235</v>
+        <v>2.0858912057088523</v>
       </c>
       <c r="J105" s="10">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K105" s="7">
         <f t="shared" si="8"/>
-        <v>5.8895763333264624</v>
+        <v>8.5398856833233694</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B106" s="10">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C106" s="7">
         <f t="shared" si="5"/>
-        <v>1.5976623391964959</v>
+        <v>2.0430712337603674</v>
       </c>
       <c r="D106" s="10">
         <v>0</v>
@@ -6465,37 +6465,37 @@
         <v>0</v>
       </c>
       <c r="F106" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.29953751407826318</v>
       </c>
       <c r="H106" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I106" s="7">
         <f t="shared" si="9"/>
-        <v>0.75323849095041895</v>
+        <v>1.390594137139235</v>
       </c>
       <c r="J106" s="10">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K106" s="7">
         <f t="shared" si="8"/>
-        <v>4.6695926642802661</v>
+        <v>5.8895763333264624</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B107" s="10">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C107" s="7">
         <f t="shared" si="5"/>
-        <v>1.3071782775244056</v>
+        <v>1.5976623391964959</v>
       </c>
       <c r="D107" s="10">
         <v>0</v>
@@ -6512,30 +6512,30 @@
         <v>0</v>
       </c>
       <c r="H107" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I107" s="7">
         <f t="shared" si="9"/>
-        <v>0.57941422380801455</v>
+        <v>0.75323849095041895</v>
       </c>
       <c r="J107" s="10">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K107" s="7">
         <f t="shared" si="8"/>
-        <v>3.8282246166622</v>
+        <v>4.6695926642802661</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B108" s="10">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C108" s="7">
         <f t="shared" si="5"/>
-        <v>0.81335537268185243</v>
+        <v>1.3071782775244056</v>
       </c>
       <c r="D108" s="10">
         <v>0</v>
@@ -6556,26 +6556,26 @@
       </c>
       <c r="I108" s="7">
         <f t="shared" si="9"/>
-        <v>0.69529706856961748</v>
+        <v>0.57941422380801455</v>
       </c>
       <c r="J108" s="10">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K108" s="7">
         <f t="shared" si="8"/>
-        <v>2.3978989357114884</v>
+        <v>3.8282246166622</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B109" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C109" s="7">
         <f t="shared" si="5"/>
-        <v>0.58096812334418035</v>
+        <v>0.81335537268185243</v>
       </c>
       <c r="D109" s="10">
         <v>0</v>
@@ -6596,26 +6596,26 @@
       </c>
       <c r="I109" s="7">
         <f t="shared" si="9"/>
-        <v>0.63735564618881602</v>
+        <v>0.69529706856961748</v>
       </c>
       <c r="J109" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K109" s="7">
         <f t="shared" si="8"/>
-        <v>1.5144624857125188</v>
+        <v>2.3978989357114884</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B110" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C110" s="7">
         <f t="shared" si="5"/>
-        <v>0.30016686372782653</v>
+        <v>0.58096812334418035</v>
       </c>
       <c r="D110" s="10">
         <v>0</v>
@@ -6632,30 +6632,30 @@
         <v>0</v>
       </c>
       <c r="H110" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" s="7">
         <f t="shared" si="9"/>
         <v>0.63735564618881602</v>
       </c>
       <c r="J110" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K110" s="7">
         <f t="shared" si="8"/>
-        <v>0.63102603571354954</v>
+        <v>1.5144624857125188</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B111" s="10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C111" s="7">
         <f t="shared" si="5"/>
-        <v>0.17429043700325408</v>
+        <v>0.30016686372782653</v>
       </c>
       <c r="D111" s="10">
         <v>0</v>
@@ -6672,30 +6672,30 @@
         <v>0</v>
       </c>
       <c r="H111" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" s="7">
         <f t="shared" si="9"/>
-        <v>0.52147280142721308</v>
+        <v>0.63735564618881602</v>
       </c>
       <c r="J111" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K111" s="7">
         <f t="shared" si="8"/>
-        <v>0.21034201190451648</v>
+        <v>0.63102603571354954</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B112" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C112" s="7">
         <f t="shared" si="5"/>
-        <v>0.12587642672457242</v>
+        <v>0.17429043700325408</v>
       </c>
       <c r="D112" s="10">
         <v>0</v>
@@ -6712,26 +6712,26 @@
         <v>0</v>
       </c>
       <c r="H112" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I112" s="7">
         <f t="shared" si="9"/>
-        <v>0.34764853428480874</v>
+        <v>0.52147280142721308</v>
       </c>
       <c r="J112" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" s="7">
         <f t="shared" si="8"/>
-        <v>0.1682736095236132</v>
+        <v>0.21034201190451648</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B113" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C113" s="7">
         <f t="shared" si="5"/>
@@ -6752,14 +6752,14 @@
         <v>0</v>
       </c>
       <c r="H113" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" s="7">
         <f t="shared" si="9"/>
         <v>0.34764853428480874</v>
       </c>
       <c r="J113" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="7">
         <f t="shared" si="8"/>
@@ -6768,14 +6768,14 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B114" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C114" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363378E-2</v>
+        <v>0.12587642672457242</v>
       </c>
       <c r="D114" s="10">
         <v>0</v>
@@ -6792,30 +6792,30 @@
         <v>0</v>
       </c>
       <c r="H114" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" s="7">
         <f t="shared" si="9"/>
-        <v>0.23176568952320581</v>
+        <v>0.34764853428480874</v>
       </c>
       <c r="J114" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K114" s="7">
         <f t="shared" si="8"/>
-        <v>0.12620520714270991</v>
+        <v>0.1682736095236132</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B115" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C115" s="7">
         <f t="shared" si="5"/>
-        <v>1.936560411147268E-2</v>
+        <v>9.6828020557363378E-2</v>
       </c>
       <c r="D115" s="10">
         <v>0</v>
@@ -6832,30 +6832,30 @@
         <v>0</v>
       </c>
       <c r="H115" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115" s="7">
         <f t="shared" si="9"/>
-        <v>5.7941422380801452E-2</v>
+        <v>0.23176568952320581</v>
       </c>
       <c r="J115" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K115" s="7">
         <f t="shared" si="8"/>
-        <v>4.20684023809033E-2</v>
+        <v>0.12620520714270991</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B116" s="10">
         <v>1</v>
       </c>
       <c r="C116" s="7">
         <f t="shared" si="5"/>
-        <v>9.6828020557363399E-3</v>
+        <v>1.936560411147268E-2</v>
       </c>
       <c r="D116" s="10">
         <v>0</v>
@@ -6872,30 +6872,30 @@
         <v>0</v>
       </c>
       <c r="H116" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" s="7">
         <f t="shared" si="9"/>
         <v>5.7941422380801452E-2</v>
       </c>
       <c r="J116" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.20684023809033E-2</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B117" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D117" s="10">
         <v>0</v>
@@ -6912,11 +6912,11 @@
         <v>0</v>
       </c>
       <c r="H117" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.7941422380801452E-2</v>
       </c>
       <c r="J117" s="10">
         <v>0</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B118" s="10">
         <v>0</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B119" s="10">
         <v>0</v>
@@ -7008,7 +7008,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B120" s="10">
         <v>0</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B121" s="10">
         <v>0</v>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B122" s="10">
         <v>0</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B123" s="10">
         <v>0</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B124" s="10">
         <v>0</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B125" s="10">
         <v>0</v>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B126" s="10">
         <v>0</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B127" s="10">
         <v>0</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B128" s="10">
         <v>0</v>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B129" s="10">
         <v>0</v>
@@ -7408,7 +7408,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B130" s="10">
         <v>0</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B131" s="10">
         <v>0</v>
@@ -7488,14 +7488,14 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B132" s="10">
         <v>0</v>
       </c>
       <c r="C132" s="7">
         <f t="shared" ref="C132:C195" si="10">IF(OR(ISBLANK(B132),ISBLANK(B138)),"",SUM(B132:B138)/$O$6*100000)</f>
-        <v>9.6828020557363399E-3</v>
+        <v>0</v>
       </c>
       <c r="D132" s="10">
         <v>0</v>
@@ -7528,47 +7528,47 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B133" s="10">
         <v>0</v>
       </c>
-      <c r="C133" s="7" t="str">
+      <c r="C133" s="7">
         <f t="shared" si="10"/>
-        <v/>
+        <v>9.6828020557363399E-3</v>
       </c>
       <c r="D133" s="10">
         <v>0</v>
       </c>
-      <c r="E133" s="7" t="str">
+      <c r="E133" s="7">
         <f t="shared" si="11"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F133" s="10">
         <v>0</v>
       </c>
-      <c r="G133" s="7" t="str">
+      <c r="G133" s="7">
         <f t="shared" si="12"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H133" s="10">
         <v>0</v>
       </c>
-      <c r="I133" s="7" t="str">
+      <c r="I133" s="7">
         <f t="shared" ref="I133:I196" si="14">IF(OR(ISBLANK(H133),ISBLANK(H139)),"",SUM(H133:H139)/$O$9*100000)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J133" s="10">
         <v>0</v>
       </c>
-      <c r="K133" s="7" t="str">
+      <c r="K133" s="7">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B134" s="10">
         <v>0</v>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B135" s="10">
         <v>0</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B136" s="10">
         <v>0</v>
@@ -7688,7 +7688,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B137" s="10">
         <v>0</v>
@@ -7728,10 +7728,10 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B138" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" s="7" t="str">
         <f t="shared" si="10"/>
@@ -7767,28 +7767,40 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="10"/>
+      <c r="A139" s="4">
+        <v>43865</v>
+      </c>
+      <c r="B139" s="10">
+        <v>1</v>
+      </c>
       <c r="C139" s="7" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D139" s="10"/>
+      <c r="D139" s="10">
+        <v>0</v>
+      </c>
       <c r="E139" s="7" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F139" s="10"/>
+      <c r="F139" s="10">
+        <v>0</v>
+      </c>
       <c r="G139" s="7" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H139" s="10"/>
+      <c r="H139" s="10">
+        <v>0</v>
+      </c>
       <c r="I139" s="7" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J139" s="10"/>
+      <c r="J139" s="10">
+        <v>0</v>
+      </c>
       <c r="K139" s="7" t="str">
         <f t="shared" si="13"/>
         <v/>

--- a/swe-corona.xlsx
+++ b/swe-corona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philipp\Documents\scratch.local\swe-corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1146C80-1D58-489A-9EC9-95115D05BFBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567233EB-FA16-474A-A6BA-F99DA944E394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="3180" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <t>Einwohner</t>
   </si>
   <si>
-    <t>Datenabruf: Donnerstag 2020-06-18 16:03</t>
+    <t>Datenabruf: Freitag 2020-06-19 22:45</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Donnerstag 2020-06-18 16:03</a:t>
+              <a:t>Neuinfektionen/100k (7 Tage) - Datenabruf: Freitag 2020-06-19 22:45</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -830,187 +830,187 @@
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>43998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>43997</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>43996</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>43995</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>43994</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>43993</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>43992</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>43991</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>43990</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>43989</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>43988</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>43987</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>43986</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>43985</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>43984</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>43982</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>43981</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>43980</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>43979</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>43978</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>43977</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>43976</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>43975</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>43974</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>43973</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>43972</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>43971</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>43970</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>43968</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>43967</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>43941</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43940</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,187 +1022,187 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>72.659067530509887</c:v>
+                  <c:v>75.805080748784121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.195869657547874</c:v>
+                  <c:v>75.736655788727191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.601705754835791</c:v>
+                  <c:v>72.325182780174543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.172924947278233</c:v>
+                  <c:v>70.868708630391339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.236709081401429</c:v>
+                  <c:v>67.291060718843312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.897868297461251</c:v>
+                  <c:v>68.855059805858829</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.02874103607175</c:v>
+                  <c:v>65.932336511998571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.030579853532913</c:v>
+                  <c:v>62.608838452090559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.873457934288666</c:v>
+                  <c:v>58.757490700314804</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.587022220476413</c:v>
+                  <c:v>71.699583145368337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.521492560031618</c:v>
+                  <c:v>71.543183236666792</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63.467435254721636</c:v>
+                  <c:v>70.262658984172816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60.452658429222708</c:v>
+                  <c:v>66.215811346520127</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.121985530053252</c:v>
+                  <c:v>63.175788121133678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.743677684022906</c:v>
+                  <c:v>60.174864872922633</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.995696332430697</c:v>
+                  <c:v>55.864092389336072</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40.095549767140405</c:v>
+                  <c:v>40.556451325171537</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.543970814603497</c:v>
+                  <c:v>38.816502340866755</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36.010379866790075</c:v>
+                  <c:v>39.911301701777631</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.910526432080367</c:v>
+                  <c:v>38.366852603349791</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.008727631608025</c:v>
+                  <c:v>35.844904075537244</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.755056748018177</c:v>
+                  <c:v>34.750104714626374</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34.036535756284266</c:v>
+                  <c:v>34.847854657564845</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.563517763369482</c:v>
+                  <c:v>35.590754223897221</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>34.478441154158702</c:v>
+                  <c:v>33.88013022247398</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35.372072069860337</c:v>
+                  <c:v>32.413881078396919</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.254230630427152</c:v>
+                  <c:v>34.320004965697102</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.489913509293515</c:v>
+                  <c:v>35.209529446437188</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34.635563073402942</c:v>
+                  <c:v>35.092229514911018</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.403184664900685</c:v>
+                  <c:v>35.32682937796335</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37.52267833951592</c:v>
+                  <c:v>34.476404874398654</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.884370542586176</c:v>
+                  <c:v>36.235903847291134</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38.710912853800508</c:v>
+                  <c:v>37.350253196789701</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>38.877854892997519</c:v>
+                  <c:v>36.714878567689638</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39.192098731486006</c:v>
+                  <c:v>38.533027506345192</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39.830406528415743</c:v>
+                  <c:v>38.699202409340593</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38.779653693469868</c:v>
+                  <c:v>39.012002226743704</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>39.329580410824718</c:v>
+                  <c:v>39.64737685584376</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.699440498665695</c:v>
+                  <c:v>38.601452466402122</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>36.776349223105761</c:v>
+                  <c:v>39.148852146857557</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>34.674843553214004</c:v>
+                  <c:v>37.526203094078944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>35.50955374919905</c:v>
+                  <c:v>36.607353630457318</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>35.303331230190977</c:v>
+                  <c:v>34.515504851574043</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.267355220744022</c:v>
+                  <c:v>35.346379366551048</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36.108581066317726</c:v>
+                  <c:v>35.141104486380257</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>38.347568415548196</c:v>
+                  <c:v>37.096103345149672</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>38.818934173280923</c:v>
+                  <c:v>35.942654018475714</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42.589860235142773</c:v>
+                  <c:v>38.17135271747285</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42.206875556984933</c:v>
+                  <c:v>38.640552443577512</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42.216695676937697</c:v>
+                  <c:v>42.394150252414789</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>40.743677684022906</c:v>
+                  <c:v>42.012925474954756</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41.784610399016024</c:v>
+                  <c:v>42.022700469248598</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42.766622394292547</c:v>
+                  <c:v>40.556451325171537</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42.727341914481485</c:v>
+                  <c:v>41.592600720319325</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41.391805600905414</c:v>
+                  <c:v>42.570100149704039</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>40.036629047423816</c:v>
+                  <c:v>42.53100017252865</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>38.072605056870771</c:v>
+                  <c:v>41.201600948565449</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>37.601239299138037</c:v>
+                  <c:v>39.85265173601455</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>38.318108055689898</c:v>
+                  <c:v>37.897652877245136</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>36.049660346601136</c:v>
+                  <c:v>37.428453151140474</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>34.674843553214004</c:v>
+                  <c:v>38.142027734591309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31910,17 +31910,17 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43999</v>
+        <v>44001</v>
       </c>
       <c r="B4" s="11">
-        <v>940</v>
+        <v>1481</v>
       </c>
       <c r="C4" s="9">
         <f>IF(OR(ISBLANK(B4),ISBLANK(B10)),"",SUM(B4:B10)/D4*100000)</f>
-        <v>72.659067530509887</v>
+        <v>75.805080748784121</v>
       </c>
       <c r="D4">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -31930,17 +31930,17 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="B5" s="10">
-        <v>769</v>
+        <v>1239</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C68" si="0">IF(OR(ISBLANK(B5),ISBLANK(B11)),"",SUM(B5:B11)/D5*100000)</f>
-        <v>71.195869657547874</v>
+        <v>75.736655788727191</v>
       </c>
       <c r="D5">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -31950,17 +31950,17 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43997</v>
+        <v>43999</v>
       </c>
       <c r="B6" s="10">
-        <v>683</v>
+        <v>940</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>67.601705754835791</v>
+        <v>72.325182780174543</v>
       </c>
       <c r="D6">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -31972,17 +31972,17 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B7" s="10">
-        <v>1247</v>
+        <v>769</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>69.172924947278233</v>
+        <v>70.868708630391339</v>
       </c>
       <c r="D7" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -31996,17 +31996,17 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="B8" s="10">
-        <v>1396</v>
+        <v>683</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>66.236709081401429</v>
+        <v>67.291060718843312</v>
       </c>
       <c r="D8" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -32018,17 +32018,17 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="B9" s="10">
-        <v>1474</v>
+        <v>1247</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>62.897868297461251</v>
+        <v>68.855059805858829</v>
       </c>
       <c r="D9" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -32040,17 +32040,17 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B10" s="10">
-        <v>890</v>
+        <v>1396</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>59.02874103607175</v>
+        <v>65.932336511998571</v>
       </c>
       <c r="D10" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -32062,17 +32062,17 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B11" s="10">
-        <v>791</v>
+        <v>1474</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
-        <v>72.030579853532913</v>
+        <v>62.608838452090559</v>
       </c>
       <c r="D11" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -32084,17 +32084,17 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B12" s="10">
-        <v>403</v>
+        <v>890</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
-        <v>71.873457934288666</v>
+        <v>58.757490700314804</v>
       </c>
       <c r="D12" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -32106,17 +32106,17 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B13" s="10">
-        <v>843</v>
+        <v>791</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
-        <v>70.587022220476413</v>
+        <v>71.699583145368337</v>
       </c>
       <c r="D13" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -32128,17 +32128,17 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B14" s="10">
-        <v>948</v>
+        <v>403</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
-        <v>66.521492560031618</v>
+        <v>71.543183236666792</v>
       </c>
       <c r="D14" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -32150,17 +32150,17 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B15" s="10">
-        <v>1056</v>
+        <v>843</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
-        <v>63.467435254721636</v>
+        <v>70.262658984172816</v>
       </c>
       <c r="D15" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -32172,17 +32172,17 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43987</v>
+        <v>43989</v>
       </c>
       <c r="B16" s="10">
-        <v>1080</v>
+        <v>948</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="0"/>
-        <v>60.452658429222708</v>
+        <v>66.215811346520127</v>
       </c>
       <c r="D16" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -32194,17 +32194,17 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="B17" s="10">
-        <v>2214</v>
+        <v>1056</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
-        <v>56.121985530053252</v>
+        <v>63.175788121133678</v>
       </c>
       <c r="D17" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -32216,17 +32216,17 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43985</v>
+        <v>43987</v>
       </c>
       <c r="B18" s="10">
-        <v>775</v>
+        <v>1080</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="0"/>
-        <v>40.743677684022906</v>
+        <v>60.174864872922633</v>
       </c>
       <c r="D18" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -32238,17 +32238,17 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B19" s="10">
-        <v>272</v>
+        <v>2214</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="0"/>
-        <v>38.995696332430697</v>
+        <v>55.864092389336072</v>
       </c>
       <c r="D19" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -32260,17 +32260,17 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B20" s="10">
-        <v>429</v>
+        <v>775</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="0"/>
-        <v>40.095549767140405</v>
+        <v>40.556451325171537</v>
       </c>
       <c r="D20" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -32282,17 +32282,17 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B21" s="10">
-        <v>637</v>
+        <v>272</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="0"/>
-        <v>38.543970814603497</v>
+        <v>38.816502340866755</v>
       </c>
       <c r="D21" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -32304,17 +32304,17 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B22" s="10">
-        <v>749</v>
+        <v>429</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>36.010379866790075</v>
+        <v>39.911301701777631</v>
       </c>
       <c r="D22" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -32326,17 +32326,17 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B23" s="10">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="0"/>
-        <v>34.910526432080367</v>
+        <v>38.366852603349791</v>
       </c>
       <c r="D23" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -32348,17 +32348,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B24" s="10">
-        <v>648</v>
+        <v>749</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="0"/>
-        <v>35.008727631608025</v>
+        <v>35.844904075537244</v>
       </c>
       <c r="D24" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -32370,17 +32370,17 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B25" s="10">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="0"/>
-        <v>35.755056748018177</v>
+        <v>34.750104714626374</v>
       </c>
       <c r="D25" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -32392,17 +32392,17 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B26" s="10">
-        <v>384</v>
+        <v>648</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="0"/>
-        <v>34.036535756284266</v>
+        <v>34.847854657564845</v>
       </c>
       <c r="D26" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -32414,17 +32414,17 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43976</v>
+        <v>43978</v>
       </c>
       <c r="B27" s="10">
-        <v>271</v>
+        <v>597</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="0"/>
-        <v>32.563517763369482</v>
+        <v>35.590754223897221</v>
       </c>
       <c r="D27" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -32436,17 +32436,17 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43975</v>
+        <v>43977</v>
       </c>
       <c r="B28" s="10">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="0"/>
-        <v>34.478441154158702</v>
+        <v>33.88013022247398</v>
       </c>
       <c r="D28" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -32458,17 +32458,17 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43974</v>
+        <v>43976</v>
       </c>
       <c r="B29" s="10">
-        <v>637</v>
+        <v>271</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>35.372072069860337</v>
+        <v>32.413881078396919</v>
       </c>
       <c r="D29" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -32480,17 +32480,17 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43973</v>
+        <v>43975</v>
       </c>
       <c r="B30" s="10">
-        <v>649</v>
+        <v>379</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="0"/>
-        <v>35.254230630427152</v>
+        <v>34.320004965697102</v>
       </c>
       <c r="D30" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -32502,17 +32502,17 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43972</v>
+        <v>43974</v>
       </c>
       <c r="B31" s="10">
-        <v>724</v>
+        <v>637</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="0"/>
-        <v>35.489913509293515</v>
+        <v>35.209529446437188</v>
       </c>
       <c r="D31" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -32524,17 +32524,17 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="B32" s="10">
-        <v>422</v>
+        <v>649</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="0"/>
-        <v>34.635563073402942</v>
+        <v>35.092229514911018</v>
       </c>
       <c r="D32" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -32546,17 +32546,17 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="B33" s="10">
-        <v>234</v>
+        <v>724</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="0"/>
-        <v>36.403184664900685</v>
+        <v>35.32682937796335</v>
       </c>
       <c r="D33" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -32568,17 +32568,17 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B34" s="10">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="0"/>
-        <v>37.52267833951592</v>
+        <v>34.476404874398654</v>
       </c>
       <c r="D34" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -32590,17 +32590,17 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43968</v>
+        <v>43970</v>
       </c>
       <c r="B35" s="10">
-        <v>470</v>
+        <v>234</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="0"/>
-        <v>36.884370542586176</v>
+        <v>36.235903847291134</v>
       </c>
       <c r="D35" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -32612,17 +32612,17 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43967</v>
+        <v>43969</v>
       </c>
       <c r="B36" s="10">
-        <v>625</v>
+        <v>466</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="0"/>
-        <v>38.710912853800508</v>
+        <v>37.350253196789701</v>
       </c>
       <c r="D36" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -32634,17 +32634,17 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="B37" s="10">
-        <v>673</v>
+        <v>470</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="0"/>
-        <v>38.877854892997519</v>
+        <v>36.714878567689638</v>
       </c>
       <c r="D37" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -32656,17 +32656,17 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="B38" s="10">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="0"/>
-        <v>39.192098731486006</v>
+        <v>38.533027506345192</v>
       </c>
       <c r="D38" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -32678,17 +32678,17 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="B39" s="10">
-        <v>602</v>
+        <v>673</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="0"/>
-        <v>39.830406528415743</v>
+        <v>38.699202409340593</v>
       </c>
       <c r="D39" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -32700,17 +32700,17 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="B40" s="10">
-        <v>348</v>
+        <v>637</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="0"/>
-        <v>38.779653693469868</v>
+        <v>39.012002226743704</v>
       </c>
       <c r="D40" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -32722,17 +32722,17 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="B41" s="10">
-        <v>401</v>
+        <v>602</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="0"/>
-        <v>39.329580410824718</v>
+        <v>39.64737685584376</v>
       </c>
       <c r="D41" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -32744,17 +32744,17 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="B42" s="10">
-        <v>656</v>
+        <v>348</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="0"/>
-        <v>37.699440498665695</v>
+        <v>38.601452466402122</v>
       </c>
       <c r="D42" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -32766,17 +32766,17 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="B43" s="10">
-        <v>642</v>
+        <v>401</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="0"/>
-        <v>36.776349223105761</v>
+        <v>39.148852146857557</v>
       </c>
       <c r="D43" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -32788,17 +32788,17 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="B44" s="10">
-        <v>705</v>
+        <v>656</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="0"/>
-        <v>34.674843553214004</v>
+        <v>37.526203094078944</v>
       </c>
       <c r="D44" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -32810,17 +32810,17 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43958</v>
+        <v>43960</v>
       </c>
       <c r="B45" s="10">
-        <v>702</v>
+        <v>642</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="0"/>
-        <v>35.50955374919905</v>
+        <v>36.607353630457318</v>
       </c>
       <c r="D45" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -32832,17 +32832,17 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="B46" s="10">
-        <v>495</v>
+        <v>705</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="0"/>
-        <v>35.303331230190977</v>
+        <v>34.515504851574043</v>
       </c>
       <c r="D46" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -32854,17 +32854,17 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="B47" s="10">
-        <v>404</v>
+        <v>702</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="0"/>
-        <v>37.267355220744022</v>
+        <v>35.346379366551048</v>
       </c>
       <c r="D47" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -32876,17 +32876,17 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>43955</v>
+        <v>43957</v>
       </c>
       <c r="B48" s="10">
-        <v>235</v>
+        <v>495</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="0"/>
-        <v>36.108581066317726</v>
+        <v>35.141104486380257</v>
       </c>
       <c r="D48" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -32898,17 +32898,17 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>43954</v>
+        <v>43956</v>
       </c>
       <c r="B49" s="10">
-        <v>562</v>
+        <v>404</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="0"/>
-        <v>38.347568415548196</v>
+        <v>37.096103345149672</v>
       </c>
       <c r="D49" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -32920,17 +32920,17 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>43953</v>
+        <v>43955</v>
       </c>
       <c r="B50" s="10">
-        <v>428</v>
+        <v>235</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="0"/>
-        <v>38.818934173280923</v>
+        <v>35.942654018475714</v>
       </c>
       <c r="D50" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -32942,17 +32942,17 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>43952</v>
+        <v>43954</v>
       </c>
       <c r="B51" s="10">
-        <v>790</v>
+        <v>562</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="0"/>
-        <v>42.589860235142773</v>
+        <v>38.17135271747285</v>
       </c>
       <c r="D51" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -32964,17 +32964,17 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B52" s="10">
-        <v>681</v>
+        <v>428</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="0"/>
-        <v>42.206875556984933</v>
+        <v>38.640552443577512</v>
       </c>
       <c r="D52" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -32986,17 +32986,17 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>43950</v>
+        <v>43952</v>
       </c>
       <c r="B53" s="10">
-        <v>695</v>
+        <v>790</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="0"/>
-        <v>42.216695676937697</v>
+        <v>42.394150252414789</v>
       </c>
       <c r="D53" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -33008,17 +33008,17 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43949</v>
+        <v>43951</v>
       </c>
       <c r="B54" s="10">
-        <v>286</v>
+        <v>681</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="0"/>
-        <v>40.743677684022906</v>
+        <v>42.012925474954756</v>
       </c>
       <c r="D54" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -33030,17 +33030,17 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B55" s="10">
-        <v>463</v>
+        <v>695</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="0"/>
-        <v>41.784610399016024</v>
+        <v>42.022700469248598</v>
       </c>
       <c r="D55" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -33052,17 +33052,17 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>43947</v>
+        <v>43949</v>
       </c>
       <c r="B56" s="10">
-        <v>610</v>
+        <v>286</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="0"/>
-        <v>42.766622394292547</v>
+        <v>40.556451325171537</v>
       </c>
       <c r="D56" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
@@ -33074,17 +33074,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>43946</v>
+        <v>43948</v>
       </c>
       <c r="B57" s="10">
-        <v>812</v>
+        <v>463</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="0"/>
-        <v>42.727341914481485</v>
+        <v>41.592600720319325</v>
       </c>
       <c r="D57" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -33096,17 +33096,17 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43945</v>
+        <v>43947</v>
       </c>
       <c r="B58" s="10">
-        <v>751</v>
+        <v>610</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="0"/>
-        <v>41.391805600905414</v>
+        <v>42.570100149704039</v>
       </c>
       <c r="D58" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
@@ -33118,17 +33118,17 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43944</v>
+        <v>43946</v>
       </c>
       <c r="B59" s="10">
-        <v>682</v>
+        <v>812</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="0"/>
-        <v>40.036629047423816</v>
+        <v>42.53100017252865</v>
       </c>
       <c r="D59" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -33140,17 +33140,17 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43943</v>
+        <v>43945</v>
       </c>
       <c r="B60" s="10">
-        <v>545</v>
+        <v>751</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="0"/>
-        <v>38.072605056870771</v>
+        <v>41.201600948565449</v>
       </c>
       <c r="D60" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -33162,17 +33162,17 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43942</v>
+        <v>43944</v>
       </c>
       <c r="B61" s="10">
-        <v>392</v>
+        <v>682</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="0"/>
-        <v>37.601239299138037</v>
+        <v>39.85265173601455</v>
       </c>
       <c r="D61" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
@@ -33184,17 +33184,17 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="B62" s="10">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="0"/>
-        <v>38.318108055689898</v>
+        <v>37.897652877245136</v>
       </c>
       <c r="D62" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -33206,17 +33206,17 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43940</v>
+        <v>43942</v>
       </c>
       <c r="B63" s="10">
-        <v>606</v>
+        <v>392</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="0"/>
-        <v>36.049660346601136</v>
+        <v>37.428453151140474</v>
       </c>
       <c r="D63" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
@@ -33228,17 +33228,17 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43939</v>
+        <v>43941</v>
       </c>
       <c r="B64" s="10">
-        <v>676</v>
+        <v>563</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="0"/>
-        <v>34.674843553214004</v>
+        <v>38.142027734591309</v>
       </c>
       <c r="D64" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
@@ -33250,17 +33250,17 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43938</v>
+        <v>43940</v>
       </c>
       <c r="B65" s="10">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="0"/>
-        <v>33.378587719448994</v>
+        <v>35.884004052712633</v>
       </c>
       <c r="D65" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
@@ -33272,17 +33272,17 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43937</v>
+        <v>43939</v>
       </c>
       <c r="B66" s="10">
-        <v>482</v>
+        <v>676</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="0"/>
-        <v>34.448980794300404</v>
+        <v>34.515504851574043</v>
       </c>
       <c r="D66" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -33294,17 +33294,17 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43936</v>
+        <v>43938</v>
       </c>
       <c r="B67" s="10">
-        <v>497</v>
+        <v>613</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="0"/>
-        <v>36.845090062775121</v>
+        <v>33.225205604786225</v>
       </c>
       <c r="D67" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
@@ -33316,17 +33316,17 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43935</v>
+        <v>43937</v>
       </c>
       <c r="B68" s="10">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" si="0"/>
-        <v>36.746888863247463</v>
+        <v>34.290679982815561</v>
       </c>
       <c r="D68" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -33338,17 +33338,17 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="B69" s="10">
-        <v>332</v>
+        <v>497</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" ref="C69:C132" si="1">IF(OR(ISBLANK(B69),ISBLANK(B75)),"",SUM(B69:B75)/D69*100000)</f>
-        <v>35.872898187451362</v>
+        <v>36.675778590514248</v>
       </c>
       <c r="D69" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -33360,17 +33360,17 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43933</v>
+        <v>43935</v>
       </c>
       <c r="B70" s="10">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="1"/>
-        <v>36.413004784853449</v>
+        <v>36.578028647575778</v>
       </c>
       <c r="D70" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -33382,17 +33382,17 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43932</v>
+        <v>43934</v>
       </c>
       <c r="B71" s="10">
-        <v>544</v>
+        <v>332</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="1"/>
-        <v>35.421172669624163</v>
+        <v>35.70805415542339</v>
       </c>
       <c r="D71" s="13">
-        <v>10183175</v>
+        <v>10230185</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
@@ -33404,17 +33404,17 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43931</v>
+        <v>43933</v>
       </c>
       <c r="B72" s="10">
-        <v>722</v>
+        <v>4